--- a/Documents/ThrowSujiShurikenGanttChart.xlsx
+++ b/Documents/ThrowSujiShurikenGanttChart.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE06D83-2114-C247-BDC5-FA70FC94A097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9D51AA-867F-284B-87EE-A99D11E196B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="-19760" windowWidth="35840" windowHeight="20460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクトのスケジュール" sheetId="11" r:id="rId1"/>
     <sheet name="詳細情報" sheetId="12" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">プロジェクトのスケジュール!$4:$6</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="134">
   <si>
     <t>このワークシートでプロジェクトのスケジュール​​を作成します。
 セル B1 には、このプロジェクトのタイトルを入力します。
@@ -371,18 +372,6 @@
     <phoneticPr fontId="37"/>
   </si>
   <si>
-    <t>ダメージエリア1</t>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>ダメージエリア2</t>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>ダメージエリア3</t>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
     <t>リザルト画面</t>
     <rPh sb="4" eb="6">
       <t xml:space="preserve">ガメｎ </t>
@@ -577,111 +566,6 @@
     </rPh>
     <rPh sb="23" eb="25">
       <t xml:space="preserve">ジョウタイ </t>
-    </rPh>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>ダメージエリア1内の手裏剣をスワイプした場合：</t>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>②手裏剣の数字を1減らす</t>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>①斬撃(弱)アニメーション</t>
-    <rPh sb="1" eb="3">
-      <t xml:space="preserve">ザンゲキ </t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t xml:space="preserve">ジャク </t>
-    </rPh>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>③切った手裏剣を少し上に飛ばす</t>
-    <rPh sb="1" eb="2">
-      <t xml:space="preserve">キッタ </t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>シュリｋ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t xml:space="preserve">スコシ </t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t xml:space="preserve">ウエ </t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t xml:space="preserve">トバス </t>
-    </rPh>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>ダメージエリア2内の手裏剣をスワイプした場合：</t>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>ダメージエリア3内の手裏剣をスワイプした場合：</t>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>①斬撃(中)アニメーション</t>
-    <rPh sb="1" eb="3">
-      <t xml:space="preserve">ザンゲキ </t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t xml:space="preserve">チュウ </t>
-    </rPh>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>②手裏剣の数字を2減らす</t>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>③切った手裏剣を上に飛ばす</t>
-    <rPh sb="1" eb="2">
-      <t xml:space="preserve">キッタ </t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>シュリｋ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t xml:space="preserve">ウエ </t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t xml:space="preserve">トバス </t>
-    </rPh>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>①斬撃(強)アニメーション</t>
-    <rPh sb="1" eb="3">
-      <t xml:space="preserve">ザンゲキ </t>
-    </rPh>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>②手裏剣の数字を3減らす</t>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>③切った手裏剣を大きく上に飛ばす</t>
-    <rPh sb="1" eb="2">
-      <t xml:space="preserve">キッタ </t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>シュリｋ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t xml:space="preserve">オオキク </t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t xml:space="preserve">ウエ </t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t xml:space="preserve">トバス </t>
     </rPh>
     <phoneticPr fontId="37"/>
   </si>
@@ -1042,12 +926,135 @@
   </si>
   <si>
     <t>スロー数字手裏剣</t>
-    <rPh sb="3" eb="5">
-      <t xml:space="preserve">スウジ </t>
-    </rPh>
     <rPh sb="5" eb="8">
       <t xml:space="preserve">シュリケｎ </t>
     </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>自分手裏剣</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジブｎ </t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t xml:space="preserve">テキシュリケｎ </t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>スワイプした方向に手裏剣を投げる</t>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">ホウコウ </t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t xml:space="preserve">シュリケｎ </t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">ナゲル </t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>自分手裏剣が敵手裏剣に当たった場合：</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ジブンシュリケン </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">テキ </t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t xml:space="preserve">シュリケｎ </t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">アタッタバアイ </t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>①敵手裏剣の数字を1減らす</t>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">テキ </t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>②切った手裏剣を少し上に飛ばす</t>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">キッタ </t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>シュリｋ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">スコシ </t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t xml:space="preserve">ウエ </t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t xml:space="preserve">トバス </t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>ロングタップした場合：</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>ロングタップ（1秒くらい以上？長押しタップ）</t>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">イジョウ </t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">ナガオシ </t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>①手裏剣をドラッグする。</t>
+    <rPh sb="1" eb="4">
+      <t xml:space="preserve">シュリケｎ </t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>②手裏剣からタッチを離した場合：</t>
+    <rPh sb="1" eb="4">
+      <t xml:space="preserve">シュリケｎ </t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t xml:space="preserve">ハナシタ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">バアイ </t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>1. 手裏剣を離した場所に置く。</t>
+    <rPh sb="3" eb="6">
+      <t xml:space="preserve">シュリケｎ </t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">ハナシタ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">バショ </t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">オク </t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>アクション項目</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">コウモク </t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>MyAreaInfoのSetWidthとSetHeightの引数をゲームオブジェクト名にして、ゲームオブジェクトの幅と高さを使う汎用クラスにして、再利用できるようにする。</t>
     <phoneticPr fontId="37"/>
   </si>
 </sst>
@@ -1935,7 +1942,7 @@
     <xf numFmtId="0" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2251,6 +2258,13 @@
     <xf numFmtId="178" fontId="1" fillId="0" borderId="17" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="180" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2259,6 +2273,15 @@
     </xf>
     <xf numFmtId="180" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
@@ -2272,22 +2295,7 @@
     <xf numFmtId="180" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - アクセント 1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -2345,7 +2353,7 @@
     <cellStyle name="名前" xfId="11" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
     <cellStyle name="良い" xfId="18" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="262">
+  <dxfs count="254">
     <dxf>
       <fill>
         <patternFill>
@@ -2635,24 +2643,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -2953,6 +2943,24 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -3013,24 +3021,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -3073,6 +3063,24 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -3313,6 +3321,24 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -3415,24 +3441,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -3777,13 +3785,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="7"/>
         </patternFill>
       </fill>
@@ -3814,6 +3815,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7"/>
         </patternFill>
       </fill>
@@ -4022,6 +4030,24 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -4034,42 +4060,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -4100,6 +4090,24 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -4202,6 +4210,24 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -4214,42 +4240,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -4278,66 +4268,6 @@
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -4963,15 +4893,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDo_リスト" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="261"/>
-      <tableStyleElement type="headerRow" dxfId="260"/>
-      <tableStyleElement type="totalRow" dxfId="259"/>
-      <tableStyleElement type="firstColumn" dxfId="258"/>
-      <tableStyleElement type="lastColumn" dxfId="257"/>
-      <tableStyleElement type="firstRowStripe" dxfId="256"/>
-      <tableStyleElement type="secondRowStripe" dxfId="255"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="254"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="253"/>
+      <tableStyleElement type="wholeTable" dxfId="253"/>
+      <tableStyleElement type="headerRow" dxfId="252"/>
+      <tableStyleElement type="totalRow" dxfId="251"/>
+      <tableStyleElement type="firstColumn" dxfId="250"/>
+      <tableStyleElement type="lastColumn" dxfId="249"/>
+      <tableStyleElement type="firstRowStripe" dxfId="248"/>
+      <tableStyleElement type="secondRowStripe" dxfId="247"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="246"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="245"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -5071,13 +5001,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5213,14 +5143,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>292100</xdr:rowOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5236,7 +5166,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9372600" y="35864800"/>
-          <a:ext cx="3200400" cy="1193800"/>
+          <a:ext cx="3200400" cy="3238500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5324,6 +5254,45 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>8/7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>週間進捗率：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2%</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -5333,16 +5302,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5357,8 +5326,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9994900" y="6934200"/>
-          <a:ext cx="2247900" cy="2286000"/>
+          <a:off x="9537700" y="7391400"/>
+          <a:ext cx="2247900" cy="1219200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5387,7 +5356,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
-            <a:t>ゲームの核となる部分、実装が難しい（不確実性が高いところ）順に並べ替えて実装する。</a:t>
+            <a:t>スワイプして手裏剣を投げる処理の作り込みは時間が余ったら。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5719,12 +5688,12 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL106"/>
+  <dimension ref="A1:BL101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomLeft" activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5716,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="13"/>
@@ -5768,131 +5737,131 @@
         <v>2</v>
       </c>
       <c r="B3" s="92"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="114">
+      <c r="C3" s="111"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="120">
         <v>44356</v>
       </c>
-      <c r="F3" s="114"/>
-      <c r="I3" s="121" t="s">
+      <c r="F3" s="120"/>
+      <c r="I3" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="122" t="s">
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" s="123"/>
-      <c r="R3" s="123"/>
-      <c r="S3" s="123"/>
-      <c r="T3" s="123"/>
-      <c r="U3" s="123"/>
-      <c r="V3" s="123"/>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="119"/>
+      <c r="S3" s="119"/>
+      <c r="T3" s="119"/>
+      <c r="U3" s="119"/>
+      <c r="V3" s="119"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="118"/>
-      <c r="D4" s="119"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="112"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="111">
+      <c r="I4" s="114">
         <f>I5</f>
         <v>44354</v>
       </c>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="113"/>
-      <c r="P4" s="115">
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="115"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="121">
         <f>P5</f>
         <v>44361</v>
       </c>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
-      <c r="U4" s="116"/>
-      <c r="V4" s="117"/>
-      <c r="W4" s="111">
+      <c r="Q4" s="122"/>
+      <c r="R4" s="122"/>
+      <c r="S4" s="122"/>
+      <c r="T4" s="122"/>
+      <c r="U4" s="122"/>
+      <c r="V4" s="123"/>
+      <c r="W4" s="114">
         <f>W5</f>
         <v>44368</v>
       </c>
-      <c r="X4" s="112"/>
-      <c r="Y4" s="112"/>
-      <c r="Z4" s="112"/>
-      <c r="AA4" s="112"/>
-      <c r="AB4" s="112"/>
-      <c r="AC4" s="113"/>
-      <c r="AD4" s="111">
+      <c r="X4" s="115"/>
+      <c r="Y4" s="115"/>
+      <c r="Z4" s="115"/>
+      <c r="AA4" s="115"/>
+      <c r="AB4" s="115"/>
+      <c r="AC4" s="116"/>
+      <c r="AD4" s="114">
         <f>AD5</f>
         <v>44375</v>
       </c>
-      <c r="AE4" s="112"/>
-      <c r="AF4" s="112"/>
-      <c r="AG4" s="112"/>
-      <c r="AH4" s="112"/>
-      <c r="AI4" s="112"/>
-      <c r="AJ4" s="113"/>
-      <c r="AK4" s="111">
+      <c r="AE4" s="115"/>
+      <c r="AF4" s="115"/>
+      <c r="AG4" s="115"/>
+      <c r="AH4" s="115"/>
+      <c r="AI4" s="115"/>
+      <c r="AJ4" s="116"/>
+      <c r="AK4" s="114">
         <f>AK5</f>
         <v>44382</v>
       </c>
-      <c r="AL4" s="112"/>
-      <c r="AM4" s="112"/>
-      <c r="AN4" s="112"/>
-      <c r="AO4" s="112"/>
-      <c r="AP4" s="112"/>
-      <c r="AQ4" s="113"/>
-      <c r="AR4" s="111">
+      <c r="AL4" s="115"/>
+      <c r="AM4" s="115"/>
+      <c r="AN4" s="115"/>
+      <c r="AO4" s="115"/>
+      <c r="AP4" s="115"/>
+      <c r="AQ4" s="116"/>
+      <c r="AR4" s="114">
         <f>AR5</f>
         <v>44389</v>
       </c>
-      <c r="AS4" s="112"/>
-      <c r="AT4" s="112"/>
-      <c r="AU4" s="112"/>
-      <c r="AV4" s="112"/>
-      <c r="AW4" s="112"/>
-      <c r="AX4" s="113"/>
-      <c r="AY4" s="111">
+      <c r="AS4" s="115"/>
+      <c r="AT4" s="115"/>
+      <c r="AU4" s="115"/>
+      <c r="AV4" s="115"/>
+      <c r="AW4" s="115"/>
+      <c r="AX4" s="116"/>
+      <c r="AY4" s="114">
         <f>AY5</f>
         <v>44396</v>
       </c>
-      <c r="AZ4" s="112"/>
-      <c r="BA4" s="112"/>
-      <c r="BB4" s="112"/>
-      <c r="BC4" s="112"/>
-      <c r="BD4" s="112"/>
-      <c r="BE4" s="113"/>
-      <c r="BF4" s="111">
+      <c r="AZ4" s="115"/>
+      <c r="BA4" s="115"/>
+      <c r="BB4" s="115"/>
+      <c r="BC4" s="115"/>
+      <c r="BD4" s="115"/>
+      <c r="BE4" s="116"/>
+      <c r="BF4" s="114">
         <f>BF5</f>
         <v>44403</v>
       </c>
-      <c r="BG4" s="112"/>
-      <c r="BH4" s="112"/>
-      <c r="BI4" s="112"/>
-      <c r="BJ4" s="112"/>
-      <c r="BK4" s="112"/>
-      <c r="BL4" s="113"/>
+      <c r="BG4" s="115"/>
+      <c r="BH4" s="115"/>
+      <c r="BI4" s="115"/>
+      <c r="BJ4" s="115"/>
+      <c r="BK4" s="115"/>
+      <c r="BL4" s="116"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
       <c r="I5" s="36">
         <f>プロジェクト_開始-WEEKDAY(プロジェクト_開始,1)+2+7*(週_表示-1)</f>
         <v>44354</v>
@@ -6444,7 +6413,7 @@
       <c r="F8" s="44"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20" t="str">
-        <f t="shared" ref="H8:H103" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
+        <f t="shared" ref="H8:H98" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
         <v/>
       </c>
       <c r="I8" s="5"/>
@@ -6515,7 +6484,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D9" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="46">
         <v>44241</v>
@@ -6593,10 +6562,10 @@
         <v>37</v>
       </c>
       <c r="C10" s="63">
-        <v>0.28402777777777777</v>
+        <v>0.32569444444444445</v>
       </c>
       <c r="D10" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="46">
         <v>44386</v>
@@ -6748,7 +6717,7 @@
     </row>
     <row r="12" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B12" s="97" t="s">
         <v>43</v>
@@ -6826,7 +6795,7 @@
       </c>
       <c r="C13" s="51"/>
       <c r="D13" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="53">
         <f>E11+1</f>
@@ -6900,7 +6869,7 @@
     </row>
     <row r="14" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B14" s="99" t="s">
         <v>35</v>
@@ -6974,13 +6943,13 @@
     <row r="15" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="101" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C15" s="109">
         <v>0.12986111111111112</v>
       </c>
       <c r="D15" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="62" t="s">
         <v>16</v>
@@ -7053,13 +7022,13 @@
     <row r="16" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="101" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C16" s="109">
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="D16" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="62" t="s">
         <v>16</v>
@@ -7132,9 +7101,11 @@
     <row r="17" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="101" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="109"/>
+        <v>111</v>
+      </c>
+      <c r="C17" s="109">
+        <v>0.375</v>
+      </c>
       <c r="D17" s="61">
         <v>0</v>
       </c>
@@ -7209,11 +7180,11 @@
     <row r="18" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="101" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C18" s="109"/>
       <c r="D18" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="62" t="s">
         <v>16</v>
@@ -7285,7 +7256,7 @@
     </row>
     <row r="19" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B19" s="100" t="s">
         <v>51</v>
@@ -7359,7 +7330,7 @@
     <row r="20" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="88" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C20" s="79"/>
       <c r="D20" s="80"/>
@@ -7427,7 +7398,7 @@
     <row r="21" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="101" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C21" s="60"/>
       <c r="D21" s="61">
@@ -7503,7 +7474,7 @@
     </row>
     <row r="22" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B22" s="88" t="s">
         <v>45</v>
@@ -7581,7 +7552,7 @@
       </c>
       <c r="C23" s="60"/>
       <c r="D23" s="61">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E23" s="62" t="s">
         <v>16</v>
@@ -7652,20 +7623,26 @@
       <c r="BL23" s="5"/>
     </row>
     <row r="24" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="88" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="82"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="101" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="109">
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="D24" s="61">
+        <v>0</v>
+      </c>
+      <c r="E24" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="62" t="s">
+        <v>16</v>
+      </c>
       <c r="G24" s="20"/>
-      <c r="H24" s="20" t="str">
+      <c r="H24" s="20" t="e">
         <f t="shared" si="5"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -7725,26 +7702,20 @@
       <c r="BL24" s="5"/>
     </row>
     <row r="25" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="87">
-        <v>44388</v>
-      </c>
-      <c r="B25" s="102" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="60"/>
-      <c r="D25" s="61">
-        <v>0</v>
-      </c>
-      <c r="E25" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="62" t="s">
-        <v>16</v>
-      </c>
+      <c r="A25" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="79"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="82"/>
       <c r="G25" s="20"/>
-      <c r="H25" s="20" t="e">
+      <c r="H25" s="20" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -7804,15 +7775,15 @@
       <c r="BL25" s="5"/>
     </row>
     <row r="26" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>72</v>
+      <c r="A26" s="87">
+        <v>44388</v>
       </c>
       <c r="B26" s="102" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="60"/>
       <c r="D26" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="62" t="s">
         <v>16</v>
@@ -7884,14 +7855,14 @@
     </row>
     <row r="27" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B27" s="102" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="C27" s="60"/>
       <c r="D27" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="62" t="s">
         <v>16</v>
@@ -7962,11 +7933,11 @@
       <c r="BL27" s="5"/>
     </row>
     <row r="28" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="87">
-        <v>44388</v>
+      <c r="A28" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="B28" s="102" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C28" s="60"/>
       <c r="D28" s="61">
@@ -8045,7 +8016,7 @@
         <v>44388</v>
       </c>
       <c r="B29" s="102" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C29" s="60"/>
       <c r="D29" s="61">
@@ -8120,16 +8091,27 @@
       <c r="BL29" s="5"/>
     </row>
     <row r="30" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="88" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="79"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="82"/>
+      <c r="A30" s="87">
+        <v>44388</v>
+      </c>
+      <c r="B30" s="102" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="60"/>
+      <c r="D30" s="61">
+        <v>0</v>
+      </c>
+      <c r="E30" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="62" t="s">
+        <v>16</v>
+      </c>
       <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
+      <c r="H30" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
@@ -8188,16 +8170,21 @@
       <c r="BL30" s="5"/>
     </row>
     <row r="31" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
+      <c r="A31" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="B31" s="88" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="C31" s="79"/>
       <c r="D31" s="80"/>
       <c r="E31" s="81"/>
       <c r="F31" s="82"/>
       <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
+      <c r="H31" s="20" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
@@ -8260,11 +8247,11 @@
         <v>44388</v>
       </c>
       <c r="B32" s="102" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="C32" s="60"/>
       <c r="D32" s="61">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E32" s="62" t="s">
         <v>16</v>
@@ -8335,28 +8322,20 @@
       <c r="BL32" s="5"/>
     </row>
     <row r="33" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="87">
-        <v>44388</v>
-      </c>
-      <c r="B33" s="102" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" s="109">
-        <v>0.39374999999999999</v>
-      </c>
-      <c r="D33" s="61">
-        <v>0</v>
-      </c>
-      <c r="E33" s="62">
-        <v>44394</v>
-      </c>
-      <c r="F33" s="62">
-        <v>44398</v>
-      </c>
+      <c r="A33" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="88" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="79"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="82"/>
       <c r="G33" s="20"/>
-      <c r="H33" s="20">
+      <c r="H33" s="20" t="str">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
@@ -8420,11 +8399,9 @@
         <v>44388</v>
       </c>
       <c r="B34" s="102" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="109">
-        <v>5.4166666666666669E-2</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C34" s="60"/>
       <c r="D34" s="61">
         <v>0</v>
       </c>
@@ -8497,16 +8474,27 @@
       <c r="BL34" s="5"/>
     </row>
     <row r="35" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="87"/>
-      <c r="B35" s="88" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="83"/>
-      <c r="D35" s="84"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
+      <c r="A35" s="87">
+        <v>44388</v>
+      </c>
+      <c r="B35" s="102" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="60"/>
+      <c r="D35" s="61">
+        <v>0</v>
+      </c>
+      <c r="E35" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="62" t="s">
+        <v>16</v>
+      </c>
       <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
+      <c r="H35" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
@@ -8565,16 +8553,27 @@
       <c r="BL35" s="5"/>
     </row>
     <row r="36" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="88" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="79"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="82"/>
+      <c r="A36" s="87">
+        <v>44388</v>
+      </c>
+      <c r="B36" s="102" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="60"/>
+      <c r="D36" s="61">
+        <v>0</v>
+      </c>
+      <c r="E36" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="62" t="s">
+        <v>16</v>
+      </c>
       <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
+      <c r="H36" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
@@ -8633,26 +8632,20 @@
       <c r="BL36" s="5"/>
     </row>
     <row r="37" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="87">
-        <v>44388</v>
-      </c>
-      <c r="B37" s="102" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" s="60"/>
-      <c r="D37" s="61">
-        <v>0</v>
-      </c>
-      <c r="E37" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="62" t="s">
-        <v>16</v>
-      </c>
+      <c r="A37" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="88" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="79"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="82"/>
       <c r="G37" s="20"/>
-      <c r="H37" s="20" t="e">
+      <c r="H37" s="20" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -8716,22 +8709,24 @@
         <v>44388</v>
       </c>
       <c r="B38" s="102" t="s">
-        <v>91</v>
-      </c>
-      <c r="C38" s="60"/>
+        <v>125</v>
+      </c>
+      <c r="C38" s="109">
+        <v>0.39374999999999999</v>
+      </c>
       <c r="D38" s="61">
-        <v>0</v>
-      </c>
-      <c r="E38" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="62" t="s">
-        <v>16</v>
+        <v>0.5</v>
+      </c>
+      <c r="E38" s="62">
+        <v>44394</v>
+      </c>
+      <c r="F38" s="62">
+        <v>44398</v>
       </c>
       <c r="G38" s="20"/>
-      <c r="H38" s="20" t="e">
+      <c r="H38" s="20">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>5</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
@@ -8791,13 +8786,17 @@
       <c r="BL38" s="5"/>
     </row>
     <row r="39" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="87"/>
+      <c r="A39" s="87">
+        <v>44388</v>
+      </c>
       <c r="B39" s="102" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="60"/>
+        <v>126</v>
+      </c>
+      <c r="C39" s="109">
+        <v>5.4166666666666669E-2</v>
+      </c>
       <c r="D39" s="61">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="E39" s="62" t="s">
         <v>16</v>
@@ -8806,7 +8805,10 @@
         <v>16</v>
       </c>
       <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
+      <c r="H39" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
@@ -8865,16 +8867,21 @@
       <c r="BL39" s="5"/>
     </row>
     <row r="40" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="87"/>
+      <c r="A40" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="B40" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="83"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
+        <v>49</v>
+      </c>
+      <c r="C40" s="79"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="82"/>
       <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
+      <c r="H40" s="20" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
@@ -8933,16 +8940,27 @@
       <c r="BL40" s="5"/>
     </row>
     <row r="41" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="88" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="79"/>
-      <c r="D41" s="80"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="82"/>
+      <c r="A41" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="102" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="60"/>
+      <c r="D41" s="61">
+        <v>0</v>
+      </c>
+      <c r="E41" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="62" t="s">
+        <v>16</v>
+      </c>
       <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
+      <c r="H41" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
@@ -9001,26 +9019,20 @@
       <c r="BL41" s="5"/>
     </row>
     <row r="42" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="87">
-        <v>44388</v>
-      </c>
-      <c r="B42" s="102" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="60"/>
-      <c r="D42" s="61">
-        <v>0</v>
-      </c>
-      <c r="E42" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="62" t="s">
-        <v>16</v>
-      </c>
+      <c r="A42" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="79"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="82"/>
       <c r="G42" s="20"/>
-      <c r="H42" s="20" t="e">
+      <c r="H42" s="20" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
@@ -9080,11 +9092,9 @@
       <c r="BL42" s="5"/>
     </row>
     <row r="43" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="87">
-        <v>44388</v>
-      </c>
-      <c r="B43" s="102" t="s">
-        <v>94</v>
+      <c r="A43" s="8"/>
+      <c r="B43" s="90" t="s">
+        <v>86</v>
       </c>
       <c r="C43" s="60"/>
       <c r="D43" s="61">
@@ -9159,9 +9169,9 @@
       <c r="BL43" s="5"/>
     </row>
     <row r="44" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="87"/>
-      <c r="B44" s="102" t="s">
-        <v>95</v>
+      <c r="A44" s="8"/>
+      <c r="B44" s="90" t="s">
+        <v>48</v>
       </c>
       <c r="C44" s="60"/>
       <c r="D44" s="61">
@@ -9174,7 +9184,10 @@
         <v>16</v>
       </c>
       <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
+      <c r="H44" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
@@ -9233,20 +9246,24 @@
       <c r="BL44" s="5"/>
     </row>
     <row r="45" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" s="88" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="79"/>
-      <c r="D45" s="80"/>
-      <c r="E45" s="81"/>
-      <c r="F45" s="82"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="90" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="60"/>
+      <c r="D45" s="61">
+        <v>0</v>
+      </c>
+      <c r="E45" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="62" t="s">
+        <v>16</v>
+      </c>
       <c r="G45" s="20"/>
-      <c r="H45" s="20" t="str">
+      <c r="H45" s="20" t="e">
         <f t="shared" si="5"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
@@ -9306,11 +9323,9 @@
       <c r="BL45" s="5"/>
     </row>
     <row r="46" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" s="102" t="s">
-        <v>56</v>
+      <c r="A46" s="8"/>
+      <c r="B46" s="90" t="s">
+        <v>80</v>
       </c>
       <c r="C46" s="60"/>
       <c r="D46" s="61">
@@ -9385,20 +9400,24 @@
       <c r="BL46" s="5"/>
     </row>
     <row r="47" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" s="88" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="79"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="81"/>
-      <c r="F47" s="82"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="90" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="60"/>
+      <c r="D47" s="61">
+        <v>0</v>
+      </c>
+      <c r="E47" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="62" t="s">
+        <v>16</v>
+      </c>
       <c r="G47" s="20"/>
-      <c r="H47" s="20" t="str">
+      <c r="H47" s="20" t="e">
         <f t="shared" si="5"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -9458,24 +9477,20 @@
       <c r="BL47" s="5"/>
     </row>
     <row r="48" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="90" t="s">
-        <v>101</v>
-      </c>
-      <c r="C48" s="60"/>
-      <c r="D48" s="61">
-        <v>0</v>
-      </c>
-      <c r="E48" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="62" t="s">
-        <v>16</v>
-      </c>
+      <c r="A48" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="79"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="81"/>
+      <c r="F48" s="82"/>
       <c r="G48" s="20"/>
-      <c r="H48" s="20" t="e">
+      <c r="H48" s="20" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
@@ -9535,9 +9550,11 @@
       <c r="BL48" s="5"/>
     </row>
     <row r="49" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="90" t="s">
-        <v>48</v>
+      <c r="A49" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="102" t="s">
+        <v>54</v>
       </c>
       <c r="C49" s="60"/>
       <c r="D49" s="61">
@@ -9612,24 +9629,20 @@
       <c r="BL49" s="5"/>
     </row>
     <row r="50" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="90" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" s="60"/>
-      <c r="D50" s="61">
-        <v>0</v>
-      </c>
-      <c r="E50" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" s="62" t="s">
-        <v>16</v>
-      </c>
+      <c r="A50" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="89" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="79"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="81"/>
+      <c r="F50" s="82"/>
       <c r="G50" s="20"/>
-      <c r="H50" s="20" t="e">
+      <c r="H50" s="20" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
@@ -9690,24 +9703,15 @@
     </row>
     <row r="51" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
-      <c r="B51" s="90" t="s">
-        <v>83</v>
-      </c>
-      <c r="C51" s="60"/>
-      <c r="D51" s="61">
-        <v>0</v>
-      </c>
-      <c r="E51" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51" s="62" t="s">
-        <v>16</v>
-      </c>
+      <c r="B51" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="79"/>
+      <c r="D51" s="80"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="82"/>
       <c r="G51" s="20"/>
-      <c r="H51" s="20" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H51" s="20"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
@@ -9766,9 +9770,11 @@
       <c r="BL51" s="5"/>
     </row>
     <row r="52" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="90" t="s">
-        <v>102</v>
+      <c r="A52" s="87">
+        <v>44388</v>
+      </c>
+      <c r="B52" s="86" t="s">
+        <v>70</v>
       </c>
       <c r="C52" s="60"/>
       <c r="D52" s="61">
@@ -9846,8 +9852,8 @@
       <c r="A53" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="88" t="s">
-        <v>50</v>
+      <c r="B53" s="107" t="s">
+        <v>74</v>
       </c>
       <c r="C53" s="79"/>
       <c r="D53" s="80"/>
@@ -9916,11 +9922,11 @@
       <c r="BL53" s="5"/>
     </row>
     <row r="54" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" s="102" t="s">
-        <v>54</v>
+      <c r="A54" s="87">
+        <v>44388</v>
+      </c>
+      <c r="B54" s="108" t="s">
+        <v>71</v>
       </c>
       <c r="C54" s="60"/>
       <c r="D54" s="61">
@@ -9995,21 +10001,16 @@
       <c r="BL54" s="5"/>
     </row>
     <row r="55" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" s="89" t="s">
-        <v>124</v>
+      <c r="A55" s="8"/>
+      <c r="B55" s="78" t="s">
+        <v>53</v>
       </c>
       <c r="C55" s="79"/>
       <c r="D55" s="80"/>
       <c r="E55" s="81"/>
       <c r="F55" s="82"/>
       <c r="G55" s="20"/>
-      <c r="H55" s="20" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H55" s="20"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
@@ -10068,16 +10069,27 @@
       <c r="BL55" s="5"/>
     </row>
     <row r="56" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="C56" s="79"/>
-      <c r="D56" s="80"/>
-      <c r="E56" s="81"/>
-      <c r="F56" s="82"/>
+      <c r="A56" s="87">
+        <v>44388</v>
+      </c>
+      <c r="B56" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="60"/>
+      <c r="D56" s="61">
+        <v>0</v>
+      </c>
+      <c r="E56" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="62" t="s">
+        <v>16</v>
+      </c>
       <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
+      <c r="H56" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
@@ -10136,27 +10148,16 @@
       <c r="BL56" s="5"/>
     </row>
     <row r="57" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="87">
-        <v>44388</v>
-      </c>
-      <c r="B57" s="86" t="s">
-        <v>73</v>
-      </c>
-      <c r="C57" s="60"/>
-      <c r="D57" s="61">
-        <v>0</v>
-      </c>
-      <c r="E57" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="F57" s="62" t="s">
-        <v>16</v>
-      </c>
+      <c r="A57" s="87"/>
+      <c r="B57" s="89" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="83"/>
+      <c r="D57" s="84"/>
+      <c r="E57" s="85"/>
+      <c r="F57" s="85"/>
       <c r="G57" s="20"/>
-      <c r="H57" s="20" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H57" s="20"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
@@ -10215,21 +10216,22 @@
       <c r="BL57" s="5"/>
     </row>
     <row r="58" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58" s="107" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" s="79"/>
-      <c r="D58" s="80"/>
-      <c r="E58" s="81"/>
-      <c r="F58" s="82"/>
+      <c r="A58" s="87"/>
+      <c r="B58" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="60"/>
+      <c r="D58" s="61">
+        <v>0</v>
+      </c>
+      <c r="E58" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="62" t="s">
+        <v>16</v>
+      </c>
       <c r="G58" s="20"/>
-      <c r="H58" s="20" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H58" s="20"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
@@ -10288,11 +10290,9 @@
       <c r="BL58" s="5"/>
     </row>
     <row r="59" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="87">
-        <v>44388</v>
-      </c>
-      <c r="B59" s="108" t="s">
-        <v>74</v>
+      <c r="A59" s="87"/>
+      <c r="B59" s="86" t="s">
+        <v>61</v>
       </c>
       <c r="C59" s="60"/>
       <c r="D59" s="61">
@@ -10305,10 +10305,7 @@
         <v>16</v>
       </c>
       <c r="G59" s="20"/>
-      <c r="H59" s="20" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H59" s="20"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
@@ -10367,14 +10364,14 @@
       <c r="BL59" s="5"/>
     </row>
     <row r="60" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
-      <c r="B60" s="78" t="s">
-        <v>53</v>
-      </c>
-      <c r="C60" s="79"/>
-      <c r="D60" s="80"/>
-      <c r="E60" s="81"/>
-      <c r="F60" s="82"/>
+      <c r="A60" s="87"/>
+      <c r="B60" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="83"/>
+      <c r="D60" s="84"/>
+      <c r="E60" s="85"/>
+      <c r="F60" s="85"/>
       <c r="G60" s="20"/>
       <c r="H60" s="20"/>
       <c r="I60" s="5"/>
@@ -10435,11 +10432,11 @@
       <c r="BL60" s="5"/>
     </row>
     <row r="61" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="87">
-        <v>44388</v>
+      <c r="A61" s="87" t="s">
+        <v>62</v>
       </c>
       <c r="B61" s="86" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C61" s="60"/>
       <c r="D61" s="61">
@@ -10452,10 +10449,7 @@
         <v>16</v>
       </c>
       <c r="G61" s="20"/>
-      <c r="H61" s="20" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H61" s="20"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
@@ -10514,14 +10508,22 @@
       <c r="BL61" s="5"/>
     </row>
     <row r="62" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="87"/>
-      <c r="B62" s="89" t="s">
+      <c r="A62" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="83"/>
-      <c r="D62" s="84"/>
-      <c r="E62" s="85"/>
-      <c r="F62" s="85"/>
+      <c r="B62" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="60"/>
+      <c r="D62" s="61">
+        <v>0</v>
+      </c>
+      <c r="E62" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="62" t="s">
+        <v>16</v>
+      </c>
       <c r="G62" s="20"/>
       <c r="H62" s="20"/>
       <c r="I62" s="5"/>
@@ -10584,7 +10586,7 @@
     <row r="63" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="87"/>
       <c r="B63" s="86" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="C63" s="60"/>
       <c r="D63" s="61">
@@ -10656,7 +10658,9 @@
       <c r="BL63" s="5"/>
     </row>
     <row r="64" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="87"/>
+      <c r="A64" s="87" t="s">
+        <v>62</v>
+      </c>
       <c r="B64" s="86" t="s">
         <v>64</v>
       </c>
@@ -10730,14 +10734,22 @@
       <c r="BL64" s="5"/>
     </row>
     <row r="65" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="87"/>
+      <c r="A65" s="87" t="s">
+        <v>62</v>
+      </c>
       <c r="B65" s="86" t="s">
-        <v>76</v>
-      </c>
-      <c r="C65" s="83"/>
-      <c r="D65" s="84"/>
-      <c r="E65" s="85"/>
-      <c r="F65" s="85"/>
+        <v>90</v>
+      </c>
+      <c r="C65" s="60"/>
+      <c r="D65" s="61">
+        <v>0</v>
+      </c>
+      <c r="E65" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" s="62" t="s">
+        <v>16</v>
+      </c>
       <c r="G65" s="20"/>
       <c r="H65" s="20"/>
       <c r="I65" s="5"/>
@@ -10799,10 +10811,10 @@
     </row>
     <row r="66" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="87" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66" s="86" t="s">
         <v>65</v>
-      </c>
-      <c r="B66" s="86" t="s">
-        <v>66</v>
       </c>
       <c r="C66" s="60"/>
       <c r="D66" s="61">
@@ -10875,10 +10887,10 @@
     </row>
     <row r="67" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="87" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B67" s="86" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C67" s="60"/>
       <c r="D67" s="61">
@@ -10950,9 +10962,11 @@
       <c r="BL67" s="5"/>
     </row>
     <row r="68" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="87"/>
+      <c r="A68" s="87" t="s">
+        <v>62</v>
+      </c>
       <c r="B68" s="86" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="C68" s="60"/>
       <c r="D68" s="61">
@@ -11025,10 +11039,10 @@
     </row>
     <row r="69" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="87" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B69" s="86" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C69" s="60"/>
       <c r="D69" s="61">
@@ -11101,10 +11115,10 @@
     </row>
     <row r="70" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="87" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B70" s="86" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C70" s="60"/>
       <c r="D70" s="61">
@@ -11177,10 +11191,10 @@
     </row>
     <row r="71" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="87" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B71" s="86" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="C71" s="60"/>
       <c r="D71" s="61">
@@ -11253,10 +11267,10 @@
     </row>
     <row r="72" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="87" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B72" s="86" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C72" s="60"/>
       <c r="D72" s="61">
@@ -11329,10 +11343,10 @@
     </row>
     <row r="73" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="87" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B73" s="86" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="C73" s="60"/>
       <c r="D73" s="61">
@@ -11405,10 +11419,10 @@
     </row>
     <row r="74" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="87" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B74" s="86" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C74" s="60"/>
       <c r="D74" s="61">
@@ -11481,10 +11495,10 @@
     </row>
     <row r="75" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="87" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B75" s="86" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C75" s="60"/>
       <c r="D75" s="61">
@@ -11557,10 +11571,10 @@
     </row>
     <row r="76" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="87" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B76" s="86" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="C76" s="60"/>
       <c r="D76" s="61">
@@ -11633,21 +11647,15 @@
     </row>
     <row r="77" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="87" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B77" s="86" t="s">
-        <v>112</v>
-      </c>
-      <c r="C77" s="60"/>
-      <c r="D77" s="61">
-        <v>0</v>
-      </c>
-      <c r="E77" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="F77" s="62" t="s">
-        <v>16</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C77" s="83"/>
+      <c r="D77" s="84"/>
+      <c r="E77" s="85"/>
+      <c r="F77" s="85"/>
       <c r="G77" s="20"/>
       <c r="H77" s="20"/>
       <c r="I77" s="5"/>
@@ -11709,10 +11717,10 @@
     </row>
     <row r="78" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="87" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B78" s="86" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="C78" s="60"/>
       <c r="D78" s="61">
@@ -11785,10 +11793,10 @@
     </row>
     <row r="79" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="87" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B79" s="86" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="C79" s="60"/>
       <c r="D79" s="61">
@@ -11861,21 +11869,15 @@
     </row>
     <row r="80" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="87" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B80" s="86" t="s">
-        <v>112</v>
-      </c>
-      <c r="C80" s="60"/>
-      <c r="D80" s="61">
-        <v>0</v>
-      </c>
-      <c r="E80" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="F80" s="62" t="s">
-        <v>16</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C80" s="83"/>
+      <c r="D80" s="84"/>
+      <c r="E80" s="85"/>
+      <c r="F80" s="85"/>
       <c r="G80" s="20"/>
       <c r="H80" s="20"/>
       <c r="I80" s="5"/>
@@ -11937,10 +11939,10 @@
     </row>
     <row r="81" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="87" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B81" s="86" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C81" s="60"/>
       <c r="D81" s="61">
@@ -12012,18 +12014,21 @@
       <c r="BL81" s="5"/>
     </row>
     <row r="82" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="87" t="s">
-        <v>65</v>
-      </c>
-      <c r="B82" s="86" t="s">
-        <v>52</v>
-      </c>
-      <c r="C82" s="83"/>
-      <c r="D82" s="84"/>
-      <c r="E82" s="85"/>
-      <c r="F82" s="85"/>
+      <c r="A82" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="C82" s="67"/>
+      <c r="D82" s="68"/>
+      <c r="E82" s="69"/>
+      <c r="F82" s="70"/>
       <c r="G82" s="20"/>
-      <c r="H82" s="20"/>
+      <c r="H82" s="20" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
@@ -12081,381 +12086,395 @@
       <c r="BK82" s="5"/>
       <c r="BL82" s="5"/>
     </row>
-    <row r="83" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="87" t="s">
-        <v>65</v>
-      </c>
-      <c r="B83" s="86" t="s">
-        <v>78</v>
-      </c>
-      <c r="C83" s="60"/>
-      <c r="D83" s="61">
+    <row r="83" spans="1:64" s="76" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="77"/>
+      <c r="B83" s="104" t="s">
+        <v>102</v>
+      </c>
+      <c r="C83" s="71"/>
+      <c r="D83" s="72">
         <v>0</v>
       </c>
-      <c r="E83" s="62" t="s">
+      <c r="E83" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="F83" s="62" t="s">
+      <c r="F83" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="G83" s="20"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
-      <c r="M83" s="5"/>
-      <c r="N83" s="5"/>
-      <c r="O83" s="5"/>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="5"/>
-      <c r="R83" s="5"/>
-      <c r="S83" s="5"/>
-      <c r="T83" s="5"/>
-      <c r="U83" s="5"/>
-      <c r="V83" s="5"/>
-      <c r="W83" s="5"/>
-      <c r="X83" s="5"/>
-      <c r="Y83" s="5"/>
-      <c r="Z83" s="5"/>
-      <c r="AA83" s="5"/>
-      <c r="AB83" s="5"/>
-      <c r="AC83" s="5"/>
-      <c r="AD83" s="5"/>
-      <c r="AE83" s="5"/>
-      <c r="AF83" s="5"/>
-      <c r="AG83" s="5"/>
-      <c r="AH83" s="5"/>
-      <c r="AI83" s="5"/>
-      <c r="AJ83" s="5"/>
-      <c r="AK83" s="5"/>
-      <c r="AL83" s="5"/>
-      <c r="AM83" s="5"/>
-      <c r="AN83" s="5"/>
-      <c r="AO83" s="5"/>
-      <c r="AP83" s="5"/>
-      <c r="AQ83" s="5"/>
-      <c r="AR83" s="5"/>
-      <c r="AS83" s="5"/>
-      <c r="AT83" s="5"/>
-      <c r="AU83" s="5"/>
-      <c r="AV83" s="5"/>
-      <c r="AW83" s="5"/>
-      <c r="AX83" s="5"/>
-      <c r="AY83" s="5"/>
-      <c r="AZ83" s="5"/>
-      <c r="BA83" s="5"/>
-      <c r="BB83" s="5"/>
-      <c r="BC83" s="5"/>
-      <c r="BD83" s="5"/>
-      <c r="BE83" s="5"/>
-      <c r="BF83" s="5"/>
-      <c r="BG83" s="5"/>
-      <c r="BH83" s="5"/>
-      <c r="BI83" s="5"/>
-      <c r="BJ83" s="5"/>
-      <c r="BK83" s="5"/>
-      <c r="BL83" s="5"/>
+      <c r="G83" s="74"/>
+      <c r="H83" s="74" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I83" s="75"/>
+      <c r="J83" s="75"/>
+      <c r="K83" s="75"/>
+      <c r="L83" s="75"/>
+      <c r="M83" s="75"/>
+      <c r="N83" s="75"/>
+      <c r="O83" s="75"/>
+      <c r="P83" s="75"/>
+      <c r="Q83" s="75"/>
+      <c r="R83" s="75"/>
+      <c r="S83" s="75"/>
+      <c r="T83" s="75"/>
+      <c r="U83" s="75"/>
+      <c r="V83" s="75"/>
+      <c r="W83" s="75"/>
+      <c r="X83" s="75"/>
+      <c r="Y83" s="75"/>
+      <c r="Z83" s="75"/>
+      <c r="AA83" s="75"/>
+      <c r="AB83" s="75"/>
+      <c r="AC83" s="75"/>
+      <c r="AD83" s="75"/>
+      <c r="AE83" s="75"/>
+      <c r="AF83" s="75"/>
+      <c r="AG83" s="75"/>
+      <c r="AH83" s="75"/>
+      <c r="AI83" s="75"/>
+      <c r="AJ83" s="75"/>
+      <c r="AK83" s="75"/>
+      <c r="AL83" s="75"/>
+      <c r="AM83" s="75"/>
+      <c r="AN83" s="75"/>
+      <c r="AO83" s="75"/>
+      <c r="AP83" s="75"/>
+      <c r="AQ83" s="75"/>
+      <c r="AR83" s="75"/>
+      <c r="AS83" s="75"/>
+      <c r="AT83" s="75"/>
+      <c r="AU83" s="75"/>
+      <c r="AV83" s="75"/>
+      <c r="AW83" s="75"/>
+      <c r="AX83" s="75"/>
+      <c r="AY83" s="75"/>
+      <c r="AZ83" s="75"/>
+      <c r="BA83" s="75"/>
+      <c r="BB83" s="75"/>
+      <c r="BC83" s="75"/>
+      <c r="BD83" s="75"/>
+      <c r="BE83" s="75"/>
+      <c r="BF83" s="75"/>
+      <c r="BG83" s="75"/>
+      <c r="BH83" s="75"/>
+      <c r="BI83" s="75"/>
+      <c r="BJ83" s="75"/>
+      <c r="BK83" s="75"/>
+      <c r="BL83" s="75"/>
     </row>
-    <row r="84" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="87" t="s">
-        <v>65</v>
-      </c>
-      <c r="B84" s="86" t="s">
-        <v>79</v>
-      </c>
-      <c r="C84" s="60"/>
-      <c r="D84" s="61">
+    <row r="84" spans="1:64" s="76" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="77"/>
+      <c r="B84" s="104" t="s">
+        <v>100</v>
+      </c>
+      <c r="C84" s="71"/>
+      <c r="D84" s="72">
         <v>0</v>
       </c>
-      <c r="E84" s="62" t="s">
+      <c r="E84" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="F84" s="62" t="s">
+      <c r="F84" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
-      <c r="K84" s="5"/>
-      <c r="L84" s="5"/>
-      <c r="M84" s="5"/>
-      <c r="N84" s="5"/>
-      <c r="O84" s="5"/>
-      <c r="P84" s="5"/>
-      <c r="Q84" s="5"/>
-      <c r="R84" s="5"/>
-      <c r="S84" s="5"/>
-      <c r="T84" s="5"/>
-      <c r="U84" s="5"/>
-      <c r="V84" s="5"/>
-      <c r="W84" s="5"/>
-      <c r="X84" s="5"/>
-      <c r="Y84" s="5"/>
-      <c r="Z84" s="5"/>
-      <c r="AA84" s="5"/>
-      <c r="AB84" s="5"/>
-      <c r="AC84" s="5"/>
-      <c r="AD84" s="5"/>
-      <c r="AE84" s="5"/>
-      <c r="AF84" s="5"/>
-      <c r="AG84" s="5"/>
-      <c r="AH84" s="5"/>
-      <c r="AI84" s="5"/>
-      <c r="AJ84" s="5"/>
-      <c r="AK84" s="5"/>
-      <c r="AL84" s="5"/>
-      <c r="AM84" s="5"/>
-      <c r="AN84" s="5"/>
-      <c r="AO84" s="5"/>
-      <c r="AP84" s="5"/>
-      <c r="AQ84" s="5"/>
-      <c r="AR84" s="5"/>
-      <c r="AS84" s="5"/>
-      <c r="AT84" s="5"/>
-      <c r="AU84" s="5"/>
-      <c r="AV84" s="5"/>
-      <c r="AW84" s="5"/>
-      <c r="AX84" s="5"/>
-      <c r="AY84" s="5"/>
-      <c r="AZ84" s="5"/>
-      <c r="BA84" s="5"/>
-      <c r="BB84" s="5"/>
-      <c r="BC84" s="5"/>
-      <c r="BD84" s="5"/>
-      <c r="BE84" s="5"/>
-      <c r="BF84" s="5"/>
-      <c r="BG84" s="5"/>
-      <c r="BH84" s="5"/>
-      <c r="BI84" s="5"/>
-      <c r="BJ84" s="5"/>
-      <c r="BK84" s="5"/>
-      <c r="BL84" s="5"/>
+      <c r="G84" s="74"/>
+      <c r="H84" s="74" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I84" s="75"/>
+      <c r="J84" s="75"/>
+      <c r="K84" s="75"/>
+      <c r="L84" s="75"/>
+      <c r="M84" s="75"/>
+      <c r="N84" s="75"/>
+      <c r="O84" s="75"/>
+      <c r="P84" s="75"/>
+      <c r="Q84" s="75"/>
+      <c r="R84" s="75"/>
+      <c r="S84" s="75"/>
+      <c r="T84" s="75"/>
+      <c r="U84" s="75"/>
+      <c r="V84" s="75"/>
+      <c r="W84" s="75"/>
+      <c r="X84" s="75"/>
+      <c r="Y84" s="75"/>
+      <c r="Z84" s="75"/>
+      <c r="AA84" s="75"/>
+      <c r="AB84" s="75"/>
+      <c r="AC84" s="75"/>
+      <c r="AD84" s="75"/>
+      <c r="AE84" s="75"/>
+      <c r="AF84" s="75"/>
+      <c r="AG84" s="75"/>
+      <c r="AH84" s="75"/>
+      <c r="AI84" s="75"/>
+      <c r="AJ84" s="75"/>
+      <c r="AK84" s="75"/>
+      <c r="AL84" s="75"/>
+      <c r="AM84" s="75"/>
+      <c r="AN84" s="75"/>
+      <c r="AO84" s="75"/>
+      <c r="AP84" s="75"/>
+      <c r="AQ84" s="75"/>
+      <c r="AR84" s="75"/>
+      <c r="AS84" s="75"/>
+      <c r="AT84" s="75"/>
+      <c r="AU84" s="75"/>
+      <c r="AV84" s="75"/>
+      <c r="AW84" s="75"/>
+      <c r="AX84" s="75"/>
+      <c r="AY84" s="75"/>
+      <c r="AZ84" s="75"/>
+      <c r="BA84" s="75"/>
+      <c r="BB84" s="75"/>
+      <c r="BC84" s="75"/>
+      <c r="BD84" s="75"/>
+      <c r="BE84" s="75"/>
+      <c r="BF84" s="75"/>
+      <c r="BG84" s="75"/>
+      <c r="BH84" s="75"/>
+      <c r="BI84" s="75"/>
+      <c r="BJ84" s="75"/>
+      <c r="BK84" s="75"/>
+      <c r="BL84" s="75"/>
     </row>
-    <row r="85" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="87" t="s">
-        <v>65</v>
-      </c>
-      <c r="B85" s="86" t="s">
-        <v>80</v>
-      </c>
-      <c r="C85" s="83"/>
-      <c r="D85" s="84"/>
-      <c r="E85" s="85"/>
-      <c r="F85" s="85"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="20"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5"/>
-      <c r="K85" s="5"/>
-      <c r="L85" s="5"/>
-      <c r="M85" s="5"/>
-      <c r="N85" s="5"/>
-      <c r="O85" s="5"/>
-      <c r="P85" s="5"/>
-      <c r="Q85" s="5"/>
-      <c r="R85" s="5"/>
-      <c r="S85" s="5"/>
-      <c r="T85" s="5"/>
-      <c r="U85" s="5"/>
-      <c r="V85" s="5"/>
-      <c r="W85" s="5"/>
-      <c r="X85" s="5"/>
-      <c r="Y85" s="5"/>
-      <c r="Z85" s="5"/>
-      <c r="AA85" s="5"/>
-      <c r="AB85" s="5"/>
-      <c r="AC85" s="5"/>
-      <c r="AD85" s="5"/>
-      <c r="AE85" s="5"/>
-      <c r="AF85" s="5"/>
-      <c r="AG85" s="5"/>
-      <c r="AH85" s="5"/>
-      <c r="AI85" s="5"/>
-      <c r="AJ85" s="5"/>
-      <c r="AK85" s="5"/>
-      <c r="AL85" s="5"/>
-      <c r="AM85" s="5"/>
-      <c r="AN85" s="5"/>
-      <c r="AO85" s="5"/>
-      <c r="AP85" s="5"/>
-      <c r="AQ85" s="5"/>
-      <c r="AR85" s="5"/>
-      <c r="AS85" s="5"/>
-      <c r="AT85" s="5"/>
-      <c r="AU85" s="5"/>
-      <c r="AV85" s="5"/>
-      <c r="AW85" s="5"/>
-      <c r="AX85" s="5"/>
-      <c r="AY85" s="5"/>
-      <c r="AZ85" s="5"/>
-      <c r="BA85" s="5"/>
-      <c r="BB85" s="5"/>
-      <c r="BC85" s="5"/>
-      <c r="BD85" s="5"/>
-      <c r="BE85" s="5"/>
-      <c r="BF85" s="5"/>
-      <c r="BG85" s="5"/>
-      <c r="BH85" s="5"/>
-      <c r="BI85" s="5"/>
-      <c r="BJ85" s="5"/>
-      <c r="BK85" s="5"/>
-      <c r="BL85" s="5"/>
+    <row r="85" spans="1:64" s="76" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="77"/>
+      <c r="B85" s="104" t="s">
+        <v>103</v>
+      </c>
+      <c r="C85" s="71"/>
+      <c r="D85" s="72">
+        <v>0</v>
+      </c>
+      <c r="E85" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="F85" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="G85" s="74"/>
+      <c r="H85" s="74" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I85" s="75"/>
+      <c r="J85" s="75"/>
+      <c r="K85" s="75"/>
+      <c r="L85" s="75"/>
+      <c r="M85" s="75"/>
+      <c r="N85" s="75"/>
+      <c r="O85" s="75"/>
+      <c r="P85" s="75"/>
+      <c r="Q85" s="75"/>
+      <c r="R85" s="75"/>
+      <c r="S85" s="75"/>
+      <c r="T85" s="75"/>
+      <c r="U85" s="75"/>
+      <c r="V85" s="75"/>
+      <c r="W85" s="75"/>
+      <c r="X85" s="75"/>
+      <c r="Y85" s="75"/>
+      <c r="Z85" s="75"/>
+      <c r="AA85" s="75"/>
+      <c r="AB85" s="75"/>
+      <c r="AC85" s="75"/>
+      <c r="AD85" s="75"/>
+      <c r="AE85" s="75"/>
+      <c r="AF85" s="75"/>
+      <c r="AG85" s="75"/>
+      <c r="AH85" s="75"/>
+      <c r="AI85" s="75"/>
+      <c r="AJ85" s="75"/>
+      <c r="AK85" s="75"/>
+      <c r="AL85" s="75"/>
+      <c r="AM85" s="75"/>
+      <c r="AN85" s="75"/>
+      <c r="AO85" s="75"/>
+      <c r="AP85" s="75"/>
+      <c r="AQ85" s="75"/>
+      <c r="AR85" s="75"/>
+      <c r="AS85" s="75"/>
+      <c r="AT85" s="75"/>
+      <c r="AU85" s="75"/>
+      <c r="AV85" s="75"/>
+      <c r="AW85" s="75"/>
+      <c r="AX85" s="75"/>
+      <c r="AY85" s="75"/>
+      <c r="AZ85" s="75"/>
+      <c r="BA85" s="75"/>
+      <c r="BB85" s="75"/>
+      <c r="BC85" s="75"/>
+      <c r="BD85" s="75"/>
+      <c r="BE85" s="75"/>
+      <c r="BF85" s="75"/>
+      <c r="BG85" s="75"/>
+      <c r="BH85" s="75"/>
+      <c r="BI85" s="75"/>
+      <c r="BJ85" s="75"/>
+      <c r="BK85" s="75"/>
+      <c r="BL85" s="75"/>
     </row>
-    <row r="86" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="87" t="s">
-        <v>65</v>
-      </c>
-      <c r="B86" s="86" t="s">
-        <v>81</v>
-      </c>
-      <c r="C86" s="60"/>
-      <c r="D86" s="61">
+    <row r="86" spans="1:64" s="76" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="77"/>
+      <c r="B86" s="104" t="s">
+        <v>104</v>
+      </c>
+      <c r="C86" s="71"/>
+      <c r="D86" s="72">
         <v>0</v>
       </c>
-      <c r="E86" s="62" t="s">
+      <c r="E86" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="F86" s="62" t="s">
+      <c r="F86" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="G86" s="20"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
-      <c r="M86" s="5"/>
-      <c r="N86" s="5"/>
-      <c r="O86" s="5"/>
-      <c r="P86" s="5"/>
-      <c r="Q86" s="5"/>
-      <c r="R86" s="5"/>
-      <c r="S86" s="5"/>
-      <c r="T86" s="5"/>
-      <c r="U86" s="5"/>
-      <c r="V86" s="5"/>
-      <c r="W86" s="5"/>
-      <c r="X86" s="5"/>
-      <c r="Y86" s="5"/>
-      <c r="Z86" s="5"/>
-      <c r="AA86" s="5"/>
-      <c r="AB86" s="5"/>
-      <c r="AC86" s="5"/>
-      <c r="AD86" s="5"/>
-      <c r="AE86" s="5"/>
-      <c r="AF86" s="5"/>
-      <c r="AG86" s="5"/>
-      <c r="AH86" s="5"/>
-      <c r="AI86" s="5"/>
-      <c r="AJ86" s="5"/>
-      <c r="AK86" s="5"/>
-      <c r="AL86" s="5"/>
-      <c r="AM86" s="5"/>
-      <c r="AN86" s="5"/>
-      <c r="AO86" s="5"/>
-      <c r="AP86" s="5"/>
-      <c r="AQ86" s="5"/>
-      <c r="AR86" s="5"/>
-      <c r="AS86" s="5"/>
-      <c r="AT86" s="5"/>
-      <c r="AU86" s="5"/>
-      <c r="AV86" s="5"/>
-      <c r="AW86" s="5"/>
-      <c r="AX86" s="5"/>
-      <c r="AY86" s="5"/>
-      <c r="AZ86" s="5"/>
-      <c r="BA86" s="5"/>
-      <c r="BB86" s="5"/>
-      <c r="BC86" s="5"/>
-      <c r="BD86" s="5"/>
-      <c r="BE86" s="5"/>
-      <c r="BF86" s="5"/>
-      <c r="BG86" s="5"/>
-      <c r="BH86" s="5"/>
-      <c r="BI86" s="5"/>
-      <c r="BJ86" s="5"/>
-      <c r="BK86" s="5"/>
-      <c r="BL86" s="5"/>
+      <c r="G86" s="74"/>
+      <c r="H86" s="74" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I86" s="75"/>
+      <c r="J86" s="75"/>
+      <c r="K86" s="75"/>
+      <c r="L86" s="75"/>
+      <c r="M86" s="75"/>
+      <c r="N86" s="75"/>
+      <c r="O86" s="75"/>
+      <c r="P86" s="75"/>
+      <c r="Q86" s="75"/>
+      <c r="R86" s="75"/>
+      <c r="S86" s="75"/>
+      <c r="T86" s="75"/>
+      <c r="U86" s="75"/>
+      <c r="V86" s="75"/>
+      <c r="W86" s="75"/>
+      <c r="X86" s="75"/>
+      <c r="Y86" s="75"/>
+      <c r="Z86" s="75"/>
+      <c r="AA86" s="75"/>
+      <c r="AB86" s="75"/>
+      <c r="AC86" s="75"/>
+      <c r="AD86" s="75"/>
+      <c r="AE86" s="75"/>
+      <c r="AF86" s="75"/>
+      <c r="AG86" s="75"/>
+      <c r="AH86" s="75"/>
+      <c r="AI86" s="75"/>
+      <c r="AJ86" s="75"/>
+      <c r="AK86" s="75"/>
+      <c r="AL86" s="75"/>
+      <c r="AM86" s="75"/>
+      <c r="AN86" s="75"/>
+      <c r="AO86" s="75"/>
+      <c r="AP86" s="75"/>
+      <c r="AQ86" s="75"/>
+      <c r="AR86" s="75"/>
+      <c r="AS86" s="75"/>
+      <c r="AT86" s="75"/>
+      <c r="AU86" s="75"/>
+      <c r="AV86" s="75"/>
+      <c r="AW86" s="75"/>
+      <c r="AX86" s="75"/>
+      <c r="AY86" s="75"/>
+      <c r="AZ86" s="75"/>
+      <c r="BA86" s="75"/>
+      <c r="BB86" s="75"/>
+      <c r="BC86" s="75"/>
+      <c r="BD86" s="75"/>
+      <c r="BE86" s="75"/>
+      <c r="BF86" s="75"/>
+      <c r="BG86" s="75"/>
+      <c r="BH86" s="75"/>
+      <c r="BI86" s="75"/>
+      <c r="BJ86" s="75"/>
+      <c r="BK86" s="75"/>
+      <c r="BL86" s="75"/>
     </row>
-    <row r="87" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B87" s="103" t="s">
-        <v>44</v>
-      </c>
-      <c r="C87" s="67"/>
-      <c r="D87" s="68"/>
-      <c r="E87" s="69"/>
-      <c r="F87" s="70"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="20" t="str">
+    <row r="87" spans="1:64" s="76" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="77"/>
+      <c r="B87" s="104" t="s">
+        <v>98</v>
+      </c>
+      <c r="C87" s="71"/>
+      <c r="D87" s="72">
+        <v>0</v>
+      </c>
+      <c r="E87" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="F87" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="G87" s="74"/>
+      <c r="H87" s="74" t="e">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
-      <c r="L87" s="5"/>
-      <c r="M87" s="5"/>
-      <c r="N87" s="5"/>
-      <c r="O87" s="5"/>
-      <c r="P87" s="5"/>
-      <c r="Q87" s="5"/>
-      <c r="R87" s="5"/>
-      <c r="S87" s="5"/>
-      <c r="T87" s="5"/>
-      <c r="U87" s="5"/>
-      <c r="V87" s="5"/>
-      <c r="W87" s="5"/>
-      <c r="X87" s="5"/>
-      <c r="Y87" s="5"/>
-      <c r="Z87" s="5"/>
-      <c r="AA87" s="5"/>
-      <c r="AB87" s="5"/>
-      <c r="AC87" s="5"/>
-      <c r="AD87" s="5"/>
-      <c r="AE87" s="5"/>
-      <c r="AF87" s="5"/>
-      <c r="AG87" s="5"/>
-      <c r="AH87" s="5"/>
-      <c r="AI87" s="5"/>
-      <c r="AJ87" s="5"/>
-      <c r="AK87" s="5"/>
-      <c r="AL87" s="5"/>
-      <c r="AM87" s="5"/>
-      <c r="AN87" s="5"/>
-      <c r="AO87" s="5"/>
-      <c r="AP87" s="5"/>
-      <c r="AQ87" s="5"/>
-      <c r="AR87" s="5"/>
-      <c r="AS87" s="5"/>
-      <c r="AT87" s="5"/>
-      <c r="AU87" s="5"/>
-      <c r="AV87" s="5"/>
-      <c r="AW87" s="5"/>
-      <c r="AX87" s="5"/>
-      <c r="AY87" s="5"/>
-      <c r="AZ87" s="5"/>
-      <c r="BA87" s="5"/>
-      <c r="BB87" s="5"/>
-      <c r="BC87" s="5"/>
-      <c r="BD87" s="5"/>
-      <c r="BE87" s="5"/>
-      <c r="BF87" s="5"/>
-      <c r="BG87" s="5"/>
-      <c r="BH87" s="5"/>
-      <c r="BI87" s="5"/>
-      <c r="BJ87" s="5"/>
-      <c r="BK87" s="5"/>
-      <c r="BL87" s="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I87" s="75"/>
+      <c r="J87" s="75"/>
+      <c r="K87" s="75"/>
+      <c r="L87" s="75"/>
+      <c r="M87" s="75"/>
+      <c r="N87" s="75"/>
+      <c r="O87" s="75"/>
+      <c r="P87" s="75"/>
+      <c r="Q87" s="75"/>
+      <c r="R87" s="75"/>
+      <c r="S87" s="75"/>
+      <c r="T87" s="75"/>
+      <c r="U87" s="75"/>
+      <c r="V87" s="75"/>
+      <c r="W87" s="75"/>
+      <c r="X87" s="75"/>
+      <c r="Y87" s="75"/>
+      <c r="Z87" s="75"/>
+      <c r="AA87" s="75"/>
+      <c r="AB87" s="75"/>
+      <c r="AC87" s="75"/>
+      <c r="AD87" s="75"/>
+      <c r="AE87" s="75"/>
+      <c r="AF87" s="75"/>
+      <c r="AG87" s="75"/>
+      <c r="AH87" s="75"/>
+      <c r="AI87" s="75"/>
+      <c r="AJ87" s="75"/>
+      <c r="AK87" s="75"/>
+      <c r="AL87" s="75"/>
+      <c r="AM87" s="75"/>
+      <c r="AN87" s="75"/>
+      <c r="AO87" s="75"/>
+      <c r="AP87" s="75"/>
+      <c r="AQ87" s="75"/>
+      <c r="AR87" s="75"/>
+      <c r="AS87" s="75"/>
+      <c r="AT87" s="75"/>
+      <c r="AU87" s="75"/>
+      <c r="AV87" s="75"/>
+      <c r="AW87" s="75"/>
+      <c r="AX87" s="75"/>
+      <c r="AY87" s="75"/>
+      <c r="AZ87" s="75"/>
+      <c r="BA87" s="75"/>
+      <c r="BB87" s="75"/>
+      <c r="BC87" s="75"/>
+      <c r="BD87" s="75"/>
+      <c r="BE87" s="75"/>
+      <c r="BF87" s="75"/>
+      <c r="BG87" s="75"/>
+      <c r="BH87" s="75"/>
+      <c r="BI87" s="75"/>
+      <c r="BJ87" s="75"/>
+      <c r="BK87" s="75"/>
+      <c r="BL87" s="75"/>
     </row>
     <row r="88" spans="1:64" s="76" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="77"/>
       <c r="B88" s="104" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C88" s="71"/>
       <c r="D88" s="72">
@@ -12532,7 +12551,7 @@
     <row r="89" spans="1:64" s="76" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="77"/>
       <c r="B89" s="104" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C89" s="71"/>
       <c r="D89" s="72">
@@ -12609,7 +12628,7 @@
     <row r="90" spans="1:64" s="76" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="77"/>
       <c r="B90" s="104" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C90" s="71"/>
       <c r="D90" s="72">
@@ -12686,23 +12705,14 @@
     <row r="91" spans="1:64" s="76" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="77"/>
       <c r="B91" s="104" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C91" s="71"/>
-      <c r="D91" s="72">
-        <v>0</v>
-      </c>
-      <c r="E91" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F91" s="73" t="s">
-        <v>16</v>
-      </c>
+      <c r="D91" s="72"/>
+      <c r="E91" s="73"/>
+      <c r="F91" s="73"/>
       <c r="G91" s="74"/>
-      <c r="H91" s="74" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H91" s="74"/>
       <c r="I91" s="75"/>
       <c r="J91" s="75"/>
       <c r="K91" s="75"/>
@@ -12763,7 +12773,7 @@
     <row r="92" spans="1:64" s="76" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="77"/>
       <c r="B92" s="104" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C92" s="71"/>
       <c r="D92" s="72">
@@ -12840,7 +12850,7 @@
     <row r="93" spans="1:64" s="76" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="77"/>
       <c r="B93" s="104" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C93" s="71"/>
       <c r="D93" s="72">
@@ -12914,768 +12924,399 @@
       <c r="BK93" s="75"/>
       <c r="BL93" s="75"/>
     </row>
-    <row r="94" spans="1:64" s="76" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="77"/>
-      <c r="B94" s="104" t="s">
+    <row r="94" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" s="105"/>
+      <c r="C94" s="64">
+        <f>SUM(C9:C90)</f>
+        <v>1.3590277777777777</v>
+      </c>
+      <c r="D94" s="66">
+        <f>AVERAGE(D9:D90)</f>
+        <v>0.16147540983606559</v>
+      </c>
+      <c r="E94" s="66">
+        <v>0.02</v>
+      </c>
+      <c r="F94" s="66">
+        <v>0.08</v>
+      </c>
+      <c r="G94" s="20"/>
+      <c r="H94" s="20">
+        <f t="shared" si="5"/>
+        <v>1.06</v>
+      </c>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="75"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5"/>
+      <c r="O94" s="5"/>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="5"/>
+      <c r="R94" s="5"/>
+      <c r="S94" s="5"/>
+      <c r="T94" s="5"/>
+      <c r="U94" s="5"/>
+      <c r="V94" s="5"/>
+      <c r="W94" s="5"/>
+      <c r="X94" s="5"/>
+      <c r="Y94" s="5"/>
+      <c r="Z94" s="5"/>
+      <c r="AA94" s="5"/>
+      <c r="AB94" s="5"/>
+      <c r="AC94" s="5"/>
+      <c r="AD94" s="5"/>
+      <c r="AE94" s="5"/>
+      <c r="AF94" s="5"/>
+      <c r="AG94" s="5"/>
+      <c r="AH94" s="5"/>
+      <c r="AI94" s="5"/>
+      <c r="AJ94" s="5"/>
+      <c r="AK94" s="5"/>
+      <c r="AL94" s="5"/>
+      <c r="AM94" s="5"/>
+      <c r="AN94" s="5"/>
+      <c r="AO94" s="5"/>
+      <c r="AP94" s="5"/>
+      <c r="AQ94" s="5"/>
+      <c r="AR94" s="5"/>
+      <c r="AS94" s="5"/>
+      <c r="AT94" s="5"/>
+      <c r="AU94" s="5"/>
+      <c r="AV94" s="5"/>
+      <c r="AW94" s="5"/>
+      <c r="AX94" s="5"/>
+      <c r="AY94" s="5"/>
+      <c r="AZ94" s="5"/>
+      <c r="BA94" s="5"/>
+      <c r="BB94" s="5"/>
+      <c r="BC94" s="5"/>
+      <c r="BD94" s="5"/>
+      <c r="BE94" s="5"/>
+      <c r="BF94" s="5"/>
+      <c r="BG94" s="5"/>
+      <c r="BH94" s="5"/>
+      <c r="BI94" s="5"/>
+      <c r="BJ94" s="5"/>
+      <c r="BK94" s="5"/>
+      <c r="BL94" s="5"/>
+    </row>
+    <row r="95" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="8"/>
+      <c r="B95" s="105"/>
+      <c r="C95" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="D95" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="E95" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="C94" s="71"/>
-      <c r="D94" s="72">
-        <v>0</v>
-      </c>
-      <c r="E94" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F94" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" s="74"/>
-      <c r="H94" s="74" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I94" s="75"/>
-      <c r="J94" s="75"/>
-      <c r="K94" s="75"/>
-      <c r="L94" s="75"/>
-      <c r="M94" s="75"/>
-      <c r="N94" s="75"/>
-      <c r="O94" s="75"/>
-      <c r="P94" s="75"/>
-      <c r="Q94" s="75"/>
-      <c r="R94" s="75"/>
-      <c r="S94" s="75"/>
-      <c r="T94" s="75"/>
-      <c r="U94" s="75"/>
-      <c r="V94" s="75"/>
-      <c r="W94" s="75"/>
-      <c r="X94" s="75"/>
-      <c r="Y94" s="75"/>
-      <c r="Z94" s="75"/>
-      <c r="AA94" s="75"/>
-      <c r="AB94" s="75"/>
-      <c r="AC94" s="75"/>
-      <c r="AD94" s="75"/>
-      <c r="AE94" s="75"/>
-      <c r="AF94" s="75"/>
-      <c r="AG94" s="75"/>
-      <c r="AH94" s="75"/>
-      <c r="AI94" s="75"/>
-      <c r="AJ94" s="75"/>
-      <c r="AK94" s="75"/>
-      <c r="AL94" s="75"/>
-      <c r="AM94" s="75"/>
-      <c r="AN94" s="75"/>
-      <c r="AO94" s="75"/>
-      <c r="AP94" s="75"/>
-      <c r="AQ94" s="75"/>
-      <c r="AR94" s="75"/>
-      <c r="AS94" s="75"/>
-      <c r="AT94" s="75"/>
-      <c r="AU94" s="75"/>
-      <c r="AV94" s="75"/>
-      <c r="AW94" s="75"/>
-      <c r="AX94" s="75"/>
-      <c r="AY94" s="75"/>
-      <c r="AZ94" s="75"/>
-      <c r="BA94" s="75"/>
-      <c r="BB94" s="75"/>
-      <c r="BC94" s="75"/>
-      <c r="BD94" s="75"/>
-      <c r="BE94" s="75"/>
-      <c r="BF94" s="75"/>
-      <c r="BG94" s="75"/>
-      <c r="BH94" s="75"/>
-      <c r="BI94" s="75"/>
-      <c r="BJ94" s="75"/>
-      <c r="BK94" s="75"/>
-      <c r="BL94" s="75"/>
+      <c r="F95" s="110" t="s">
+        <v>117</v>
+      </c>
+      <c r="G95" s="20"/>
+      <c r="H95" s="20"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="5"/>
+      <c r="Q95" s="5"/>
+      <c r="R95" s="5"/>
+      <c r="S95" s="5"/>
+      <c r="T95" s="5"/>
+      <c r="U95" s="5"/>
+      <c r="V95" s="5"/>
+      <c r="W95" s="5"/>
+      <c r="X95" s="5"/>
+      <c r="Y95" s="5"/>
+      <c r="Z95" s="5"/>
+      <c r="AA95" s="5"/>
+      <c r="AB95" s="5"/>
+      <c r="AC95" s="5"/>
+      <c r="AD95" s="5"/>
+      <c r="AE95" s="5"/>
+      <c r="AF95" s="5"/>
+      <c r="AG95" s="5"/>
+      <c r="AH95" s="5"/>
+      <c r="AI95" s="5"/>
+      <c r="AJ95" s="5"/>
+      <c r="AK95" s="5"/>
+      <c r="AL95" s="5"/>
+      <c r="AM95" s="5"/>
+      <c r="AN95" s="5"/>
+      <c r="AO95" s="5"/>
+      <c r="AP95" s="5"/>
+      <c r="AQ95" s="5"/>
+      <c r="AR95" s="5"/>
+      <c r="AS95" s="5"/>
+      <c r="AT95" s="5"/>
+      <c r="AU95" s="5"/>
+      <c r="AV95" s="5"/>
+      <c r="AW95" s="5"/>
+      <c r="AX95" s="5"/>
+      <c r="AY95" s="5"/>
+      <c r="AZ95" s="5"/>
+      <c r="BA95" s="5"/>
+      <c r="BB95" s="5"/>
+      <c r="BC95" s="5"/>
+      <c r="BD95" s="5"/>
+      <c r="BE95" s="5"/>
+      <c r="BF95" s="5"/>
+      <c r="BG95" s="5"/>
+      <c r="BH95" s="5"/>
+      <c r="BI95" s="5"/>
+      <c r="BJ95" s="5"/>
+      <c r="BK95" s="5"/>
+      <c r="BL95" s="5"/>
     </row>
-    <row r="95" spans="1:64" s="76" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="77"/>
-      <c r="B95" s="104" t="s">
-        <v>120</v>
-      </c>
-      <c r="C95" s="71"/>
-      <c r="D95" s="72">
-        <v>0</v>
-      </c>
-      <c r="E95" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F95" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" s="74"/>
-      <c r="H95" s="74" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I95" s="75"/>
-      <c r="J95" s="75"/>
-      <c r="K95" s="75"/>
-      <c r="L95" s="75"/>
-      <c r="M95" s="75"/>
-      <c r="N95" s="75"/>
-      <c r="O95" s="75"/>
-      <c r="P95" s="75"/>
-      <c r="Q95" s="75"/>
-      <c r="R95" s="75"/>
-      <c r="S95" s="75"/>
-      <c r="T95" s="75"/>
-      <c r="U95" s="75"/>
-      <c r="V95" s="75"/>
-      <c r="W95" s="75"/>
-      <c r="X95" s="75"/>
-      <c r="Y95" s="75"/>
-      <c r="Z95" s="75"/>
-      <c r="AA95" s="75"/>
-      <c r="AB95" s="75"/>
-      <c r="AC95" s="75"/>
-      <c r="AD95" s="75"/>
-      <c r="AE95" s="75"/>
-      <c r="AF95" s="75"/>
-      <c r="AG95" s="75"/>
-      <c r="AH95" s="75"/>
-      <c r="AI95" s="75"/>
-      <c r="AJ95" s="75"/>
-      <c r="AK95" s="75"/>
-      <c r="AL95" s="75"/>
-      <c r="AM95" s="75"/>
-      <c r="AN95" s="75"/>
-      <c r="AO95" s="75"/>
-      <c r="AP95" s="75"/>
-      <c r="AQ95" s="75"/>
-      <c r="AR95" s="75"/>
-      <c r="AS95" s="75"/>
-      <c r="AT95" s="75"/>
-      <c r="AU95" s="75"/>
-      <c r="AV95" s="75"/>
-      <c r="AW95" s="75"/>
-      <c r="AX95" s="75"/>
-      <c r="AY95" s="75"/>
-      <c r="AZ95" s="75"/>
-      <c r="BA95" s="75"/>
-      <c r="BB95" s="75"/>
-      <c r="BC95" s="75"/>
-      <c r="BD95" s="75"/>
-      <c r="BE95" s="75"/>
-      <c r="BF95" s="75"/>
-      <c r="BG95" s="75"/>
-      <c r="BH95" s="75"/>
-      <c r="BI95" s="75"/>
-      <c r="BJ95" s="75"/>
-      <c r="BK95" s="75"/>
-      <c r="BL95" s="75"/>
+    <row r="96" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="8"/>
+      <c r="B96" s="105"/>
+      <c r="C96" s="59"/>
+      <c r="D96" s="66">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E96" s="59"/>
+      <c r="F96" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="5"/>
+      <c r="N96" s="5"/>
+      <c r="O96" s="5"/>
+      <c r="P96" s="5"/>
+      <c r="Q96" s="5"/>
+      <c r="R96" s="5"/>
+      <c r="S96" s="5"/>
+      <c r="T96" s="5"/>
+      <c r="U96" s="5"/>
+      <c r="V96" s="5"/>
+      <c r="W96" s="5"/>
+      <c r="X96" s="5"/>
+      <c r="Y96" s="5"/>
+      <c r="Z96" s="5"/>
+      <c r="AA96" s="5"/>
+      <c r="AB96" s="5"/>
+      <c r="AC96" s="5"/>
+      <c r="AD96" s="5"/>
+      <c r="AE96" s="5"/>
+      <c r="AF96" s="5"/>
+      <c r="AG96" s="5"/>
+      <c r="AH96" s="5"/>
+      <c r="AI96" s="5"/>
+      <c r="AJ96" s="5"/>
+      <c r="AK96" s="5"/>
+      <c r="AL96" s="5"/>
+      <c r="AM96" s="5"/>
+      <c r="AN96" s="5"/>
+      <c r="AO96" s="5"/>
+      <c r="AP96" s="5"/>
+      <c r="AQ96" s="5"/>
+      <c r="AR96" s="5"/>
+      <c r="AS96" s="5"/>
+      <c r="AT96" s="5"/>
+      <c r="AU96" s="5"/>
+      <c r="AV96" s="5"/>
+      <c r="AW96" s="5"/>
+      <c r="AX96" s="5"/>
+      <c r="AY96" s="5"/>
+      <c r="AZ96" s="5"/>
+      <c r="BA96" s="5"/>
+      <c r="BB96" s="5"/>
+      <c r="BC96" s="5"/>
+      <c r="BD96" s="5"/>
+      <c r="BE96" s="5"/>
+      <c r="BF96" s="5"/>
+      <c r="BG96" s="5"/>
+      <c r="BH96" s="5"/>
+      <c r="BI96" s="5"/>
+      <c r="BJ96" s="5"/>
+      <c r="BK96" s="5"/>
+      <c r="BL96" s="5"/>
     </row>
-    <row r="96" spans="1:64" s="76" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="77"/>
-      <c r="B96" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="C96" s="71"/>
-      <c r="D96" s="72"/>
-      <c r="E96" s="73"/>
-      <c r="F96" s="73"/>
-      <c r="G96" s="74"/>
-      <c r="H96" s="74"/>
-      <c r="I96" s="75"/>
-      <c r="J96" s="75"/>
-      <c r="K96" s="75"/>
-      <c r="L96" s="75"/>
-      <c r="M96" s="75"/>
-      <c r="N96" s="75"/>
-      <c r="O96" s="75"/>
-      <c r="P96" s="75"/>
-      <c r="Q96" s="75"/>
-      <c r="R96" s="75"/>
-      <c r="S96" s="75"/>
-      <c r="T96" s="75"/>
-      <c r="U96" s="75"/>
-      <c r="V96" s="75"/>
-      <c r="W96" s="75"/>
-      <c r="X96" s="75"/>
-      <c r="Y96" s="75"/>
-      <c r="Z96" s="75"/>
-      <c r="AA96" s="75"/>
-      <c r="AB96" s="75"/>
-      <c r="AC96" s="75"/>
-      <c r="AD96" s="75"/>
-      <c r="AE96" s="75"/>
-      <c r="AF96" s="75"/>
-      <c r="AG96" s="75"/>
-      <c r="AH96" s="75"/>
-      <c r="AI96" s="75"/>
-      <c r="AJ96" s="75"/>
-      <c r="AK96" s="75"/>
-      <c r="AL96" s="75"/>
-      <c r="AM96" s="75"/>
-      <c r="AN96" s="75"/>
-      <c r="AO96" s="75"/>
-      <c r="AP96" s="75"/>
-      <c r="AQ96" s="75"/>
-      <c r="AR96" s="75"/>
-      <c r="AS96" s="75"/>
-      <c r="AT96" s="75"/>
-      <c r="AU96" s="75"/>
-      <c r="AV96" s="75"/>
-      <c r="AW96" s="75"/>
-      <c r="AX96" s="75"/>
-      <c r="AY96" s="75"/>
-      <c r="AZ96" s="75"/>
-      <c r="BA96" s="75"/>
-      <c r="BB96" s="75"/>
-      <c r="BC96" s="75"/>
-      <c r="BD96" s="75"/>
-      <c r="BE96" s="75"/>
-      <c r="BF96" s="75"/>
-      <c r="BG96" s="75"/>
-      <c r="BH96" s="75"/>
-      <c r="BI96" s="75"/>
-      <c r="BJ96" s="75"/>
-      <c r="BK96" s="75"/>
-      <c r="BL96" s="75"/>
+    <row r="97" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="8"/>
+      <c r="B97" s="105"/>
+      <c r="C97" s="59"/>
+      <c r="D97" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="E97" s="59"/>
+      <c r="F97" s="110" t="s">
+        <v>118</v>
+      </c>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="5"/>
+      <c r="N97" s="5"/>
+      <c r="O97" s="5"/>
+      <c r="P97" s="5"/>
+      <c r="Q97" s="5"/>
+      <c r="R97" s="5"/>
+      <c r="S97" s="5"/>
+      <c r="T97" s="5"/>
+      <c r="U97" s="5"/>
+      <c r="V97" s="5"/>
+      <c r="W97" s="5"/>
+      <c r="X97" s="5"/>
+      <c r="Y97" s="5"/>
+      <c r="Z97" s="5"/>
+      <c r="AA97" s="5"/>
+      <c r="AB97" s="5"/>
+      <c r="AC97" s="5"/>
+      <c r="AD97" s="5"/>
+      <c r="AE97" s="5"/>
+      <c r="AF97" s="5"/>
+      <c r="AG97" s="5"/>
+      <c r="AH97" s="5"/>
+      <c r="AI97" s="5"/>
+      <c r="AJ97" s="5"/>
+      <c r="AK97" s="5"/>
+      <c r="AL97" s="5"/>
+      <c r="AM97" s="5"/>
+      <c r="AN97" s="5"/>
+      <c r="AO97" s="5"/>
+      <c r="AP97" s="5"/>
+      <c r="AQ97" s="5"/>
+      <c r="AR97" s="5"/>
+      <c r="AS97" s="5"/>
+      <c r="AT97" s="5"/>
+      <c r="AU97" s="5"/>
+      <c r="AV97" s="5"/>
+      <c r="AW97" s="5"/>
+      <c r="AX97" s="5"/>
+      <c r="AY97" s="5"/>
+      <c r="AZ97" s="5"/>
+      <c r="BA97" s="5"/>
+      <c r="BB97" s="5"/>
+      <c r="BC97" s="5"/>
+      <c r="BD97" s="5"/>
+      <c r="BE97" s="5"/>
+      <c r="BF97" s="5"/>
+      <c r="BG97" s="5"/>
+      <c r="BH97" s="5"/>
+      <c r="BI97" s="5"/>
+      <c r="BJ97" s="5"/>
+      <c r="BK97" s="5"/>
+      <c r="BL97" s="5"/>
     </row>
-    <row r="97" spans="1:64" s="76" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="77"/>
-      <c r="B97" s="104" t="s">
-        <v>122</v>
-      </c>
-      <c r="C97" s="71"/>
-      <c r="D97" s="72">
-        <v>0</v>
-      </c>
-      <c r="E97" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F97" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" s="74"/>
-      <c r="H97" s="74" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I97" s="75"/>
-      <c r="J97" s="75"/>
-      <c r="K97" s="75"/>
-      <c r="L97" s="75"/>
-      <c r="M97" s="75"/>
-      <c r="N97" s="75"/>
-      <c r="O97" s="75"/>
-      <c r="P97" s="75"/>
-      <c r="Q97" s="75"/>
-      <c r="R97" s="75"/>
-      <c r="S97" s="75"/>
-      <c r="T97" s="75"/>
-      <c r="U97" s="75"/>
-      <c r="V97" s="75"/>
-      <c r="W97" s="75"/>
-      <c r="X97" s="75"/>
-      <c r="Y97" s="75"/>
-      <c r="Z97" s="75"/>
-      <c r="AA97" s="75"/>
-      <c r="AB97" s="75"/>
-      <c r="AC97" s="75"/>
-      <c r="AD97" s="75"/>
-      <c r="AE97" s="75"/>
-      <c r="AF97" s="75"/>
-      <c r="AG97" s="75"/>
-      <c r="AH97" s="75"/>
-      <c r="AI97" s="75"/>
-      <c r="AJ97" s="75"/>
-      <c r="AK97" s="75"/>
-      <c r="AL97" s="75"/>
-      <c r="AM97" s="75"/>
-      <c r="AN97" s="75"/>
-      <c r="AO97" s="75"/>
-      <c r="AP97" s="75"/>
-      <c r="AQ97" s="75"/>
-      <c r="AR97" s="75"/>
-      <c r="AS97" s="75"/>
-      <c r="AT97" s="75"/>
-      <c r="AU97" s="75"/>
-      <c r="AV97" s="75"/>
-      <c r="AW97" s="75"/>
-      <c r="AX97" s="75"/>
-      <c r="AY97" s="75"/>
-      <c r="AZ97" s="75"/>
-      <c r="BA97" s="75"/>
-      <c r="BB97" s="75"/>
-      <c r="BC97" s="75"/>
-      <c r="BD97" s="75"/>
-      <c r="BE97" s="75"/>
-      <c r="BF97" s="75"/>
-      <c r="BG97" s="75"/>
-      <c r="BH97" s="75"/>
-      <c r="BI97" s="75"/>
-      <c r="BJ97" s="75"/>
-      <c r="BK97" s="75"/>
-      <c r="BL97" s="75"/>
-    </row>
-    <row r="98" spans="1:64" s="76" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="77"/>
-      <c r="B98" s="104" t="s">
-        <v>123</v>
-      </c>
-      <c r="C98" s="71"/>
-      <c r="D98" s="72">
-        <v>0</v>
-      </c>
-      <c r="E98" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F98" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" s="74"/>
-      <c r="H98" s="74" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I98" s="75"/>
-      <c r="J98" s="75"/>
-      <c r="K98" s="75"/>
-      <c r="L98" s="75"/>
-      <c r="M98" s="75"/>
-      <c r="N98" s="75"/>
-      <c r="O98" s="75"/>
-      <c r="P98" s="75"/>
-      <c r="Q98" s="75"/>
-      <c r="R98" s="75"/>
-      <c r="S98" s="75"/>
-      <c r="T98" s="75"/>
-      <c r="U98" s="75"/>
-      <c r="V98" s="75"/>
-      <c r="W98" s="75"/>
-      <c r="X98" s="75"/>
-      <c r="Y98" s="75"/>
-      <c r="Z98" s="75"/>
-      <c r="AA98" s="75"/>
-      <c r="AB98" s="75"/>
-      <c r="AC98" s="75"/>
-      <c r="AD98" s="75"/>
-      <c r="AE98" s="75"/>
-      <c r="AF98" s="75"/>
-      <c r="AG98" s="75"/>
-      <c r="AH98" s="75"/>
-      <c r="AI98" s="75"/>
-      <c r="AJ98" s="75"/>
-      <c r="AK98" s="75"/>
-      <c r="AL98" s="75"/>
-      <c r="AM98" s="75"/>
-      <c r="AN98" s="75"/>
-      <c r="AO98" s="75"/>
-      <c r="AP98" s="75"/>
-      <c r="AQ98" s="75"/>
-      <c r="AR98" s="75"/>
-      <c r="AS98" s="75"/>
-      <c r="AT98" s="75"/>
-      <c r="AU98" s="75"/>
-      <c r="AV98" s="75"/>
-      <c r="AW98" s="75"/>
-      <c r="AX98" s="75"/>
-      <c r="AY98" s="75"/>
-      <c r="AZ98" s="75"/>
-      <c r="BA98" s="75"/>
-      <c r="BB98" s="75"/>
-      <c r="BC98" s="75"/>
-      <c r="BD98" s="75"/>
-      <c r="BE98" s="75"/>
-      <c r="BF98" s="75"/>
-      <c r="BG98" s="75"/>
-      <c r="BH98" s="75"/>
-      <c r="BI98" s="75"/>
-      <c r="BJ98" s="75"/>
-      <c r="BK98" s="75"/>
-      <c r="BL98" s="75"/>
-    </row>
-    <row r="99" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B99" s="105"/>
-      <c r="C99" s="64">
-        <f>SUM(C9:C95)</f>
-        <v>0.91736111111111107</v>
-      </c>
-      <c r="D99" s="66">
-        <f>AVERAGE(D9:D95)</f>
-        <v>0</v>
-      </c>
-      <c r="E99" s="66">
-        <v>0.04</v>
-      </c>
-      <c r="F99" s="66">
-        <v>0.08</v>
-      </c>
-      <c r="G99" s="20"/>
-      <c r="H99" s="20">
-        <f t="shared" si="5"/>
-        <v>1.04</v>
-      </c>
-      <c r="I99" s="5"/>
-      <c r="J99" s="5"/>
-      <c r="K99" s="75"/>
-      <c r="L99" s="5"/>
-      <c r="M99" s="5"/>
-      <c r="N99" s="5"/>
-      <c r="O99" s="5"/>
-      <c r="P99" s="5"/>
-      <c r="Q99" s="5"/>
-      <c r="R99" s="5"/>
-      <c r="S99" s="5"/>
-      <c r="T99" s="5"/>
-      <c r="U99" s="5"/>
-      <c r="V99" s="5"/>
-      <c r="W99" s="5"/>
-      <c r="X99" s="5"/>
-      <c r="Y99" s="5"/>
-      <c r="Z99" s="5"/>
-      <c r="AA99" s="5"/>
-      <c r="AB99" s="5"/>
-      <c r="AC99" s="5"/>
-      <c r="AD99" s="5"/>
-      <c r="AE99" s="5"/>
-      <c r="AF99" s="5"/>
-      <c r="AG99" s="5"/>
-      <c r="AH99" s="5"/>
-      <c r="AI99" s="5"/>
-      <c r="AJ99" s="5"/>
-      <c r="AK99" s="5"/>
-      <c r="AL99" s="5"/>
-      <c r="AM99" s="5"/>
-      <c r="AN99" s="5"/>
-      <c r="AO99" s="5"/>
-      <c r="AP99" s="5"/>
-      <c r="AQ99" s="5"/>
-      <c r="AR99" s="5"/>
-      <c r="AS99" s="5"/>
-      <c r="AT99" s="5"/>
-      <c r="AU99" s="5"/>
-      <c r="AV99" s="5"/>
-      <c r="AW99" s="5"/>
-      <c r="AX99" s="5"/>
-      <c r="AY99" s="5"/>
-      <c r="AZ99" s="5"/>
-      <c r="BA99" s="5"/>
-      <c r="BB99" s="5"/>
-      <c r="BC99" s="5"/>
-      <c r="BD99" s="5"/>
-      <c r="BE99" s="5"/>
-      <c r="BF99" s="5"/>
-      <c r="BG99" s="5"/>
-      <c r="BH99" s="5"/>
-      <c r="BI99" s="5"/>
-      <c r="BJ99" s="5"/>
-      <c r="BK99" s="5"/>
-      <c r="BL99" s="5"/>
-    </row>
-    <row r="100" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="8"/>
-      <c r="B100" s="105"/>
-      <c r="C100" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="D100" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="E100" s="66" t="s">
-        <v>131</v>
-      </c>
-      <c r="F100" s="110" t="s">
-        <v>132</v>
-      </c>
-      <c r="G100" s="20"/>
-      <c r="H100" s="20"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
-      <c r="K100" s="5"/>
-      <c r="L100" s="5"/>
-      <c r="M100" s="5"/>
-      <c r="N100" s="5"/>
-      <c r="O100" s="5"/>
-      <c r="P100" s="5"/>
-      <c r="Q100" s="5"/>
-      <c r="R100" s="5"/>
-      <c r="S100" s="5"/>
-      <c r="T100" s="5"/>
-      <c r="U100" s="5"/>
-      <c r="V100" s="5"/>
-      <c r="W100" s="5"/>
-      <c r="X100" s="5"/>
-      <c r="Y100" s="5"/>
-      <c r="Z100" s="5"/>
-      <c r="AA100" s="5"/>
-      <c r="AB100" s="5"/>
-      <c r="AC100" s="5"/>
-      <c r="AD100" s="5"/>
-      <c r="AE100" s="5"/>
-      <c r="AF100" s="5"/>
-      <c r="AG100" s="5"/>
-      <c r="AH100" s="5"/>
-      <c r="AI100" s="5"/>
-      <c r="AJ100" s="5"/>
-      <c r="AK100" s="5"/>
-      <c r="AL100" s="5"/>
-      <c r="AM100" s="5"/>
-      <c r="AN100" s="5"/>
-      <c r="AO100" s="5"/>
-      <c r="AP100" s="5"/>
-      <c r="AQ100" s="5"/>
-      <c r="AR100" s="5"/>
-      <c r="AS100" s="5"/>
-      <c r="AT100" s="5"/>
-      <c r="AU100" s="5"/>
-      <c r="AV100" s="5"/>
-      <c r="AW100" s="5"/>
-      <c r="AX100" s="5"/>
-      <c r="AY100" s="5"/>
-      <c r="AZ100" s="5"/>
-      <c r="BA100" s="5"/>
-      <c r="BB100" s="5"/>
-      <c r="BC100" s="5"/>
-      <c r="BD100" s="5"/>
-      <c r="BE100" s="5"/>
-      <c r="BF100" s="5"/>
-      <c r="BG100" s="5"/>
-      <c r="BH100" s="5"/>
-      <c r="BI100" s="5"/>
-      <c r="BJ100" s="5"/>
-      <c r="BK100" s="5"/>
-      <c r="BL100" s="5"/>
-    </row>
-    <row r="101" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="8"/>
-      <c r="B101" s="105"/>
-      <c r="C101" s="59"/>
-      <c r="D101" s="66">
-        <v>0.09</v>
-      </c>
-      <c r="E101" s="59"/>
-      <c r="F101" s="66" t="s">
-        <v>134</v>
-      </c>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
-      <c r="K101" s="5"/>
-      <c r="L101" s="5"/>
-      <c r="M101" s="5"/>
-      <c r="N101" s="5"/>
-      <c r="O101" s="5"/>
-      <c r="P101" s="5"/>
-      <c r="Q101" s="5"/>
-      <c r="R101" s="5"/>
-      <c r="S101" s="5"/>
-      <c r="T101" s="5"/>
-      <c r="U101" s="5"/>
-      <c r="V101" s="5"/>
-      <c r="W101" s="5"/>
-      <c r="X101" s="5"/>
-      <c r="Y101" s="5"/>
-      <c r="Z101" s="5"/>
-      <c r="AA101" s="5"/>
-      <c r="AB101" s="5"/>
-      <c r="AC101" s="5"/>
-      <c r="AD101" s="5"/>
-      <c r="AE101" s="5"/>
-      <c r="AF101" s="5"/>
-      <c r="AG101" s="5"/>
-      <c r="AH101" s="5"/>
-      <c r="AI101" s="5"/>
-      <c r="AJ101" s="5"/>
-      <c r="AK101" s="5"/>
-      <c r="AL101" s="5"/>
-      <c r="AM101" s="5"/>
-      <c r="AN101" s="5"/>
-      <c r="AO101" s="5"/>
-      <c r="AP101" s="5"/>
-      <c r="AQ101" s="5"/>
-      <c r="AR101" s="5"/>
-      <c r="AS101" s="5"/>
-      <c r="AT101" s="5"/>
-      <c r="AU101" s="5"/>
-      <c r="AV101" s="5"/>
-      <c r="AW101" s="5"/>
-      <c r="AX101" s="5"/>
-      <c r="AY101" s="5"/>
-      <c r="AZ101" s="5"/>
-      <c r="BA101" s="5"/>
-      <c r="BB101" s="5"/>
-      <c r="BC101" s="5"/>
-      <c r="BD101" s="5"/>
-      <c r="BE101" s="5"/>
-      <c r="BF101" s="5"/>
-      <c r="BG101" s="5"/>
-      <c r="BH101" s="5"/>
-      <c r="BI101" s="5"/>
-      <c r="BJ101" s="5"/>
-      <c r="BK101" s="5"/>
-      <c r="BL101" s="5"/>
-    </row>
-    <row r="102" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="8"/>
-      <c r="B102" s="105"/>
-      <c r="C102" s="59"/>
-      <c r="D102" s="66" t="s">
-        <v>130</v>
-      </c>
-      <c r="E102" s="59"/>
-      <c r="F102" s="110" t="s">
-        <v>133</v>
-      </c>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="5"/>
-      <c r="K102" s="5"/>
-      <c r="L102" s="5"/>
-      <c r="M102" s="5"/>
-      <c r="N102" s="5"/>
-      <c r="O102" s="5"/>
-      <c r="P102" s="5"/>
-      <c r="Q102" s="5"/>
-      <c r="R102" s="5"/>
-      <c r="S102" s="5"/>
-      <c r="T102" s="5"/>
-      <c r="U102" s="5"/>
-      <c r="V102" s="5"/>
-      <c r="W102" s="5"/>
-      <c r="X102" s="5"/>
-      <c r="Y102" s="5"/>
-      <c r="Z102" s="5"/>
-      <c r="AA102" s="5"/>
-      <c r="AB102" s="5"/>
-      <c r="AC102" s="5"/>
-      <c r="AD102" s="5"/>
-      <c r="AE102" s="5"/>
-      <c r="AF102" s="5"/>
-      <c r="AG102" s="5"/>
-      <c r="AH102" s="5"/>
-      <c r="AI102" s="5"/>
-      <c r="AJ102" s="5"/>
-      <c r="AK102" s="5"/>
-      <c r="AL102" s="5"/>
-      <c r="AM102" s="5"/>
-      <c r="AN102" s="5"/>
-      <c r="AO102" s="5"/>
-      <c r="AP102" s="5"/>
-      <c r="AQ102" s="5"/>
-      <c r="AR102" s="5"/>
-      <c r="AS102" s="5"/>
-      <c r="AT102" s="5"/>
-      <c r="AU102" s="5"/>
-      <c r="AV102" s="5"/>
-      <c r="AW102" s="5"/>
-      <c r="AX102" s="5"/>
-      <c r="AY102" s="5"/>
-      <c r="AZ102" s="5"/>
-      <c r="BA102" s="5"/>
-      <c r="BB102" s="5"/>
-      <c r="BC102" s="5"/>
-      <c r="BD102" s="5"/>
-      <c r="BE102" s="5"/>
-      <c r="BF102" s="5"/>
-      <c r="BG102" s="5"/>
-      <c r="BH102" s="5"/>
-      <c r="BI102" s="5"/>
-      <c r="BJ102" s="5"/>
-      <c r="BK102" s="5"/>
-      <c r="BL102" s="5"/>
-    </row>
-    <row r="103" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="9" t="s">
+    <row r="98" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B103" s="106" t="s">
+      <c r="B98" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C103" s="40"/>
-      <c r="D103" s="65"/>
-      <c r="E103" s="39"/>
-      <c r="F103" s="21"/>
-      <c r="G103" s="22"/>
-      <c r="H103" s="22" t="str">
+      <c r="C98" s="40"/>
+      <c r="D98" s="65"/>
+      <c r="E98" s="39"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I103" s="7"/>
-      <c r="J103" s="7"/>
-      <c r="K103" s="7"/>
-      <c r="L103" s="7"/>
-      <c r="M103" s="7"/>
-      <c r="N103" s="7"/>
-      <c r="O103" s="7"/>
-      <c r="P103" s="7"/>
-      <c r="Q103" s="7"/>
-      <c r="R103" s="7"/>
-      <c r="S103" s="7"/>
-      <c r="T103" s="7"/>
-      <c r="U103" s="7"/>
-      <c r="V103" s="7"/>
-      <c r="W103" s="7"/>
-      <c r="X103" s="7"/>
-      <c r="Y103" s="7"/>
-      <c r="Z103" s="7"/>
-      <c r="AA103" s="7"/>
-      <c r="AB103" s="7"/>
-      <c r="AC103" s="7"/>
-      <c r="AD103" s="7"/>
-      <c r="AE103" s="7"/>
-      <c r="AF103" s="7"/>
-      <c r="AG103" s="7"/>
-      <c r="AH103" s="7"/>
-      <c r="AI103" s="7"/>
-      <c r="AJ103" s="7"/>
-      <c r="AK103" s="7"/>
-      <c r="AL103" s="7"/>
-      <c r="AM103" s="7"/>
-      <c r="AN103" s="7"/>
-      <c r="AO103" s="7"/>
-      <c r="AP103" s="7"/>
-      <c r="AQ103" s="7"/>
-      <c r="AR103" s="7"/>
-      <c r="AS103" s="7"/>
-      <c r="AT103" s="7"/>
-      <c r="AU103" s="7"/>
-      <c r="AV103" s="7"/>
-      <c r="AW103" s="7"/>
-      <c r="AX103" s="7"/>
-      <c r="AY103" s="7"/>
-      <c r="AZ103" s="7"/>
-      <c r="BA103" s="7"/>
-      <c r="BB103" s="7"/>
-      <c r="BC103" s="7"/>
-      <c r="BD103" s="7"/>
-      <c r="BE103" s="7"/>
-      <c r="BF103" s="7"/>
-      <c r="BG103" s="7"/>
-      <c r="BH103" s="7"/>
-      <c r="BI103" s="7"/>
-      <c r="BJ103" s="7"/>
-      <c r="BK103" s="7"/>
-      <c r="BL103" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="7"/>
+      <c r="M98" s="7"/>
+      <c r="N98" s="7"/>
+      <c r="O98" s="7"/>
+      <c r="P98" s="7"/>
+      <c r="Q98" s="7"/>
+      <c r="R98" s="7"/>
+      <c r="S98" s="7"/>
+      <c r="T98" s="7"/>
+      <c r="U98" s="7"/>
+      <c r="V98" s="7"/>
+      <c r="W98" s="7"/>
+      <c r="X98" s="7"/>
+      <c r="Y98" s="7"/>
+      <c r="Z98" s="7"/>
+      <c r="AA98" s="7"/>
+      <c r="AB98" s="7"/>
+      <c r="AC98" s="7"/>
+      <c r="AD98" s="7"/>
+      <c r="AE98" s="7"/>
+      <c r="AF98" s="7"/>
+      <c r="AG98" s="7"/>
+      <c r="AH98" s="7"/>
+      <c r="AI98" s="7"/>
+      <c r="AJ98" s="7"/>
+      <c r="AK98" s="7"/>
+      <c r="AL98" s="7"/>
+      <c r="AM98" s="7"/>
+      <c r="AN98" s="7"/>
+      <c r="AO98" s="7"/>
+      <c r="AP98" s="7"/>
+      <c r="AQ98" s="7"/>
+      <c r="AR98" s="7"/>
+      <c r="AS98" s="7"/>
+      <c r="AT98" s="7"/>
+      <c r="AU98" s="7"/>
+      <c r="AV98" s="7"/>
+      <c r="AW98" s="7"/>
+      <c r="AX98" s="7"/>
+      <c r="AY98" s="7"/>
+      <c r="AZ98" s="7"/>
+      <c r="BA98" s="7"/>
+      <c r="BB98" s="7"/>
+      <c r="BC98" s="7"/>
+      <c r="BD98" s="7"/>
+      <c r="BE98" s="7"/>
+      <c r="BF98" s="7"/>
+      <c r="BG98" s="7"/>
+      <c r="BH98" s="7"/>
+      <c r="BI98" s="7"/>
+      <c r="BJ98" s="7"/>
+      <c r="BK98" s="7"/>
+      <c r="BL98" s="7"/>
     </row>
-    <row r="104" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104"/>
-      <c r="B104"/>
-      <c r="G104" s="3"/>
+    <row r="99" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99"/>
+      <c r="B99"/>
+      <c r="G99" s="3"/>
     </row>
-    <row r="105" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105"/>
-      <c r="B105"/>
-      <c r="C105" s="16"/>
-      <c r="F105" s="23"/>
+    <row r="100" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100"/>
+      <c r="B100"/>
+      <c r="C100" s="16"/>
+      <c r="F100" s="23"/>
     </row>
-    <row r="106" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106"/>
-      <c r="B106"/>
-      <c r="C106" s="24"/>
+    <row r="101" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101"/>
+      <c r="B101"/>
+      <c r="C101" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="BF4:BL4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="AD4:AJ4"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:G5"/>
@@ -13683,17 +13324,10 @@
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="I3:O3"/>
     <mergeCell ref="P3:V3"/>
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="BF4:BL4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
   </mergeCells>
   <phoneticPr fontId="37"/>
-  <conditionalFormatting sqref="D7:D14 D23 D87:D89 D99 D92:D94 D44:D52">
-    <cfRule type="dataBar" priority="446">
+  <conditionalFormatting sqref="D7:D14 D23 D82:D84 D94 D87:D89 D28:D30 D32:D33 D38:D47">
+    <cfRule type="dataBar" priority="487">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13706,21 +13340,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL14 I23:BL23 I87:BL89 I99:J99 I92:BL94 L99:BL99 I44:BL52">
-    <cfRule type="expression" dxfId="252" priority="465">
+  <conditionalFormatting sqref="I5:BL14 I23:BL23 I82:BL84 I94:J94 I87:BL89 L94:BL94 I28:BL30 I32:BL33 I38:BL47">
+    <cfRule type="expression" dxfId="244" priority="506">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL14 I23:BL23 I87:BL89 I99:J99 I92:BL94 L99:BL99 I44:BL52">
-    <cfRule type="expression" dxfId="251" priority="459">
+  <conditionalFormatting sqref="I7:BL14 I23:BL23 I82:BL84 I94:J94 I87:BL89 L94:BL94 I28:BL30 I32:BL33 I38:BL47">
+    <cfRule type="expression" dxfId="243" priority="500">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="460" stopIfTrue="1">
+    <cfRule type="expression" dxfId="242" priority="501" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="dataBar" priority="417">
+  <conditionalFormatting sqref="D42">
+    <cfRule type="dataBar" priority="458">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13733,21 +13367,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:BL47">
-    <cfRule type="expression" dxfId="249" priority="420">
+  <conditionalFormatting sqref="I42:BL42">
+    <cfRule type="expression" dxfId="241" priority="461">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:BL47">
-    <cfRule type="expression" dxfId="248" priority="418">
+  <conditionalFormatting sqref="I42:BL42">
+    <cfRule type="expression" dxfId="240" priority="459">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="419" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="460" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="dataBar" priority="421">
+    <cfRule type="dataBar" priority="462">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13761,20 +13395,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:BL22">
-    <cfRule type="expression" dxfId="246" priority="424">
+    <cfRule type="expression" dxfId="238" priority="465">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:BL22">
-    <cfRule type="expression" dxfId="245" priority="422">
+    <cfRule type="expression" dxfId="237" priority="463">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="423" stopIfTrue="1">
+    <cfRule type="expression" dxfId="236" priority="464" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="dataBar" priority="413">
+  <conditionalFormatting sqref="D40">
+    <cfRule type="dataBar" priority="454">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13787,21 +13421,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45:BL45">
-    <cfRule type="expression" dxfId="243" priority="416">
+  <conditionalFormatting sqref="I40:BL40">
+    <cfRule type="expression" dxfId="235" priority="457">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45:BL45">
-    <cfRule type="expression" dxfId="242" priority="414">
+  <conditionalFormatting sqref="I40:BL40">
+    <cfRule type="expression" dxfId="234" priority="455">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="415" stopIfTrue="1">
+    <cfRule type="expression" dxfId="233" priority="456" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="dataBar" priority="396">
+  <conditionalFormatting sqref="D49">
+    <cfRule type="dataBar" priority="437">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13814,21 +13448,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I54:BL54">
-    <cfRule type="expression" dxfId="240" priority="399">
+  <conditionalFormatting sqref="I49:BL49">
+    <cfRule type="expression" dxfId="232" priority="440">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I54:BL54">
-    <cfRule type="expression" dxfId="239" priority="397">
+  <conditionalFormatting sqref="I49:BL49">
+    <cfRule type="expression" dxfId="231" priority="438">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="398" stopIfTrue="1">
+    <cfRule type="expression" dxfId="230" priority="439" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="dataBar" priority="309">
+  <conditionalFormatting sqref="D57">
+    <cfRule type="dataBar" priority="350">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13841,16 +13475,16 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63:BL63">
-    <cfRule type="expression" dxfId="237" priority="310">
+  <conditionalFormatting sqref="I58:BL58">
+    <cfRule type="expression" dxfId="229" priority="351">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="311" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="352" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="dataBar" priority="400">
+  <conditionalFormatting sqref="D48">
+    <cfRule type="dataBar" priority="441">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13863,21 +13497,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53:BL53">
-    <cfRule type="expression" dxfId="235" priority="403">
+  <conditionalFormatting sqref="I48:BL48">
+    <cfRule type="expression" dxfId="227" priority="444">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53:BL53">
-    <cfRule type="expression" dxfId="234" priority="401">
+  <conditionalFormatting sqref="I48:BL48">
+    <cfRule type="expression" dxfId="226" priority="442">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="233" priority="402" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="443" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55:D57 D60">
-    <cfRule type="dataBar" priority="388">
+  <conditionalFormatting sqref="D50:D52 D55">
+    <cfRule type="dataBar" priority="429">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13890,8 +13524,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="dataBar" priority="395">
+  <conditionalFormatting sqref="D52">
+    <cfRule type="dataBar" priority="436">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13904,21 +13538,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I57:BL57">
-    <cfRule type="expression" dxfId="232" priority="466">
+  <conditionalFormatting sqref="I52:BL52">
+    <cfRule type="expression" dxfId="224" priority="507">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I57:BL57">
-    <cfRule type="expression" dxfId="231" priority="393">
+  <conditionalFormatting sqref="I52:BL52">
+    <cfRule type="expression" dxfId="223" priority="434">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="394" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="435" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:D20">
-    <cfRule type="dataBar" priority="384">
+    <cfRule type="dataBar" priority="425">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13931,21 +13565,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55:BL57 I60:BL60">
-    <cfRule type="expression" dxfId="229" priority="391">
+  <conditionalFormatting sqref="I50:BL52 I55:BL55">
+    <cfRule type="expression" dxfId="221" priority="432">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55:BL57 I60:BL60">
-    <cfRule type="expression" dxfId="228" priority="389">
+  <conditionalFormatting sqref="I50:BL52 I55:BL55">
+    <cfRule type="expression" dxfId="220" priority="430">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="390" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="431" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="dataBar" priority="376">
+  <conditionalFormatting sqref="D53">
+    <cfRule type="dataBar" priority="417">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13959,20 +13593,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:BL20">
-    <cfRule type="expression" dxfId="226" priority="387">
+    <cfRule type="expression" dxfId="218" priority="428">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:BL20">
-    <cfRule type="expression" dxfId="225" priority="385">
+    <cfRule type="expression" dxfId="217" priority="426">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="386" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="427" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="dataBar" priority="382">
+  <conditionalFormatting sqref="D56">
+    <cfRule type="dataBar" priority="423">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13985,16 +13619,16 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I61:BL61">
-    <cfRule type="expression" dxfId="223" priority="380">
+  <conditionalFormatting sqref="I56:BL56">
+    <cfRule type="expression" dxfId="215" priority="421">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="381" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="422" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="dataBar" priority="364">
+  <conditionalFormatting sqref="D26">
+    <cfRule type="dataBar" priority="405">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14007,21 +13641,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:BL58">
-    <cfRule type="expression" dxfId="221" priority="379">
+  <conditionalFormatting sqref="I53:BL53">
+    <cfRule type="expression" dxfId="213" priority="420">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:BL58">
-    <cfRule type="expression" dxfId="220" priority="377">
+  <conditionalFormatting sqref="I53:BL53">
+    <cfRule type="expression" dxfId="212" priority="418">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="378" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="419" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="dataBar" priority="374">
+  <conditionalFormatting sqref="D54">
+    <cfRule type="dataBar" priority="415">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14034,21 +13668,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I59:BL59">
-    <cfRule type="expression" dxfId="218" priority="467">
+  <conditionalFormatting sqref="I54:BL54">
+    <cfRule type="expression" dxfId="210" priority="508">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I59:BL59">
-    <cfRule type="expression" dxfId="217" priority="372">
+  <conditionalFormatting sqref="I54:BL54">
+    <cfRule type="expression" dxfId="209" priority="413">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="373" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="414" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="dataBar" priority="368">
+  <conditionalFormatting sqref="D25">
+    <cfRule type="dataBar" priority="409">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14061,21 +13695,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24:BL24">
-    <cfRule type="expression" dxfId="215" priority="371">
+  <conditionalFormatting sqref="I25:BL25">
+    <cfRule type="expression" dxfId="207" priority="412">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24:BL24">
-    <cfRule type="expression" dxfId="214" priority="369">
+  <conditionalFormatting sqref="I25:BL25">
+    <cfRule type="expression" dxfId="206" priority="410">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="370" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="411" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="dataBar" priority="360">
+  <conditionalFormatting sqref="D27">
+    <cfRule type="dataBar" priority="401">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14088,80 +13722,39 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25:BL25">
-    <cfRule type="expression" dxfId="212" priority="367">
+  <conditionalFormatting sqref="I26:BL26">
+    <cfRule type="expression" dxfId="204" priority="408">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25:BL25">
-    <cfRule type="expression" dxfId="211" priority="365">
+  <conditionalFormatting sqref="I26:BL26">
+    <cfRule type="expression" dxfId="203" priority="406">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="366" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="407" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26:BL26">
-    <cfRule type="expression" dxfId="209" priority="363">
+  <conditionalFormatting sqref="I27:BL27">
+    <cfRule type="expression" dxfId="201" priority="404">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26:BL26">
-    <cfRule type="expression" dxfId="208" priority="361">
+  <conditionalFormatting sqref="I27:BL27">
+    <cfRule type="expression" dxfId="200" priority="402">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="362" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="403" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="dataBar" priority="327">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3033142A-9472-D349-BADC-540C43F7D4FB}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63:BL63">
-    <cfRule type="expression" dxfId="206" priority="315">
+  <conditionalFormatting sqref="I58:BL58">
+    <cfRule type="expression" dxfId="198" priority="356">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="dataBar" priority="351">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5EF9000B-6040-CE43-94CC-5913F0E8274A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30:BL30">
-    <cfRule type="expression" dxfId="205" priority="354">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30:BL30">
-    <cfRule type="expression" dxfId="204" priority="352">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="203" priority="353" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="dataBar" priority="350">
+  <conditionalFormatting sqref="D38">
+    <cfRule type="dataBar" priority="391">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14174,21 +13767,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33:BL33">
-    <cfRule type="expression" dxfId="202" priority="468">
+  <conditionalFormatting sqref="I38:BL38">
+    <cfRule type="expression" dxfId="197" priority="509">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33:BL33">
-    <cfRule type="expression" dxfId="201" priority="348">
+  <conditionalFormatting sqref="I38:BL38">
+    <cfRule type="expression" dxfId="196" priority="389">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="349" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="390" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="dataBar" priority="346">
+  <conditionalFormatting sqref="D39">
+    <cfRule type="dataBar" priority="387">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14201,21 +13794,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="199" priority="469">
+  <conditionalFormatting sqref="I39:BL39">
+    <cfRule type="expression" dxfId="194" priority="510">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="198" priority="344">
+  <conditionalFormatting sqref="I39:BL39">
+    <cfRule type="expression" dxfId="193" priority="385">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="345" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="386" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D83">
-    <cfRule type="dataBar" priority="262">
+  <conditionalFormatting sqref="D78">
+    <cfRule type="dataBar" priority="303">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14228,57 +13821,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:BL35">
-    <cfRule type="expression" dxfId="196" priority="341">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35:BL35">
-    <cfRule type="expression" dxfId="195" priority="339">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="194" priority="340" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D41">
-    <cfRule type="dataBar" priority="318">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{EDE92402-80A6-2443-AE1B-56A2A02D252F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39:BL39">
-    <cfRule type="expression" dxfId="193" priority="332">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="192" priority="333" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="dataBar" priority="331">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8DA15542-D87C-5F43-B42E-CAB26D97D475}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="dataBar" priority="308">
+  <conditionalFormatting sqref="D58">
+    <cfRule type="dataBar" priority="349">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14291,8 +13835,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="dataBar" priority="304">
+  <conditionalFormatting sqref="D59">
+    <cfRule type="dataBar" priority="345">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14305,47 +13849,34 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40:BL41">
-    <cfRule type="expression" dxfId="191" priority="325">
+  <conditionalFormatting sqref="I59:BL59">
+    <cfRule type="expression" dxfId="191" priority="346">
+      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="190" priority="347" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I59:BL59">
+    <cfRule type="expression" dxfId="189" priority="348">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40:BL41">
-    <cfRule type="expression" dxfId="190" priority="323">
+  <conditionalFormatting sqref="I57:BL57">
+    <cfRule type="expression" dxfId="188" priority="355">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I57:BL57">
+    <cfRule type="expression" dxfId="187" priority="353">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="324" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="354" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I64:BL64">
-    <cfRule type="expression" dxfId="188" priority="305">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="187" priority="306" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I64:BL64">
-    <cfRule type="expression" dxfId="186" priority="307">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I62:BL62">
-    <cfRule type="expression" dxfId="185" priority="314">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I62:BL62">
-    <cfRule type="expression" dxfId="184" priority="312">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="183" priority="313" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
-    <cfRule type="dataBar" priority="300">
+  <conditionalFormatting sqref="D61">
+    <cfRule type="dataBar" priority="341">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14358,8 +13889,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="dataBar" priority="296">
+  <conditionalFormatting sqref="D60">
+    <cfRule type="dataBar" priority="337">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14372,21 +13903,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I66:BL66">
-    <cfRule type="expression" dxfId="182" priority="303">
+  <conditionalFormatting sqref="I61:BL61">
+    <cfRule type="expression" dxfId="185" priority="344">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I66:BL66">
-    <cfRule type="expression" dxfId="181" priority="301">
+  <conditionalFormatting sqref="I61:BL61">
+    <cfRule type="expression" dxfId="184" priority="342">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="302" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="343" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D67:D68">
-    <cfRule type="dataBar" priority="292">
+  <conditionalFormatting sqref="D62:D63">
+    <cfRule type="dataBar" priority="333">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14399,21 +13930,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I65:BL65">
-    <cfRule type="expression" dxfId="179" priority="299">
+  <conditionalFormatting sqref="I60:BL60">
+    <cfRule type="expression" dxfId="182" priority="340">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I65:BL65">
-    <cfRule type="expression" dxfId="178" priority="297">
+  <conditionalFormatting sqref="I60:BL60">
+    <cfRule type="expression" dxfId="181" priority="338">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="298" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="339" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70">
-    <cfRule type="dataBar" priority="288">
+  <conditionalFormatting sqref="D65">
+    <cfRule type="dataBar" priority="329">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14426,21 +13957,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I67:BL68">
-    <cfRule type="expression" dxfId="176" priority="295">
+  <conditionalFormatting sqref="I62:BL63">
+    <cfRule type="expression" dxfId="179" priority="336">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I67:BL68">
-    <cfRule type="expression" dxfId="175" priority="293">
+  <conditionalFormatting sqref="I62:BL63">
+    <cfRule type="expression" dxfId="178" priority="334">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="294" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="335" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
-    <cfRule type="dataBar" priority="284">
+  <conditionalFormatting sqref="D63">
+    <cfRule type="dataBar" priority="325">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14453,29 +13984,29 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I70:BL70">
-    <cfRule type="expression" dxfId="173" priority="291">
+  <conditionalFormatting sqref="I65:BL65">
+    <cfRule type="expression" dxfId="176" priority="332">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I70:BL70">
-    <cfRule type="expression" dxfId="172" priority="289">
+  <conditionalFormatting sqref="I65:BL65">
+    <cfRule type="expression" dxfId="175" priority="330">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="290" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="331" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I68:BL68">
-    <cfRule type="expression" dxfId="170" priority="285">
+  <conditionalFormatting sqref="I63:BL63">
+    <cfRule type="expression" dxfId="173" priority="326">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="286" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="327" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D69:D70">
-    <cfRule type="dataBar" priority="280">
+  <conditionalFormatting sqref="D64:D65">
+    <cfRule type="dataBar" priority="321">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14488,13 +14019,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I68:BL68">
-    <cfRule type="expression" dxfId="168" priority="287">
+  <conditionalFormatting sqref="I63:BL63">
+    <cfRule type="expression" dxfId="171" priority="328">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D71:D72">
-    <cfRule type="dataBar" priority="272">
+  <conditionalFormatting sqref="D66:D67">
+    <cfRule type="dataBar" priority="313">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14507,21 +14038,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69:BL70">
-    <cfRule type="expression" dxfId="167" priority="283">
+  <conditionalFormatting sqref="I64:BL65">
+    <cfRule type="expression" dxfId="170" priority="324">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69:BL70">
-    <cfRule type="expression" dxfId="166" priority="281">
+  <conditionalFormatting sqref="I64:BL65">
+    <cfRule type="expression" dxfId="169" priority="322">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="282" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="323" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D72">
-    <cfRule type="dataBar" priority="276">
+  <conditionalFormatting sqref="D67">
+    <cfRule type="dataBar" priority="317">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14534,21 +14065,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I72:BL72">
-    <cfRule type="expression" dxfId="164" priority="279">
+  <conditionalFormatting sqref="I67:BL67">
+    <cfRule type="expression" dxfId="167" priority="320">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I72:BL72">
-    <cfRule type="expression" dxfId="163" priority="277">
+  <conditionalFormatting sqref="I67:BL67">
+    <cfRule type="expression" dxfId="166" priority="318">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="278" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="319" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D73:D74">
-    <cfRule type="dataBar" priority="264">
+  <conditionalFormatting sqref="D68:D69">
+    <cfRule type="dataBar" priority="305">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14561,21 +14092,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I71:BL72">
-    <cfRule type="expression" dxfId="161" priority="275">
+  <conditionalFormatting sqref="I66:BL67">
+    <cfRule type="expression" dxfId="164" priority="316">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I71:BL72">
-    <cfRule type="expression" dxfId="160" priority="273">
+  <conditionalFormatting sqref="I66:BL67">
+    <cfRule type="expression" dxfId="163" priority="314">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="274" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="315" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D74">
-    <cfRule type="dataBar" priority="268">
+  <conditionalFormatting sqref="D69">
+    <cfRule type="dataBar" priority="309">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14588,21 +14119,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I74:BL74">
-    <cfRule type="expression" dxfId="158" priority="271">
+  <conditionalFormatting sqref="I69:BL69">
+    <cfRule type="expression" dxfId="161" priority="312">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I74:BL74">
-    <cfRule type="expression" dxfId="157" priority="269">
+  <conditionalFormatting sqref="I69:BL69">
+    <cfRule type="expression" dxfId="160" priority="310">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="270" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="311" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D82">
-    <cfRule type="dataBar" priority="252">
+  <conditionalFormatting sqref="D77">
+    <cfRule type="dataBar" priority="293">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14615,21 +14146,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I73:BL74">
-    <cfRule type="expression" dxfId="155" priority="267">
+  <conditionalFormatting sqref="I68:BL69">
+    <cfRule type="expression" dxfId="158" priority="308">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I73:BL74">
-    <cfRule type="expression" dxfId="154" priority="265">
+  <conditionalFormatting sqref="I68:BL69">
+    <cfRule type="expression" dxfId="157" priority="306">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="266" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="307" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D81 D83">
-    <cfRule type="dataBar" priority="263">
+  <conditionalFormatting sqref="D76 D78">
+    <cfRule type="dataBar" priority="304">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14642,47 +14173,47 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I83:BL83">
-    <cfRule type="expression" dxfId="152" priority="470">
+  <conditionalFormatting sqref="I78:BL78">
+    <cfRule type="expression" dxfId="155" priority="511">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I83:BL83">
-    <cfRule type="expression" dxfId="151" priority="261">
+  <conditionalFormatting sqref="I78:BL78">
+    <cfRule type="expression" dxfId="154" priority="302">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="471" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="512" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I81:BL81 I83:BL83">
-    <cfRule type="expression" dxfId="149" priority="259">
+  <conditionalFormatting sqref="I76:BL76 I78:BL78">
+    <cfRule type="expression" dxfId="152" priority="300">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I81:BL81 I83:BL83">
-    <cfRule type="expression" dxfId="148" priority="257">
+  <conditionalFormatting sqref="I76:BL76 I78:BL78">
+    <cfRule type="expression" dxfId="151" priority="298">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="258" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="299" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I82:BL82">
-    <cfRule type="expression" dxfId="146" priority="255">
+  <conditionalFormatting sqref="I77:BL77">
+    <cfRule type="expression" dxfId="149" priority="296">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I82:BL82">
-    <cfRule type="expression" dxfId="145" priority="253">
+  <conditionalFormatting sqref="I77:BL77">
+    <cfRule type="expression" dxfId="148" priority="294">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="254" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="295" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D84">
-    <cfRule type="dataBar" priority="215">
+  <conditionalFormatting sqref="D79">
+    <cfRule type="dataBar" priority="256">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14695,8 +14226,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D84">
-    <cfRule type="dataBar" priority="214">
+  <conditionalFormatting sqref="D79">
+    <cfRule type="dataBar" priority="255">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14709,26 +14240,26 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I84:BL84">
-    <cfRule type="expression" dxfId="143" priority="213">
+  <conditionalFormatting sqref="I79:BL79">
+    <cfRule type="expression" dxfId="146" priority="254">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I84:BL84">
-    <cfRule type="expression" dxfId="142" priority="212">
+  <conditionalFormatting sqref="I79:BL79">
+    <cfRule type="expression" dxfId="145" priority="253">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I84:BL84">
-    <cfRule type="expression" dxfId="141" priority="210">
+  <conditionalFormatting sqref="I79:BL79">
+    <cfRule type="expression" dxfId="144" priority="251">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="211" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="252" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D86">
-    <cfRule type="dataBar" priority="202">
+  <conditionalFormatting sqref="D81">
+    <cfRule type="dataBar" priority="243">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14741,8 +14272,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D85">
-    <cfRule type="dataBar" priority="194">
+  <conditionalFormatting sqref="D80">
+    <cfRule type="dataBar" priority="235">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14755,8 +14286,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D86">
-    <cfRule type="dataBar" priority="203">
+  <conditionalFormatting sqref="D81">
+    <cfRule type="dataBar" priority="244">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14769,47 +14300,47 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I86:BL86">
-    <cfRule type="expression" dxfId="139" priority="204">
+  <conditionalFormatting sqref="I81:BL81">
+    <cfRule type="expression" dxfId="142" priority="245">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I86:BL86">
-    <cfRule type="expression" dxfId="138" priority="201">
+  <conditionalFormatting sqref="I81:BL81">
+    <cfRule type="expression" dxfId="141" priority="242">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="205" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="246" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I86:BL86">
-    <cfRule type="expression" dxfId="136" priority="200">
+  <conditionalFormatting sqref="I81:BL81">
+    <cfRule type="expression" dxfId="139" priority="241">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I86:BL86">
-    <cfRule type="expression" dxfId="135" priority="198">
+  <conditionalFormatting sqref="I81:BL81">
+    <cfRule type="expression" dxfId="138" priority="239">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="199" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="240" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I85:BL85">
-    <cfRule type="expression" dxfId="133" priority="197">
+  <conditionalFormatting sqref="I80:BL80">
+    <cfRule type="expression" dxfId="136" priority="238">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I85:BL85">
-    <cfRule type="expression" dxfId="132" priority="195">
+  <conditionalFormatting sqref="I80:BL80">
+    <cfRule type="expression" dxfId="135" priority="236">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="237" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="dataBar" priority="184">
+  <conditionalFormatting sqref="D45">
+    <cfRule type="dataBar" priority="225">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14822,21 +14353,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50:BL50">
-    <cfRule type="expression" dxfId="130" priority="187">
+  <conditionalFormatting sqref="I45:BL45">
+    <cfRule type="expression" dxfId="133" priority="228">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50:BL50">
-    <cfRule type="expression" dxfId="129" priority="185">
+  <conditionalFormatting sqref="I45:BL45">
+    <cfRule type="expression" dxfId="132" priority="226">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="227" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="dataBar" priority="180">
+  <conditionalFormatting sqref="D45">
+    <cfRule type="dataBar" priority="221">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14849,21 +14380,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50:BL50">
-    <cfRule type="expression" dxfId="127" priority="183">
+  <conditionalFormatting sqref="I45:BL45">
+    <cfRule type="expression" dxfId="130" priority="224">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50:BL50">
-    <cfRule type="expression" dxfId="126" priority="181">
+  <conditionalFormatting sqref="I45:BL45">
+    <cfRule type="expression" dxfId="129" priority="222">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="223" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="dataBar" priority="176">
+  <conditionalFormatting sqref="D45">
+    <cfRule type="dataBar" priority="217">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14876,21 +14407,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50:BL50">
-    <cfRule type="expression" dxfId="124" priority="179">
+  <conditionalFormatting sqref="I45:BL45">
+    <cfRule type="expression" dxfId="127" priority="220">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50:BL50">
-    <cfRule type="expression" dxfId="123" priority="177">
+  <conditionalFormatting sqref="I45:BL45">
+    <cfRule type="expression" dxfId="126" priority="218">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="219" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="dataBar" priority="172">
+  <conditionalFormatting sqref="D46">
+    <cfRule type="dataBar" priority="213">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14903,21 +14434,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51:BL51">
-    <cfRule type="expression" dxfId="121" priority="175">
+  <conditionalFormatting sqref="I46:BL46">
+    <cfRule type="expression" dxfId="124" priority="216">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51:BL51">
-    <cfRule type="expression" dxfId="120" priority="173">
+  <conditionalFormatting sqref="I46:BL46">
+    <cfRule type="expression" dxfId="123" priority="214">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="215" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="dataBar" priority="168">
+  <conditionalFormatting sqref="D46">
+    <cfRule type="dataBar" priority="209">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14930,21 +14461,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51:BL51">
-    <cfRule type="expression" dxfId="118" priority="171">
+  <conditionalFormatting sqref="I46:BL46">
+    <cfRule type="expression" dxfId="121" priority="212">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51:BL51">
-    <cfRule type="expression" dxfId="117" priority="169">
+  <conditionalFormatting sqref="I46:BL46">
+    <cfRule type="expression" dxfId="120" priority="210">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="211" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="dataBar" priority="164">
+  <conditionalFormatting sqref="D46">
+    <cfRule type="dataBar" priority="205">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14957,21 +14488,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51:BL51">
-    <cfRule type="expression" dxfId="115" priority="167">
+  <conditionalFormatting sqref="I46:BL46">
+    <cfRule type="expression" dxfId="118" priority="208">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51:BL51">
-    <cfRule type="expression" dxfId="114" priority="165">
+  <conditionalFormatting sqref="I46:BL46">
+    <cfRule type="expression" dxfId="117" priority="206">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="207" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="dataBar" priority="162">
+  <conditionalFormatting sqref="D32:D33">
+    <cfRule type="dataBar" priority="203">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14984,210 +14515,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:BL32">
-    <cfRule type="expression" dxfId="112" priority="163">
+  <conditionalFormatting sqref="I32:BL33">
+    <cfRule type="expression" dxfId="115" priority="204">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:BL32">
-    <cfRule type="expression" dxfId="111" priority="160">
+  <conditionalFormatting sqref="I32:BL33">
+    <cfRule type="expression" dxfId="114" priority="201">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="161" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="202" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="dataBar" priority="156">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{85A4BDDF-C018-D34E-B09D-F079375B05C4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31:BL31">
-    <cfRule type="expression" dxfId="109" priority="159">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31:BL31">
-    <cfRule type="expression" dxfId="108" priority="157">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="107" priority="158" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="dataBar" priority="152">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D2270ED2-5CC9-8446-BE13-66D2434228CA}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="106" priority="155">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="105" priority="153">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="104" priority="154" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
-    <cfRule type="dataBar" priority="148">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3AAEE305-A690-344B-8012-8FF9841042D9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41:BL41">
-    <cfRule type="expression" dxfId="103" priority="151">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41:BL41">
-    <cfRule type="expression" dxfId="102" priority="149">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="101" priority="150" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="dataBar" priority="146">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9D8C90B3-E702-1045-89C3-6E8E77D5D0AD}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38:BL38">
-    <cfRule type="expression" dxfId="100" priority="147">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38:BL38">
-    <cfRule type="expression" dxfId="99" priority="144">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="98" priority="145" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="dataBar" priority="142">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5B46FC49-26F8-494F-B115-56D9741FA23B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BL37">
-    <cfRule type="expression" dxfId="97" priority="143">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BL37">
-    <cfRule type="expression" dxfId="96" priority="140">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="95" priority="141" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="dataBar" priority="138">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D81A3E1E-92BB-924A-AF6E-88FC188C3DFF}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="94" priority="139">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="93" priority="136">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="92" priority="137" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="dataBar" priority="134">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D9B79063-7938-5647-A448-93334CB5CCCD}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="91" priority="135">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="90" priority="132">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="89" priority="133" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="dataBar" priority="128">
+    <cfRule type="dataBar" priority="169">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15201,33 +14543,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:BL21">
-    <cfRule type="expression" dxfId="88" priority="131">
+    <cfRule type="expression" dxfId="112" priority="172">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:BL21">
-    <cfRule type="expression" dxfId="87" priority="129">
+    <cfRule type="expression" dxfId="111" priority="170">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="171" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52:BL52">
-    <cfRule type="expression" dxfId="85" priority="92">
+  <conditionalFormatting sqref="I47:BL47">
+    <cfRule type="expression" dxfId="109" priority="133">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27:BL52">
-    <cfRule type="expression" dxfId="84" priority="109">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="83" priority="110" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="dataBar" priority="97">
+  <conditionalFormatting sqref="D44">
+    <cfRule type="dataBar" priority="138">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15240,21 +14574,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I75:BL75">
-    <cfRule type="expression" dxfId="82" priority="84">
+  <conditionalFormatting sqref="I70:BL70">
+    <cfRule type="expression" dxfId="108" priority="125">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49:BL49">
-    <cfRule type="expression" dxfId="81" priority="98">
+  <conditionalFormatting sqref="I44:BL44">
+    <cfRule type="expression" dxfId="107" priority="139">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="140" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="dataBar" priority="118">
+  <conditionalFormatting sqref="D29">
+    <cfRule type="dataBar" priority="159">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15267,67 +14601,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28:BL28">
-    <cfRule type="expression" dxfId="79" priority="119">
+  <conditionalFormatting sqref="I29:BL29">
+    <cfRule type="expression" dxfId="105" priority="160">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28:BL28">
-    <cfRule type="expression" dxfId="78" priority="116">
+  <conditionalFormatting sqref="I29:BL29">
+    <cfRule type="expression" dxfId="104" priority="157">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="158" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29:D52">
-    <cfRule type="dataBar" priority="114">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AF800BB5-4608-B643-8639-80F9FA7863D0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29:BL52">
-    <cfRule type="expression" dxfId="76" priority="115">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29:BL52">
-    <cfRule type="expression" dxfId="75" priority="112">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="113" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D52">
-    <cfRule type="dataBar" priority="108">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{EDDD3C5A-D5D2-BF43-8412-B04005F14C73}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27:BL52">
-    <cfRule type="expression" dxfId="73" priority="111">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="dataBar" priority="104">
+  <conditionalFormatting sqref="D44">
+    <cfRule type="dataBar" priority="145">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15340,21 +14628,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49:BL49">
-    <cfRule type="expression" dxfId="72" priority="107">
+  <conditionalFormatting sqref="I44:BL44">
+    <cfRule type="expression" dxfId="102" priority="148">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49:BL49">
-    <cfRule type="expression" dxfId="71" priority="105">
+  <conditionalFormatting sqref="I44:BL44">
+    <cfRule type="expression" dxfId="101" priority="146">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="147" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="dataBar" priority="100">
+  <conditionalFormatting sqref="D44">
+    <cfRule type="dataBar" priority="141">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15367,21 +14655,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49:BL49">
-    <cfRule type="expression" dxfId="69" priority="103">
+  <conditionalFormatting sqref="I44:BL44">
+    <cfRule type="expression" dxfId="99" priority="144">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49:BL49">
-    <cfRule type="expression" dxfId="68" priority="101">
+  <conditionalFormatting sqref="I44:BL44">
+    <cfRule type="expression" dxfId="98" priority="142">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="143" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="dataBar" priority="89">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="dataBar" priority="130">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15394,16 +14682,16 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52:BL52">
-    <cfRule type="expression" dxfId="66" priority="90">
+  <conditionalFormatting sqref="I47:BL47">
+    <cfRule type="expression" dxfId="96" priority="131">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="132" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="dataBar" priority="93">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="dataBar" priority="134">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15416,21 +14704,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52:BL52">
-    <cfRule type="expression" dxfId="64" priority="96">
+  <conditionalFormatting sqref="I47:BL47">
+    <cfRule type="expression" dxfId="94" priority="137">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52:BL52">
-    <cfRule type="expression" dxfId="63" priority="94">
+  <conditionalFormatting sqref="I47:BL47">
+    <cfRule type="expression" dxfId="93" priority="135">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="136" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D75">
-    <cfRule type="dataBar" priority="81">
+  <conditionalFormatting sqref="D70">
+    <cfRule type="dataBar" priority="122">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15443,21 +14731,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I78:BL78">
-    <cfRule type="expression" dxfId="61" priority="76">
+  <conditionalFormatting sqref="I73:BL73">
+    <cfRule type="expression" dxfId="91" priority="117">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I75:BL75">
-    <cfRule type="expression" dxfId="60" priority="82">
+  <conditionalFormatting sqref="I70:BL70">
+    <cfRule type="expression" dxfId="90" priority="123">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="124" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="dataBar" priority="85">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="dataBar" priority="126">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15470,21 +14758,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52:BL52">
-    <cfRule type="expression" dxfId="58" priority="88">
+  <conditionalFormatting sqref="I47:BL47">
+    <cfRule type="expression" dxfId="88" priority="129">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52:BL52">
-    <cfRule type="expression" dxfId="57" priority="86">
+  <conditionalFormatting sqref="I47:BL47">
+    <cfRule type="expression" dxfId="87" priority="127">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="128" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D75">
-    <cfRule type="dataBar" priority="77">
+  <conditionalFormatting sqref="D70">
+    <cfRule type="dataBar" priority="118">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15497,8 +14785,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D78">
-    <cfRule type="dataBar" priority="73">
+  <conditionalFormatting sqref="D73">
+    <cfRule type="dataBar" priority="114">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15511,34 +14799,34 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I79:BL79">
-    <cfRule type="expression" dxfId="55" priority="68">
+  <conditionalFormatting sqref="I74:BL74">
+    <cfRule type="expression" dxfId="85" priority="109">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I78:BL78">
-    <cfRule type="expression" dxfId="54" priority="74">
+  <conditionalFormatting sqref="I73:BL73">
+    <cfRule type="expression" dxfId="84" priority="115">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="116" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I75:BL75">
-    <cfRule type="expression" dxfId="52" priority="80">
+  <conditionalFormatting sqref="I70:BL70">
+    <cfRule type="expression" dxfId="82" priority="121">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I75:BL75">
-    <cfRule type="expression" dxfId="51" priority="78">
+  <conditionalFormatting sqref="I70:BL70">
+    <cfRule type="expression" dxfId="81" priority="119">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="120" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D78">
-    <cfRule type="dataBar" priority="69">
+  <conditionalFormatting sqref="D73">
+    <cfRule type="dataBar" priority="110">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15551,8 +14839,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D79">
-    <cfRule type="dataBar" priority="65">
+  <conditionalFormatting sqref="D74">
+    <cfRule type="dataBar" priority="106">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15565,34 +14853,34 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I76:BL76">
-    <cfRule type="expression" dxfId="49" priority="60">
+  <conditionalFormatting sqref="I71:BL71">
+    <cfRule type="expression" dxfId="79" priority="101">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I79:BL79">
-    <cfRule type="expression" dxfId="48" priority="66">
+  <conditionalFormatting sqref="I74:BL74">
+    <cfRule type="expression" dxfId="78" priority="107">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="108" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I78:BL78">
-    <cfRule type="expression" dxfId="46" priority="72">
+  <conditionalFormatting sqref="I73:BL73">
+    <cfRule type="expression" dxfId="76" priority="113">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I78:BL78">
-    <cfRule type="expression" dxfId="45" priority="70">
+  <conditionalFormatting sqref="I73:BL73">
+    <cfRule type="expression" dxfId="75" priority="111">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="112" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D79">
-    <cfRule type="dataBar" priority="61">
+  <conditionalFormatting sqref="D74">
+    <cfRule type="dataBar" priority="102">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15605,8 +14893,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D76">
-    <cfRule type="dataBar" priority="57">
+  <conditionalFormatting sqref="D71">
+    <cfRule type="dataBar" priority="98">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15619,39 +14907,39 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I77:BL77">
-    <cfRule type="expression" dxfId="43" priority="52">
+  <conditionalFormatting sqref="I72:BL72">
+    <cfRule type="expression" dxfId="73" priority="93">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I76:BL76">
-    <cfRule type="expression" dxfId="42" priority="58">
+  <conditionalFormatting sqref="I71:BL71">
+    <cfRule type="expression" dxfId="72" priority="99">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="100" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I79:BL79">
-    <cfRule type="expression" dxfId="40" priority="64">
+  <conditionalFormatting sqref="I74:BL74">
+    <cfRule type="expression" dxfId="70" priority="105">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I79:BL79">
-    <cfRule type="expression" dxfId="39" priority="62">
+  <conditionalFormatting sqref="I74:BL74">
+    <cfRule type="expression" dxfId="69" priority="103">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="104" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I77:BL77">
-    <cfRule type="expression" dxfId="37" priority="48">
+  <conditionalFormatting sqref="I72:BL72">
+    <cfRule type="expression" dxfId="67" priority="89">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D77">
-    <cfRule type="dataBar" priority="49">
+  <conditionalFormatting sqref="D72">
+    <cfRule type="dataBar" priority="90">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15664,16 +14952,16 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I77:BL77">
-    <cfRule type="expression" dxfId="36" priority="50">
+  <conditionalFormatting sqref="I72:BL72">
+    <cfRule type="expression" dxfId="66" priority="91">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="92" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D76">
-    <cfRule type="dataBar" priority="53">
+  <conditionalFormatting sqref="D71">
+    <cfRule type="dataBar" priority="94">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15686,26 +14974,26 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I76:BL76">
-    <cfRule type="expression" dxfId="34" priority="56">
+  <conditionalFormatting sqref="I71:BL71">
+    <cfRule type="expression" dxfId="64" priority="97">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I76:BL76">
-    <cfRule type="expression" dxfId="33" priority="54">
+  <conditionalFormatting sqref="I71:BL71">
+    <cfRule type="expression" dxfId="63" priority="95">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="96" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I80:BL80">
-    <cfRule type="expression" dxfId="31" priority="44">
+  <conditionalFormatting sqref="I75:BL75">
+    <cfRule type="expression" dxfId="61" priority="85">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D77">
-    <cfRule type="dataBar" priority="45">
+  <conditionalFormatting sqref="D72">
+    <cfRule type="dataBar" priority="86">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15718,16 +15006,16 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I77:BL77">
-    <cfRule type="expression" dxfId="30" priority="46">
+  <conditionalFormatting sqref="I72:BL72">
+    <cfRule type="expression" dxfId="60" priority="87">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="88" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D80">
-    <cfRule type="dataBar" priority="41">
+  <conditionalFormatting sqref="D75">
+    <cfRule type="dataBar" priority="82">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15740,16 +15028,16 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I80:BL80">
-    <cfRule type="expression" dxfId="28" priority="42">
+  <conditionalFormatting sqref="I75:BL75">
+    <cfRule type="expression" dxfId="58" priority="83">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="84" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D80">
-    <cfRule type="dataBar" priority="37">
+  <conditionalFormatting sqref="D75">
+    <cfRule type="dataBar" priority="78">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15762,21 +15050,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I80:BL80">
-    <cfRule type="expression" dxfId="26" priority="40">
+  <conditionalFormatting sqref="I75:BL75">
+    <cfRule type="expression" dxfId="56" priority="81">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I80:BL80">
-    <cfRule type="expression" dxfId="25" priority="38">
+  <conditionalFormatting sqref="I75:BL75">
+    <cfRule type="expression" dxfId="55" priority="79">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="80" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D90:D91">
-    <cfRule type="dataBar" priority="33">
+  <conditionalFormatting sqref="D85:D86">
+    <cfRule type="dataBar" priority="74">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15789,21 +15077,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I90:BL91">
-    <cfRule type="expression" dxfId="23" priority="36">
+  <conditionalFormatting sqref="I85:BL86">
+    <cfRule type="expression" dxfId="53" priority="77">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I90:BL91">
-    <cfRule type="expression" dxfId="22" priority="34">
+  <conditionalFormatting sqref="I85:BL86">
+    <cfRule type="expression" dxfId="52" priority="75">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="76" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D95:D96">
-    <cfRule type="dataBar" priority="29">
+  <conditionalFormatting sqref="D90:D91">
+    <cfRule type="dataBar" priority="70">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15816,21 +15104,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I95:BL96">
-    <cfRule type="expression" dxfId="20" priority="32">
+  <conditionalFormatting sqref="I90:BL91">
+    <cfRule type="expression" dxfId="50" priority="73">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I95:BL96">
-    <cfRule type="expression" dxfId="19" priority="30">
+  <conditionalFormatting sqref="I90:BL91">
+    <cfRule type="expression" dxfId="49" priority="71">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="72" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D97">
-    <cfRule type="dataBar" priority="25">
+  <conditionalFormatting sqref="D92">
+    <cfRule type="dataBar" priority="66">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15843,21 +15131,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I97:BL97">
-    <cfRule type="expression" dxfId="17" priority="28">
+  <conditionalFormatting sqref="I92:BL92">
+    <cfRule type="expression" dxfId="47" priority="69">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I97:BL97">
-    <cfRule type="expression" dxfId="16" priority="26">
+  <conditionalFormatting sqref="I92:BL92">
+    <cfRule type="expression" dxfId="46" priority="67">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="68" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D98">
-    <cfRule type="dataBar" priority="21">
+  <conditionalFormatting sqref="D93">
+    <cfRule type="dataBar" priority="62">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15870,21 +15158,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I98:BL98 K99">
-    <cfRule type="expression" dxfId="14" priority="24">
+  <conditionalFormatting sqref="I93:BL93 K94">
+    <cfRule type="expression" dxfId="44" priority="65">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I98:BL98 K99">
-    <cfRule type="expression" dxfId="13" priority="22">
+  <conditionalFormatting sqref="I93:BL93 K94">
+    <cfRule type="expression" dxfId="43" priority="63">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="64" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="dataBar" priority="17">
+    <cfRule type="dataBar" priority="58">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15898,20 +15186,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:BL15">
-    <cfRule type="expression" dxfId="11" priority="20">
+    <cfRule type="expression" dxfId="41" priority="61">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:BL15">
-    <cfRule type="expression" dxfId="10" priority="18">
+    <cfRule type="expression" dxfId="40" priority="59">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="60" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="54">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15925,20 +15213,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:BL17">
-    <cfRule type="expression" dxfId="8" priority="16">
+    <cfRule type="expression" dxfId="38" priority="57">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:BL17">
-    <cfRule type="expression" dxfId="7" priority="14">
+    <cfRule type="expression" dxfId="37" priority="55">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="56" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="50">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15952,20 +15240,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:BL18">
-    <cfRule type="expression" dxfId="5" priority="12">
+    <cfRule type="expression" dxfId="35" priority="53">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:BL18">
-    <cfRule type="expression" dxfId="4" priority="10">
+    <cfRule type="expression" dxfId="34" priority="51">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="52" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D101">
-    <cfRule type="dataBar" priority="8">
+  <conditionalFormatting sqref="D96">
+    <cfRule type="dataBar" priority="49">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15978,8 +15266,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="dataBar" priority="7">
+  <conditionalFormatting sqref="E94">
+    <cfRule type="dataBar" priority="48">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15992,8 +15280,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F99">
-    <cfRule type="dataBar" priority="6">
+  <conditionalFormatting sqref="F94">
+    <cfRule type="dataBar" priority="47">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -16006,8 +15294,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F101">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="F96">
+    <cfRule type="dataBar" priority="46">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -16021,7 +15309,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="42">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -16035,15 +15323,285 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:BL16">
+    <cfRule type="expression" dxfId="32" priority="45">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16:BL16">
+    <cfRule type="expression" dxfId="31" priority="43">
+      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="44" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="dataBar" priority="38">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4A0F5441-0438-8E49-B599-5FADA3D99D56}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31:BL31">
+    <cfRule type="expression" dxfId="29" priority="41">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31:BL31">
+    <cfRule type="expression" dxfId="28" priority="39">
+      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="40" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="dataBar" priority="34">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6C33E0B9-19CF-7147-A559-CC65DE3EFCCE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:BL37">
+    <cfRule type="expression" dxfId="26" priority="37">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:BL37">
+    <cfRule type="expression" dxfId="25" priority="35">
+      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="36" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="dataBar" priority="29">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D6FF4DE1-4BDD-CC4E-BDA9-91C355F7EA80}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24:BL24">
+    <cfRule type="expression" dxfId="23" priority="33">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24:BL24">
+    <cfRule type="expression" dxfId="22" priority="31">
+      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="32" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{23ED099E-01F9-9E46-A77D-0A37F8941A77}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="dataBar" priority="25">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{93A2B80B-CC05-9248-A22B-7730873193A8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34:BL34">
+    <cfRule type="expression" dxfId="20" priority="28">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34:BL34">
+    <cfRule type="expression" dxfId="19" priority="26">
+      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="27" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="dataBar" priority="23">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DEF56DD6-2BD8-A649-9E18-9DAF0DAC72BE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34:BL34">
+    <cfRule type="expression" dxfId="17" priority="24">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34:BL34">
+    <cfRule type="expression" dxfId="16" priority="21">
+      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="22" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33:BL33">
+    <cfRule type="expression" dxfId="14" priority="20">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33:BL33">
+    <cfRule type="expression" dxfId="13" priority="18">
+      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="19" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DF693226-6835-CC43-90DC-98611BE80D6A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:BL35">
+    <cfRule type="expression" dxfId="11" priority="16">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:BL35">
+    <cfRule type="expression" dxfId="10" priority="14">
+      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="15" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C4133C4D-7309-CC4D-AA3F-BB23134E26E0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:BL35">
+    <cfRule type="expression" dxfId="8" priority="12">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:BL35">
+    <cfRule type="expression" dxfId="7" priority="9">
+      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{648D78AB-DFE1-8441-B071-E28705B55E48}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:BL36">
+    <cfRule type="expression" dxfId="5" priority="8">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:BL36">
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{767EB575-3CC8-FB47-A093-D24585565796}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:BL36">
     <cfRule type="expression" dxfId="2" priority="4">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16:BL16">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="I36:BL36">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16075,7 +15633,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D14 D23 D87:D89 D99 D92:D94 D44:D52</xm:sqref>
+          <xm:sqref>D7:D14 D23 D82:D84 D94 D87:D89 D28:D30 D32:D33 D38:D47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{24F17111-9256-FF47-A90B-BD2748D98F5A}">
@@ -16090,7 +15648,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D47</xm:sqref>
+          <xm:sqref>D42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E4DFD210-F8DE-DC4A-9741-B5B243F824A6}">
@@ -16120,7 +15678,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D45</xm:sqref>
+          <xm:sqref>D40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1D6361C8-CB7D-8841-8CD8-18871297265B}">
@@ -16135,55 +15693,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D54</xm:sqref>
+          <xm:sqref>D49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{95B7E06F-6B9E-6C4B-BC04-3F99AB1A74D4}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D62</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FD86224B-914B-5F46-822F-B75854136693}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D53</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A230EAA4-3BDE-3745-88B4-B68818DC88A3}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D55:D57 D60</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{85F05FF5-8C78-5B43-93CB-9F56687B7ED6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -16196,6 +15709,51 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>D57</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FD86224B-914B-5F46-822F-B75854136693}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D48</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A230EAA4-3BDE-3745-88B4-B68818DC88A3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D50:D52 D55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{85F05FF5-8C78-5B43-93CB-9F56687B7ED6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{ACD4AF40-4A7F-3D4C-8382-D5C86CD21452}">
@@ -16225,10 +15783,160 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>D53</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B4DE69B5-631A-D545-95CA-052B3980E2BD}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D56</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CCE23DF5-CA4C-E24E-A4A2-743C521EC5B4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AFE04D94-34DE-7049-A203-DF6FCBA27D1D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A901BF46-B827-D445-ACF5-96CFE6FB89EC}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6561463E-7433-724A-A679-B2D4ED2402CA}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{031E537F-76AB-264A-AE56-DE4BF11ECC6C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{085A9C0F-810A-424C-906A-78B1D17DAE9F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E0CBEC52-D3A6-C74C-97BE-B834893CF553}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D78</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AD9C13A4-B612-3245-AE76-A8E409F7918F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
           <xm:sqref>D58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B4DE69B5-631A-D545-95CA-052B3980E2BD}">
+          <x14:cfRule type="dataBar" id="{A6772426-68EF-A240-800A-5AF7F0F113A9}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D59</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BC765EC6-6523-504A-AED4-7AEFB62A9DF7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -16243,7 +15951,7 @@
           <xm:sqref>D61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CCE23DF5-CA4C-E24E-A4A2-743C521EC5B4}">
+          <x14:cfRule type="dataBar" id="{B401F7C8-BE59-8744-857F-12D198A08AE4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -16255,10 +15963,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D25</xm:sqref>
+          <xm:sqref>D60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AFE04D94-34DE-7049-A203-DF6FCBA27D1D}">
+          <x14:cfRule type="dataBar" id="{C2BA0CD1-C384-464E-824F-33069CB207EF}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -16270,10 +15978,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D59</xm:sqref>
+          <xm:sqref>D62:D63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A901BF46-B827-D445-ACF5-96CFE6FB89EC}">
+          <x14:cfRule type="dataBar" id="{6CCE1452-5FBC-3F4A-A068-5D75B4B7BCDA}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -16285,130 +15993,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D24</xm:sqref>
+          <xm:sqref>D65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6561463E-7433-724A-A679-B2D4ED2402CA}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D26</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3033142A-9472-D349-BADC-540C43F7D4FB}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5EF9000B-6040-CE43-94CC-5913F0E8274A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D30</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{031E537F-76AB-264A-AE56-DE4BF11ECC6C}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{085A9C0F-810A-424C-906A-78B1D17DAE9F}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E0CBEC52-D3A6-C74C-97BE-B834893CF553}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D83</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{EDE92402-80A6-2443-AE1B-56A2A02D252F}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D40:D41</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8DA15542-D87C-5F43-B42E-CAB26D97D475}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D35</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AD9C13A4-B612-3245-AE76-A8E409F7918F}">
+          <x14:cfRule type="dataBar" id="{F1706303-4483-6A4F-B5FB-E2CF343EF71C}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -16423,7 +16011,7 @@
           <xm:sqref>D63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A6772426-68EF-A240-800A-5AF7F0F113A9}">
+          <x14:cfRule type="dataBar" id="{BDACFAD9-3E5D-9B4A-9A81-FF3B6F8CBF64}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -16435,10 +16023,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D64</xm:sqref>
+          <xm:sqref>D64:D65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BC765EC6-6523-504A-AED4-7AEFB62A9DF7}">
+          <x14:cfRule type="dataBar" id="{AA6B7756-C0C2-F243-92BE-6D626EBB0BC5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -16450,10 +16038,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D66</xm:sqref>
+          <xm:sqref>D66:D67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B401F7C8-BE59-8744-857F-12D198A08AE4}">
+          <x14:cfRule type="dataBar" id="{F2806D69-C8F2-D244-81EA-5357BF3FA7B1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -16465,10 +16053,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D65</xm:sqref>
+          <xm:sqref>D67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C2BA0CD1-C384-464E-824F-33069CB207EF}">
+          <x14:cfRule type="dataBar" id="{C7B8B9BB-DF62-964E-B36D-3E40DEDE4AAB}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -16480,10 +16068,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D67:D68</xm:sqref>
+          <xm:sqref>D68:D69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6CCE1452-5FBC-3F4A-A068-5D75B4B7BCDA}">
+          <x14:cfRule type="dataBar" id="{98CD4208-BEBA-F74E-82C6-DC32125D14AC}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -16495,10 +16083,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D70</xm:sqref>
+          <xm:sqref>D69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F1706303-4483-6A4F-B5FB-E2CF343EF71C}">
+          <x14:cfRule type="dataBar" id="{D0E736E8-06C8-4D41-A71F-BDC7B0EA0160}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -16510,10 +16098,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D68</xm:sqref>
+          <xm:sqref>D77</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BDACFAD9-3E5D-9B4A-9A81-FF3B6F8CBF64}">
+          <x14:cfRule type="dataBar" id="{299B1521-6753-6E49-B368-B60D1EE39BBB}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -16525,10 +16113,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D69:D70</xm:sqref>
+          <xm:sqref>D76 D78</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AA6B7756-C0C2-F243-92BE-6D626EBB0BC5}">
+          <x14:cfRule type="dataBar" id="{37029FEF-DCD1-5F44-BF01-E7E8FBBEC303}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -16540,10 +16128,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D71:D72</xm:sqref>
+          <xm:sqref>D79</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F2806D69-C8F2-D244-81EA-5357BF3FA7B1}">
+          <x14:cfRule type="dataBar" id="{F01A527D-9F3F-2246-BA2F-16BF59D0B1B0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -16555,10 +16143,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D72</xm:sqref>
+          <xm:sqref>D79</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C7B8B9BB-DF62-964E-B36D-3E40DEDE4AAB}">
+          <x14:cfRule type="dataBar" id="{680AA153-3270-9046-A64C-8D19EEADC023}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -16570,10 +16158,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D73:D74</xm:sqref>
+          <xm:sqref>D81</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{98CD4208-BEBA-F74E-82C6-DC32125D14AC}">
+          <x14:cfRule type="dataBar" id="{FDF7C793-D057-9049-B6E1-E834A2499378}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -16585,10 +16173,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D74</xm:sqref>
+          <xm:sqref>D80</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D0E736E8-06C8-4D41-A71F-BDC7B0EA0160}">
+          <x14:cfRule type="dataBar" id="{F51640C3-D607-B64B-AE9A-67FB162B1792}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -16600,10 +16188,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D82</xm:sqref>
+          <xm:sqref>D81</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{299B1521-6753-6E49-B368-B60D1EE39BBB}">
+          <x14:cfRule type="dataBar" id="{1AF9EEB1-188E-D04F-BFC1-EFAEB6262AF9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -16615,10 +16203,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D81 D83</xm:sqref>
+          <xm:sqref>D45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{37029FEF-DCD1-5F44-BF01-E7E8FBBEC303}">
+          <x14:cfRule type="dataBar" id="{9CD05753-5724-2C45-B91F-77E4C9EC560D}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -16630,10 +16218,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D84</xm:sqref>
+          <xm:sqref>D45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F01A527D-9F3F-2246-BA2F-16BF59D0B1B0}">
+          <x14:cfRule type="dataBar" id="{8B854A83-959A-C440-898C-501D64548932}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -16645,10 +16233,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D84</xm:sqref>
+          <xm:sqref>D45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{680AA153-3270-9046-A64C-8D19EEADC023}">
+          <x14:cfRule type="dataBar" id="{4D6B16EF-E60F-3041-B595-1048B09D9E7D}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -16660,10 +16248,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D86</xm:sqref>
+          <xm:sqref>D46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FDF7C793-D057-9049-B6E1-E834A2499378}">
+          <x14:cfRule type="dataBar" id="{91C53314-79F2-1143-8BE2-91D78C83DCA9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -16675,10 +16263,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D85</xm:sqref>
+          <xm:sqref>D46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F51640C3-D607-B64B-AE9A-67FB162B1792}">
+          <x14:cfRule type="dataBar" id="{2696E29A-B0F7-6047-AB12-6A58E6595876}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -16690,10 +16278,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D86</xm:sqref>
+          <xm:sqref>D46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1AF9EEB1-188E-D04F-BFC1-EFAEB6262AF9}">
+          <x14:cfRule type="dataBar" id="{422C01BA-0699-C446-AEE6-30E04170B4B2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -16705,202 +16293,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D50</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9CD05753-5724-2C45-B91F-77E4C9EC560D}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D50</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8B854A83-959A-C440-898C-501D64548932}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D50</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4D6B16EF-E60F-3041-B595-1048B09D9E7D}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D51</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{91C53314-79F2-1143-8BE2-91D78C83DCA9}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D51</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2696E29A-B0F7-6047-AB12-6A58E6595876}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D51</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{422C01BA-0699-C446-AEE6-30E04170B4B2}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D32</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{85A4BDDF-C018-D34E-B09D-F079375B05C4}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D31</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D2270ED2-5CC9-8446-BE13-66D2434228CA}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3AAEE305-A690-344B-8012-8FF9841042D9}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D41</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9D8C90B3-E702-1045-89C3-6E8E77D5D0AD}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D38</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5B46FC49-26F8-494F-B115-56D9741FA23B}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D81A3E1E-92BB-924A-AF6E-88FC188C3DFF}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D43</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D9B79063-7938-5647-A448-93334CB5CCCD}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D42</xm:sqref>
+          <xm:sqref>D32:D33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{84FC15CB-BF74-6542-A35C-02838372AD20}">
@@ -16930,7 +16323,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D49</xm:sqref>
+          <xm:sqref>D44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E70DC10E-2576-2947-8D54-799D4D500F13}">
@@ -16945,10 +16338,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D28</xm:sqref>
+          <xm:sqref>D29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AF800BB5-4608-B643-8639-80F9FA7863D0}">
+          <x14:cfRule type="dataBar" id="{A0153DB6-19FB-7246-8AA7-92BBA43F6397}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -16960,10 +16353,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D29:D52</xm:sqref>
+          <xm:sqref>D44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{EDDD3C5A-D5D2-BF43-8412-B04005F14C73}">
+          <x14:cfRule type="dataBar" id="{089BA24B-7C6B-9545-8D21-BBE5C5EC2E7A}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -16975,10 +16368,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D27:D52</xm:sqref>
+          <xm:sqref>D44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A0153DB6-19FB-7246-8AA7-92BBA43F6397}">
+          <x14:cfRule type="dataBar" id="{E4736ECF-786A-5A42-B4FF-EF8A0221C81D}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -16990,10 +16383,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D49</xm:sqref>
+          <xm:sqref>D47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{089BA24B-7C6B-9545-8D21-BBE5C5EC2E7A}">
+          <x14:cfRule type="dataBar" id="{6BA7FAAC-F6E3-8941-B8E1-5DAEC1E3653E}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -17005,10 +16398,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D49</xm:sqref>
+          <xm:sqref>D47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E4736ECF-786A-5A42-B4FF-EF8A0221C81D}">
+          <x14:cfRule type="dataBar" id="{2EACD2EC-CDC7-2845-B140-417AFDA13CE4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -17020,10 +16413,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D52</xm:sqref>
+          <xm:sqref>D70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6BA7FAAC-F6E3-8941-B8E1-5DAEC1E3653E}">
+          <x14:cfRule type="dataBar" id="{D109718A-7C8F-7B4C-A048-DCBA7091216B}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -17035,10 +16428,145 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D52</xm:sqref>
+          <xm:sqref>D47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2EACD2EC-CDC7-2845-B140-417AFDA13CE4}">
+          <x14:cfRule type="dataBar" id="{D91CA485-8795-4541-ACDB-213678689900}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D70</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{54931082-0A87-0B46-A3AF-53B1C7E0349D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D73</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8F7A8332-D03B-1240-9256-E6C635F6B7AE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D73</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E48B6478-B85A-8C41-A036-8BC8C03FB567}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D74</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3B68B980-280F-9945-8E0B-02FC372E22F9}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D74</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1D482DD2-8610-4640-B157-28FF9AA8CCDD}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D71</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0D505B2A-0E13-8049-BCF4-4C9D87A6E0BC}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D72</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FCC18048-6B89-6146-824E-80010923D5A7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D71</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5DC30E2A-B088-054C-9638-C6035E3DA13E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D72</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6EA2D0C8-E64E-6C4E-871C-217798EE5D8E}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -17053,22 +16581,7 @@
           <xm:sqref>D75</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D109718A-7C8F-7B4C-A048-DCBA7091216B}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D52</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D91CA485-8795-4541-ACDB-213678689900}">
+          <x14:cfRule type="dataBar" id="{7B793B46-8F8E-FA49-A58B-2611FA347C3D}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -17083,7 +16596,7 @@
           <xm:sqref>D75</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{54931082-0A87-0B46-A3AF-53B1C7E0349D}">
+          <x14:cfRule type="dataBar" id="{A0FD18F1-2DDC-5F4A-9E5C-EEAD464B1296}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -17095,145 +16608,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D78</xm:sqref>
+          <xm:sqref>D85:D86</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8F7A8332-D03B-1240-9256-E6C635F6B7AE}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D78</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E48B6478-B85A-8C41-A036-8BC8C03FB567}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D79</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3B68B980-280F-9945-8E0B-02FC372E22F9}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D79</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1D482DD2-8610-4640-B157-28FF9AA8CCDD}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D76</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0D505B2A-0E13-8049-BCF4-4C9D87A6E0BC}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D77</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FCC18048-6B89-6146-824E-80010923D5A7}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D76</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5DC30E2A-B088-054C-9638-C6035E3DA13E}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D77</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6EA2D0C8-E64E-6C4E-871C-217798EE5D8E}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D80</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7B793B46-8F8E-FA49-A58B-2611FA347C3D}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D80</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A0FD18F1-2DDC-5F4A-9E5C-EEAD464B1296}">
+          <x14:cfRule type="dataBar" id="{4C330308-C068-8B4D-8D83-6FEA4C284F6B}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -17248,7 +16626,7 @@
           <xm:sqref>D90:D91</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4C330308-C068-8B4D-8D83-6FEA4C284F6B}">
+          <x14:cfRule type="dataBar" id="{2F75F22C-352D-4449-AB1D-3183DABFA100}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -17260,10 +16638,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D95:D96</xm:sqref>
+          <xm:sqref>D92</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2F75F22C-352D-4449-AB1D-3183DABFA100}">
+          <x14:cfRule type="dataBar" id="{9BEEE57C-1DA9-C747-8E7C-346EB91B4E36}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -17275,22 +16653,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D97</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9BEEE57C-1DA9-C747-8E7C-346EB91B4E36}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D98</xm:sqref>
+          <xm:sqref>D93</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4C31BB5A-AEE3-0846-8F27-557A287ED7BF}">
@@ -17350,7 +16713,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D101</xm:sqref>
+          <xm:sqref>D96</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7C55099D-FFDE-2145-8945-4CC62A21B3F5}">
@@ -17365,7 +16728,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E99</xm:sqref>
+          <xm:sqref>E94</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4476D606-ECB9-004B-B8E4-EFF5130FB18D}">
@@ -17380,7 +16743,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F99</xm:sqref>
+          <xm:sqref>F94</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9D0DC1B9-49F9-F443-815E-66C468AE9B91}">
@@ -17395,7 +16758,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F101</xm:sqref>
+          <xm:sqref>F96</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D56E6119-62DB-3F4F-8553-8F84F7A95988}">
@@ -17411,6 +16774,156 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>D16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4A0F5441-0438-8E49-B599-5FADA3D99D56}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6C33E0B9-19CF-7147-A559-CC65DE3EFCCE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D6FF4DE1-4BDD-CC4E-BDA9-91C355F7EA80}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{23ED099E-01F9-9E46-A77D-0A37F8941A77}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{93A2B80B-CC05-9248-A22B-7730873193A8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DEF56DD6-2BD8-A649-9E18-9DAF0DAC72BE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DF693226-6835-CC43-90DC-98611BE80D6A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C4133C4D-7309-CC4D-AA3F-BB23134E26E0}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{648D78AB-DFE1-8441-B071-E28705B55E48}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{767EB575-3CC8-FB47-A093-D24585565796}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D36</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -17527,4 +17040,33 @@
   </headerFooter>
   <drawing r:id="rId6"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3ACA2F-179F-394D-80EE-A7399BB1F847}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="105.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="124" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="124" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="37"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/ThrowSujiShurikenGanttChart.xlsx
+++ b/Documents/ThrowSujiShurikenGanttChart.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9D51AA-867F-284B-87EE-A99D11E196B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100FAE54-70EC-1D4A-8916-B8C3805FB450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクトのスケジュール" sheetId="11" r:id="rId1"/>
     <sheet name="詳細情報" sheetId="12" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId3"/>
+    <sheet name="余力があったらやること" sheetId="13" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">プロジェクトのスケジュール!$4:$6</definedName>
@@ -5690,10 +5690,10 @@
   </sheetPr>
   <dimension ref="A1:BL101"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E95" sqref="E95"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8401,9 +8401,11 @@
       <c r="B34" s="102" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="60"/>
+      <c r="C34" s="109">
+        <v>5.5555555555555552E-2</v>
+      </c>
       <c r="D34" s="61">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E34" s="62" t="s">
         <v>16</v>
@@ -12931,11 +12933,11 @@
       <c r="B94" s="105"/>
       <c r="C94" s="64">
         <f>SUM(C9:C90)</f>
-        <v>1.3590277777777777</v>
+        <v>1.4145833333333333</v>
       </c>
       <c r="D94" s="66">
         <f>AVERAGE(D9:D90)</f>
-        <v>0.16147540983606559</v>
+        <v>0.17131147540983607</v>
       </c>
       <c r="E94" s="66">
         <v>0.02</v>
@@ -17046,7 +17048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3ACA2F-179F-394D-80EE-A7399BB1F847}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>

--- a/Documents/ThrowSujiShurikenGanttChart.xlsx
+++ b/Documents/ThrowSujiShurikenGanttChart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E82C159-058C-3C41-BBBA-6AF068DACF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E22B7B-55A8-DB48-9609-7DA7BC2FB8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクトのスケジュール" sheetId="11" r:id="rId1"/>
@@ -14,12 +14,12 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">プロジェクトのスケジュール!$4:$6</definedName>
-    <definedName name="タスク_開始" localSheetId="0">プロジェクトのスケジュール!$E1</definedName>
-    <definedName name="タスク_終了" localSheetId="0">プロジェクトのスケジュール!$F1</definedName>
-    <definedName name="タスク_進捗状況" localSheetId="0">プロジェクトのスケジュール!$D1</definedName>
-    <definedName name="プロジェクト_開始">プロジェクトのスケジュール!$E$3</definedName>
+    <definedName name="タスク_開始" localSheetId="0">プロジェクトのスケジュール!$F1</definedName>
+    <definedName name="タスク_終了" localSheetId="0">プロジェクトのスケジュール!$G1</definedName>
+    <definedName name="タスク_進捗状況" localSheetId="0">プロジェクトのスケジュール!$E1</definedName>
+    <definedName name="プロジェクト_開始">プロジェクトのスケジュール!$F$3</definedName>
     <definedName name="今日" localSheetId="0">TODAY()</definedName>
-    <definedName name="週_表示">プロジェクトのスケジュール!$E$4</definedName>
+    <definedName name="週_表示">プロジェクトのスケジュール!$F$4</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="128">
   <si>
     <t>このワークシートでプロジェクトのスケジュール​​を作成します。
 セル B1 には、このプロジェクトのタイトルを入力します。
@@ -170,13 +170,6 @@
     <t>タスクの書きだし</t>
     <rPh sb="4" eb="5">
       <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>このガントチャートの修正</t>
-    <rPh sb="10" eb="12">
-      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="37"/>
   </si>
@@ -500,22 +493,6 @@
     <phoneticPr fontId="37"/>
   </si>
   <si>
-    <t>2〜3秒画面がスローになって入力が受け付けない状態になる</t>
-    <rPh sb="4" eb="6">
-      <t xml:space="preserve">ガメンガ </t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t xml:space="preserve">ニュウリョク </t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t xml:space="preserve">ウケツケナイ </t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t xml:space="preserve">ジョウタイ </t>
-    </rPh>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
     <t>ゲームスタート時</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ゲームスタートジ </t>
@@ -549,19 +526,6 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>ハカイデキナク</t>
-    </rPh>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>10秒前から強調表示してカウントダウン</t>
-    <rPh sb="2" eb="4">
-      <t xml:space="preserve">ビョウマエ </t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t xml:space="preserve">キョウチョウ </t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t xml:space="preserve">ヒョウジ </t>
     </rPh>
     <phoneticPr fontId="37"/>
   </si>
@@ -994,6 +958,36 @@
   </si>
   <si>
     <t>ω</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>予想作業時間</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヨソウ </t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>サギョウジカン</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>ガントチャートの修正</t>
+    <rPh sb="8" eb="10">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>合計予想作業時間</t>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ヨソウ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
+    </rPh>
     <phoneticPr fontId="37"/>
   </si>
 </sst>
@@ -2177,43 +2171,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2249,6 +2206,43 @@
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="19" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2307,7 +2301,7 @@
     <cellStyle name="名前" xfId="11" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
     <cellStyle name="良い" xfId="18" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="245">
+  <dxfs count="236">
     <dxf>
       <fill>
         <patternFill>
@@ -3333,96 +3327,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -4757,15 +4661,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDo_リスト" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="244"/>
-      <tableStyleElement type="headerRow" dxfId="243"/>
-      <tableStyleElement type="totalRow" dxfId="242"/>
-      <tableStyleElement type="firstColumn" dxfId="241"/>
-      <tableStyleElement type="lastColumn" dxfId="240"/>
-      <tableStyleElement type="firstRowStripe" dxfId="239"/>
-      <tableStyleElement type="secondRowStripe" dxfId="238"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="237"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="236"/>
+      <tableStyleElement type="wholeTable" dxfId="235"/>
+      <tableStyleElement type="headerRow" dxfId="234"/>
+      <tableStyleElement type="totalRow" dxfId="233"/>
+      <tableStyleElement type="firstColumn" dxfId="232"/>
+      <tableStyleElement type="lastColumn" dxfId="231"/>
+      <tableStyleElement type="firstRowStripe" dxfId="230"/>
+      <tableStyleElement type="secondRowStripe" dxfId="229"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="228"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="227"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -4863,15 +4767,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5005,15 +4909,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5225,13 +5129,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>342900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -5611,664 +5515,671 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL98"/>
+  <dimension ref="A1:BM96"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
+      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="117" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="104" customWidth="1"/>
     <col min="2" max="2" width="46" style="86" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.5703125" customWidth="1"/>
-    <col min="66" max="68" width="7"/>
-    <col min="69" max="70" width="8"/>
+    <col min="3" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" hidden="1" customWidth="1"/>
+    <col min="10" max="65" width="2.5703125" customWidth="1"/>
+    <col min="67" max="69" width="7"/>
+    <col min="70" max="71" width="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="116" t="s">
+    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="103" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C1" s="10"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="14"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="14"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="117" t="s">
+    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="104" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="84"/>
-      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="117" t="s">
+    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="104" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="85"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="106">
+      <c r="C3" s="85"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="124">
         <v>44356</v>
       </c>
-      <c r="F3" s="106"/>
-      <c r="I3" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="114" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="115"/>
-      <c r="S3" s="115"/>
-      <c r="T3" s="115"/>
-      <c r="U3" s="115"/>
-      <c r="V3" s="115"/>
+      <c r="G3" s="124"/>
+      <c r="J3" s="121" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="121"/>
+      <c r="P3" s="121"/>
+      <c r="Q3" s="122" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="123"/>
+      <c r="S3" s="123"/>
+      <c r="T3" s="123"/>
+      <c r="U3" s="123"/>
+      <c r="V3" s="123"/>
+      <c r="W3" s="123"/>
     </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="116" t="s">
+    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="4">
+      <c r="C4" s="86"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="103">
-        <f>I5</f>
+      <c r="J4" s="118">
+        <f>J5</f>
         <v>44354</v>
       </c>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="107">
-        <f>P5</f>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="120"/>
+      <c r="Q4" s="125">
+        <f>Q5</f>
         <v>44361</v>
       </c>
-      <c r="Q4" s="108"/>
-      <c r="R4" s="108"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="108"/>
-      <c r="U4" s="108"/>
-      <c r="V4" s="109"/>
-      <c r="W4" s="103">
-        <f>W5</f>
+      <c r="R4" s="126"/>
+      <c r="S4" s="126"/>
+      <c r="T4" s="126"/>
+      <c r="U4" s="126"/>
+      <c r="V4" s="126"/>
+      <c r="W4" s="127"/>
+      <c r="X4" s="118">
+        <f>X5</f>
         <v>44368</v>
       </c>
-      <c r="X4" s="104"/>
-      <c r="Y4" s="104"/>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="104"/>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="105"/>
-      <c r="AD4" s="103">
-        <f>AD5</f>
+      <c r="Y4" s="119"/>
+      <c r="Z4" s="119"/>
+      <c r="AA4" s="119"/>
+      <c r="AB4" s="119"/>
+      <c r="AC4" s="119"/>
+      <c r="AD4" s="120"/>
+      <c r="AE4" s="118">
+        <f>AE5</f>
         <v>44375</v>
       </c>
-      <c r="AE4" s="104"/>
-      <c r="AF4" s="104"/>
-      <c r="AG4" s="104"/>
-      <c r="AH4" s="104"/>
-      <c r="AI4" s="104"/>
-      <c r="AJ4" s="105"/>
-      <c r="AK4" s="103">
-        <f>AK5</f>
+      <c r="AF4" s="119"/>
+      <c r="AG4" s="119"/>
+      <c r="AH4" s="119"/>
+      <c r="AI4" s="119"/>
+      <c r="AJ4" s="119"/>
+      <c r="AK4" s="120"/>
+      <c r="AL4" s="118">
+        <f>AL5</f>
         <v>44382</v>
       </c>
-      <c r="AL4" s="104"/>
-      <c r="AM4" s="104"/>
-      <c r="AN4" s="104"/>
-      <c r="AO4" s="104"/>
-      <c r="AP4" s="104"/>
-      <c r="AQ4" s="105"/>
-      <c r="AR4" s="103">
-        <f>AR5</f>
+      <c r="AM4" s="119"/>
+      <c r="AN4" s="119"/>
+      <c r="AO4" s="119"/>
+      <c r="AP4" s="119"/>
+      <c r="AQ4" s="119"/>
+      <c r="AR4" s="120"/>
+      <c r="AS4" s="118">
+        <f>AS5</f>
         <v>44389</v>
       </c>
-      <c r="AS4" s="104"/>
-      <c r="AT4" s="104"/>
-      <c r="AU4" s="104"/>
-      <c r="AV4" s="104"/>
-      <c r="AW4" s="104"/>
-      <c r="AX4" s="105"/>
-      <c r="AY4" s="103">
-        <f>AY5</f>
+      <c r="AT4" s="119"/>
+      <c r="AU4" s="119"/>
+      <c r="AV4" s="119"/>
+      <c r="AW4" s="119"/>
+      <c r="AX4" s="119"/>
+      <c r="AY4" s="120"/>
+      <c r="AZ4" s="118">
+        <f>AZ5</f>
         <v>44396</v>
       </c>
-      <c r="AZ4" s="104"/>
-      <c r="BA4" s="104"/>
-      <c r="BB4" s="104"/>
-      <c r="BC4" s="104"/>
-      <c r="BD4" s="104"/>
-      <c r="BE4" s="105"/>
-      <c r="BF4" s="103">
-        <f>BF5</f>
+      <c r="BA4" s="119"/>
+      <c r="BB4" s="119"/>
+      <c r="BC4" s="119"/>
+      <c r="BD4" s="119"/>
+      <c r="BE4" s="119"/>
+      <c r="BF4" s="120"/>
+      <c r="BG4" s="118">
+        <f>BG5</f>
         <v>44403</v>
       </c>
-      <c r="BG4" s="104"/>
-      <c r="BH4" s="104"/>
-      <c r="BI4" s="104"/>
-      <c r="BJ4" s="104"/>
-      <c r="BK4" s="104"/>
-      <c r="BL4" s="105"/>
+      <c r="BH4" s="119"/>
+      <c r="BI4" s="119"/>
+      <c r="BJ4" s="119"/>
+      <c r="BK4" s="119"/>
+      <c r="BL4" s="119"/>
+      <c r="BM4" s="120"/>
     </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="116" t="s">
+    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="I5" s="34">
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="J5" s="34">
         <f>プロジェクト_開始-WEEKDAY(プロジェクト_開始,1)+2+7*(週_表示-1)</f>
         <v>44354</v>
       </c>
-      <c r="J5" s="35">
-        <f>I5+1</f>
+      <c r="K5" s="35">
+        <f>J5+1</f>
         <v>44355</v>
       </c>
-      <c r="K5" s="35">
-        <f t="shared" ref="K5:AX5" si="0">J5+1</f>
+      <c r="L5" s="35">
+        <f t="shared" ref="L5:AY5" si="0">K5+1</f>
         <v>44356</v>
       </c>
-      <c r="L5" s="35">
+      <c r="M5" s="35">
         <f t="shared" si="0"/>
         <v>44357</v>
       </c>
-      <c r="M5" s="35">
+      <c r="N5" s="35">
         <f t="shared" si="0"/>
         <v>44358</v>
       </c>
-      <c r="N5" s="35">
+      <c r="O5" s="35">
         <f t="shared" si="0"/>
         <v>44359</v>
       </c>
-      <c r="O5" s="36">
+      <c r="P5" s="36">
         <f t="shared" si="0"/>
         <v>44360</v>
       </c>
-      <c r="P5" s="34">
-        <f>O5+1</f>
+      <c r="Q5" s="34">
+        <f>P5+1</f>
         <v>44361</v>
       </c>
-      <c r="Q5" s="35">
-        <f>P5+1</f>
+      <c r="R5" s="35">
+        <f>Q5+1</f>
         <v>44362</v>
       </c>
-      <c r="R5" s="35">
+      <c r="S5" s="35">
         <f t="shared" si="0"/>
         <v>44363</v>
       </c>
-      <c r="S5" s="35">
+      <c r="T5" s="35">
         <f t="shared" si="0"/>
         <v>44364</v>
       </c>
-      <c r="T5" s="35">
+      <c r="U5" s="35">
         <f t="shared" si="0"/>
         <v>44365</v>
       </c>
-      <c r="U5" s="35">
+      <c r="V5" s="35">
         <f t="shared" si="0"/>
         <v>44366</v>
       </c>
-      <c r="V5" s="36">
+      <c r="W5" s="36">
         <f t="shared" si="0"/>
         <v>44367</v>
       </c>
-      <c r="W5" s="34">
-        <f>V5+1</f>
+      <c r="X5" s="34">
+        <f>W5+1</f>
         <v>44368</v>
       </c>
-      <c r="X5" s="35">
-        <f>W5+1</f>
+      <c r="Y5" s="35">
+        <f>X5+1</f>
         <v>44369</v>
       </c>
-      <c r="Y5" s="35">
+      <c r="Z5" s="35">
         <f t="shared" si="0"/>
         <v>44370</v>
       </c>
-      <c r="Z5" s="35">
+      <c r="AA5" s="35">
         <f t="shared" si="0"/>
         <v>44371</v>
       </c>
-      <c r="AA5" s="35">
+      <c r="AB5" s="35">
         <f t="shared" si="0"/>
         <v>44372</v>
       </c>
-      <c r="AB5" s="35">
+      <c r="AC5" s="35">
         <f t="shared" si="0"/>
         <v>44373</v>
       </c>
-      <c r="AC5" s="36">
+      <c r="AD5" s="36">
         <f t="shared" si="0"/>
         <v>44374</v>
       </c>
-      <c r="AD5" s="34">
-        <f>AC5+1</f>
+      <c r="AE5" s="34">
+        <f>AD5+1</f>
         <v>44375</v>
       </c>
-      <c r="AE5" s="35">
-        <f>AD5+1</f>
+      <c r="AF5" s="35">
+        <f>AE5+1</f>
         <v>44376</v>
       </c>
-      <c r="AF5" s="35">
+      <c r="AG5" s="35">
         <f t="shared" si="0"/>
         <v>44377</v>
       </c>
-      <c r="AG5" s="35">
+      <c r="AH5" s="35">
         <f t="shared" si="0"/>
         <v>44378</v>
       </c>
-      <c r="AH5" s="35">
+      <c r="AI5" s="35">
         <f t="shared" si="0"/>
         <v>44379</v>
       </c>
-      <c r="AI5" s="35">
+      <c r="AJ5" s="35">
         <f t="shared" si="0"/>
         <v>44380</v>
       </c>
-      <c r="AJ5" s="36">
+      <c r="AK5" s="36">
         <f t="shared" si="0"/>
         <v>44381</v>
       </c>
-      <c r="AK5" s="34">
-        <f>AJ5+1</f>
+      <c r="AL5" s="34">
+        <f>AK5+1</f>
         <v>44382</v>
       </c>
-      <c r="AL5" s="35">
-        <f>AK5+1</f>
+      <c r="AM5" s="35">
+        <f>AL5+1</f>
         <v>44383</v>
       </c>
-      <c r="AM5" s="35">
+      <c r="AN5" s="35">
         <f t="shared" si="0"/>
         <v>44384</v>
       </c>
-      <c r="AN5" s="35">
+      <c r="AO5" s="35">
         <f t="shared" si="0"/>
         <v>44385</v>
       </c>
-      <c r="AO5" s="35">
+      <c r="AP5" s="35">
         <f t="shared" si="0"/>
         <v>44386</v>
       </c>
-      <c r="AP5" s="35">
+      <c r="AQ5" s="35">
         <f t="shared" si="0"/>
         <v>44387</v>
       </c>
-      <c r="AQ5" s="36">
+      <c r="AR5" s="36">
         <f t="shared" si="0"/>
         <v>44388</v>
       </c>
-      <c r="AR5" s="34">
-        <f>AQ5+1</f>
+      <c r="AS5" s="34">
+        <f>AR5+1</f>
         <v>44389</v>
       </c>
-      <c r="AS5" s="35">
-        <f>AR5+1</f>
+      <c r="AT5" s="35">
+        <f>AS5+1</f>
         <v>44390</v>
       </c>
-      <c r="AT5" s="35">
+      <c r="AU5" s="35">
         <f t="shared" si="0"/>
         <v>44391</v>
       </c>
-      <c r="AU5" s="35">
+      <c r="AV5" s="35">
         <f t="shared" si="0"/>
         <v>44392</v>
       </c>
-      <c r="AV5" s="35">
+      <c r="AW5" s="35">
         <f t="shared" si="0"/>
         <v>44393</v>
       </c>
-      <c r="AW5" s="35">
+      <c r="AX5" s="35">
         <f t="shared" si="0"/>
         <v>44394</v>
       </c>
-      <c r="AX5" s="36">
+      <c r="AY5" s="36">
         <f t="shared" si="0"/>
         <v>44395</v>
       </c>
-      <c r="AY5" s="34">
-        <f>AX5+1</f>
+      <c r="AZ5" s="34">
+        <f>AY5+1</f>
         <v>44396</v>
       </c>
-      <c r="AZ5" s="35">
-        <f>AY5+1</f>
+      <c r="BA5" s="35">
+        <f>AZ5+1</f>
         <v>44397</v>
       </c>
-      <c r="BA5" s="35">
-        <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
+      <c r="BB5" s="35">
+        <f t="shared" ref="BB5:BF5" si="1">BA5+1</f>
         <v>44398</v>
       </c>
-      <c r="BB5" s="35">
+      <c r="BC5" s="35">
         <f t="shared" si="1"/>
         <v>44399</v>
       </c>
-      <c r="BC5" s="35">
+      <c r="BD5" s="35">
         <f t="shared" si="1"/>
         <v>44400</v>
       </c>
-      <c r="BD5" s="35">
+      <c r="BE5" s="35">
         <f t="shared" si="1"/>
         <v>44401</v>
       </c>
-      <c r="BE5" s="36">
+      <c r="BF5" s="36">
         <f t="shared" si="1"/>
         <v>44402</v>
       </c>
-      <c r="BF5" s="34">
-        <f>BE5+1</f>
+      <c r="BG5" s="34">
+        <f>BF5+1</f>
         <v>44403</v>
       </c>
-      <c r="BG5" s="35">
-        <f>BF5+1</f>
+      <c r="BH5" s="35">
+        <f>BG5+1</f>
         <v>44404</v>
       </c>
-      <c r="BH5" s="35">
-        <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
+      <c r="BI5" s="35">
+        <f t="shared" ref="BI5:BM5" si="2">BH5+1</f>
         <v>44405</v>
       </c>
-      <c r="BI5" s="35">
+      <c r="BJ5" s="35">
         <f t="shared" si="2"/>
         <v>44406</v>
       </c>
-      <c r="BJ5" s="35">
+      <c r="BK5" s="35">
         <f t="shared" si="2"/>
         <v>44407</v>
       </c>
-      <c r="BK5" s="35">
+      <c r="BL5" s="35">
         <f t="shared" si="2"/>
         <v>44408</v>
       </c>
-      <c r="BL5" s="36">
+      <c r="BM5" s="36">
         <f t="shared" si="2"/>
         <v>44409</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="87" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B6" s="87" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="E6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="F6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="G6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="16"/>
+      <c r="I6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="17" t="str">
-        <f t="shared" ref="I6:AN6" si="3">LEFT(TEXT(I5,"aaa"),1)</f>
+      <c r="J6" s="17" t="str">
+        <f t="shared" ref="J6:AO6" si="3">LEFT(TEXT(J5,"aaa"),1)</f>
         <v>月</v>
       </c>
-      <c r="J6" s="17" t="str">
+      <c r="K6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>火</v>
       </c>
-      <c r="K6" s="17" t="str">
+      <c r="L6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>水</v>
       </c>
-      <c r="L6" s="17" t="str">
+      <c r="M6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>木</v>
       </c>
-      <c r="M6" s="17" t="str">
+      <c r="N6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>金</v>
       </c>
-      <c r="N6" s="17" t="str">
+      <c r="O6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>土</v>
       </c>
-      <c r="O6" s="17" t="str">
+      <c r="P6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>日</v>
       </c>
-      <c r="P6" s="17" t="str">
+      <c r="Q6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>月</v>
       </c>
-      <c r="Q6" s="17" t="str">
+      <c r="R6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>火</v>
       </c>
-      <c r="R6" s="17" t="str">
+      <c r="S6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>水</v>
       </c>
-      <c r="S6" s="17" t="str">
+      <c r="T6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>木</v>
       </c>
-      <c r="T6" s="17" t="str">
+      <c r="U6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>金</v>
       </c>
-      <c r="U6" s="17" t="str">
+      <c r="V6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>土</v>
       </c>
-      <c r="V6" s="17" t="str">
+      <c r="W6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>日</v>
       </c>
-      <c r="W6" s="17" t="str">
+      <c r="X6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>月</v>
       </c>
-      <c r="X6" s="17" t="str">
+      <c r="Y6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>火</v>
       </c>
-      <c r="Y6" s="17" t="str">
+      <c r="Z6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>水</v>
       </c>
-      <c r="Z6" s="17" t="str">
+      <c r="AA6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>木</v>
       </c>
-      <c r="AA6" s="17" t="str">
+      <c r="AB6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>金</v>
       </c>
-      <c r="AB6" s="17" t="str">
+      <c r="AC6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>土</v>
       </c>
-      <c r="AC6" s="17" t="str">
+      <c r="AD6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>日</v>
       </c>
-      <c r="AD6" s="17" t="str">
+      <c r="AE6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>月</v>
       </c>
-      <c r="AE6" s="17" t="str">
+      <c r="AF6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>火</v>
       </c>
-      <c r="AF6" s="17" t="str">
+      <c r="AG6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>水</v>
       </c>
-      <c r="AG6" s="17" t="str">
+      <c r="AH6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>木</v>
       </c>
-      <c r="AH6" s="17" t="str">
+      <c r="AI6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>金</v>
       </c>
-      <c r="AI6" s="17" t="str">
+      <c r="AJ6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>土</v>
       </c>
-      <c r="AJ6" s="17" t="str">
+      <c r="AK6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>日</v>
       </c>
-      <c r="AK6" s="17" t="str">
+      <c r="AL6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>月</v>
       </c>
-      <c r="AL6" s="17" t="str">
+      <c r="AM6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>火</v>
       </c>
-      <c r="AM6" s="17" t="str">
+      <c r="AN6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>水</v>
       </c>
-      <c r="AN6" s="17" t="str">
+      <c r="AO6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>木</v>
       </c>
-      <c r="AO6" s="17" t="str">
-        <f t="shared" ref="AO6:BL6" si="4">LEFT(TEXT(AO5,"aaa"),1)</f>
+      <c r="AP6" s="17" t="str">
+        <f t="shared" ref="AP6:BM6" si="4">LEFT(TEXT(AP5,"aaa"),1)</f>
         <v>金</v>
       </c>
-      <c r="AP6" s="17" t="str">
+      <c r="AQ6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>土</v>
       </c>
-      <c r="AQ6" s="17" t="str">
+      <c r="AR6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>日</v>
       </c>
-      <c r="AR6" s="17" t="str">
+      <c r="AS6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>月</v>
       </c>
-      <c r="AS6" s="17" t="str">
+      <c r="AT6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>火</v>
       </c>
-      <c r="AT6" s="17" t="str">
+      <c r="AU6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>水</v>
       </c>
-      <c r="AU6" s="17" t="str">
+      <c r="AV6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>木</v>
       </c>
-      <c r="AV6" s="17" t="str">
+      <c r="AW6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>金</v>
       </c>
-      <c r="AW6" s="17" t="str">
+      <c r="AX6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>土</v>
       </c>
-      <c r="AX6" s="17" t="str">
+      <c r="AY6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>日</v>
       </c>
-      <c r="AY6" s="17" t="str">
+      <c r="AZ6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>月</v>
       </c>
-      <c r="AZ6" s="17" t="str">
+      <c r="BA6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>火</v>
       </c>
-      <c r="BA6" s="17" t="str">
+      <c r="BB6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>水</v>
       </c>
-      <c r="BB6" s="17" t="str">
+      <c r="BC6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>木</v>
       </c>
-      <c r="BC6" s="17" t="str">
+      <c r="BD6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>金</v>
       </c>
-      <c r="BD6" s="17" t="str">
+      <c r="BE6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>土</v>
       </c>
-      <c r="BE6" s="17" t="str">
+      <c r="BF6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>日</v>
       </c>
-      <c r="BF6" s="17" t="str">
+      <c r="BG6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>月</v>
       </c>
-      <c r="BG6" s="17" t="str">
+      <c r="BH6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>火</v>
       </c>
-      <c r="BH6" s="17" t="str">
+      <c r="BI6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>水</v>
       </c>
-      <c r="BI6" s="17" t="str">
+      <c r="BJ6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>木</v>
       </c>
-      <c r="BJ6" s="17" t="str">
+      <c r="BK6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>金</v>
       </c>
-      <c r="BK6" s="17" t="str">
+      <c r="BL6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>土</v>
       </c>
-      <c r="BL6" s="17" t="str">
+      <c r="BM6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>日</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="117" t="s">
+    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="104" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="E7"/>
-      <c r="H7" t="str">
+      <c r="D7" s="8"/>
+      <c r="F7"/>
+      <c r="I7" t="str">
         <f>IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
         <v/>
       </c>
-      <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -6324,22 +6235,23 @@
       <c r="BJ7" s="5"/>
       <c r="BK7" s="5"/>
       <c r="BL7" s="5"/>
+      <c r="BM7" s="5"/>
     </row>
-    <row r="8" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="88"/>
       <c r="B8" s="88" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18" t="str">
-        <f t="shared" ref="H8:H95" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18" t="str">
+        <f t="shared" ref="I8:I93" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
         <v/>
       </c>
-      <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -6395,30 +6307,31 @@
       <c r="BJ8" s="5"/>
       <c r="BK8" s="5"/>
       <c r="BL8" s="5"/>
+      <c r="BM8" s="5"/>
     </row>
-    <row r="9" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="89"/>
       <c r="B9" s="89" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="59">
+        <v>126</v>
+      </c>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D9" s="43">
+      <c r="E9" s="43">
         <v>1</v>
-      </c>
-      <c r="E9" s="44">
-        <v>44241</v>
       </c>
       <c r="F9" s="44">
         <v>44241</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18">
+      <c r="G9" s="44">
+        <v>44241</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
@@ -6474,31 +6387,32 @@
       <c r="BJ9" s="5"/>
       <c r="BK9" s="5"/>
       <c r="BL9" s="5"/>
+      <c r="BM9" s="5"/>
     </row>
-    <row r="10" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="89"/>
       <c r="B10" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="59">
+      <c r="C10" s="59"/>
+      <c r="D10" s="59">
         <v>0.32569444444444445</v>
       </c>
-      <c r="D10" s="43">
+      <c r="E10" s="43">
         <v>1</v>
       </c>
-      <c r="E10" s="44">
+      <c r="F10" s="44">
         <v>44386</v>
       </c>
-      <c r="F10" s="44">
-        <f>E10+2</f>
+      <c r="G10" s="44">
+        <f>F10+2</f>
         <v>44388</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18">
+      <c r="H10" s="18"/>
+      <c r="I10" s="18">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -6510,9 +6424,9 @@
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
-      <c r="U10" s="6"/>
+      <c r="U10" s="5"/>
       <c r="V10" s="6"/>
-      <c r="W10" s="5"/>
+      <c r="W10" s="6"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
@@ -6554,30 +6468,31 @@
       <c r="BJ10" s="5"/>
       <c r="BK10" s="5"/>
       <c r="BL10" s="5"/>
+      <c r="BM10" s="5"/>
     </row>
-    <row r="11" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="89"/>
       <c r="B11" s="89" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C11" s="59"/>
-      <c r="D11" s="43">
+      <c r="D11" s="59"/>
+      <c r="E11" s="43">
         <v>0</v>
       </c>
-      <c r="E11" s="44">
-        <f>F10</f>
+      <c r="F11" s="44">
+        <f>G10</f>
         <v>44388</v>
       </c>
-      <c r="F11" s="44">
-        <f>E11+4</f>
+      <c r="G11" s="44">
+        <f>F11+4</f>
         <v>44392</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18">
+      <c r="H11" s="18"/>
+      <c r="I11" s="18">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -6633,32 +6548,33 @@
       <c r="BJ11" s="5"/>
       <c r="BK11" s="5"/>
       <c r="BL11" s="5"/>
+      <c r="BM11" s="5"/>
     </row>
-    <row r="12" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="89"/>
       <c r="B12" s="89" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" s="59">
+        <v>118</v>
+      </c>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59">
         <v>4.6527777777777779E-2</v>
       </c>
-      <c r="D12" s="43">
+      <c r="E12" s="43">
         <v>0</v>
       </c>
-      <c r="E12" s="44">
-        <f>F11</f>
+      <c r="F12" s="44">
+        <f>G11</f>
         <v>44392</v>
       </c>
-      <c r="F12" s="44">
-        <f>E12+4</f>
+      <c r="G12" s="44">
+        <f>F12+4</f>
         <v>44396</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18">
+      <c r="H12" s="18"/>
+      <c r="I12" s="18">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -6714,22 +6630,23 @@
       <c r="BJ12" s="5"/>
       <c r="BK12" s="5"/>
       <c r="BL12" s="5"/>
+      <c r="BM12" s="5"/>
     </row>
-    <row r="13" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="90"/>
       <c r="B13" s="90" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18" t="str">
+      <c r="D13" s="45"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -6785,30 +6702,31 @@
       <c r="BJ13" s="5"/>
       <c r="BK13" s="5"/>
       <c r="BL13" s="5"/>
+      <c r="BM13" s="5"/>
     </row>
-    <row r="14" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="91"/>
       <c r="B14" s="91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="49"/>
-      <c r="D14" s="50">
+      <c r="D14" s="49"/>
+      <c r="E14" s="50">
         <v>1</v>
       </c>
-      <c r="E14" s="51">
-        <f>E11+1</f>
+      <c r="F14" s="51">
+        <f>F11+1</f>
         <v>44389</v>
       </c>
-      <c r="F14" s="51">
-        <f>E14+4</f>
+      <c r="G14" s="51">
+        <f>F14+4</f>
         <v>44393</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18">
+      <c r="H14" s="18"/>
+      <c r="I14" s="18">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -6864,22 +6782,23 @@
       <c r="BJ14" s="5"/>
       <c r="BK14" s="5"/>
       <c r="BL14" s="5"/>
+      <c r="BM14" s="5"/>
     </row>
-    <row r="15" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="92"/>
       <c r="B15" s="92" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="52"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18" t="str">
+      <c r="D15" s="52"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -6935,30 +6854,31 @@
       <c r="BJ15" s="5"/>
       <c r="BK15" s="5"/>
       <c r="BL15" s="5"/>
+      <c r="BM15" s="5"/>
     </row>
-    <row r="16" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="94"/>
       <c r="B16" s="94" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="101">
+        <v>97</v>
+      </c>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101">
         <v>0.12986111111111112</v>
       </c>
-      <c r="D16" s="57">
+      <c r="E16" s="57">
         <v>1</v>
-      </c>
-      <c r="E16" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="F16" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18" t="e">
+      <c r="G16" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -7014,30 +6934,31 @@
       <c r="BJ16" s="5"/>
       <c r="BK16" s="5"/>
       <c r="BL16" s="5"/>
+      <c r="BM16" s="5"/>
     </row>
-    <row r="17" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="94"/>
       <c r="B17" s="94" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="101">
+        <v>106</v>
+      </c>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101">
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="D17" s="57">
+      <c r="E17" s="57">
         <v>1</v>
-      </c>
-      <c r="E17" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="F17" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18" t="e">
+      <c r="G17" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -7093,30 +7014,31 @@
       <c r="BJ17" s="5"/>
       <c r="BK17" s="5"/>
       <c r="BL17" s="5"/>
+      <c r="BM17" s="5"/>
     </row>
-    <row r="18" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="94"/>
       <c r="B18" s="94" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="101">
+        <v>98</v>
+      </c>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101">
         <v>0.375</v>
       </c>
-      <c r="D18" s="57">
+      <c r="E18" s="57">
         <v>0</v>
-      </c>
-      <c r="E18" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="F18" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18" t="e">
+      <c r="G18" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
@@ -7172,28 +7094,29 @@
       <c r="BJ18" s="5"/>
       <c r="BK18" s="5"/>
       <c r="BL18" s="5"/>
+      <c r="BM18" s="5"/>
     </row>
-    <row r="19" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="94"/>
       <c r="B19" s="94" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C19" s="101"/>
-      <c r="D19" s="57">
+      <c r="D19" s="101"/>
+      <c r="E19" s="57">
         <v>1</v>
-      </c>
-      <c r="E19" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="F19" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18" t="e">
+      <c r="G19" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -7249,22 +7172,23 @@
       <c r="BJ19" s="5"/>
       <c r="BK19" s="5"/>
       <c r="BL19" s="5"/>
+      <c r="BM19" s="5"/>
     </row>
-    <row r="20" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="93"/>
       <c r="B20" s="93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="73"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18" t="str">
+      <c r="D20" s="73"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -7320,19 +7244,20 @@
       <c r="BJ20" s="5"/>
       <c r="BK20" s="5"/>
       <c r="BL20" s="5"/>
+      <c r="BM20" s="5"/>
     </row>
-    <row r="21" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="81"/>
       <c r="B21" s="81" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C21" s="73"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="18"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="76"/>
       <c r="H21" s="18"/>
-      <c r="I21" s="5"/>
+      <c r="I21" s="18"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
@@ -7388,30 +7313,31 @@
       <c r="BJ21" s="5"/>
       <c r="BK21" s="5"/>
       <c r="BL21" s="5"/>
+      <c r="BM21" s="5"/>
     </row>
-    <row r="22" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="94">
         <v>1</v>
       </c>
       <c r="B22" s="94" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C22" s="56"/>
-      <c r="D22" s="57">
+      <c r="D22" s="56"/>
+      <c r="E22" s="57">
         <v>0</v>
-      </c>
-      <c r="E22" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="F22" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18" t="e">
+      <c r="G22" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -7467,22 +7393,23 @@
       <c r="BJ22" s="5"/>
       <c r="BK22" s="5"/>
       <c r="BL22" s="5"/>
+      <c r="BM22" s="5"/>
     </row>
-    <row r="23" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="81"/>
       <c r="B23" s="81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="73"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18" t="str">
+      <c r="D23" s="73"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
@@ -7538,30 +7465,31 @@
       <c r="BJ23" s="5"/>
       <c r="BK23" s="5"/>
       <c r="BL23" s="5"/>
+      <c r="BM23" s="5"/>
     </row>
-    <row r="24" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="118">
+    <row r="24" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="105">
         <v>2</v>
       </c>
-      <c r="B24" s="118" t="s">
-        <v>41</v>
+      <c r="B24" s="105" t="s">
+        <v>40</v>
       </c>
       <c r="C24" s="56"/>
-      <c r="D24" s="57">
+      <c r="D24" s="56"/>
+      <c r="E24" s="57">
         <v>0.4</v>
-      </c>
-      <c r="E24" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="F24" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18" t="e">
+      <c r="G24" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
@@ -7617,32 +7545,33 @@
       <c r="BJ24" s="5"/>
       <c r="BK24" s="5"/>
       <c r="BL24" s="5"/>
+      <c r="BM24" s="5"/>
     </row>
-    <row r="25" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="118">
+    <row r="25" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="105">
         <v>3</v>
       </c>
-      <c r="B25" s="118" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="101">
+      <c r="B25" s="105" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101">
         <v>2.4999999999999998E-2</v>
       </c>
-      <c r="D25" s="57">
+      <c r="E25" s="57">
         <v>0</v>
-      </c>
-      <c r="E25" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="F25" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18" t="e">
+      <c r="G25" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
@@ -7698,22 +7627,23 @@
       <c r="BJ25" s="5"/>
       <c r="BK25" s="5"/>
       <c r="BL25" s="5"/>
+      <c r="BM25" s="5"/>
     </row>
-    <row r="26" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="81"/>
       <c r="B26" s="81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="73"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18" t="str">
+      <c r="D26" s="73"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
@@ -7769,30 +7699,31 @@
       <c r="BJ26" s="5"/>
       <c r="BK26" s="5"/>
       <c r="BL26" s="5"/>
+      <c r="BM26" s="5"/>
     </row>
-    <row r="27" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="95">
         <v>4</v>
       </c>
       <c r="B27" s="95" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" s="56"/>
-      <c r="D27" s="57">
+      <c r="D27" s="56"/>
+      <c r="E27" s="57">
         <v>1</v>
-      </c>
-      <c r="E27" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="F27" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18" t="e">
+      <c r="G27" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
@@ -7848,30 +7779,31 @@
       <c r="BJ27" s="5"/>
       <c r="BK27" s="5"/>
       <c r="BL27" s="5"/>
+      <c r="BM27" s="5"/>
     </row>
-    <row r="28" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="95">
         <v>5</v>
       </c>
       <c r="B28" s="95" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" s="56"/>
-      <c r="D28" s="57">
+      <c r="D28" s="56"/>
+      <c r="E28" s="57">
         <v>1</v>
-      </c>
-      <c r="E28" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="F28" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18" t="e">
+      <c r="G28" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
@@ -7927,30 +7859,33 @@
       <c r="BJ28" s="5"/>
       <c r="BK28" s="5"/>
       <c r="BL28" s="5"/>
+      <c r="BM28" s="5"/>
     </row>
-    <row r="29" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="119">
+    <row r="29" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="106">
         <v>7</v>
       </c>
       <c r="B29" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="57">
+        <v>73</v>
+      </c>
+      <c r="C29" s="101">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D29" s="56"/>
+      <c r="E29" s="57">
         <v>0</v>
-      </c>
-      <c r="E29" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="F29" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18" t="e">
+      <c r="G29" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
@@ -8006,30 +7941,33 @@
       <c r="BJ29" s="5"/>
       <c r="BK29" s="5"/>
       <c r="BL29" s="5"/>
+      <c r="BM29" s="5"/>
     </row>
-    <row r="30" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="119">
+    <row r="30" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="106">
         <v>8</v>
       </c>
       <c r="B30" s="95" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="56"/>
-      <c r="D30" s="57">
+        <v>74</v>
+      </c>
+      <c r="C30" s="101">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D30" s="56"/>
+      <c r="E30" s="57">
         <v>0</v>
-      </c>
-      <c r="E30" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="F30" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18" t="e">
+      <c r="G30" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
@@ -8085,22 +8023,23 @@
       <c r="BJ30" s="5"/>
       <c r="BK30" s="5"/>
       <c r="BL30" s="5"/>
+      <c r="BM30" s="5"/>
     </row>
-    <row r="31" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="81"/>
       <c r="B31" s="81" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C31" s="73"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18" t="str">
+      <c r="D31" s="73"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
@@ -8156,30 +8095,31 @@
       <c r="BJ31" s="5"/>
       <c r="BK31" s="5"/>
       <c r="BL31" s="5"/>
+      <c r="BM31" s="5"/>
     </row>
-    <row r="32" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="119">
+    <row r="32" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="106">
         <v>9</v>
       </c>
       <c r="B32" s="95" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C32" s="56"/>
-      <c r="D32" s="57">
+      <c r="D32" s="56"/>
+      <c r="E32" s="57">
         <v>0.8</v>
-      </c>
-      <c r="E32" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="F32" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18" t="e">
+      <c r="G32" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -8235,22 +8175,23 @@
       <c r="BJ32" s="5"/>
       <c r="BK32" s="5"/>
       <c r="BL32" s="5"/>
+      <c r="BM32" s="5"/>
     </row>
-    <row r="33" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="81"/>
       <c r="B33" s="81" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C33" s="73"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18" t="str">
+      <c r="D33" s="73"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -8306,32 +8247,35 @@
       <c r="BJ33" s="5"/>
       <c r="BK33" s="5"/>
       <c r="BL33" s="5"/>
+      <c r="BM33" s="5"/>
     </row>
-    <row r="34" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="119">
+    <row r="34" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="106">
         <v>10</v>
       </c>
       <c r="B34" s="95" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C34" s="101">
+        <v>0.75</v>
+      </c>
+      <c r="D34" s="101">
         <v>0.24305555555555555</v>
       </c>
-      <c r="D34" s="57">
+      <c r="E34" s="57">
         <v>0.6</v>
-      </c>
-      <c r="E34" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="F34" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18" t="e">
+      <c r="G34" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -8387,30 +8331,31 @@
       <c r="BJ34" s="5"/>
       <c r="BK34" s="5"/>
       <c r="BL34" s="5"/>
+      <c r="BM34" s="5"/>
     </row>
-    <row r="35" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="95">
         <v>11</v>
       </c>
       <c r="B35" s="95" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C35" s="56"/>
-      <c r="D35" s="57">
+      <c r="D35" s="56"/>
+      <c r="E35" s="57">
         <v>1</v>
-      </c>
-      <c r="E35" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="F35" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18" t="e">
+      <c r="G35" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
@@ -8466,30 +8411,33 @@
       <c r="BJ35" s="5"/>
       <c r="BK35" s="5"/>
       <c r="BL35" s="5"/>
+      <c r="BM35" s="5"/>
     </row>
-    <row r="36" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="119">
+    <row r="36" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="106">
         <v>12</v>
       </c>
       <c r="B36" s="95" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" s="101"/>
-      <c r="D36" s="57">
+        <v>119</v>
+      </c>
+      <c r="C36" s="101">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D36" s="101"/>
+      <c r="E36" s="57">
         <v>0</v>
-      </c>
-      <c r="E36" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="F36" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18" t="e">
+      <c r="G36" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
@@ -8545,22 +8493,23 @@
       <c r="BJ36" s="5"/>
       <c r="BK36" s="5"/>
       <c r="BL36" s="5"/>
+      <c r="BM36" s="5"/>
     </row>
-    <row r="37" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="81"/>
       <c r="B37" s="81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" s="73"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18" t="str">
+      <c r="D37" s="73"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
@@ -8616,30 +8565,33 @@
       <c r="BJ37" s="5"/>
       <c r="BK37" s="5"/>
       <c r="BL37" s="5"/>
+      <c r="BM37" s="5"/>
     </row>
-    <row r="38" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="119">
+    <row r="38" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="106">
         <v>13</v>
       </c>
       <c r="B38" s="95" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="56"/>
-      <c r="D38" s="57">
+        <v>50</v>
+      </c>
+      <c r="C38" s="101">
+        <v>0.125</v>
+      </c>
+      <c r="D38" s="56"/>
+      <c r="E38" s="57">
         <v>0</v>
-      </c>
-      <c r="E38" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="F38" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18" t="e">
+      <c r="G38" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -8695,22 +8647,23 @@
       <c r="BJ38" s="5"/>
       <c r="BK38" s="5"/>
       <c r="BL38" s="5"/>
+      <c r="BM38" s="5"/>
     </row>
-    <row r="39" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="81"/>
       <c r="B39" s="81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" s="73"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18" t="str">
+      <c r="D39" s="73"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
@@ -8766,30 +8719,31 @@
       <c r="BJ39" s="5"/>
       <c r="BK39" s="5"/>
       <c r="BL39" s="5"/>
+      <c r="BM39" s="5"/>
     </row>
-    <row r="40" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="120">
+    <row r="40" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="107">
         <v>14</v>
       </c>
       <c r="B40" s="83" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="C40" s="56"/>
-      <c r="D40" s="57">
+      <c r="D40" s="56"/>
+      <c r="E40" s="57">
         <v>0</v>
-      </c>
-      <c r="E40" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="F40" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18" t="e">
+      <c r="G40" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
@@ -8845,30 +8799,31 @@
       <c r="BJ40" s="5"/>
       <c r="BK40" s="5"/>
       <c r="BL40" s="5"/>
+      <c r="BM40" s="5"/>
     </row>
-    <row r="41" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="120">
+    <row r="41" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="83">
         <v>15</v>
       </c>
       <c r="B41" s="83" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C41" s="56"/>
-      <c r="D41" s="57">
+      <c r="D41" s="56"/>
+      <c r="E41" s="57">
         <v>0</v>
-      </c>
-      <c r="E41" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="F41" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18" t="e">
+      <c r="G41" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
@@ -8924,30 +8879,31 @@
       <c r="BJ41" s="5"/>
       <c r="BK41" s="5"/>
       <c r="BL41" s="5"/>
+      <c r="BM41" s="5"/>
     </row>
-    <row r="42" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="83">
         <v>16</v>
       </c>
       <c r="B42" s="83" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C42" s="56"/>
-      <c r="D42" s="57">
+      <c r="D42" s="56"/>
+      <c r="E42" s="57">
         <v>0</v>
-      </c>
-      <c r="E42" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="F42" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18" t="e">
+      <c r="G42" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
@@ -9003,30 +8959,23 @@
       <c r="BJ42" s="5"/>
       <c r="BK42" s="5"/>
       <c r="BL42" s="5"/>
+      <c r="BM42" s="5"/>
     </row>
-    <row r="43" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="83">
-        <v>17</v>
-      </c>
-      <c r="B43" s="83" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" s="56"/>
-      <c r="D43" s="57">
-        <v>0</v>
-      </c>
-      <c r="E43" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18" t="e">
+    <row r="43" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="81"/>
+      <c r="B43" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="73"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I43" s="5"/>
+        <v/>
+      </c>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
@@ -9082,30 +9031,31 @@
       <c r="BJ43" s="5"/>
       <c r="BK43" s="5"/>
       <c r="BL43" s="5"/>
+      <c r="BM43" s="5"/>
     </row>
-    <row r="44" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="83">
-        <v>18</v>
-      </c>
-      <c r="B44" s="83" t="s">
-        <v>78</v>
+    <row r="44" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="95">
+        <v>17</v>
+      </c>
+      <c r="B44" s="95" t="s">
+        <v>48</v>
       </c>
       <c r="C44" s="56"/>
-      <c r="D44" s="57">
+      <c r="D44" s="56"/>
+      <c r="E44" s="57">
         <v>0</v>
-      </c>
-      <c r="E44" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="F44" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18" t="e">
+      <c r="G44" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -9161,22 +9111,23 @@
       <c r="BJ44" s="5"/>
       <c r="BK44" s="5"/>
       <c r="BL44" s="5"/>
+      <c r="BM44" s="5"/>
     </row>
-    <row r="45" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="81"/>
-      <c r="B45" s="81" t="s">
-        <v>45</v>
+    <row r="45" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="93"/>
+      <c r="B45" s="82" t="s">
+        <v>96</v>
       </c>
       <c r="C45" s="73"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="76"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18" t="str">
+      <c r="D45" s="73"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
@@ -9232,30 +9183,20 @@
       <c r="BJ45" s="5"/>
       <c r="BK45" s="5"/>
       <c r="BL45" s="5"/>
+      <c r="BM45" s="5"/>
     </row>
-    <row r="46" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="95">
-        <v>19</v>
-      </c>
-      <c r="B46" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" s="56"/>
-      <c r="D46" s="57">
-        <v>0</v>
-      </c>
-      <c r="E46" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I46" s="5"/>
+    <row r="46" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="81"/>
+      <c r="B46" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="73"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
@@ -9311,22 +9252,31 @@
       <c r="BJ46" s="5"/>
       <c r="BK46" s="5"/>
       <c r="BL46" s="5"/>
+      <c r="BM46" s="5"/>
     </row>
-    <row r="47" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="93"/>
-      <c r="B47" s="82" t="s">
-        <v>99</v>
-      </c>
-      <c r="C47" s="73"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="75"/>
-      <c r="F47" s="76"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18" t="str">
+    <row r="47" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="95">
+        <v>18</v>
+      </c>
+      <c r="B47" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="57">
+        <v>0</v>
+      </c>
+      <c r="F47" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18" t="e">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I47" s="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
@@ -9382,19 +9332,23 @@
       <c r="BJ47" s="5"/>
       <c r="BK47" s="5"/>
       <c r="BL47" s="5"/>
+      <c r="BM47" s="5"/>
     </row>
-    <row r="48" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="81"/>
-      <c r="B48" s="72" t="s">
-        <v>47</v>
+    <row r="48" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="93"/>
+      <c r="B48" s="99" t="s">
+        <v>65</v>
       </c>
       <c r="C48" s="73"/>
-      <c r="D48" s="74"/>
-      <c r="E48" s="75"/>
-      <c r="F48" s="76"/>
-      <c r="G48" s="18"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="76"/>
       <c r="H48" s="18"/>
-      <c r="I48" s="5"/>
+      <c r="I48" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
@@ -9450,30 +9404,31 @@
       <c r="BJ48" s="5"/>
       <c r="BK48" s="5"/>
       <c r="BL48" s="5"/>
+      <c r="BM48" s="5"/>
     </row>
-    <row r="49" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="95">
-        <v>20</v>
-      </c>
-      <c r="B49" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="100" t="s">
         <v>62</v>
       </c>
       <c r="C49" s="56"/>
-      <c r="D49" s="57">
+      <c r="D49" s="56"/>
+      <c r="E49" s="57">
         <v>0</v>
-      </c>
-      <c r="E49" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="F49" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18" t="e">
+      <c r="G49" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
@@ -9529,22 +9484,20 @@
       <c r="BJ49" s="5"/>
       <c r="BK49" s="5"/>
       <c r="BL49" s="5"/>
+      <c r="BM49" s="5"/>
     </row>
-    <row r="50" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="93"/>
-      <c r="B50" s="99" t="s">
-        <v>66</v>
+    <row r="50" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="81"/>
+      <c r="B50" s="72" t="s">
+        <v>47</v>
       </c>
       <c r="C50" s="73"/>
-      <c r="D50" s="74"/>
-      <c r="E50" s="75"/>
-      <c r="F50" s="76"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I50" s="5"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="75"/>
+      <c r="G50" s="76"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
@@ -9600,30 +9553,31 @@
       <c r="BJ50" s="5"/>
       <c r="BK50" s="5"/>
       <c r="BL50" s="5"/>
+      <c r="BM50" s="5"/>
     </row>
-    <row r="51" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="95">
-        <v>21</v>
-      </c>
-      <c r="B51" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="80" t="s">
         <v>63</v>
       </c>
       <c r="C51" s="56"/>
-      <c r="D51" s="57">
+      <c r="D51" s="56"/>
+      <c r="E51" s="57">
         <v>0</v>
-      </c>
-      <c r="E51" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="F51" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18" t="e">
+      <c r="G51" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
@@ -9679,19 +9633,20 @@
       <c r="BJ51" s="5"/>
       <c r="BK51" s="5"/>
       <c r="BL51" s="5"/>
+      <c r="BM51" s="5"/>
     </row>
-    <row r="52" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="81"/>
-      <c r="B52" s="72" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52" s="73"/>
-      <c r="D52" s="74"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="76"/>
-      <c r="G52" s="18"/>
+    <row r="52" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="93"/>
+      <c r="B52" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="77"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="78"/>
+      <c r="F52" s="79"/>
+      <c r="G52" s="79"/>
       <c r="H52" s="18"/>
-      <c r="I52" s="5"/>
+      <c r="I52" s="18"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
@@ -9747,30 +9702,28 @@
       <c r="BJ52" s="5"/>
       <c r="BK52" s="5"/>
       <c r="BL52" s="5"/>
+      <c r="BM52" s="5"/>
     </row>
-    <row r="53" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="95">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B53" s="80" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C53" s="56"/>
-      <c r="D53" s="57">
+      <c r="D53" s="56"/>
+      <c r="E53" s="57">
         <v>0</v>
-      </c>
-      <c r="E53" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="F53" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I53" s="5"/>
+      <c r="G53" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
@@ -9826,19 +9779,28 @@
       <c r="BJ53" s="5"/>
       <c r="BK53" s="5"/>
       <c r="BL53" s="5"/>
+      <c r="BM53" s="5"/>
     </row>
-    <row r="54" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="93"/>
-      <c r="B54" s="82" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" s="77"/>
-      <c r="D54" s="78"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="79"/>
-      <c r="G54" s="18"/>
+    <row r="54" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="95">
+        <v>22</v>
+      </c>
+      <c r="B54" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="56"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="57">
+        <v>0</v>
+      </c>
+      <c r="F54" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="H54" s="18"/>
-      <c r="I54" s="5"/>
+      <c r="I54" s="18"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
@@ -9894,27 +9856,22 @@
       <c r="BJ54" s="5"/>
       <c r="BK54" s="5"/>
       <c r="BL54" s="5"/>
+      <c r="BM54" s="5"/>
     </row>
-    <row r="55" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="95">
         <v>23</v>
       </c>
       <c r="B55" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" s="56"/>
-      <c r="D55" s="57">
-        <v>0</v>
-      </c>
-      <c r="E55" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="18"/>
+        <v>64</v>
+      </c>
+      <c r="C55" s="77"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="78"/>
+      <c r="F55" s="79"/>
+      <c r="G55" s="79"/>
       <c r="H55" s="18"/>
-      <c r="I55" s="5"/>
+      <c r="I55" s="18"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
@@ -9970,8 +9927,9 @@
       <c r="BJ55" s="5"/>
       <c r="BK55" s="5"/>
       <c r="BL55" s="5"/>
+      <c r="BM55" s="5"/>
     </row>
-    <row r="56" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="95">
         <v>24</v>
       </c>
@@ -9979,18 +9937,18 @@
         <v>56</v>
       </c>
       <c r="C56" s="56"/>
-      <c r="D56" s="57">
+      <c r="D56" s="56"/>
+      <c r="E56" s="57">
         <v>0</v>
-      </c>
-      <c r="E56" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="F56" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G56" s="18"/>
+      <c r="G56" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="H56" s="18"/>
-      <c r="I56" s="5"/>
+      <c r="I56" s="18"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
@@ -10046,21 +10004,28 @@
       <c r="BJ56" s="5"/>
       <c r="BK56" s="5"/>
       <c r="BL56" s="5"/>
+      <c r="BM56" s="5"/>
     </row>
-    <row r="57" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="95">
         <v>25</v>
       </c>
       <c r="B57" s="80" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57" s="77"/>
-      <c r="D57" s="78"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="18"/>
+        <v>76</v>
+      </c>
+      <c r="C57" s="56"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="57">
+        <v>0</v>
+      </c>
+      <c r="F57" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="H57" s="18"/>
-      <c r="I57" s="5"/>
+      <c r="I57" s="18"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
@@ -10116,27 +10081,28 @@
       <c r="BJ57" s="5"/>
       <c r="BK57" s="5"/>
       <c r="BL57" s="5"/>
+      <c r="BM57" s="5"/>
     </row>
-    <row r="58" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="95">
         <v>26</v>
       </c>
       <c r="B58" s="80" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C58" s="56"/>
-      <c r="D58" s="57">
+      <c r="D58" s="56"/>
+      <c r="E58" s="57">
         <v>0</v>
-      </c>
-      <c r="E58" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="F58" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G58" s="18"/>
+      <c r="G58" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="H58" s="18"/>
-      <c r="I58" s="5"/>
+      <c r="I58" s="18"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
@@ -10192,27 +10158,28 @@
       <c r="BJ58" s="5"/>
       <c r="BK58" s="5"/>
       <c r="BL58" s="5"/>
+      <c r="BM58" s="5"/>
     </row>
-    <row r="59" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="95">
         <v>27</v>
       </c>
       <c r="B59" s="80" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C59" s="56"/>
-      <c r="D59" s="57">
+      <c r="D59" s="56"/>
+      <c r="E59" s="57">
         <v>0</v>
-      </c>
-      <c r="E59" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="F59" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G59" s="18"/>
+      <c r="G59" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="H59" s="18"/>
-      <c r="I59" s="5"/>
+      <c r="I59" s="18"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
@@ -10268,27 +10235,28 @@
       <c r="BJ59" s="5"/>
       <c r="BK59" s="5"/>
       <c r="BL59" s="5"/>
+      <c r="BM59" s="5"/>
     </row>
-    <row r="60" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="95">
         <v>28</v>
       </c>
       <c r="B60" s="80" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C60" s="56"/>
-      <c r="D60" s="57">
+      <c r="D60" s="56"/>
+      <c r="E60" s="57">
         <v>0</v>
-      </c>
-      <c r="E60" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="F60" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G60" s="18"/>
+      <c r="G60" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="H60" s="18"/>
-      <c r="I60" s="5"/>
+      <c r="I60" s="18"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
@@ -10344,8 +10312,9 @@
       <c r="BJ60" s="5"/>
       <c r="BK60" s="5"/>
       <c r="BL60" s="5"/>
+      <c r="BM60" s="5"/>
     </row>
-    <row r="61" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="95">
         <v>29</v>
       </c>
@@ -10353,18 +10322,18 @@
         <v>58</v>
       </c>
       <c r="C61" s="56"/>
-      <c r="D61" s="57">
+      <c r="D61" s="56"/>
+      <c r="E61" s="57">
         <v>0</v>
-      </c>
-      <c r="E61" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="F61" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G61" s="18"/>
+      <c r="G61" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="H61" s="18"/>
-      <c r="I61" s="5"/>
+      <c r="I61" s="18"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
@@ -10420,27 +10389,28 @@
       <c r="BJ61" s="5"/>
       <c r="BK61" s="5"/>
       <c r="BL61" s="5"/>
+      <c r="BM61" s="5"/>
     </row>
-    <row r="62" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="95">
         <v>30</v>
       </c>
       <c r="B62" s="80" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C62" s="56"/>
-      <c r="D62" s="57">
+      <c r="D62" s="56"/>
+      <c r="E62" s="57">
         <v>0</v>
-      </c>
-      <c r="E62" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="F62" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G62" s="18"/>
+      <c r="G62" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="H62" s="18"/>
-      <c r="I62" s="5"/>
+      <c r="I62" s="18"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
@@ -10496,8 +10466,9 @@
       <c r="BJ62" s="5"/>
       <c r="BK62" s="5"/>
       <c r="BL62" s="5"/>
+      <c r="BM62" s="5"/>
     </row>
-    <row r="63" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="95">
         <v>31</v>
       </c>
@@ -10505,18 +10476,18 @@
         <v>59</v>
       </c>
       <c r="C63" s="56"/>
-      <c r="D63" s="57">
+      <c r="D63" s="56"/>
+      <c r="E63" s="57">
         <v>0</v>
-      </c>
-      <c r="E63" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="F63" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G63" s="18"/>
+      <c r="G63" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="H63" s="18"/>
-      <c r="I63" s="5"/>
+      <c r="I63" s="18"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
@@ -10572,27 +10543,28 @@
       <c r="BJ63" s="5"/>
       <c r="BK63" s="5"/>
       <c r="BL63" s="5"/>
+      <c r="BM63" s="5"/>
     </row>
-    <row r="64" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="95">
         <v>32</v>
       </c>
       <c r="B64" s="80" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C64" s="56"/>
-      <c r="D64" s="57">
+      <c r="D64" s="56"/>
+      <c r="E64" s="57">
         <v>0</v>
-      </c>
-      <c r="E64" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="F64" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G64" s="18"/>
+      <c r="G64" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="H64" s="18"/>
-      <c r="I64" s="5"/>
+      <c r="I64" s="18"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
@@ -10648,27 +10620,28 @@
       <c r="BJ64" s="5"/>
       <c r="BK64" s="5"/>
       <c r="BL64" s="5"/>
+      <c r="BM64" s="5"/>
     </row>
-    <row r="65" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="95">
         <v>33</v>
       </c>
       <c r="B65" s="80" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C65" s="56"/>
-      <c r="D65" s="57">
+      <c r="D65" s="56"/>
+      <c r="E65" s="57">
         <v>0</v>
-      </c>
-      <c r="E65" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="F65" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G65" s="18"/>
+      <c r="G65" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="H65" s="18"/>
-      <c r="I65" s="5"/>
+      <c r="I65" s="18"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
@@ -10724,27 +10697,28 @@
       <c r="BJ65" s="5"/>
       <c r="BK65" s="5"/>
       <c r="BL65" s="5"/>
+      <c r="BM65" s="5"/>
     </row>
-    <row r="66" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="95">
         <v>34</v>
       </c>
       <c r="B66" s="80" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C66" s="56"/>
-      <c r="D66" s="57">
+      <c r="D66" s="56"/>
+      <c r="E66" s="57">
         <v>0</v>
-      </c>
-      <c r="E66" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="F66" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G66" s="18"/>
+      <c r="G66" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="H66" s="18"/>
-      <c r="I66" s="5"/>
+      <c r="I66" s="18"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
@@ -10800,27 +10774,28 @@
       <c r="BJ66" s="5"/>
       <c r="BK66" s="5"/>
       <c r="BL66" s="5"/>
+      <c r="BM66" s="5"/>
     </row>
-    <row r="67" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="95">
         <v>35</v>
       </c>
       <c r="B67" s="80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C67" s="56"/>
-      <c r="D67" s="57">
+      <c r="D67" s="56"/>
+      <c r="E67" s="57">
         <v>0</v>
-      </c>
-      <c r="E67" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="F67" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G67" s="18"/>
+      <c r="G67" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="H67" s="18"/>
-      <c r="I67" s="5"/>
+      <c r="I67" s="18"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
@@ -10876,27 +10851,28 @@
       <c r="BJ67" s="5"/>
       <c r="BK67" s="5"/>
       <c r="BL67" s="5"/>
+      <c r="BM67" s="5"/>
     </row>
-    <row r="68" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="95">
         <v>36</v>
       </c>
       <c r="B68" s="80" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C68" s="56"/>
-      <c r="D68" s="57">
+      <c r="D68" s="56"/>
+      <c r="E68" s="57">
         <v>0</v>
-      </c>
-      <c r="E68" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="F68" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G68" s="18"/>
+      <c r="G68" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="H68" s="18"/>
-      <c r="I68" s="5"/>
+      <c r="I68" s="18"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
@@ -10952,27 +10928,28 @@
       <c r="BJ68" s="5"/>
       <c r="BK68" s="5"/>
       <c r="BL68" s="5"/>
+      <c r="BM68" s="5"/>
     </row>
-    <row r="69" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="95">
         <v>37</v>
       </c>
       <c r="B69" s="80" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C69" s="56"/>
-      <c r="D69" s="57">
+      <c r="D69" s="56"/>
+      <c r="E69" s="57">
         <v>0</v>
-      </c>
-      <c r="E69" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="F69" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G69" s="18"/>
+      <c r="G69" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="H69" s="18"/>
-      <c r="I69" s="5"/>
+      <c r="I69" s="18"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
@@ -11028,27 +11005,28 @@
       <c r="BJ69" s="5"/>
       <c r="BK69" s="5"/>
       <c r="BL69" s="5"/>
+      <c r="BM69" s="5"/>
     </row>
-    <row r="70" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="95">
         <v>38</v>
       </c>
       <c r="B70" s="80" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C70" s="56"/>
-      <c r="D70" s="57">
+      <c r="D70" s="56"/>
+      <c r="E70" s="57">
         <v>0</v>
-      </c>
-      <c r="E70" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="F70" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G70" s="18"/>
+      <c r="G70" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="H70" s="18"/>
-      <c r="I70" s="5"/>
+      <c r="I70" s="18"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
@@ -11104,27 +11082,28 @@
       <c r="BJ70" s="5"/>
       <c r="BK70" s="5"/>
       <c r="BL70" s="5"/>
+      <c r="BM70" s="5"/>
     </row>
-    <row r="71" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="95">
         <v>39</v>
       </c>
       <c r="B71" s="80" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="C71" s="56"/>
-      <c r="D71" s="57">
+      <c r="D71" s="56"/>
+      <c r="E71" s="57">
         <v>0</v>
-      </c>
-      <c r="E71" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="F71" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G71" s="18"/>
+      <c r="G71" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="H71" s="18"/>
-      <c r="I71" s="5"/>
+      <c r="I71" s="18"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
@@ -11180,27 +11159,22 @@
       <c r="BJ71" s="5"/>
       <c r="BK71" s="5"/>
       <c r="BL71" s="5"/>
+      <c r="BM71" s="5"/>
     </row>
-    <row r="72" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="95">
         <v>40</v>
       </c>
       <c r="B72" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="C72" s="56"/>
-      <c r="D72" s="57">
-        <v>0</v>
-      </c>
-      <c r="E72" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="18"/>
+        <v>46</v>
+      </c>
+      <c r="C72" s="77"/>
+      <c r="D72" s="77"/>
+      <c r="E72" s="78"/>
+      <c r="F72" s="79"/>
+      <c r="G72" s="79"/>
       <c r="H72" s="18"/>
-      <c r="I72" s="5"/>
+      <c r="I72" s="18"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
@@ -11256,27 +11230,28 @@
       <c r="BJ72" s="5"/>
       <c r="BK72" s="5"/>
       <c r="BL72" s="5"/>
+      <c r="BM72" s="5"/>
     </row>
-    <row r="73" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="95">
         <v>41</v>
       </c>
       <c r="B73" s="80" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C73" s="56"/>
-      <c r="D73" s="57">
+      <c r="D73" s="56"/>
+      <c r="E73" s="57">
         <v>0</v>
-      </c>
-      <c r="E73" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="F73" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G73" s="18"/>
+      <c r="G73" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="H73" s="18"/>
-      <c r="I73" s="5"/>
+      <c r="I73" s="18"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
@@ -11332,21 +11307,28 @@
       <c r="BJ73" s="5"/>
       <c r="BK73" s="5"/>
       <c r="BL73" s="5"/>
+      <c r="BM73" s="5"/>
     </row>
-    <row r="74" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="95">
         <v>42</v>
       </c>
       <c r="B74" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="C74" s="77"/>
-      <c r="D74" s="78"/>
-      <c r="E74" s="79"/>
-      <c r="F74" s="79"/>
-      <c r="G74" s="18"/>
+        <v>67</v>
+      </c>
+      <c r="C74" s="56"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="57">
+        <v>0</v>
+      </c>
+      <c r="F74" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="H74" s="18"/>
-      <c r="I74" s="5"/>
+      <c r="I74" s="18"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
@@ -11402,27 +11384,22 @@
       <c r="BJ74" s="5"/>
       <c r="BK74" s="5"/>
       <c r="BL74" s="5"/>
+      <c r="BM74" s="5"/>
     </row>
-    <row r="75" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="95">
         <v>43</v>
       </c>
       <c r="B75" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="C75" s="56"/>
-      <c r="D75" s="57">
-        <v>0</v>
-      </c>
-      <c r="E75" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" s="18"/>
+        <v>68</v>
+      </c>
+      <c r="C75" s="77"/>
+      <c r="D75" s="77"/>
+      <c r="E75" s="78"/>
+      <c r="F75" s="79"/>
+      <c r="G75" s="79"/>
       <c r="H75" s="18"/>
-      <c r="I75" s="5"/>
+      <c r="I75" s="18"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
@@ -11478,27 +11455,28 @@
       <c r="BJ75" s="5"/>
       <c r="BK75" s="5"/>
       <c r="BL75" s="5"/>
+      <c r="BM75" s="5"/>
     </row>
-    <row r="76" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="95">
         <v>44</v>
       </c>
       <c r="B76" s="80" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C76" s="56"/>
-      <c r="D76" s="57">
+      <c r="D76" s="56"/>
+      <c r="E76" s="57">
         <v>0</v>
-      </c>
-      <c r="E76" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="F76" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G76" s="18"/>
+      <c r="G76" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="H76" s="18"/>
-      <c r="I76" s="5"/>
+      <c r="I76" s="18"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
@@ -11554,21 +11532,23 @@
       <c r="BJ76" s="5"/>
       <c r="BK76" s="5"/>
       <c r="BL76" s="5"/>
+      <c r="BM76" s="5"/>
     </row>
-    <row r="77" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="95">
-        <v>45</v>
-      </c>
-      <c r="B77" s="80" t="s">
-        <v>69</v>
-      </c>
-      <c r="C77" s="77"/>
-      <c r="D77" s="78"/>
-      <c r="E77" s="79"/>
-      <c r="F77" s="79"/>
-      <c r="G77" s="18"/>
+    <row r="77" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="96"/>
+      <c r="B77" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="C77" s="62"/>
+      <c r="D77" s="62"/>
+      <c r="E77" s="63"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="65"/>
       <c r="H77" s="18"/>
-      <c r="I77" s="5"/>
+      <c r="I77" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
@@ -11624,177 +11604,191 @@
       <c r="BJ77" s="5"/>
       <c r="BK77" s="5"/>
       <c r="BL77" s="5"/>
+      <c r="BM77" s="5"/>
     </row>
-    <row r="78" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="95">
-        <v>46</v>
-      </c>
-      <c r="B78" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="C78" s="56"/>
-      <c r="D78" s="57">
+    <row r="78" spans="1:65" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="97">
+        <v>45</v>
+      </c>
+      <c r="B78" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78" s="66"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="67">
         <v>0</v>
       </c>
-      <c r="E78" s="58" t="s">
+      <c r="F78" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="F78" s="58" t="s">
+      <c r="G78" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="G78" s="18"/>
-      <c r="H78" s="18"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-      <c r="K78" s="5"/>
-      <c r="L78" s="5"/>
-      <c r="M78" s="5"/>
-      <c r="N78" s="5"/>
-      <c r="O78" s="5"/>
-      <c r="P78" s="5"/>
-      <c r="Q78" s="5"/>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
-      <c r="T78" s="5"/>
-      <c r="U78" s="5"/>
-      <c r="V78" s="5"/>
-      <c r="W78" s="5"/>
-      <c r="X78" s="5"/>
-      <c r="Y78" s="5"/>
-      <c r="Z78" s="5"/>
-      <c r="AA78" s="5"/>
-      <c r="AB78" s="5"/>
-      <c r="AC78" s="5"/>
-      <c r="AD78" s="5"/>
-      <c r="AE78" s="5"/>
-      <c r="AF78" s="5"/>
-      <c r="AG78" s="5"/>
-      <c r="AH78" s="5"/>
-      <c r="AI78" s="5"/>
-      <c r="AJ78" s="5"/>
-      <c r="AK78" s="5"/>
-      <c r="AL78" s="5"/>
-      <c r="AM78" s="5"/>
-      <c r="AN78" s="5"/>
-      <c r="AO78" s="5"/>
-      <c r="AP78" s="5"/>
-      <c r="AQ78" s="5"/>
-      <c r="AR78" s="5"/>
-      <c r="AS78" s="5"/>
-      <c r="AT78" s="5"/>
-      <c r="AU78" s="5"/>
-      <c r="AV78" s="5"/>
-      <c r="AW78" s="5"/>
-      <c r="AX78" s="5"/>
-      <c r="AY78" s="5"/>
-      <c r="AZ78" s="5"/>
-      <c r="BA78" s="5"/>
-      <c r="BB78" s="5"/>
-      <c r="BC78" s="5"/>
-      <c r="BD78" s="5"/>
-      <c r="BE78" s="5"/>
-      <c r="BF78" s="5"/>
-      <c r="BG78" s="5"/>
-      <c r="BH78" s="5"/>
-      <c r="BI78" s="5"/>
-      <c r="BJ78" s="5"/>
-      <c r="BK78" s="5"/>
-      <c r="BL78" s="5"/>
+      <c r="H78" s="69"/>
+      <c r="I78" s="69" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J78" s="70"/>
+      <c r="K78" s="70"/>
+      <c r="L78" s="70"/>
+      <c r="M78" s="70"/>
+      <c r="N78" s="70"/>
+      <c r="O78" s="70"/>
+      <c r="P78" s="70"/>
+      <c r="Q78" s="70"/>
+      <c r="R78" s="70"/>
+      <c r="S78" s="70"/>
+      <c r="T78" s="70"/>
+      <c r="U78" s="70"/>
+      <c r="V78" s="70"/>
+      <c r="W78" s="70"/>
+      <c r="X78" s="70"/>
+      <c r="Y78" s="70"/>
+      <c r="Z78" s="70"/>
+      <c r="AA78" s="70"/>
+      <c r="AB78" s="70"/>
+      <c r="AC78" s="70"/>
+      <c r="AD78" s="70"/>
+      <c r="AE78" s="70"/>
+      <c r="AF78" s="70"/>
+      <c r="AG78" s="70"/>
+      <c r="AH78" s="70"/>
+      <c r="AI78" s="70"/>
+      <c r="AJ78" s="70"/>
+      <c r="AK78" s="70"/>
+      <c r="AL78" s="70"/>
+      <c r="AM78" s="70"/>
+      <c r="AN78" s="70"/>
+      <c r="AO78" s="70"/>
+      <c r="AP78" s="70"/>
+      <c r="AQ78" s="70"/>
+      <c r="AR78" s="70"/>
+      <c r="AS78" s="70"/>
+      <c r="AT78" s="70"/>
+      <c r="AU78" s="70"/>
+      <c r="AV78" s="70"/>
+      <c r="AW78" s="70"/>
+      <c r="AX78" s="70"/>
+      <c r="AY78" s="70"/>
+      <c r="AZ78" s="70"/>
+      <c r="BA78" s="70"/>
+      <c r="BB78" s="70"/>
+      <c r="BC78" s="70"/>
+      <c r="BD78" s="70"/>
+      <c r="BE78" s="70"/>
+      <c r="BF78" s="70"/>
+      <c r="BG78" s="70"/>
+      <c r="BH78" s="70"/>
+      <c r="BI78" s="70"/>
+      <c r="BJ78" s="70"/>
+      <c r="BK78" s="70"/>
+      <c r="BL78" s="70"/>
+      <c r="BM78" s="70"/>
     </row>
-    <row r="79" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="96"/>
-      <c r="B79" s="96" t="s">
-        <v>39</v>
-      </c>
-      <c r="C79" s="62"/>
-      <c r="D79" s="63"/>
-      <c r="E79" s="64"/>
-      <c r="F79" s="65"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18" t="str">
+    <row r="79" spans="1:65" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="97">
+        <v>45</v>
+      </c>
+      <c r="B79" s="97" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79" s="66"/>
+      <c r="D79" s="66"/>
+      <c r="E79" s="67">
+        <v>0</v>
+      </c>
+      <c r="F79" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" s="69"/>
+      <c r="I79" s="69" t="e">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
-      <c r="L79" s="5"/>
-      <c r="M79" s="5"/>
-      <c r="N79" s="5"/>
-      <c r="O79" s="5"/>
-      <c r="P79" s="5"/>
-      <c r="Q79" s="5"/>
-      <c r="R79" s="5"/>
-      <c r="S79" s="5"/>
-      <c r="T79" s="5"/>
-      <c r="U79" s="5"/>
-      <c r="V79" s="5"/>
-      <c r="W79" s="5"/>
-      <c r="X79" s="5"/>
-      <c r="Y79" s="5"/>
-      <c r="Z79" s="5"/>
-      <c r="AA79" s="5"/>
-      <c r="AB79" s="5"/>
-      <c r="AC79" s="5"/>
-      <c r="AD79" s="5"/>
-      <c r="AE79" s="5"/>
-      <c r="AF79" s="5"/>
-      <c r="AG79" s="5"/>
-      <c r="AH79" s="5"/>
-      <c r="AI79" s="5"/>
-      <c r="AJ79" s="5"/>
-      <c r="AK79" s="5"/>
-      <c r="AL79" s="5"/>
-      <c r="AM79" s="5"/>
-      <c r="AN79" s="5"/>
-      <c r="AO79" s="5"/>
-      <c r="AP79" s="5"/>
-      <c r="AQ79" s="5"/>
-      <c r="AR79" s="5"/>
-      <c r="AS79" s="5"/>
-      <c r="AT79" s="5"/>
-      <c r="AU79" s="5"/>
-      <c r="AV79" s="5"/>
-      <c r="AW79" s="5"/>
-      <c r="AX79" s="5"/>
-      <c r="AY79" s="5"/>
-      <c r="AZ79" s="5"/>
-      <c r="BA79" s="5"/>
-      <c r="BB79" s="5"/>
-      <c r="BC79" s="5"/>
-      <c r="BD79" s="5"/>
-      <c r="BE79" s="5"/>
-      <c r="BF79" s="5"/>
-      <c r="BG79" s="5"/>
-      <c r="BH79" s="5"/>
-      <c r="BI79" s="5"/>
-      <c r="BJ79" s="5"/>
-      <c r="BK79" s="5"/>
-      <c r="BL79" s="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J79" s="70"/>
+      <c r="K79" s="70"/>
+      <c r="L79" s="70"/>
+      <c r="M79" s="70"/>
+      <c r="N79" s="70"/>
+      <c r="O79" s="70"/>
+      <c r="P79" s="70"/>
+      <c r="Q79" s="70"/>
+      <c r="R79" s="70"/>
+      <c r="S79" s="70"/>
+      <c r="T79" s="70"/>
+      <c r="U79" s="70"/>
+      <c r="V79" s="70"/>
+      <c r="W79" s="70"/>
+      <c r="X79" s="70"/>
+      <c r="Y79" s="70"/>
+      <c r="Z79" s="70"/>
+      <c r="AA79" s="70"/>
+      <c r="AB79" s="70"/>
+      <c r="AC79" s="70"/>
+      <c r="AD79" s="70"/>
+      <c r="AE79" s="70"/>
+      <c r="AF79" s="70"/>
+      <c r="AG79" s="70"/>
+      <c r="AH79" s="70"/>
+      <c r="AI79" s="70"/>
+      <c r="AJ79" s="70"/>
+      <c r="AK79" s="70"/>
+      <c r="AL79" s="70"/>
+      <c r="AM79" s="70"/>
+      <c r="AN79" s="70"/>
+      <c r="AO79" s="70"/>
+      <c r="AP79" s="70"/>
+      <c r="AQ79" s="70"/>
+      <c r="AR79" s="70"/>
+      <c r="AS79" s="70"/>
+      <c r="AT79" s="70"/>
+      <c r="AU79" s="70"/>
+      <c r="AV79" s="70"/>
+      <c r="AW79" s="70"/>
+      <c r="AX79" s="70"/>
+      <c r="AY79" s="70"/>
+      <c r="AZ79" s="70"/>
+      <c r="BA79" s="70"/>
+      <c r="BB79" s="70"/>
+      <c r="BC79" s="70"/>
+      <c r="BD79" s="70"/>
+      <c r="BE79" s="70"/>
+      <c r="BF79" s="70"/>
+      <c r="BG79" s="70"/>
+      <c r="BH79" s="70"/>
+      <c r="BI79" s="70"/>
+      <c r="BJ79" s="70"/>
+      <c r="BK79" s="70"/>
+      <c r="BL79" s="70"/>
+      <c r="BM79" s="70"/>
     </row>
-    <row r="80" spans="1:64" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:65" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="97">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B80" s="97" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C80" s="66"/>
-      <c r="D80" s="67">
+      <c r="D80" s="66"/>
+      <c r="E80" s="67">
         <v>0</v>
-      </c>
-      <c r="E80" s="68" t="s">
-        <v>12</v>
       </c>
       <c r="F80" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="G80" s="69"/>
-      <c r="H80" s="69" t="e">
+      <c r="G80" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="69"/>
+      <c r="I80" s="69" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I80" s="70"/>
       <c r="J80" s="70"/>
       <c r="K80" s="70"/>
       <c r="L80" s="70"/>
@@ -11850,30 +11844,31 @@
       <c r="BJ80" s="70"/>
       <c r="BK80" s="70"/>
       <c r="BL80" s="70"/>
+      <c r="BM80" s="70"/>
     </row>
-    <row r="81" spans="1:64" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:65" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="97">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B81" s="97" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C81" s="66"/>
-      <c r="D81" s="67">
+      <c r="D81" s="66"/>
+      <c r="E81" s="67">
         <v>0</v>
-      </c>
-      <c r="E81" s="68" t="s">
-        <v>12</v>
       </c>
       <c r="F81" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="G81" s="69"/>
-      <c r="H81" s="69" t="e">
+      <c r="G81" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" s="69"/>
+      <c r="I81" s="69" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I81" s="70"/>
       <c r="J81" s="70"/>
       <c r="K81" s="70"/>
       <c r="L81" s="70"/>
@@ -11929,30 +11924,31 @@
       <c r="BJ81" s="70"/>
       <c r="BK81" s="70"/>
       <c r="BL81" s="70"/>
+      <c r="BM81" s="70"/>
     </row>
-    <row r="82" spans="1:64" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:65" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="97">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B82" s="97" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C82" s="66"/>
-      <c r="D82" s="67">
+      <c r="D82" s="66"/>
+      <c r="E82" s="67">
         <v>0</v>
-      </c>
-      <c r="E82" s="68" t="s">
-        <v>12</v>
       </c>
       <c r="F82" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="G82" s="69"/>
-      <c r="H82" s="69" t="e">
+      <c r="G82" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" s="69"/>
+      <c r="I82" s="69" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I82" s="70"/>
       <c r="J82" s="70"/>
       <c r="K82" s="70"/>
       <c r="L82" s="70"/>
@@ -12008,30 +12004,31 @@
       <c r="BJ82" s="70"/>
       <c r="BK82" s="70"/>
       <c r="BL82" s="70"/>
+      <c r="BM82" s="70"/>
     </row>
-    <row r="83" spans="1:64" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:65" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="97">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B83" s="97" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C83" s="66"/>
-      <c r="D83" s="67">
+      <c r="D83" s="66"/>
+      <c r="E83" s="67">
         <v>0</v>
-      </c>
-      <c r="E83" s="68" t="s">
-        <v>12</v>
       </c>
       <c r="F83" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="G83" s="69"/>
-      <c r="H83" s="69" t="e">
+      <c r="G83" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" s="69"/>
+      <c r="I83" s="69" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I83" s="70"/>
       <c r="J83" s="70"/>
       <c r="K83" s="70"/>
       <c r="L83" s="70"/>
@@ -12087,30 +12084,31 @@
       <c r="BJ83" s="70"/>
       <c r="BK83" s="70"/>
       <c r="BL83" s="70"/>
+      <c r="BM83" s="70"/>
     </row>
-    <row r="84" spans="1:64" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:65" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="97">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B84" s="97" t="s">
         <v>89</v>
       </c>
       <c r="C84" s="66"/>
-      <c r="D84" s="67">
+      <c r="D84" s="66"/>
+      <c r="E84" s="67">
         <v>0</v>
-      </c>
-      <c r="E84" s="68" t="s">
-        <v>12</v>
       </c>
       <c r="F84" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="G84" s="69"/>
-      <c r="H84" s="69" t="e">
+      <c r="G84" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" s="69"/>
+      <c r="I84" s="69" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I84" s="70"/>
       <c r="J84" s="70"/>
       <c r="K84" s="70"/>
       <c r="L84" s="70"/>
@@ -12166,30 +12164,31 @@
       <c r="BJ84" s="70"/>
       <c r="BK84" s="70"/>
       <c r="BL84" s="70"/>
+      <c r="BM84" s="70"/>
     </row>
-    <row r="85" spans="1:64" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:65" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="97">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B85" s="97" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C85" s="66"/>
-      <c r="D85" s="67">
+      <c r="D85" s="66"/>
+      <c r="E85" s="67">
         <v>0</v>
-      </c>
-      <c r="E85" s="68" t="s">
-        <v>12</v>
       </c>
       <c r="F85" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="G85" s="69"/>
-      <c r="H85" s="69" t="e">
+      <c r="G85" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" s="69"/>
+      <c r="I85" s="69" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I85" s="70"/>
       <c r="J85" s="70"/>
       <c r="K85" s="70"/>
       <c r="L85" s="70"/>
@@ -12245,30 +12244,22 @@
       <c r="BJ85" s="70"/>
       <c r="BK85" s="70"/>
       <c r="BL85" s="70"/>
+      <c r="BM85" s="70"/>
     </row>
-    <row r="86" spans="1:64" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:65" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="97">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B86" s="97" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="C86" s="66"/>
-      <c r="D86" s="67">
-        <v>0</v>
-      </c>
-      <c r="E86" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" s="69"/>
-      <c r="H86" s="69" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I86" s="70"/>
+      <c r="D86" s="66"/>
+      <c r="E86" s="67"/>
+      <c r="F86" s="68"/>
+      <c r="G86" s="68"/>
+      <c r="H86" s="69"/>
+      <c r="I86" s="69"/>
       <c r="J86" s="70"/>
       <c r="K86" s="70"/>
       <c r="L86" s="70"/>
@@ -12324,30 +12315,31 @@
       <c r="BJ86" s="70"/>
       <c r="BK86" s="70"/>
       <c r="BL86" s="70"/>
+      <c r="BM86" s="70"/>
     </row>
-    <row r="87" spans="1:64" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:65" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="97">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B87" s="97" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C87" s="66"/>
-      <c r="D87" s="67">
+      <c r="D87" s="66"/>
+      <c r="E87" s="67">
         <v>0</v>
-      </c>
-      <c r="E87" s="68" t="s">
-        <v>12</v>
       </c>
       <c r="F87" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="G87" s="69"/>
-      <c r="H87" s="69" t="e">
+      <c r="G87" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" s="69"/>
+      <c r="I87" s="69" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I87" s="70"/>
       <c r="J87" s="70"/>
       <c r="K87" s="70"/>
       <c r="L87" s="70"/>
@@ -12403,21 +12395,31 @@
       <c r="BJ87" s="70"/>
       <c r="BK87" s="70"/>
       <c r="BL87" s="70"/>
+      <c r="BM87" s="70"/>
     </row>
-    <row r="88" spans="1:64" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:65" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="97">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B88" s="97" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="C88" s="66"/>
-      <c r="D88" s="67"/>
-      <c r="E88" s="68"/>
-      <c r="F88" s="68"/>
-      <c r="G88" s="69"/>
+      <c r="D88" s="66"/>
+      <c r="E88" s="67">
+        <v>0</v>
+      </c>
+      <c r="F88" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="G88" s="68" t="s">
+        <v>12</v>
+      </c>
       <c r="H88" s="69"/>
-      <c r="I88" s="70"/>
+      <c r="I88" s="69" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="J88" s="70"/>
       <c r="K88" s="70"/>
       <c r="L88" s="70"/>
@@ -12473,192 +12475,187 @@
       <c r="BJ88" s="70"/>
       <c r="BK88" s="70"/>
       <c r="BL88" s="70"/>
+      <c r="BM88" s="70"/>
     </row>
-    <row r="89" spans="1:64" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="97">
-        <v>56</v>
-      </c>
-      <c r="B89" s="97" t="s">
-        <v>97</v>
-      </c>
-      <c r="C89" s="66"/>
-      <c r="D89" s="67">
-        <v>0</v>
-      </c>
-      <c r="E89" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="F89" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" s="69"/>
-      <c r="H89" s="69" t="e">
+    <row r="89" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" s="109"/>
+      <c r="C89" s="110">
+        <f>SUM(C9:C85)</f>
+        <v>1.125</v>
+      </c>
+      <c r="D89" s="110">
+        <f>SUM(D9:D85)</f>
+        <v>1.2006944444444445</v>
+      </c>
+      <c r="E89" s="61">
+        <f>AVERAGE(E9:E85)</f>
+        <v>0.18947368421052632</v>
+      </c>
+      <c r="F89" s="61">
+        <v>0.03</v>
+      </c>
+      <c r="G89" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I89" s="70"/>
-      <c r="J89" s="70"/>
-      <c r="K89" s="70"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
       <c r="L89" s="70"/>
-      <c r="M89" s="70"/>
-      <c r="N89" s="70"/>
-      <c r="O89" s="70"/>
-      <c r="P89" s="70"/>
-      <c r="Q89" s="70"/>
-      <c r="R89" s="70"/>
-      <c r="S89" s="70"/>
-      <c r="T89" s="70"/>
-      <c r="U89" s="70"/>
-      <c r="V89" s="70"/>
-      <c r="W89" s="70"/>
-      <c r="X89" s="70"/>
-      <c r="Y89" s="70"/>
-      <c r="Z89" s="70"/>
-      <c r="AA89" s="70"/>
-      <c r="AB89" s="70"/>
-      <c r="AC89" s="70"/>
-      <c r="AD89" s="70"/>
-      <c r="AE89" s="70"/>
-      <c r="AF89" s="70"/>
-      <c r="AG89" s="70"/>
-      <c r="AH89" s="70"/>
-      <c r="AI89" s="70"/>
-      <c r="AJ89" s="70"/>
-      <c r="AK89" s="70"/>
-      <c r="AL89" s="70"/>
-      <c r="AM89" s="70"/>
-      <c r="AN89" s="70"/>
-      <c r="AO89" s="70"/>
-      <c r="AP89" s="70"/>
-      <c r="AQ89" s="70"/>
-      <c r="AR89" s="70"/>
-      <c r="AS89" s="70"/>
-      <c r="AT89" s="70"/>
-      <c r="AU89" s="70"/>
-      <c r="AV89" s="70"/>
-      <c r="AW89" s="70"/>
-      <c r="AX89" s="70"/>
-      <c r="AY89" s="70"/>
-      <c r="AZ89" s="70"/>
-      <c r="BA89" s="70"/>
-      <c r="BB89" s="70"/>
-      <c r="BC89" s="70"/>
-      <c r="BD89" s="70"/>
-      <c r="BE89" s="70"/>
-      <c r="BF89" s="70"/>
-      <c r="BG89" s="70"/>
-      <c r="BH89" s="70"/>
-      <c r="BI89" s="70"/>
-      <c r="BJ89" s="70"/>
-      <c r="BK89" s="70"/>
-      <c r="BL89" s="70"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="5"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="5"/>
+      <c r="Q89" s="5"/>
+      <c r="R89" s="5"/>
+      <c r="S89" s="5"/>
+      <c r="T89" s="5"/>
+      <c r="U89" s="5"/>
+      <c r="V89" s="5"/>
+      <c r="W89" s="5"/>
+      <c r="X89" s="5"/>
+      <c r="Y89" s="5"/>
+      <c r="Z89" s="5"/>
+      <c r="AA89" s="5"/>
+      <c r="AB89" s="5"/>
+      <c r="AC89" s="5"/>
+      <c r="AD89" s="5"/>
+      <c r="AE89" s="5"/>
+      <c r="AF89" s="5"/>
+      <c r="AG89" s="5"/>
+      <c r="AH89" s="5"/>
+      <c r="AI89" s="5"/>
+      <c r="AJ89" s="5"/>
+      <c r="AK89" s="5"/>
+      <c r="AL89" s="5"/>
+      <c r="AM89" s="5"/>
+      <c r="AN89" s="5"/>
+      <c r="AO89" s="5"/>
+      <c r="AP89" s="5"/>
+      <c r="AQ89" s="5"/>
+      <c r="AR89" s="5"/>
+      <c r="AS89" s="5"/>
+      <c r="AT89" s="5"/>
+      <c r="AU89" s="5"/>
+      <c r="AV89" s="5"/>
+      <c r="AW89" s="5"/>
+      <c r="AX89" s="5"/>
+      <c r="AY89" s="5"/>
+      <c r="AZ89" s="5"/>
+      <c r="BA89" s="5"/>
+      <c r="BB89" s="5"/>
+      <c r="BC89" s="5"/>
+      <c r="BD89" s="5"/>
+      <c r="BE89" s="5"/>
+      <c r="BF89" s="5"/>
+      <c r="BG89" s="5"/>
+      <c r="BH89" s="5"/>
+      <c r="BI89" s="5"/>
+      <c r="BJ89" s="5"/>
+      <c r="BK89" s="5"/>
+      <c r="BL89" s="5"/>
+      <c r="BM89" s="5"/>
     </row>
-    <row r="90" spans="1:64" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="97">
-        <v>57</v>
-      </c>
-      <c r="B90" s="97" t="s">
-        <v>98</v>
-      </c>
-      <c r="C90" s="66"/>
-      <c r="D90" s="67">
-        <v>0</v>
-      </c>
-      <c r="E90" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="F90" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" s="69"/>
-      <c r="H90" s="69" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I90" s="70"/>
-      <c r="J90" s="70"/>
-      <c r="K90" s="70"/>
-      <c r="L90" s="70"/>
-      <c r="M90" s="70"/>
-      <c r="N90" s="70"/>
-      <c r="O90" s="70"/>
-      <c r="P90" s="70"/>
-      <c r="Q90" s="70"/>
-      <c r="R90" s="70"/>
-      <c r="S90" s="70"/>
-      <c r="T90" s="70"/>
-      <c r="U90" s="70"/>
-      <c r="V90" s="70"/>
-      <c r="W90" s="70"/>
-      <c r="X90" s="70"/>
-      <c r="Y90" s="70"/>
-      <c r="Z90" s="70"/>
-      <c r="AA90" s="70"/>
-      <c r="AB90" s="70"/>
-      <c r="AC90" s="70"/>
-      <c r="AD90" s="70"/>
-      <c r="AE90" s="70"/>
-      <c r="AF90" s="70"/>
-      <c r="AG90" s="70"/>
-      <c r="AH90" s="70"/>
-      <c r="AI90" s="70"/>
-      <c r="AJ90" s="70"/>
-      <c r="AK90" s="70"/>
-      <c r="AL90" s="70"/>
-      <c r="AM90" s="70"/>
-      <c r="AN90" s="70"/>
-      <c r="AO90" s="70"/>
-      <c r="AP90" s="70"/>
-      <c r="AQ90" s="70"/>
-      <c r="AR90" s="70"/>
-      <c r="AS90" s="70"/>
-      <c r="AT90" s="70"/>
-      <c r="AU90" s="70"/>
-      <c r="AV90" s="70"/>
-      <c r="AW90" s="70"/>
-      <c r="AX90" s="70"/>
-      <c r="AY90" s="70"/>
-      <c r="AZ90" s="70"/>
-      <c r="BA90" s="70"/>
-      <c r="BB90" s="70"/>
-      <c r="BC90" s="70"/>
-      <c r="BD90" s="70"/>
-      <c r="BE90" s="70"/>
-      <c r="BF90" s="70"/>
-      <c r="BG90" s="70"/>
-      <c r="BH90" s="70"/>
-      <c r="BI90" s="70"/>
-      <c r="BJ90" s="70"/>
-      <c r="BK90" s="70"/>
-      <c r="BL90" s="70"/>
+    <row r="90" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="104"/>
+      <c r="B90" s="109" t="s">
+        <v>123</v>
+      </c>
+      <c r="C90" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="D90" s="111" t="s">
+        <v>101</v>
+      </c>
+      <c r="E90" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="F90" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="G90" s="112" t="s">
+        <v>104</v>
+      </c>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="5"/>
+      <c r="Q90" s="5"/>
+      <c r="R90" s="5"/>
+      <c r="S90" s="5"/>
+      <c r="T90" s="5"/>
+      <c r="U90" s="5"/>
+      <c r="V90" s="5"/>
+      <c r="W90" s="5"/>
+      <c r="X90" s="5"/>
+      <c r="Y90" s="5"/>
+      <c r="Z90" s="5"/>
+      <c r="AA90" s="5"/>
+      <c r="AB90" s="5"/>
+      <c r="AC90" s="5"/>
+      <c r="AD90" s="5"/>
+      <c r="AE90" s="5"/>
+      <c r="AF90" s="5"/>
+      <c r="AG90" s="5"/>
+      <c r="AH90" s="5"/>
+      <c r="AI90" s="5"/>
+      <c r="AJ90" s="5"/>
+      <c r="AK90" s="5"/>
+      <c r="AL90" s="5"/>
+      <c r="AM90" s="5"/>
+      <c r="AN90" s="5"/>
+      <c r="AO90" s="5"/>
+      <c r="AP90" s="5"/>
+      <c r="AQ90" s="5"/>
+      <c r="AR90" s="5"/>
+      <c r="AS90" s="5"/>
+      <c r="AT90" s="5"/>
+      <c r="AU90" s="5"/>
+      <c r="AV90" s="5"/>
+      <c r="AW90" s="5"/>
+      <c r="AX90" s="5"/>
+      <c r="AY90" s="5"/>
+      <c r="AZ90" s="5"/>
+      <c r="BA90" s="5"/>
+      <c r="BB90" s="5"/>
+      <c r="BC90" s="5"/>
+      <c r="BD90" s="5"/>
+      <c r="BE90" s="5"/>
+      <c r="BF90" s="5"/>
+      <c r="BG90" s="5"/>
+      <c r="BH90" s="5"/>
+      <c r="BI90" s="5"/>
+      <c r="BJ90" s="5"/>
+      <c r="BK90" s="5"/>
+      <c r="BL90" s="5"/>
+      <c r="BM90" s="5"/>
     </row>
-    <row r="91" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="121" t="s">
-        <v>6</v>
-      </c>
-      <c r="B91" s="122"/>
-      <c r="C91" s="123">
-        <f>SUM(C9:C87)</f>
-        <v>1.2006944444444445</v>
-      </c>
-      <c r="D91" s="61">
-        <f>AVERAGE(D9:D87)</f>
-        <v>0.18305084745762712</v>
-      </c>
+    <row r="91" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="104"/>
+      <c r="C91" s="112"/>
+      <c r="D91" s="112"/>
       <c r="E91" s="61">
-        <v>0.03</v>
-      </c>
-      <c r="F91" s="61" t="s">
-        <v>124</v>
-      </c>
-      <c r="G91" s="18"/>
-      <c r="H91" s="18" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
+        <v>0.16</v>
+      </c>
+      <c r="F91" s="114"/>
+      <c r="G91" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="H91" s="5"/>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
-      <c r="K91" s="70"/>
+      <c r="K91" s="5"/>
       <c r="L91" s="5"/>
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
@@ -12712,26 +12709,23 @@
       <c r="BJ91" s="5"/>
       <c r="BK91" s="5"/>
       <c r="BL91" s="5"/>
+      <c r="BM91" s="5"/>
     </row>
-    <row r="92" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="117"/>
-      <c r="B92" s="122" t="s">
-        <v>126</v>
-      </c>
-      <c r="C92" s="124" t="s">
-        <v>104</v>
-      </c>
-      <c r="D92" s="61" t="s">
-        <v>103</v>
-      </c>
+    <row r="92" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="104"/>
+      <c r="B92" s="112" t="s">
+        <v>116</v>
+      </c>
+      <c r="C92" s="113"/>
+      <c r="D92" s="113"/>
       <c r="E92" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="F92" s="125" t="s">
-        <v>107</v>
-      </c>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
+        <v>102</v>
+      </c>
+      <c r="F92" s="114"/>
+      <c r="G92" s="112" t="s">
+        <v>105</v>
+      </c>
+      <c r="H92" s="5"/>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
@@ -12788,256 +12782,119 @@
       <c r="BJ92" s="5"/>
       <c r="BK92" s="5"/>
       <c r="BL92" s="5"/>
+      <c r="BM92" s="5"/>
     </row>
-    <row r="93" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="117"/>
-      <c r="C93" s="125"/>
-      <c r="D93" s="61">
-        <v>0.16</v>
-      </c>
-      <c r="E93" s="127"/>
-      <c r="F93" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5"/>
-      <c r="K93" s="5"/>
-      <c r="L93" s="5"/>
-      <c r="M93" s="5"/>
-      <c r="N93" s="5"/>
-      <c r="O93" s="5"/>
-      <c r="P93" s="5"/>
-      <c r="Q93" s="5"/>
-      <c r="R93" s="5"/>
-      <c r="S93" s="5"/>
-      <c r="T93" s="5"/>
-      <c r="U93" s="5"/>
-      <c r="V93" s="5"/>
-      <c r="W93" s="5"/>
-      <c r="X93" s="5"/>
-      <c r="Y93" s="5"/>
-      <c r="Z93" s="5"/>
-      <c r="AA93" s="5"/>
-      <c r="AB93" s="5"/>
-      <c r="AC93" s="5"/>
-      <c r="AD93" s="5"/>
-      <c r="AE93" s="5"/>
-      <c r="AF93" s="5"/>
-      <c r="AG93" s="5"/>
-      <c r="AH93" s="5"/>
-      <c r="AI93" s="5"/>
-      <c r="AJ93" s="5"/>
-      <c r="AK93" s="5"/>
-      <c r="AL93" s="5"/>
-      <c r="AM93" s="5"/>
-      <c r="AN93" s="5"/>
-      <c r="AO93" s="5"/>
-      <c r="AP93" s="5"/>
-      <c r="AQ93" s="5"/>
-      <c r="AR93" s="5"/>
-      <c r="AS93" s="5"/>
-      <c r="AT93" s="5"/>
-      <c r="AU93" s="5"/>
-      <c r="AV93" s="5"/>
-      <c r="AW93" s="5"/>
-      <c r="AX93" s="5"/>
-      <c r="AY93" s="5"/>
-      <c r="AZ93" s="5"/>
-      <c r="BA93" s="5"/>
-      <c r="BB93" s="5"/>
-      <c r="BC93" s="5"/>
-      <c r="BD93" s="5"/>
-      <c r="BE93" s="5"/>
-      <c r="BF93" s="5"/>
-      <c r="BG93" s="5"/>
-      <c r="BH93" s="5"/>
-      <c r="BI93" s="5"/>
-      <c r="BJ93" s="5"/>
-      <c r="BK93" s="5"/>
-      <c r="BL93" s="5"/>
-    </row>
-    <row r="94" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="117"/>
-      <c r="B94" s="125" t="s">
-        <v>119</v>
-      </c>
-      <c r="C94" s="126"/>
-      <c r="D94" s="61" t="s">
-        <v>105</v>
-      </c>
-      <c r="E94" s="127"/>
-      <c r="F94" s="125" t="s">
-        <v>108</v>
-      </c>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5"/>
-      <c r="K94" s="5"/>
-      <c r="L94" s="5"/>
-      <c r="M94" s="5"/>
-      <c r="N94" s="5"/>
-      <c r="O94" s="5"/>
-      <c r="P94" s="5"/>
-      <c r="Q94" s="5"/>
-      <c r="R94" s="5"/>
-      <c r="S94" s="5"/>
-      <c r="T94" s="5"/>
-      <c r="U94" s="5"/>
-      <c r="V94" s="5"/>
-      <c r="W94" s="5"/>
-      <c r="X94" s="5"/>
-      <c r="Y94" s="5"/>
-      <c r="Z94" s="5"/>
-      <c r="AA94" s="5"/>
-      <c r="AB94" s="5"/>
-      <c r="AC94" s="5"/>
-      <c r="AD94" s="5"/>
-      <c r="AE94" s="5"/>
-      <c r="AF94" s="5"/>
-      <c r="AG94" s="5"/>
-      <c r="AH94" s="5"/>
-      <c r="AI94" s="5"/>
-      <c r="AJ94" s="5"/>
-      <c r="AK94" s="5"/>
-      <c r="AL94" s="5"/>
-      <c r="AM94" s="5"/>
-      <c r="AN94" s="5"/>
-      <c r="AO94" s="5"/>
-      <c r="AP94" s="5"/>
-      <c r="AQ94" s="5"/>
-      <c r="AR94" s="5"/>
-      <c r="AS94" s="5"/>
-      <c r="AT94" s="5"/>
-      <c r="AU94" s="5"/>
-      <c r="AV94" s="5"/>
-      <c r="AW94" s="5"/>
-      <c r="AX94" s="5"/>
-      <c r="AY94" s="5"/>
-      <c r="AZ94" s="5"/>
-      <c r="BA94" s="5"/>
-      <c r="BB94" s="5"/>
-      <c r="BC94" s="5"/>
-      <c r="BD94" s="5"/>
-      <c r="BE94" s="5"/>
-      <c r="BF94" s="5"/>
-      <c r="BG94" s="5"/>
-      <c r="BH94" s="5"/>
-      <c r="BI94" s="5"/>
-      <c r="BJ94" s="5"/>
-      <c r="BK94" s="5"/>
-      <c r="BL94" s="5"/>
-    </row>
-    <row r="95" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="116" t="s">
+    <row r="93" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="B95" s="98" t="s">
+      <c r="B93" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="C95" s="38"/>
-      <c r="D95" s="60"/>
-      <c r="E95" s="37"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="20"/>
-      <c r="H95" s="20" t="str">
+      <c r="C93" s="38"/>
+      <c r="D93" s="38"/>
+      <c r="E93" s="60"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
-      <c r="K95" s="7"/>
-      <c r="L95" s="7"/>
-      <c r="M95" s="7"/>
-      <c r="N95" s="7"/>
-      <c r="O95" s="7"/>
-      <c r="P95" s="7"/>
-      <c r="Q95" s="7"/>
-      <c r="R95" s="7"/>
-      <c r="S95" s="7"/>
-      <c r="T95" s="7"/>
-      <c r="U95" s="7"/>
-      <c r="V95" s="7"/>
-      <c r="W95" s="7"/>
-      <c r="X95" s="7"/>
-      <c r="Y95" s="7"/>
-      <c r="Z95" s="7"/>
-      <c r="AA95" s="7"/>
-      <c r="AB95" s="7"/>
-      <c r="AC95" s="7"/>
-      <c r="AD95" s="7"/>
-      <c r="AE95" s="7"/>
-      <c r="AF95" s="7"/>
-      <c r="AG95" s="7"/>
-      <c r="AH95" s="7"/>
-      <c r="AI95" s="7"/>
-      <c r="AJ95" s="7"/>
-      <c r="AK95" s="7"/>
-      <c r="AL95" s="7"/>
-      <c r="AM95" s="7"/>
-      <c r="AN95" s="7"/>
-      <c r="AO95" s="7"/>
-      <c r="AP95" s="7"/>
-      <c r="AQ95" s="7"/>
-      <c r="AR95" s="7"/>
-      <c r="AS95" s="7"/>
-      <c r="AT95" s="7"/>
-      <c r="AU95" s="7"/>
-      <c r="AV95" s="7"/>
-      <c r="AW95" s="7"/>
-      <c r="AX95" s="7"/>
-      <c r="AY95" s="7"/>
-      <c r="AZ95" s="7"/>
-      <c r="BA95" s="7"/>
-      <c r="BB95" s="7"/>
-      <c r="BC95" s="7"/>
-      <c r="BD95" s="7"/>
-      <c r="BE95" s="7"/>
-      <c r="BF95" s="7"/>
-      <c r="BG95" s="7"/>
-      <c r="BH95" s="7"/>
-      <c r="BI95" s="7"/>
-      <c r="BJ95" s="7"/>
-      <c r="BK95" s="7"/>
-      <c r="BL95" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7"/>
+      <c r="O93" s="7"/>
+      <c r="P93" s="7"/>
+      <c r="Q93" s="7"/>
+      <c r="R93" s="7"/>
+      <c r="S93" s="7"/>
+      <c r="T93" s="7"/>
+      <c r="U93" s="7"/>
+      <c r="V93" s="7"/>
+      <c r="W93" s="7"/>
+      <c r="X93" s="7"/>
+      <c r="Y93" s="7"/>
+      <c r="Z93" s="7"/>
+      <c r="AA93" s="7"/>
+      <c r="AB93" s="7"/>
+      <c r="AC93" s="7"/>
+      <c r="AD93" s="7"/>
+      <c r="AE93" s="7"/>
+      <c r="AF93" s="7"/>
+      <c r="AG93" s="7"/>
+      <c r="AH93" s="7"/>
+      <c r="AI93" s="7"/>
+      <c r="AJ93" s="7"/>
+      <c r="AK93" s="7"/>
+      <c r="AL93" s="7"/>
+      <c r="AM93" s="7"/>
+      <c r="AN93" s="7"/>
+      <c r="AO93" s="7"/>
+      <c r="AP93" s="7"/>
+      <c r="AQ93" s="7"/>
+      <c r="AR93" s="7"/>
+      <c r="AS93" s="7"/>
+      <c r="AT93" s="7"/>
+      <c r="AU93" s="7"/>
+      <c r="AV93" s="7"/>
+      <c r="AW93" s="7"/>
+      <c r="AX93" s="7"/>
+      <c r="AY93" s="7"/>
+      <c r="AZ93" s="7"/>
+      <c r="BA93" s="7"/>
+      <c r="BB93" s="7"/>
+      <c r="BC93" s="7"/>
+      <c r="BD93" s="7"/>
+      <c r="BE93" s="7"/>
+      <c r="BF93" s="7"/>
+      <c r="BG93" s="7"/>
+      <c r="BH93" s="7"/>
+      <c r="BI93" s="7"/>
+      <c r="BJ93" s="7"/>
+      <c r="BK93" s="7"/>
+      <c r="BL93" s="7"/>
+      <c r="BM93" s="7"/>
     </row>
-    <row r="96" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="86"/>
+      <c r="B94"/>
+      <c r="H94" s="3"/>
+    </row>
+    <row r="95" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="86"/>
+      <c r="B95"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="G95" s="21"/>
+    </row>
+    <row r="96" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="86"/>
       <c r="B96"/>
-      <c r="G96" s="3"/>
-    </row>
-    <row r="97" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="86"/>
-      <c r="B97"/>
-      <c r="C97" s="14"/>
-      <c r="F97" s="21"/>
-    </row>
-    <row r="98" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="86"/>
-      <c r="B98"/>
-      <c r="C98" s="22"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="P3:V3"/>
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="BF4:BL4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="AZ4:BF4"/>
+    <mergeCell ref="BG4:BM4"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="Q4:W4"/>
+    <mergeCell ref="X4:AD4"/>
+    <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="Q3:W3"/>
   </mergeCells>
   <phoneticPr fontId="37"/>
-  <conditionalFormatting sqref="D7:D11 D24 D79:D81 D91 D84:D86 D32:D33 D13:D15 D36:D44 D29:D30">
+  <conditionalFormatting sqref="E7:E11 E24 E77:E79 E89 E82:E84 E32:E33 E13:E15 E29:E30 E36:E42">
     <cfRule type="dataBar" priority="491">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13051,20 +12908,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL11 I24:BL24 I79:BL81 I91:J91 I84:BL86 L91:BL91 I32:BL33 I13:BL15 I36:BL44 I29:BL30">
-    <cfRule type="expression" dxfId="235" priority="510">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL11 I24:BL24 I79:BL81 I91:J91 I84:BL86 L91:BL91 I32:BL33 I13:BL15 I36:BL44 I29:BL30">
-    <cfRule type="expression" dxfId="234" priority="504">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="233" priority="505" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="J5:BM11 J24:BM24 J77:BM79 J89:K89 J82:BM84 M89:BM89 J32:BM33 J13:BM15 J29:BM30 J36:BM42">
+    <cfRule type="expression" dxfId="226" priority="510">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7:BM11 J24:BM24 J77:BM79 J89:K89 J82:BM84 M89:BM89 J32:BM33 J13:BM15 J29:BM30 J36:BM42">
+    <cfRule type="expression" dxfId="225" priority="504">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="224" priority="505" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
     <cfRule type="dataBar" priority="462">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13078,20 +12935,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39:BL39">
-    <cfRule type="expression" dxfId="232" priority="465">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39:BL39">
-    <cfRule type="expression" dxfId="231" priority="463">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="230" priority="464" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
+  <conditionalFormatting sqref="J39:BM39">
+    <cfRule type="expression" dxfId="223" priority="465">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J39:BM39">
+    <cfRule type="expression" dxfId="222" priority="463">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="221" priority="464" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
     <cfRule type="dataBar" priority="466">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13105,20 +12962,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23:BL23">
-    <cfRule type="expression" dxfId="229" priority="469">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23:BL23">
-    <cfRule type="expression" dxfId="228" priority="467">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="227" priority="468" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="J23:BM23">
+    <cfRule type="expression" dxfId="220" priority="469">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23:BM23">
+    <cfRule type="expression" dxfId="219" priority="467">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="218" priority="468" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
     <cfRule type="dataBar" priority="458">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13132,20 +12989,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BL37">
-    <cfRule type="expression" dxfId="226" priority="461">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BL37">
-    <cfRule type="expression" dxfId="225" priority="459">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="224" priority="460" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="J37:BM37">
+    <cfRule type="expression" dxfId="217" priority="461">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37:BM37">
+    <cfRule type="expression" dxfId="216" priority="459">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="215" priority="460" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
     <cfRule type="dataBar" priority="441">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13159,20 +13016,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46:BL46">
-    <cfRule type="expression" dxfId="223" priority="444">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I46:BL46">
-    <cfRule type="expression" dxfId="222" priority="442">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="221" priority="443" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
+  <conditionalFormatting sqref="J44:BM44">
+    <cfRule type="expression" dxfId="214" priority="444">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44:BM44">
+    <cfRule type="expression" dxfId="213" priority="442">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="212" priority="443" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
     <cfRule type="dataBar" priority="354">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13186,15 +13043,15 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55:BL55">
-    <cfRule type="expression" dxfId="220" priority="355">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="219" priority="356" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="J53:BM53">
+    <cfRule type="expression" dxfId="211" priority="355">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="210" priority="356" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
     <cfRule type="dataBar" priority="445">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13208,20 +13065,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45:BL45">
-    <cfRule type="expression" dxfId="218" priority="448">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I45:BL45">
-    <cfRule type="expression" dxfId="217" priority="446">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="216" priority="447" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D49 D52">
+  <conditionalFormatting sqref="J43:BM43">
+    <cfRule type="expression" dxfId="209" priority="448">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J43:BM43">
+    <cfRule type="expression" dxfId="208" priority="446">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="207" priority="447" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45:E47 E50">
     <cfRule type="dataBar" priority="433">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13235,7 +13092,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="E47">
     <cfRule type="dataBar" priority="440">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13249,20 +13106,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49:BL49">
-    <cfRule type="expression" dxfId="215" priority="511">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I49:BL49">
-    <cfRule type="expression" dxfId="214" priority="438">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="213" priority="439" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20:D21">
+  <conditionalFormatting sqref="J47:BM47">
+    <cfRule type="expression" dxfId="206" priority="511">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47:BM47">
+    <cfRule type="expression" dxfId="205" priority="438">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="204" priority="439" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20:E21">
     <cfRule type="dataBar" priority="429">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13276,20 +13133,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:BL49 I52:BL52">
-    <cfRule type="expression" dxfId="212" priority="436">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I47:BL49 I52:BL52">
-    <cfRule type="expression" dxfId="211" priority="434">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="210" priority="435" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="J45:BM47 J50:BM50">
+    <cfRule type="expression" dxfId="203" priority="436">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J45:BM47 J50:BM50">
+    <cfRule type="expression" dxfId="202" priority="434">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="201" priority="435" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
     <cfRule type="dataBar" priority="421">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13303,20 +13160,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20:BL21">
-    <cfRule type="expression" dxfId="209" priority="432">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20:BL21">
-    <cfRule type="expression" dxfId="208" priority="430">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="207" priority="431" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+  <conditionalFormatting sqref="J20:BM21">
+    <cfRule type="expression" dxfId="200" priority="432">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20:BM21">
+    <cfRule type="expression" dxfId="199" priority="430">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="198" priority="431" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
     <cfRule type="dataBar" priority="427">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13330,15 +13187,15 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53:BL53">
-    <cfRule type="expression" dxfId="206" priority="425">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="205" priority="426" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
+  <conditionalFormatting sqref="J51:BM51">
+    <cfRule type="expression" dxfId="197" priority="425">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="196" priority="426" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
     <cfRule type="dataBar" priority="409">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13352,20 +13209,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50:BL50">
-    <cfRule type="expression" dxfId="204" priority="424">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I50:BL50">
-    <cfRule type="expression" dxfId="203" priority="422">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="202" priority="423" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="J48:BM48">
+    <cfRule type="expression" dxfId="195" priority="424">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48:BM48">
+    <cfRule type="expression" dxfId="194" priority="422">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="193" priority="423" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
     <cfRule type="dataBar" priority="419">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13379,20 +13236,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51:BL51">
-    <cfRule type="expression" dxfId="201" priority="512">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I51:BL51">
-    <cfRule type="expression" dxfId="200" priority="417">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="199" priority="418" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
+  <conditionalFormatting sqref="J49:BM49">
+    <cfRule type="expression" dxfId="192" priority="512">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J49:BM49">
+    <cfRule type="expression" dxfId="191" priority="417">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="190" priority="418" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
     <cfRule type="dataBar" priority="413">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13406,20 +13263,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26:BL26">
-    <cfRule type="expression" dxfId="198" priority="416">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26:BL26">
-    <cfRule type="expression" dxfId="197" priority="414">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="196" priority="415" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
+  <conditionalFormatting sqref="J26:BM26">
+    <cfRule type="expression" dxfId="189" priority="416">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26:BM26">
+    <cfRule type="expression" dxfId="188" priority="414">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="187" priority="415" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
     <cfRule type="dataBar" priority="405">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13433,38 +13290,38 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27:BL27">
-    <cfRule type="expression" dxfId="195" priority="412">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27:BL27">
-    <cfRule type="expression" dxfId="194" priority="410">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="193" priority="411" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28:BL28">
-    <cfRule type="expression" dxfId="192" priority="408">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28:BL28">
-    <cfRule type="expression" dxfId="191" priority="406">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="190" priority="407" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I55:BL55">
-    <cfRule type="expression" dxfId="189" priority="360">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="J27:BM27">
+    <cfRule type="expression" dxfId="186" priority="412">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:BM27">
+    <cfRule type="expression" dxfId="185" priority="410">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="184" priority="411" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28:BM28">
+    <cfRule type="expression" dxfId="183" priority="408">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28:BM28">
+    <cfRule type="expression" dxfId="182" priority="406">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="181" priority="407" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J53:BM53">
+    <cfRule type="expression" dxfId="180" priority="360">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
     <cfRule type="dataBar" priority="395">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13478,20 +13335,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="188" priority="513">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="187" priority="393">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="186" priority="394" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D75">
+  <conditionalFormatting sqref="J36:BM36">
+    <cfRule type="expression" dxfId="179" priority="513">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36:BM36">
+    <cfRule type="expression" dxfId="178" priority="393">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="177" priority="394" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
     <cfRule type="dataBar" priority="307">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13505,7 +13362,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+  <conditionalFormatting sqref="E53">
     <cfRule type="dataBar" priority="353">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13519,7 +13376,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="E54">
     <cfRule type="dataBar" priority="349">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13533,33 +13390,33 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56:BL56">
-    <cfRule type="expression" dxfId="185" priority="350">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="184" priority="351" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I56:BL56">
-    <cfRule type="expression" dxfId="183" priority="352">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I54:BL54">
-    <cfRule type="expression" dxfId="182" priority="359">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I54:BL54">
-    <cfRule type="expression" dxfId="181" priority="357">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="180" priority="358" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
+  <conditionalFormatting sqref="J54:BM54">
+    <cfRule type="expression" dxfId="176" priority="350">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="175" priority="351" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J54:BM54">
+    <cfRule type="expression" dxfId="174" priority="352">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52:BM52">
+    <cfRule type="expression" dxfId="173" priority="359">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52:BM52">
+    <cfRule type="expression" dxfId="172" priority="357">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="171" priority="358" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
     <cfRule type="dataBar" priority="345">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13573,7 +13430,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
+  <conditionalFormatting sqref="E55">
     <cfRule type="dataBar" priority="341">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13587,20 +13444,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:BL58">
-    <cfRule type="expression" dxfId="179" priority="348">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I58:BL58">
-    <cfRule type="expression" dxfId="178" priority="346">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="177" priority="347" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59:D60">
+  <conditionalFormatting sqref="J56:BM56">
+    <cfRule type="expression" dxfId="170" priority="348">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J56:BM56">
+    <cfRule type="expression" dxfId="169" priority="346">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="168" priority="347" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:E58">
     <cfRule type="dataBar" priority="337">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13614,20 +13471,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I57:BL57">
-    <cfRule type="expression" dxfId="176" priority="344">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I57:BL57">
-    <cfRule type="expression" dxfId="175" priority="342">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="174" priority="343" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
+  <conditionalFormatting sqref="J55:BM55">
+    <cfRule type="expression" dxfId="167" priority="344">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J55:BM55">
+    <cfRule type="expression" dxfId="166" priority="342">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="165" priority="343" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
     <cfRule type="dataBar" priority="333">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13641,20 +13498,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I59:BL60">
-    <cfRule type="expression" dxfId="173" priority="340">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I59:BL60">
-    <cfRule type="expression" dxfId="172" priority="338">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="171" priority="339" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
+  <conditionalFormatting sqref="J57:BM58">
+    <cfRule type="expression" dxfId="164" priority="340">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J57:BM58">
+    <cfRule type="expression" dxfId="163" priority="338">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="162" priority="339" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
     <cfRule type="dataBar" priority="329">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13668,28 +13525,28 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I62:BL62">
-    <cfRule type="expression" dxfId="170" priority="336">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I62:BL62">
-    <cfRule type="expression" dxfId="169" priority="334">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="168" priority="335" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I60:BL60">
-    <cfRule type="expression" dxfId="167" priority="330">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="166" priority="331" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61:D62">
+  <conditionalFormatting sqref="J60:BM60">
+    <cfRule type="expression" dxfId="161" priority="336">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J60:BM60">
+    <cfRule type="expression" dxfId="160" priority="334">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="159" priority="335" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J58:BM58">
+    <cfRule type="expression" dxfId="158" priority="330">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="157" priority="331" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59:E60">
     <cfRule type="dataBar" priority="325">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13703,12 +13560,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I60:BL60">
-    <cfRule type="expression" dxfId="165" priority="332">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63:D64">
+  <conditionalFormatting sqref="J58:BM58">
+    <cfRule type="expression" dxfId="156" priority="332">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61:E62">
     <cfRule type="dataBar" priority="317">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13722,20 +13579,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I61:BL62">
-    <cfRule type="expression" dxfId="164" priority="328">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I61:BL62">
-    <cfRule type="expression" dxfId="163" priority="326">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="162" priority="327" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
+  <conditionalFormatting sqref="J59:BM60">
+    <cfRule type="expression" dxfId="155" priority="328">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J59:BM60">
+    <cfRule type="expression" dxfId="154" priority="326">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="153" priority="327" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
     <cfRule type="dataBar" priority="321">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13749,20 +13606,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I64:BL64">
-    <cfRule type="expression" dxfId="161" priority="324">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I64:BL64">
-    <cfRule type="expression" dxfId="160" priority="322">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="159" priority="323" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65:D66">
+  <conditionalFormatting sqref="J62:BM62">
+    <cfRule type="expression" dxfId="152" priority="324">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J62:BM62">
+    <cfRule type="expression" dxfId="151" priority="322">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="323" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63:E64">
     <cfRule type="dataBar" priority="309">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13776,20 +13633,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63:BL64">
-    <cfRule type="expression" dxfId="158" priority="320">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63:BL64">
-    <cfRule type="expression" dxfId="157" priority="318">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="156" priority="319" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
+  <conditionalFormatting sqref="J61:BM62">
+    <cfRule type="expression" dxfId="149" priority="320">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J61:BM62">
+    <cfRule type="expression" dxfId="148" priority="318">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="147" priority="319" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
     <cfRule type="dataBar" priority="313">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13803,20 +13660,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I66:BL66">
-    <cfRule type="expression" dxfId="155" priority="316">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I66:BL66">
-    <cfRule type="expression" dxfId="154" priority="314">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="153" priority="315" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D74">
+  <conditionalFormatting sqref="J64:BM64">
+    <cfRule type="expression" dxfId="146" priority="316">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J64:BM64">
+    <cfRule type="expression" dxfId="145" priority="314">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="315" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
     <cfRule type="dataBar" priority="297">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13830,20 +13687,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I65:BL66">
-    <cfRule type="expression" dxfId="152" priority="312">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I65:BL66">
-    <cfRule type="expression" dxfId="151" priority="310">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="150" priority="311" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D73 D75">
+  <conditionalFormatting sqref="J63:BM64">
+    <cfRule type="expression" dxfId="143" priority="312">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J63:BM64">
+    <cfRule type="expression" dxfId="142" priority="310">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="141" priority="311" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71 E73">
     <cfRule type="dataBar" priority="308">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13857,46 +13714,46 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I75:BL75">
-    <cfRule type="expression" dxfId="149" priority="515">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I75:BL75">
-    <cfRule type="expression" dxfId="148" priority="306">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="147" priority="516" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I73:BL73 I75:BL75">
-    <cfRule type="expression" dxfId="146" priority="304">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I73:BL73 I75:BL75">
-    <cfRule type="expression" dxfId="145" priority="302">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="144" priority="303" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I74:BL74">
-    <cfRule type="expression" dxfId="143" priority="300">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I74:BL74">
-    <cfRule type="expression" dxfId="142" priority="298">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="141" priority="299" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D76">
+  <conditionalFormatting sqref="J73:BM73">
+    <cfRule type="expression" dxfId="140" priority="515">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J73:BM73">
+    <cfRule type="expression" dxfId="139" priority="306">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="516" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J71:BM71 J73:BM73">
+    <cfRule type="expression" dxfId="137" priority="304">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J71:BM71 J73:BM73">
+    <cfRule type="expression" dxfId="136" priority="302">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="135" priority="303" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J72:BM72">
+    <cfRule type="expression" dxfId="134" priority="300">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J72:BM72">
+    <cfRule type="expression" dxfId="133" priority="298">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="299" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
     <cfRule type="dataBar" priority="260">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13910,7 +13767,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D76">
+  <conditionalFormatting sqref="E74">
     <cfRule type="dataBar" priority="259">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13924,25 +13781,25 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I76:BL76">
-    <cfRule type="expression" dxfId="140" priority="258">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I76:BL76">
-    <cfRule type="expression" dxfId="139" priority="257">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I76:BL76">
-    <cfRule type="expression" dxfId="138" priority="255">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="137" priority="256" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D78">
+  <conditionalFormatting sqref="J74:BM74">
+    <cfRule type="expression" dxfId="131" priority="258">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J74:BM74">
+    <cfRule type="expression" dxfId="130" priority="257">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J74:BM74">
+    <cfRule type="expression" dxfId="129" priority="255">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="128" priority="256" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
     <cfRule type="dataBar" priority="247">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13956,7 +13813,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D77">
+  <conditionalFormatting sqref="E75">
     <cfRule type="dataBar" priority="239">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13970,7 +13827,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D78">
+  <conditionalFormatting sqref="E76">
     <cfRule type="dataBar" priority="248">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13984,46 +13841,46 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I78:BL78">
-    <cfRule type="expression" dxfId="136" priority="249">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I78:BL78">
-    <cfRule type="expression" dxfId="135" priority="246">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="134" priority="250" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I78:BL78">
-    <cfRule type="expression" dxfId="133" priority="245">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I78:BL78">
-    <cfRule type="expression" dxfId="132" priority="243">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="131" priority="244" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I77:BL77">
-    <cfRule type="expression" dxfId="130" priority="242">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I77:BL77">
-    <cfRule type="expression" dxfId="129" priority="240">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="128" priority="241" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="J76:BM76">
+    <cfRule type="expression" dxfId="127" priority="249">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J76:BM76">
+    <cfRule type="expression" dxfId="126" priority="246">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="125" priority="250" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J76:BM76">
+    <cfRule type="expression" dxfId="124" priority="245">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J76:BM76">
+    <cfRule type="expression" dxfId="123" priority="243">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="122" priority="244" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J75:BM75">
+    <cfRule type="expression" dxfId="121" priority="242">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J75:BM75">
+    <cfRule type="expression" dxfId="120" priority="240">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="119" priority="241" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
     <cfRule type="dataBar" priority="229">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14037,20 +13894,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="127" priority="232">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="126" priority="230">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="125" priority="231" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="J41:BM41">
+    <cfRule type="expression" dxfId="118" priority="232">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41:BM41">
+    <cfRule type="expression" dxfId="117" priority="230">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="116" priority="231" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
     <cfRule type="dataBar" priority="225">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14064,20 +13921,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="124" priority="228">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="123" priority="226">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="122" priority="227" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="J41:BM41">
+    <cfRule type="expression" dxfId="115" priority="228">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41:BM41">
+    <cfRule type="expression" dxfId="114" priority="226">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="113" priority="227" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
     <cfRule type="dataBar" priority="221">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14091,101 +13948,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="121" priority="224">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="120" priority="222">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="119" priority="223" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="dataBar" priority="217">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4D6B16EF-E60F-3041-B595-1048B09D9E7D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="118" priority="220">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="117" priority="218">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="116" priority="219" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="dataBar" priority="213">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{91C53314-79F2-1143-8BE2-91D78C83DCA9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="115" priority="216">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="114" priority="214">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="113" priority="215" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="dataBar" priority="209">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2696E29A-B0F7-6047-AB12-6A58E6595876}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="112" priority="212">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="111" priority="210">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="211" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32:D33">
+  <conditionalFormatting sqref="J41:BM41">
+    <cfRule type="expression" dxfId="112" priority="224">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41:BM41">
+    <cfRule type="expression" dxfId="111" priority="222">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="223" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:E33">
     <cfRule type="dataBar" priority="207">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14199,20 +13975,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:BL33">
+  <conditionalFormatting sqref="J32:BM33">
     <cfRule type="expression" dxfId="109" priority="208">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32:BL33">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32:BM33">
     <cfRule type="expression" dxfId="108" priority="205">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="107" priority="206" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
     <cfRule type="dataBar" priority="173">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14226,25 +14002,25 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22:BL22">
+  <conditionalFormatting sqref="J22:BM22">
     <cfRule type="expression" dxfId="106" priority="176">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22:BL22">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22:BM22">
     <cfRule type="expression" dxfId="105" priority="174">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="104" priority="175" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44:BL44">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J42:BM42">
     <cfRule type="expression" dxfId="103" priority="137">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
     <cfRule type="dataBar" priority="142">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14258,20 +14034,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I67:BL67">
+  <conditionalFormatting sqref="J65:BM65">
     <cfRule type="expression" dxfId="102" priority="129">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41:BL41">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40:BM40">
     <cfRule type="expression" dxfId="101" priority="143">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="100" priority="144" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
     <cfRule type="dataBar" priority="163">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14285,20 +14061,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29:BL29">
+  <conditionalFormatting sqref="J29:BM29">
     <cfRule type="expression" dxfId="99" priority="164">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29:BL29">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29:BM29">
     <cfRule type="expression" dxfId="98" priority="161">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="97" priority="162" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
     <cfRule type="dataBar" priority="149">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14312,20 +14088,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:BL41">
+  <conditionalFormatting sqref="J40:BM40">
     <cfRule type="expression" dxfId="96" priority="152">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41:BL41">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40:BM40">
     <cfRule type="expression" dxfId="95" priority="150">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="94" priority="151" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
     <cfRule type="dataBar" priority="145">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14339,20 +14115,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:BL41">
+  <conditionalFormatting sqref="J40:BM40">
     <cfRule type="expression" dxfId="93" priority="148">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41:BL41">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40:BM40">
     <cfRule type="expression" dxfId="92" priority="146">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="91" priority="147" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
     <cfRule type="dataBar" priority="134">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14366,15 +14142,15 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44:BL44">
+  <conditionalFormatting sqref="J42:BM42">
     <cfRule type="expression" dxfId="90" priority="135">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="89" priority="136" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
     <cfRule type="dataBar" priority="138">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14388,20 +14164,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44:BL44">
+  <conditionalFormatting sqref="J42:BM42">
     <cfRule type="expression" dxfId="88" priority="141">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44:BL44">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J42:BM42">
     <cfRule type="expression" dxfId="87" priority="139">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="86" priority="140" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
     <cfRule type="dataBar" priority="126">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14415,20 +14191,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I70:BL70">
+  <conditionalFormatting sqref="J68:BM68">
     <cfRule type="expression" dxfId="85" priority="121">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I67:BL67">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J65:BM65">
     <cfRule type="expression" dxfId="84" priority="127">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="83" priority="128" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
     <cfRule type="dataBar" priority="130">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14442,20 +14218,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44:BL44">
+  <conditionalFormatting sqref="J42:BM42">
     <cfRule type="expression" dxfId="82" priority="133">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44:BL44">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J42:BM42">
     <cfRule type="expression" dxfId="81" priority="131">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="80" priority="132" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
     <cfRule type="dataBar" priority="122">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14469,7 +14245,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70">
+  <conditionalFormatting sqref="E68">
     <cfRule type="dataBar" priority="118">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14483,33 +14259,33 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I71:BL71">
+  <conditionalFormatting sqref="J69:BM69">
     <cfRule type="expression" dxfId="79" priority="113">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I70:BL70">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J68:BM68">
     <cfRule type="expression" dxfId="78" priority="119">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="77" priority="120" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I67:BL67">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J65:BM65">
     <cfRule type="expression" dxfId="76" priority="125">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I67:BL67">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J65:BM65">
     <cfRule type="expression" dxfId="75" priority="123">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="74" priority="124" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D70">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
     <cfRule type="dataBar" priority="114">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14523,7 +14299,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D71">
+  <conditionalFormatting sqref="E69">
     <cfRule type="dataBar" priority="110">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14537,33 +14313,33 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I68:BL68">
+  <conditionalFormatting sqref="J66:BM66">
     <cfRule type="expression" dxfId="73" priority="105">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I71:BL71">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J69:BM69">
     <cfRule type="expression" dxfId="72" priority="111">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="71" priority="112" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I70:BL70">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J68:BM68">
     <cfRule type="expression" dxfId="70" priority="117">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I70:BL70">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J68:BM68">
     <cfRule type="expression" dxfId="69" priority="115">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="68" priority="116" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D71">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
     <cfRule type="dataBar" priority="106">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14577,7 +14353,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
+  <conditionalFormatting sqref="E66">
     <cfRule type="dataBar" priority="102">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14591,38 +14367,38 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69:BL69">
+  <conditionalFormatting sqref="J67:BM67">
     <cfRule type="expression" dxfId="67" priority="97">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I68:BL68">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J66:BM66">
     <cfRule type="expression" dxfId="66" priority="103">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="65" priority="104" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I71:BL71">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J69:BM69">
     <cfRule type="expression" dxfId="64" priority="109">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I71:BL71">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J69:BM69">
     <cfRule type="expression" dxfId="63" priority="107">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="62" priority="108" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I69:BL69">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J67:BM67">
     <cfRule type="expression" dxfId="61" priority="93">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D69">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
     <cfRule type="dataBar" priority="94">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14636,15 +14412,15 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69:BL69">
+  <conditionalFormatting sqref="J67:BM67">
     <cfRule type="expression" dxfId="60" priority="95">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="59" priority="96" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
     <cfRule type="dataBar" priority="98">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14658,25 +14434,25 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I68:BL68">
+  <conditionalFormatting sqref="J66:BM66">
     <cfRule type="expression" dxfId="58" priority="101">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I68:BL68">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J66:BM66">
     <cfRule type="expression" dxfId="57" priority="99">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="56" priority="100" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I72:BL72">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J70:BM70">
     <cfRule type="expression" dxfId="55" priority="89">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D69">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
     <cfRule type="dataBar" priority="90">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14690,15 +14466,15 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69:BL69">
+  <conditionalFormatting sqref="J67:BM67">
     <cfRule type="expression" dxfId="54" priority="91">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="53" priority="92" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D72">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
     <cfRule type="dataBar" priority="86">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14712,15 +14488,15 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I72:BL72">
+  <conditionalFormatting sqref="J70:BM70">
     <cfRule type="expression" dxfId="52" priority="87">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="51" priority="88" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D72">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
     <cfRule type="dataBar" priority="82">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14734,20 +14510,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I72:BL72">
+  <conditionalFormatting sqref="J70:BM70">
     <cfRule type="expression" dxfId="50" priority="85">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I72:BL72">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J70:BM70">
     <cfRule type="expression" dxfId="49" priority="83">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="48" priority="84" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D82:D83">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80:E81">
     <cfRule type="dataBar" priority="78">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14761,20 +14537,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I82:BL83">
+  <conditionalFormatting sqref="J80:BM81">
     <cfRule type="expression" dxfId="47" priority="81">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I82:BL83">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J80:BM81">
     <cfRule type="expression" dxfId="46" priority="79">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="45" priority="80" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D87:D88">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85:E86">
     <cfRule type="dataBar" priority="74">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14788,20 +14564,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I87:BL88">
+  <conditionalFormatting sqref="J85:BM86">
     <cfRule type="expression" dxfId="44" priority="77">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I87:BL88">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J85:BM86">
     <cfRule type="expression" dxfId="43" priority="75">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="42" priority="76" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D89">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
     <cfRule type="dataBar" priority="70">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14815,20 +14591,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I89:BL89">
+  <conditionalFormatting sqref="J87:BM87">
     <cfRule type="expression" dxfId="41" priority="73">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I89:BL89">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J87:BM87">
     <cfRule type="expression" dxfId="40" priority="71">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="39" priority="72" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D90">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
     <cfRule type="dataBar" priority="66">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14842,20 +14618,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I90:BL90 K91">
+  <conditionalFormatting sqref="J88:BM88 L89">
     <cfRule type="expression" dxfId="38" priority="69">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I90:BL90 K91">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J88:BM88 L89">
     <cfRule type="expression" dxfId="37" priority="67">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="36" priority="68" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
     <cfRule type="dataBar" priority="62">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14869,20 +14645,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16:BL16">
+  <conditionalFormatting sqref="J16:BM16">
     <cfRule type="expression" dxfId="35" priority="65">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16:BL16">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16:BM16">
     <cfRule type="expression" dxfId="34" priority="63">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="33" priority="64" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
     <cfRule type="dataBar" priority="58">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14896,20 +14672,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18:BL18">
+  <conditionalFormatting sqref="J18:BM18">
     <cfRule type="expression" dxfId="32" priority="61">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18:BL18">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:BM18">
     <cfRule type="expression" dxfId="31" priority="59">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="30" priority="60" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
     <cfRule type="dataBar" priority="54">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14923,20 +14699,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19:BL19">
+  <conditionalFormatting sqref="J19:BM19">
     <cfRule type="expression" dxfId="29" priority="57">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I19:BL19">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:BM19">
     <cfRule type="expression" dxfId="28" priority="55">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="27" priority="56" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D93">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
     <cfRule type="dataBar" priority="53">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14950,7 +14726,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
+  <conditionalFormatting sqref="F89">
     <cfRule type="dataBar" priority="52">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14964,7 +14740,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F91">
+  <conditionalFormatting sqref="G89">
     <cfRule type="dataBar" priority="51">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14978,7 +14754,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F93">
+  <conditionalFormatting sqref="G91">
     <cfRule type="dataBar" priority="50">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14992,7 +14768,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
+  <conditionalFormatting sqref="E17">
     <cfRule type="dataBar" priority="46">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15006,20 +14782,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17:BL17">
+  <conditionalFormatting sqref="J17:BM17">
     <cfRule type="expression" dxfId="26" priority="49">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17:BL17">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17:BM17">
     <cfRule type="expression" dxfId="25" priority="47">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="24" priority="48" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
     <cfRule type="dataBar" priority="42">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15033,20 +14809,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31:BL31">
+  <conditionalFormatting sqref="J31:BM31">
     <cfRule type="expression" dxfId="23" priority="45">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31:BL31">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31:BM31">
     <cfRule type="expression" dxfId="22" priority="43">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="21" priority="44" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
     <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15060,20 +14836,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25:BL25">
+  <conditionalFormatting sqref="J25:BM25">
     <cfRule type="expression" dxfId="20" priority="37">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25:BL25">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25:BM25">
     <cfRule type="expression" dxfId="19" priority="35">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="18" priority="36" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
     <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15087,7 +14863,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="E34">
     <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15101,20 +14877,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I34:BL34">
+  <conditionalFormatting sqref="J34:BM34">
     <cfRule type="expression" dxfId="17" priority="32">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34:BL34">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34:BM34">
     <cfRule type="expression" dxfId="16" priority="30">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="15" priority="31" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
     <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15128,33 +14904,33 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I34:BL34">
+  <conditionalFormatting sqref="J34:BM34">
     <cfRule type="expression" dxfId="14" priority="28">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34:BL34">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34:BM34">
     <cfRule type="expression" dxfId="13" priority="25">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="12" priority="26" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33:BL33">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33:BM33">
     <cfRule type="expression" dxfId="11" priority="24">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33:BL33">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33:BM33">
     <cfRule type="expression" dxfId="10" priority="22">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="9" priority="23" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
     <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15168,20 +14944,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:BL35">
+  <conditionalFormatting sqref="J35:BM35">
     <cfRule type="expression" dxfId="8" priority="20">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35:BL35">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35:BM35">
     <cfRule type="expression" dxfId="7" priority="18">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="19" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
     <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15195,25 +14971,25 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:BL35">
+  <conditionalFormatting sqref="J35:BM35">
     <cfRule type="expression" dxfId="5" priority="16">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35:BL35">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35:BM35">
     <cfRule type="expression" dxfId="4" priority="13">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="14" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12:BL12">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12:BM12">
     <cfRule type="expression" dxfId="2" priority="4">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15227,16 +15003,16 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:BL12">
+  <conditionalFormatting sqref="J12:BM12">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="週表示" prompt="この数字を変更すると、ガント チャート ビューがスクロールされます。" sqref="E4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="週表示" prompt="この数字を変更すると、ガント チャート ビューがスクロールされます。" sqref="F4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
@@ -15263,7 +15039,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D11 D24 D79:D81 D91 D84:D86 D32:D33 D13:D15 D36:D44 D29:D30</xm:sqref>
+          <xm:sqref>E7:E11 E24 E77:E79 E89 E82:E84 E32:E33 E13:E15 E29:E30 E36:E42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{24F17111-9256-FF47-A90B-BD2748D98F5A}">
@@ -15278,7 +15054,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D39</xm:sqref>
+          <xm:sqref>E39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E4DFD210-F8DE-DC4A-9741-B5B243F824A6}">
@@ -15293,7 +15069,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D23</xm:sqref>
+          <xm:sqref>E23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C62FE956-AC41-4E46-82CC-268F01DE7ACD}">
@@ -15308,7 +15084,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D37</xm:sqref>
+          <xm:sqref>E37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1D6361C8-CB7D-8841-8CD8-18871297265B}">
@@ -15323,7 +15099,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D46</xm:sqref>
+          <xm:sqref>E44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{95B7E06F-6B9E-6C4B-BC04-3F99AB1A74D4}">
@@ -15338,7 +15114,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D54</xm:sqref>
+          <xm:sqref>E52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FD86224B-914B-5F46-822F-B75854136693}">
@@ -15353,7 +15129,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D45</xm:sqref>
+          <xm:sqref>E43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A230EAA4-3BDE-3745-88B4-B68818DC88A3}">
@@ -15368,7 +15144,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D47:D49 D52</xm:sqref>
+          <xm:sqref>E45:E47 E50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{85F05FF5-8C78-5B43-93CB-9F56687B7ED6}">
@@ -15383,7 +15159,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D49</xm:sqref>
+          <xm:sqref>E47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{ACD4AF40-4A7F-3D4C-8382-D5C86CD21452}">
@@ -15398,7 +15174,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D20:D21</xm:sqref>
+          <xm:sqref>E20:E21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{00D6AEA0-203E-7847-8352-8788688CF8AB}">
@@ -15413,7 +15189,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D50</xm:sqref>
+          <xm:sqref>E48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B4DE69B5-631A-D545-95CA-052B3980E2BD}">
@@ -15428,7 +15204,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D53</xm:sqref>
+          <xm:sqref>E51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CCE23DF5-CA4C-E24E-A4A2-743C521EC5B4}">
@@ -15443,7 +15219,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D27</xm:sqref>
+          <xm:sqref>E27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AFE04D94-34DE-7049-A203-DF6FCBA27D1D}">
@@ -15458,7 +15234,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D51</xm:sqref>
+          <xm:sqref>E49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A901BF46-B827-D445-ACF5-96CFE6FB89EC}">
@@ -15473,7 +15249,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D26</xm:sqref>
+          <xm:sqref>E26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6561463E-7433-724A-A679-B2D4ED2402CA}">
@@ -15488,7 +15264,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D28</xm:sqref>
+          <xm:sqref>E28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{031E537F-76AB-264A-AE56-DE4BF11ECC6C}">
@@ -15503,7 +15279,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D36</xm:sqref>
+          <xm:sqref>E36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E0CBEC52-D3A6-C74C-97BE-B834893CF553}">
@@ -15518,7 +15294,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D75</xm:sqref>
+          <xm:sqref>E73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AD9C13A4-B612-3245-AE76-A8E409F7918F}">
@@ -15533,7 +15309,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D55</xm:sqref>
+          <xm:sqref>E53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A6772426-68EF-A240-800A-5AF7F0F113A9}">
@@ -15548,7 +15324,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D56</xm:sqref>
+          <xm:sqref>E54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BC765EC6-6523-504A-AED4-7AEFB62A9DF7}">
@@ -15563,7 +15339,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D58</xm:sqref>
+          <xm:sqref>E56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B401F7C8-BE59-8744-857F-12D198A08AE4}">
@@ -15578,7 +15354,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D57</xm:sqref>
+          <xm:sqref>E55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C2BA0CD1-C384-464E-824F-33069CB207EF}">
@@ -15593,7 +15369,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D59:D60</xm:sqref>
+          <xm:sqref>E57:E58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6CCE1452-5FBC-3F4A-A068-5D75B4B7BCDA}">
@@ -15608,7 +15384,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D62</xm:sqref>
+          <xm:sqref>E60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F1706303-4483-6A4F-B5FB-E2CF343EF71C}">
@@ -15623,7 +15399,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D60</xm:sqref>
+          <xm:sqref>E58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BDACFAD9-3E5D-9B4A-9A81-FF3B6F8CBF64}">
@@ -15638,7 +15414,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D61:D62</xm:sqref>
+          <xm:sqref>E59:E60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AA6B7756-C0C2-F243-92BE-6D626EBB0BC5}">
@@ -15653,7 +15429,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D63:D64</xm:sqref>
+          <xm:sqref>E61:E62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F2806D69-C8F2-D244-81EA-5357BF3FA7B1}">
@@ -15668,7 +15444,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D64</xm:sqref>
+          <xm:sqref>E62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C7B8B9BB-DF62-964E-B36D-3E40DEDE4AAB}">
@@ -15683,7 +15459,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D65:D66</xm:sqref>
+          <xm:sqref>E63:E64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{98CD4208-BEBA-F74E-82C6-DC32125D14AC}">
@@ -15698,7 +15474,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D66</xm:sqref>
+          <xm:sqref>E64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D0E736E8-06C8-4D41-A71F-BDC7B0EA0160}">
@@ -15713,7 +15489,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D74</xm:sqref>
+          <xm:sqref>E72</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{299B1521-6753-6E49-B368-B60D1EE39BBB}">
@@ -15728,7 +15504,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D73 D75</xm:sqref>
+          <xm:sqref>E71 E73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{37029FEF-DCD1-5F44-BF01-E7E8FBBEC303}">
@@ -15743,7 +15519,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D76</xm:sqref>
+          <xm:sqref>E74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F01A527D-9F3F-2246-BA2F-16BF59D0B1B0}">
@@ -15758,7 +15534,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D76</xm:sqref>
+          <xm:sqref>E74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{680AA153-3270-9046-A64C-8D19EEADC023}">
@@ -15773,7 +15549,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D78</xm:sqref>
+          <xm:sqref>E76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FDF7C793-D057-9049-B6E1-E834A2499378}">
@@ -15788,7 +15564,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D77</xm:sqref>
+          <xm:sqref>E75</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F51640C3-D607-B64B-AE9A-67FB162B1792}">
@@ -15803,7 +15579,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D78</xm:sqref>
+          <xm:sqref>E76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1AF9EEB1-188E-D04F-BFC1-EFAEB6262AF9}">
@@ -15818,7 +15594,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D42</xm:sqref>
+          <xm:sqref>E41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9CD05753-5724-2C45-B91F-77E4C9EC560D}">
@@ -15833,7 +15609,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D42</xm:sqref>
+          <xm:sqref>E41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8B854A83-959A-C440-898C-501D64548932}">
@@ -15848,52 +15624,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D42</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4D6B16EF-E60F-3041-B595-1048B09D9E7D}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D43</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{91C53314-79F2-1143-8BE2-91D78C83DCA9}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D43</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2696E29A-B0F7-6047-AB12-6A58E6595876}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D43</xm:sqref>
+          <xm:sqref>E41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{422C01BA-0699-C446-AEE6-30E04170B4B2}">
@@ -15908,7 +15639,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D32:D33</xm:sqref>
+          <xm:sqref>E32:E33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{84FC15CB-BF74-6542-A35C-02838372AD20}">
@@ -15923,7 +15654,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D22</xm:sqref>
+          <xm:sqref>E22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{47879F2E-D706-9A45-9D62-3E9DEF2279C7}">
@@ -15938,7 +15669,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D41</xm:sqref>
+          <xm:sqref>E40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E70DC10E-2576-2947-8D54-799D4D500F13}">
@@ -15953,7 +15684,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D29</xm:sqref>
+          <xm:sqref>E29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A0153DB6-19FB-7246-8AA7-92BBA43F6397}">
@@ -15968,7 +15699,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D41</xm:sqref>
+          <xm:sqref>E40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{089BA24B-7C6B-9545-8D21-BBE5C5EC2E7A}">
@@ -15983,7 +15714,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D41</xm:sqref>
+          <xm:sqref>E40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E4736ECF-786A-5A42-B4FF-EF8A0221C81D}">
@@ -15998,7 +15729,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D44</xm:sqref>
+          <xm:sqref>E42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6BA7FAAC-F6E3-8941-B8E1-5DAEC1E3653E}">
@@ -16013,7 +15744,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D44</xm:sqref>
+          <xm:sqref>E42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2EACD2EC-CDC7-2845-B140-417AFDA13CE4}">
@@ -16028,7 +15759,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D67</xm:sqref>
+          <xm:sqref>E65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D109718A-7C8F-7B4C-A048-DCBA7091216B}">
@@ -16043,7 +15774,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D44</xm:sqref>
+          <xm:sqref>E42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D91CA485-8795-4541-ACDB-213678689900}">
@@ -16058,7 +15789,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D67</xm:sqref>
+          <xm:sqref>E65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{54931082-0A87-0B46-A3AF-53B1C7E0349D}">
@@ -16073,7 +15804,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D70</xm:sqref>
+          <xm:sqref>E68</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8F7A8332-D03B-1240-9256-E6C635F6B7AE}">
@@ -16088,7 +15819,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D70</xm:sqref>
+          <xm:sqref>E68</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E48B6478-B85A-8C41-A036-8BC8C03FB567}">
@@ -16103,7 +15834,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D71</xm:sqref>
+          <xm:sqref>E69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3B68B980-280F-9945-8E0B-02FC372E22F9}">
@@ -16118,7 +15849,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D71</xm:sqref>
+          <xm:sqref>E69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1D482DD2-8610-4640-B157-28FF9AA8CCDD}">
@@ -16133,7 +15864,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D68</xm:sqref>
+          <xm:sqref>E66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0D505B2A-0E13-8049-BCF4-4C9D87A6E0BC}">
@@ -16148,7 +15879,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D69</xm:sqref>
+          <xm:sqref>E67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FCC18048-6B89-6146-824E-80010923D5A7}">
@@ -16163,7 +15894,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D68</xm:sqref>
+          <xm:sqref>E66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5DC30E2A-B088-054C-9638-C6035E3DA13E}">
@@ -16178,7 +15909,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D69</xm:sqref>
+          <xm:sqref>E67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6EA2D0C8-E64E-6C4E-871C-217798EE5D8E}">
@@ -16193,7 +15924,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D72</xm:sqref>
+          <xm:sqref>E70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7B793B46-8F8E-FA49-A58B-2611FA347C3D}">
@@ -16208,7 +15939,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D72</xm:sqref>
+          <xm:sqref>E70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A0FD18F1-2DDC-5F4A-9E5C-EEAD464B1296}">
@@ -16223,7 +15954,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D82:D83</xm:sqref>
+          <xm:sqref>E80:E81</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4C330308-C068-8B4D-8D83-6FEA4C284F6B}">
@@ -16238,7 +15969,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D87:D88</xm:sqref>
+          <xm:sqref>E85:E86</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2F75F22C-352D-4449-AB1D-3183DABFA100}">
@@ -16253,7 +15984,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D89</xm:sqref>
+          <xm:sqref>E87</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9BEEE57C-1DA9-C747-8E7C-346EB91B4E36}">
@@ -16268,7 +15999,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D90</xm:sqref>
+          <xm:sqref>E88</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4C31BB5A-AEE3-0846-8F27-557A287ED7BF}">
@@ -16283,7 +16014,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D16</xm:sqref>
+          <xm:sqref>E16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{50E20D4B-BFD2-6649-9AE5-2EAA4163FF70}">
@@ -16298,7 +16029,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D18</xm:sqref>
+          <xm:sqref>E18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{996A73FA-7C03-1B43-AA7D-1A2833EC5A9D}">
@@ -16313,7 +16044,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D19</xm:sqref>
+          <xm:sqref>E19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{89A624C5-E497-7C49-9981-BA2F80D3975A}">
@@ -16328,7 +16059,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D93</xm:sqref>
+          <xm:sqref>E91</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7C55099D-FFDE-2145-8945-4CC62A21B3F5}">
@@ -16343,7 +16074,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E91</xm:sqref>
+          <xm:sqref>F89</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4476D606-ECB9-004B-B8E4-EFF5130FB18D}">
@@ -16358,7 +16089,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F91</xm:sqref>
+          <xm:sqref>G89</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9D0DC1B9-49F9-F443-815E-66C468AE9B91}">
@@ -16373,7 +16104,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F93</xm:sqref>
+          <xm:sqref>G91</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D56E6119-62DB-3F4F-8553-8F84F7A95988}">
@@ -16388,7 +16119,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D17</xm:sqref>
+          <xm:sqref>E17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4A0F5441-0438-8E49-B599-5FADA3D99D56}">
@@ -16403,7 +16134,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D31</xm:sqref>
+          <xm:sqref>E31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D6FF4DE1-4BDD-CC4E-BDA9-91C355F7EA80}">
@@ -16418,7 +16149,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D25</xm:sqref>
+          <xm:sqref>E25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{23ED099E-01F9-9E46-A77D-0A37F8941A77}">
@@ -16433,7 +16164,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D33</xm:sqref>
+          <xm:sqref>E33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{93A2B80B-CC05-9248-A22B-7730873193A8}">
@@ -16448,7 +16179,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D34</xm:sqref>
+          <xm:sqref>E34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DEF56DD6-2BD8-A649-9E18-9DAF0DAC72BE}">
@@ -16463,7 +16194,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D34</xm:sqref>
+          <xm:sqref>E34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DF693226-6835-CC43-90DC-98611BE80D6A}">
@@ -16478,7 +16209,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D35</xm:sqref>
+          <xm:sqref>E35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C4133C4D-7309-CC4D-AA3F-BB23134E26E0}">
@@ -16493,7 +16224,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D35</xm:sqref>
+          <xm:sqref>E35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EFB62440-25FC-E146-9D87-29BF6B43EE8D}">
@@ -16508,7 +16239,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D12</xm:sqref>
+          <xm:sqref>E12</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -16642,12 +16373,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="102" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="102" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/ThrowSujiShurikenGanttChart.xlsx
+++ b/Documents/ThrowSujiShurikenGanttChart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E22B7B-55A8-DB48-9609-7DA7BC2FB8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29ABB6ED-8892-9B4F-B4E3-E44AAC555D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="17920" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクトのスケジュール" sheetId="11" r:id="rId1"/>
@@ -957,10 +957,6 @@
     <phoneticPr fontId="37"/>
   </si>
   <si>
-    <t>ω</t>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
     <t>予想作業時間</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ヨソウ </t>
@@ -987,6 +983,16 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>アプリが公開された場合：</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">コウカイ </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">バアイ </t>
     </rPh>
     <phoneticPr fontId="37"/>
   </si>
@@ -2207,13 +2213,6 @@
     <xf numFmtId="178" fontId="1" fillId="0" borderId="19" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="180" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2222,15 +2221,6 @@
     </xf>
     <xf numFmtId="180" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
@@ -2243,6 +2233,22 @@
     </xf>
     <xf numFmtId="180" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -5518,9 +5524,9 @@
   <dimension ref="A1:BM96"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5566,133 +5572,133 @@
       </c>
       <c r="B3" s="85"/>
       <c r="C3" s="85"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="124">
+      <c r="D3" s="122"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="118">
         <v>44356</v>
       </c>
-      <c r="G3" s="124"/>
-      <c r="J3" s="121" t="s">
+      <c r="G3" s="118"/>
+      <c r="J3" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="122" t="s">
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="R3" s="123"/>
-      <c r="S3" s="123"/>
-      <c r="T3" s="123"/>
-      <c r="U3" s="123"/>
-      <c r="V3" s="123"/>
-      <c r="W3" s="123"/>
+      <c r="R3" s="127"/>
+      <c r="S3" s="127"/>
+      <c r="T3" s="127"/>
+      <c r="U3" s="127"/>
+      <c r="V3" s="127"/>
+      <c r="W3" s="127"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="103" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="86"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="116"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="123"/>
       <c r="F4" s="4">
         <v>1</v>
       </c>
-      <c r="J4" s="118">
+      <c r="J4" s="115">
         <f>J5</f>
         <v>44354</v>
       </c>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="120"/>
-      <c r="Q4" s="125">
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="119">
         <f>Q5</f>
         <v>44361</v>
       </c>
-      <c r="R4" s="126"/>
-      <c r="S4" s="126"/>
-      <c r="T4" s="126"/>
-      <c r="U4" s="126"/>
-      <c r="V4" s="126"/>
-      <c r="W4" s="127"/>
-      <c r="X4" s="118">
+      <c r="R4" s="120"/>
+      <c r="S4" s="120"/>
+      <c r="T4" s="120"/>
+      <c r="U4" s="120"/>
+      <c r="V4" s="120"/>
+      <c r="W4" s="121"/>
+      <c r="X4" s="115">
         <f>X5</f>
         <v>44368</v>
       </c>
-      <c r="Y4" s="119"/>
-      <c r="Z4" s="119"/>
-      <c r="AA4" s="119"/>
-      <c r="AB4" s="119"/>
-      <c r="AC4" s="119"/>
-      <c r="AD4" s="120"/>
-      <c r="AE4" s="118">
+      <c r="Y4" s="116"/>
+      <c r="Z4" s="116"/>
+      <c r="AA4" s="116"/>
+      <c r="AB4" s="116"/>
+      <c r="AC4" s="116"/>
+      <c r="AD4" s="117"/>
+      <c r="AE4" s="115">
         <f>AE5</f>
         <v>44375</v>
       </c>
-      <c r="AF4" s="119"/>
-      <c r="AG4" s="119"/>
-      <c r="AH4" s="119"/>
-      <c r="AI4" s="119"/>
-      <c r="AJ4" s="119"/>
-      <c r="AK4" s="120"/>
-      <c r="AL4" s="118">
+      <c r="AF4" s="116"/>
+      <c r="AG4" s="116"/>
+      <c r="AH4" s="116"/>
+      <c r="AI4" s="116"/>
+      <c r="AJ4" s="116"/>
+      <c r="AK4" s="117"/>
+      <c r="AL4" s="115">
         <f>AL5</f>
         <v>44382</v>
       </c>
-      <c r="AM4" s="119"/>
-      <c r="AN4" s="119"/>
-      <c r="AO4" s="119"/>
-      <c r="AP4" s="119"/>
-      <c r="AQ4" s="119"/>
-      <c r="AR4" s="120"/>
-      <c r="AS4" s="118">
+      <c r="AM4" s="116"/>
+      <c r="AN4" s="116"/>
+      <c r="AO4" s="116"/>
+      <c r="AP4" s="116"/>
+      <c r="AQ4" s="116"/>
+      <c r="AR4" s="117"/>
+      <c r="AS4" s="115">
         <f>AS5</f>
         <v>44389</v>
       </c>
-      <c r="AT4" s="119"/>
-      <c r="AU4" s="119"/>
-      <c r="AV4" s="119"/>
-      <c r="AW4" s="119"/>
-      <c r="AX4" s="119"/>
-      <c r="AY4" s="120"/>
-      <c r="AZ4" s="118">
+      <c r="AT4" s="116"/>
+      <c r="AU4" s="116"/>
+      <c r="AV4" s="116"/>
+      <c r="AW4" s="116"/>
+      <c r="AX4" s="116"/>
+      <c r="AY4" s="117"/>
+      <c r="AZ4" s="115">
         <f>AZ5</f>
         <v>44396</v>
       </c>
-      <c r="BA4" s="119"/>
-      <c r="BB4" s="119"/>
-      <c r="BC4" s="119"/>
-      <c r="BD4" s="119"/>
-      <c r="BE4" s="119"/>
-      <c r="BF4" s="120"/>
-      <c r="BG4" s="118">
+      <c r="BA4" s="116"/>
+      <c r="BB4" s="116"/>
+      <c r="BC4" s="116"/>
+      <c r="BD4" s="116"/>
+      <c r="BE4" s="116"/>
+      <c r="BF4" s="117"/>
+      <c r="BG4" s="115">
         <f>BG5</f>
         <v>44403</v>
       </c>
-      <c r="BH4" s="119"/>
-      <c r="BI4" s="119"/>
-      <c r="BJ4" s="119"/>
-      <c r="BK4" s="119"/>
-      <c r="BL4" s="119"/>
-      <c r="BM4" s="120"/>
+      <c r="BH4" s="116"/>
+      <c r="BI4" s="116"/>
+      <c r="BJ4" s="116"/>
+      <c r="BK4" s="116"/>
+      <c r="BL4" s="116"/>
+      <c r="BM4" s="117"/>
     </row>
     <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
       <c r="J5" s="34">
         <f>プロジェクト_開始-WEEKDAY(プロジェクト_開始,1)+2+7*(週_表示-1)</f>
         <v>44354</v>
@@ -5926,7 +5932,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>32</v>
@@ -6312,7 +6318,7 @@
     <row r="9" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="89"/>
       <c r="B9" s="89" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9" s="59"/>
       <c r="D9" s="59">
@@ -8257,7 +8263,7 @@
         <v>112</v>
       </c>
       <c r="C34" s="101">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D34" s="101">
         <v>0.24305555555555555</v>
@@ -8728,7 +8734,9 @@
       <c r="B40" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="56"/>
+      <c r="C40" s="101">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="D40" s="56"/>
       <c r="E40" s="57">
         <v>0</v>
@@ -12251,7 +12259,7 @@
         <v>55</v>
       </c>
       <c r="B86" s="97" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C86" s="66"/>
       <c r="D86" s="66"/>
@@ -12484,7 +12492,7 @@
       <c r="B89" s="109"/>
       <c r="C89" s="110">
         <f>SUM(C9:C85)</f>
-        <v>1.125</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D89" s="110">
         <f>SUM(D9:D85)</f>
@@ -12568,7 +12576,7 @@
         <v>123</v>
       </c>
       <c r="C90" s="111" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D90" s="111" t="s">
         <v>101</v>
@@ -12878,6 +12886,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="Q3:W3"/>
     <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="F3:G3"/>
@@ -12885,13 +12900,6 @@
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="J3:P3"/>
-    <mergeCell ref="Q3:W3"/>
   </mergeCells>
   <phoneticPr fontId="37"/>
   <conditionalFormatting sqref="E7:E11 E24 E77:E79 E89 E82:E84 E32:E33 E13:E15 E29:E30 E36:E42">

--- a/Documents/ThrowSujiShurikenGanttChart.xlsx
+++ b/Documents/ThrowSujiShurikenGanttChart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29ABB6ED-8892-9B4F-B4E3-E44AAC555D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA6CC0D-694A-B948-AAC8-26ECAB267AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="17920" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクトのスケジュール" sheetId="11" r:id="rId1"/>
@@ -1881,7 +1881,7 @@
     <xf numFmtId="0" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2249,6 +2249,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="45" borderId="17" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -5524,9 +5527,9 @@
   <dimension ref="A1:BM96"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7477,7 +7480,7 @@
       <c r="A24" s="105">
         <v>2</v>
       </c>
-      <c r="B24" s="105" t="s">
+      <c r="B24" s="128" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="56"/>
@@ -7557,7 +7560,7 @@
       <c r="A25" s="105">
         <v>3</v>
       </c>
-      <c r="B25" s="105" t="s">
+      <c r="B25" s="128" t="s">
         <v>111</v>
       </c>
       <c r="C25" s="101"/>
@@ -8259,7 +8262,7 @@
       <c r="A34" s="106">
         <v>10</v>
       </c>
-      <c r="B34" s="95" t="s">
+      <c r="B34" s="106" t="s">
         <v>112</v>
       </c>
       <c r="C34" s="101">

--- a/Documents/ThrowSujiShurikenGanttChart.xlsx
+++ b/Documents/ThrowSujiShurikenGanttChart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA6CC0D-694A-B948-AAC8-26ECAB267AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733F315B-EB6A-CE4D-A0A4-C30B118B24A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクトのスケジュール" sheetId="11" r:id="rId1"/>
@@ -14,12 +14,12 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">プロジェクトのスケジュール!$4:$6</definedName>
-    <definedName name="タスク_開始" localSheetId="0">プロジェクトのスケジュール!$F1</definedName>
-    <definedName name="タスク_終了" localSheetId="0">プロジェクトのスケジュール!$G1</definedName>
-    <definedName name="タスク_進捗状況" localSheetId="0">プロジェクトのスケジュール!$E1</definedName>
-    <definedName name="プロジェクト_開始">プロジェクトのスケジュール!$F$3</definedName>
+    <definedName name="タスク_開始" localSheetId="0">プロジェクトのスケジュール!$G1</definedName>
+    <definedName name="タスク_終了" localSheetId="0">プロジェクトのスケジュール!$H1</definedName>
+    <definedName name="タスク_進捗状況" localSheetId="0">プロジェクトのスケジュール!$F1</definedName>
+    <definedName name="プロジェクト_開始">プロジェクトのスケジュール!$G$3</definedName>
     <definedName name="今日" localSheetId="0">TODAY()</definedName>
-    <definedName name="週_表示">プロジェクトのスケジュール!$F$4</definedName>
+    <definedName name="週_表示">プロジェクトのスケジュール!$G$4</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="129">
   <si>
     <t>このワークシートでプロジェクトのスケジュール​​を作成します。
 セル B1 には、このプロジェクトのタイトルを入力します。
@@ -880,16 +880,6 @@
     <phoneticPr fontId="37"/>
   </si>
   <si>
-    <t>1日平均作業時間</t>
-    <rPh sb="2" eb="4">
-      <t xml:space="preserve">ヘイキｎ </t>
-    </rPh>
-    <rPh sb="4" eb="8">
-      <t xml:space="preserve">サギョウジカｎ </t>
-    </rPh>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
     <t>タスク詳細記入</t>
     <rPh sb="3" eb="5">
       <t xml:space="preserve">ショウサイ </t>
@@ -950,13 +940,6 @@
     <phoneticPr fontId="37"/>
   </si>
   <si>
-    <t>1日作業時間</t>
-    <rPh sb="2" eb="6">
-      <t xml:space="preserve">サギョウジカｎ </t>
-    </rPh>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
     <t>予想作業時間</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ヨソウ </t>
@@ -993,6 +976,36 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t xml:space="preserve">バアイ </t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>実際作業時間</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジッサイ </t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>サギョウジカン</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>合計実際作業時間</t>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ジッサイ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>1週間残りタスク数</t>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">ノコリ </t>
     </rPh>
     <phoneticPr fontId="37"/>
   </si>
@@ -1563,7 +1576,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1809,6 +1822,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1881,7 +1925,7 @@
     <xf numFmtId="0" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2253,6 +2297,18 @@
     <xf numFmtId="0" fontId="1" fillId="45" borderId="17" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="23" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - アクセント 1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -4776,13 +4832,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
@@ -4918,13 +4974,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
       <xdr:row>87</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
@@ -5138,13 +5194,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>342900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -5524,30 +5580,31 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BM96"/>
+  <dimension ref="A1:BN96"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.5703125" style="104" customWidth="1"/>
     <col min="2" max="2" width="46" style="86" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" hidden="1" customWidth="1"/>
-    <col min="10" max="65" width="2.5703125" customWidth="1"/>
-    <col min="67" max="69" width="7"/>
-    <col min="70" max="71" width="8"/>
+    <col min="3" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" hidden="1" customWidth="1"/>
+    <col min="11" max="66" width="2.5703125" customWidth="1"/>
+    <col min="68" max="70" width="7"/>
+    <col min="71" max="72" width="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="103" t="s">
         <v>0</v>
       </c>
@@ -5556,142 +5613,145 @@
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="14"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="14"/>
     </row>
-    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="104" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="84"/>
-      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
     </row>
-    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="104" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="85"/>
       <c r="C3" s="85"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="118">
+      <c r="D3" s="85"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="118">
         <v>44356</v>
       </c>
-      <c r="G3" s="118"/>
-      <c r="J3" s="125" t="s">
+      <c r="H3" s="118"/>
+      <c r="K3" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="125"/>
       <c r="L3" s="125"/>
       <c r="M3" s="125"/>
       <c r="N3" s="125"/>
       <c r="O3" s="125"/>
       <c r="P3" s="125"/>
-      <c r="Q3" s="126" t="s">
+      <c r="Q3" s="125"/>
+      <c r="R3" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="R3" s="127"/>
       <c r="S3" s="127"/>
       <c r="T3" s="127"/>
       <c r="U3" s="127"/>
       <c r="V3" s="127"/>
       <c r="W3" s="127"/>
+      <c r="X3" s="127"/>
     </row>
-    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="103" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="86"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="4">
+      <c r="D4" s="86"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="4">
         <v>1</v>
       </c>
-      <c r="J4" s="115">
-        <f>J5</f>
+      <c r="K4" s="115">
+        <f>K5</f>
         <v>44354</v>
       </c>
-      <c r="K4" s="116"/>
       <c r="L4" s="116"/>
       <c r="M4" s="116"/>
       <c r="N4" s="116"/>
       <c r="O4" s="116"/>
-      <c r="P4" s="117"/>
-      <c r="Q4" s="119">
-        <f>Q5</f>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="119">
+        <f>R5</f>
         <v>44361</v>
       </c>
-      <c r="R4" s="120"/>
       <c r="S4" s="120"/>
       <c r="T4" s="120"/>
       <c r="U4" s="120"/>
       <c r="V4" s="120"/>
-      <c r="W4" s="121"/>
-      <c r="X4" s="115">
-        <f>X5</f>
+      <c r="W4" s="120"/>
+      <c r="X4" s="121"/>
+      <c r="Y4" s="115">
+        <f>Y5</f>
         <v>44368</v>
       </c>
-      <c r="Y4" s="116"/>
       <c r="Z4" s="116"/>
       <c r="AA4" s="116"/>
       <c r="AB4" s="116"/>
       <c r="AC4" s="116"/>
-      <c r="AD4" s="117"/>
-      <c r="AE4" s="115">
-        <f>AE5</f>
+      <c r="AD4" s="116"/>
+      <c r="AE4" s="117"/>
+      <c r="AF4" s="115">
+        <f>AF5</f>
         <v>44375</v>
       </c>
-      <c r="AF4" s="116"/>
       <c r="AG4" s="116"/>
       <c r="AH4" s="116"/>
       <c r="AI4" s="116"/>
       <c r="AJ4" s="116"/>
-      <c r="AK4" s="117"/>
-      <c r="AL4" s="115">
-        <f>AL5</f>
+      <c r="AK4" s="116"/>
+      <c r="AL4" s="117"/>
+      <c r="AM4" s="115">
+        <f>AM5</f>
         <v>44382</v>
       </c>
-      <c r="AM4" s="116"/>
       <c r="AN4" s="116"/>
       <c r="AO4" s="116"/>
       <c r="AP4" s="116"/>
       <c r="AQ4" s="116"/>
-      <c r="AR4" s="117"/>
-      <c r="AS4" s="115">
-        <f>AS5</f>
+      <c r="AR4" s="116"/>
+      <c r="AS4" s="117"/>
+      <c r="AT4" s="115">
+        <f>AT5</f>
         <v>44389</v>
       </c>
-      <c r="AT4" s="116"/>
       <c r="AU4" s="116"/>
       <c r="AV4" s="116"/>
       <c r="AW4" s="116"/>
       <c r="AX4" s="116"/>
-      <c r="AY4" s="117"/>
-      <c r="AZ4" s="115">
-        <f>AZ5</f>
+      <c r="AY4" s="116"/>
+      <c r="AZ4" s="117"/>
+      <c r="BA4" s="115">
+        <f>BA5</f>
         <v>44396</v>
       </c>
-      <c r="BA4" s="116"/>
       <c r="BB4" s="116"/>
       <c r="BC4" s="116"/>
       <c r="BD4" s="116"/>
       <c r="BE4" s="116"/>
-      <c r="BF4" s="117"/>
-      <c r="BG4" s="115">
-        <f>BG5</f>
+      <c r="BF4" s="116"/>
+      <c r="BG4" s="117"/>
+      <c r="BH4" s="115">
+        <f>BH5</f>
         <v>44403</v>
       </c>
-      <c r="BH4" s="116"/>
       <c r="BI4" s="116"/>
       <c r="BJ4" s="116"/>
       <c r="BK4" s="116"/>
       <c r="BL4" s="116"/>
-      <c r="BM4" s="117"/>
+      <c r="BM4" s="116"/>
+      <c r="BN4" s="117"/>
     </row>
-    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="103" t="s">
         <v>4</v>
       </c>
@@ -5702,494 +5762,498 @@
       <c r="F5" s="124"/>
       <c r="G5" s="124"/>
       <c r="H5" s="124"/>
-      <c r="J5" s="34">
+      <c r="I5" s="124"/>
+      <c r="K5" s="34">
         <f>プロジェクト_開始-WEEKDAY(プロジェクト_開始,1)+2+7*(週_表示-1)</f>
         <v>44354</v>
       </c>
-      <c r="K5" s="35">
-        <f>J5+1</f>
+      <c r="L5" s="35">
+        <f>K5+1</f>
         <v>44355</v>
       </c>
-      <c r="L5" s="35">
-        <f t="shared" ref="L5:AY5" si="0">K5+1</f>
+      <c r="M5" s="35">
+        <f t="shared" ref="M5:AZ5" si="0">L5+1</f>
         <v>44356</v>
       </c>
-      <c r="M5" s="35">
+      <c r="N5" s="35">
         <f t="shared" si="0"/>
         <v>44357</v>
       </c>
-      <c r="N5" s="35">
+      <c r="O5" s="35">
         <f t="shared" si="0"/>
         <v>44358</v>
       </c>
-      <c r="O5" s="35">
+      <c r="P5" s="35">
         <f t="shared" si="0"/>
         <v>44359</v>
       </c>
-      <c r="P5" s="36">
+      <c r="Q5" s="36">
         <f t="shared" si="0"/>
         <v>44360</v>
       </c>
-      <c r="Q5" s="34">
-        <f>P5+1</f>
+      <c r="R5" s="34">
+        <f>Q5+1</f>
         <v>44361</v>
       </c>
-      <c r="R5" s="35">
-        <f>Q5+1</f>
+      <c r="S5" s="35">
+        <f>R5+1</f>
         <v>44362</v>
       </c>
-      <c r="S5" s="35">
+      <c r="T5" s="35">
         <f t="shared" si="0"/>
         <v>44363</v>
       </c>
-      <c r="T5" s="35">
+      <c r="U5" s="35">
         <f t="shared" si="0"/>
         <v>44364</v>
       </c>
-      <c r="U5" s="35">
+      <c r="V5" s="35">
         <f t="shared" si="0"/>
         <v>44365</v>
       </c>
-      <c r="V5" s="35">
+      <c r="W5" s="35">
         <f t="shared" si="0"/>
         <v>44366</v>
       </c>
-      <c r="W5" s="36">
+      <c r="X5" s="36">
         <f t="shared" si="0"/>
         <v>44367</v>
       </c>
-      <c r="X5" s="34">
-        <f>W5+1</f>
+      <c r="Y5" s="34">
+        <f>X5+1</f>
         <v>44368</v>
       </c>
-      <c r="Y5" s="35">
-        <f>X5+1</f>
+      <c r="Z5" s="35">
+        <f>Y5+1</f>
         <v>44369</v>
       </c>
-      <c r="Z5" s="35">
+      <c r="AA5" s="35">
         <f t="shared" si="0"/>
         <v>44370</v>
       </c>
-      <c r="AA5" s="35">
+      <c r="AB5" s="35">
         <f t="shared" si="0"/>
         <v>44371</v>
       </c>
-      <c r="AB5" s="35">
+      <c r="AC5" s="35">
         <f t="shared" si="0"/>
         <v>44372</v>
       </c>
-      <c r="AC5" s="35">
+      <c r="AD5" s="35">
         <f t="shared" si="0"/>
         <v>44373</v>
       </c>
-      <c r="AD5" s="36">
+      <c r="AE5" s="36">
         <f t="shared" si="0"/>
         <v>44374</v>
       </c>
-      <c r="AE5" s="34">
-        <f>AD5+1</f>
+      <c r="AF5" s="34">
+        <f>AE5+1</f>
         <v>44375</v>
       </c>
-      <c r="AF5" s="35">
-        <f>AE5+1</f>
+      <c r="AG5" s="35">
+        <f>AF5+1</f>
         <v>44376</v>
       </c>
-      <c r="AG5" s="35">
+      <c r="AH5" s="35">
         <f t="shared" si="0"/>
         <v>44377</v>
       </c>
-      <c r="AH5" s="35">
+      <c r="AI5" s="35">
         <f t="shared" si="0"/>
         <v>44378</v>
       </c>
-      <c r="AI5" s="35">
+      <c r="AJ5" s="35">
         <f t="shared" si="0"/>
         <v>44379</v>
       </c>
-      <c r="AJ5" s="35">
+      <c r="AK5" s="35">
         <f t="shared" si="0"/>
         <v>44380</v>
       </c>
-      <c r="AK5" s="36">
+      <c r="AL5" s="36">
         <f t="shared" si="0"/>
         <v>44381</v>
       </c>
-      <c r="AL5" s="34">
-        <f>AK5+1</f>
+      <c r="AM5" s="34">
+        <f>AL5+1</f>
         <v>44382</v>
       </c>
-      <c r="AM5" s="35">
-        <f>AL5+1</f>
+      <c r="AN5" s="35">
+        <f>AM5+1</f>
         <v>44383</v>
       </c>
-      <c r="AN5" s="35">
+      <c r="AO5" s="35">
         <f t="shared" si="0"/>
         <v>44384</v>
       </c>
-      <c r="AO5" s="35">
+      <c r="AP5" s="35">
         <f t="shared" si="0"/>
         <v>44385</v>
       </c>
-      <c r="AP5" s="35">
+      <c r="AQ5" s="35">
         <f t="shared" si="0"/>
         <v>44386</v>
       </c>
-      <c r="AQ5" s="35">
+      <c r="AR5" s="35">
         <f t="shared" si="0"/>
         <v>44387</v>
       </c>
-      <c r="AR5" s="36">
+      <c r="AS5" s="36">
         <f t="shared" si="0"/>
         <v>44388</v>
       </c>
-      <c r="AS5" s="34">
-        <f>AR5+1</f>
+      <c r="AT5" s="34">
+        <f>AS5+1</f>
         <v>44389</v>
       </c>
-      <c r="AT5" s="35">
-        <f>AS5+1</f>
+      <c r="AU5" s="35">
+        <f>AT5+1</f>
         <v>44390</v>
       </c>
-      <c r="AU5" s="35">
+      <c r="AV5" s="35">
         <f t="shared" si="0"/>
         <v>44391</v>
       </c>
-      <c r="AV5" s="35">
+      <c r="AW5" s="35">
         <f t="shared" si="0"/>
         <v>44392</v>
       </c>
-      <c r="AW5" s="35">
+      <c r="AX5" s="35">
         <f t="shared" si="0"/>
         <v>44393</v>
       </c>
-      <c r="AX5" s="35">
+      <c r="AY5" s="35">
         <f t="shared" si="0"/>
         <v>44394</v>
       </c>
-      <c r="AY5" s="36">
+      <c r="AZ5" s="36">
         <f t="shared" si="0"/>
         <v>44395</v>
       </c>
-      <c r="AZ5" s="34">
-        <f>AY5+1</f>
+      <c r="BA5" s="34">
+        <f>AZ5+1</f>
         <v>44396</v>
       </c>
-      <c r="BA5" s="35">
-        <f>AZ5+1</f>
+      <c r="BB5" s="35">
+        <f>BA5+1</f>
         <v>44397</v>
       </c>
-      <c r="BB5" s="35">
-        <f t="shared" ref="BB5:BF5" si="1">BA5+1</f>
+      <c r="BC5" s="35">
+        <f t="shared" ref="BC5:BG5" si="1">BB5+1</f>
         <v>44398</v>
       </c>
-      <c r="BC5" s="35">
+      <c r="BD5" s="35">
         <f t="shared" si="1"/>
         <v>44399</v>
       </c>
-      <c r="BD5" s="35">
+      <c r="BE5" s="35">
         <f t="shared" si="1"/>
         <v>44400</v>
       </c>
-      <c r="BE5" s="35">
+      <c r="BF5" s="35">
         <f t="shared" si="1"/>
         <v>44401</v>
       </c>
-      <c r="BF5" s="36">
+      <c r="BG5" s="36">
         <f t="shared" si="1"/>
         <v>44402</v>
       </c>
-      <c r="BG5" s="34">
-        <f>BF5+1</f>
+      <c r="BH5" s="34">
+        <f>BG5+1</f>
         <v>44403</v>
       </c>
-      <c r="BH5" s="35">
-        <f>BG5+1</f>
+      <c r="BI5" s="35">
+        <f>BH5+1</f>
         <v>44404</v>
       </c>
-      <c r="BI5" s="35">
-        <f t="shared" ref="BI5:BM5" si="2">BH5+1</f>
+      <c r="BJ5" s="35">
+        <f t="shared" ref="BJ5:BN5" si="2">BI5+1</f>
         <v>44405</v>
       </c>
-      <c r="BJ5" s="35">
+      <c r="BK5" s="35">
         <f t="shared" si="2"/>
         <v>44406</v>
       </c>
-      <c r="BK5" s="35">
+      <c r="BL5" s="35">
         <f t="shared" si="2"/>
         <v>44407</v>
       </c>
-      <c r="BL5" s="35">
+      <c r="BM5" s="35">
         <f t="shared" si="2"/>
         <v>44408</v>
       </c>
-      <c r="BM5" s="36">
+      <c r="BN5" s="36">
         <f t="shared" si="2"/>
         <v>44409</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:66" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="87" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B6" s="87" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D6" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="F6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="G6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="H6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="16"/>
+      <c r="J6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="17" t="str">
-        <f t="shared" ref="J6:AO6" si="3">LEFT(TEXT(J5,"aaa"),1)</f>
+      <c r="K6" s="17" t="str">
+        <f t="shared" ref="K6:AP6" si="3">LEFT(TEXT(K5,"aaa"),1)</f>
         <v>月</v>
       </c>
-      <c r="K6" s="17" t="str">
+      <c r="L6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>火</v>
       </c>
-      <c r="L6" s="17" t="str">
+      <c r="M6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>水</v>
       </c>
-      <c r="M6" s="17" t="str">
+      <c r="N6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>木</v>
       </c>
-      <c r="N6" s="17" t="str">
+      <c r="O6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>金</v>
       </c>
-      <c r="O6" s="17" t="str">
+      <c r="P6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>土</v>
       </c>
-      <c r="P6" s="17" t="str">
+      <c r="Q6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>日</v>
       </c>
-      <c r="Q6" s="17" t="str">
+      <c r="R6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>月</v>
       </c>
-      <c r="R6" s="17" t="str">
+      <c r="S6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>火</v>
       </c>
-      <c r="S6" s="17" t="str">
+      <c r="T6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>水</v>
       </c>
-      <c r="T6" s="17" t="str">
+      <c r="U6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>木</v>
       </c>
-      <c r="U6" s="17" t="str">
+      <c r="V6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>金</v>
       </c>
-      <c r="V6" s="17" t="str">
+      <c r="W6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>土</v>
       </c>
-      <c r="W6" s="17" t="str">
+      <c r="X6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>日</v>
       </c>
-      <c r="X6" s="17" t="str">
+      <c r="Y6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>月</v>
       </c>
-      <c r="Y6" s="17" t="str">
+      <c r="Z6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>火</v>
       </c>
-      <c r="Z6" s="17" t="str">
+      <c r="AA6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>水</v>
       </c>
-      <c r="AA6" s="17" t="str">
+      <c r="AB6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>木</v>
       </c>
-      <c r="AB6" s="17" t="str">
+      <c r="AC6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>金</v>
       </c>
-      <c r="AC6" s="17" t="str">
+      <c r="AD6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>土</v>
       </c>
-      <c r="AD6" s="17" t="str">
+      <c r="AE6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>日</v>
       </c>
-      <c r="AE6" s="17" t="str">
+      <c r="AF6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>月</v>
       </c>
-      <c r="AF6" s="17" t="str">
+      <c r="AG6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>火</v>
       </c>
-      <c r="AG6" s="17" t="str">
+      <c r="AH6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>水</v>
       </c>
-      <c r="AH6" s="17" t="str">
+      <c r="AI6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>木</v>
       </c>
-      <c r="AI6" s="17" t="str">
+      <c r="AJ6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>金</v>
       </c>
-      <c r="AJ6" s="17" t="str">
+      <c r="AK6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>土</v>
       </c>
-      <c r="AK6" s="17" t="str">
+      <c r="AL6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>日</v>
       </c>
-      <c r="AL6" s="17" t="str">
+      <c r="AM6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>月</v>
       </c>
-      <c r="AM6" s="17" t="str">
+      <c r="AN6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>火</v>
       </c>
-      <c r="AN6" s="17" t="str">
+      <c r="AO6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>水</v>
       </c>
-      <c r="AO6" s="17" t="str">
+      <c r="AP6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>木</v>
       </c>
-      <c r="AP6" s="17" t="str">
-        <f t="shared" ref="AP6:BM6" si="4">LEFT(TEXT(AP5,"aaa"),1)</f>
+      <c r="AQ6" s="17" t="str">
+        <f t="shared" ref="AQ6:BN6" si="4">LEFT(TEXT(AQ5,"aaa"),1)</f>
         <v>金</v>
       </c>
-      <c r="AQ6" s="17" t="str">
+      <c r="AR6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>土</v>
       </c>
-      <c r="AR6" s="17" t="str">
+      <c r="AS6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>日</v>
       </c>
-      <c r="AS6" s="17" t="str">
+      <c r="AT6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>月</v>
       </c>
-      <c r="AT6" s="17" t="str">
+      <c r="AU6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>火</v>
       </c>
-      <c r="AU6" s="17" t="str">
+      <c r="AV6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>水</v>
       </c>
-      <c r="AV6" s="17" t="str">
+      <c r="AW6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>木</v>
       </c>
-      <c r="AW6" s="17" t="str">
+      <c r="AX6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>金</v>
       </c>
-      <c r="AX6" s="17" t="str">
+      <c r="AY6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>土</v>
       </c>
-      <c r="AY6" s="17" t="str">
+      <c r="AZ6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>日</v>
       </c>
-      <c r="AZ6" s="17" t="str">
+      <c r="BA6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>月</v>
       </c>
-      <c r="BA6" s="17" t="str">
+      <c r="BB6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>火</v>
       </c>
-      <c r="BB6" s="17" t="str">
+      <c r="BC6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>水</v>
       </c>
-      <c r="BC6" s="17" t="str">
+      <c r="BD6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>木</v>
       </c>
-      <c r="BD6" s="17" t="str">
+      <c r="BE6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>金</v>
       </c>
-      <c r="BE6" s="17" t="str">
+      <c r="BF6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>土</v>
       </c>
-      <c r="BF6" s="17" t="str">
+      <c r="BG6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>日</v>
       </c>
-      <c r="BG6" s="17" t="str">
+      <c r="BH6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>月</v>
       </c>
-      <c r="BH6" s="17" t="str">
+      <c r="BI6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>火</v>
       </c>
-      <c r="BI6" s="17" t="str">
+      <c r="BJ6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>水</v>
       </c>
-      <c r="BJ6" s="17" t="str">
+      <c r="BK6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>木</v>
       </c>
-      <c r="BK6" s="17" t="str">
+      <c r="BL6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>金</v>
       </c>
-      <c r="BL6" s="17" t="str">
+      <c r="BM6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>土</v>
       </c>
-      <c r="BM6" s="17" t="str">
+      <c r="BN6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>日</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:66" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="104" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="F7"/>
-      <c r="I7" t="str">
+      <c r="E7" s="8"/>
+      <c r="G7"/>
+      <c r="J7" t="str">
         <f>IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
         <v/>
       </c>
-      <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
@@ -6245,23 +6309,24 @@
       <c r="BK7" s="5"/>
       <c r="BL7" s="5"/>
       <c r="BM7" s="5"/>
+      <c r="BN7" s="5"/>
     </row>
-    <row r="8" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="88"/>
       <c r="B8" s="88" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18" t="str">
-        <f t="shared" ref="I8:I93" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18" t="str">
+        <f t="shared" ref="J8:J93" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
         <v/>
       </c>
-      <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
@@ -6317,31 +6382,32 @@
       <c r="BK8" s="5"/>
       <c r="BL8" s="5"/>
       <c r="BM8" s="5"/>
+      <c r="BN8" s="5"/>
     </row>
-    <row r="9" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="89"/>
       <c r="B9" s="89" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C9" s="59"/>
-      <c r="D9" s="59">
+      <c r="D9" s="59"/>
+      <c r="E9" s="59">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="E9" s="43">
+      <c r="F9" s="43">
         <v>1</v>
-      </c>
-      <c r="F9" s="44">
-        <v>44241</v>
       </c>
       <c r="G9" s="44">
         <v>44241</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18">
+      <c r="H9" s="44">
+        <v>44241</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
@@ -6397,32 +6463,33 @@
       <c r="BK9" s="5"/>
       <c r="BL9" s="5"/>
       <c r="BM9" s="5"/>
+      <c r="BN9" s="5"/>
     </row>
-    <row r="10" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="89"/>
       <c r="B10" s="89" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="59"/>
-      <c r="D10" s="59">
+      <c r="D10" s="59"/>
+      <c r="E10" s="59">
         <v>0.32569444444444445</v>
       </c>
-      <c r="E10" s="43">
+      <c r="F10" s="43">
         <v>1</v>
       </c>
-      <c r="F10" s="44">
+      <c r="G10" s="44">
         <v>44386</v>
       </c>
-      <c r="G10" s="44">
-        <f>F10+2</f>
+      <c r="H10" s="44">
+        <f>G10+2</f>
         <v>44388</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18">
+      <c r="I10" s="18"/>
+      <c r="J10" s="18">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
@@ -6434,9 +6501,9 @@
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
-      <c r="V10" s="6"/>
+      <c r="V10" s="5"/>
       <c r="W10" s="6"/>
-      <c r="X10" s="5"/>
+      <c r="X10" s="6"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
@@ -6478,31 +6545,32 @@
       <c r="BK10" s="5"/>
       <c r="BL10" s="5"/>
       <c r="BM10" s="5"/>
+      <c r="BN10" s="5"/>
     </row>
-    <row r="11" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="89"/>
       <c r="B11" s="89" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" s="59"/>
       <c r="D11" s="59"/>
-      <c r="E11" s="43">
+      <c r="E11" s="59"/>
+      <c r="F11" s="43">
         <v>0</v>
       </c>
-      <c r="F11" s="44">
-        <f>G10</f>
+      <c r="G11" s="44">
+        <f>H10</f>
         <v>44388</v>
       </c>
-      <c r="G11" s="44">
-        <f>F11+4</f>
+      <c r="H11" s="44">
+        <f>G11+4</f>
         <v>44392</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18">
+      <c r="I11" s="18"/>
+      <c r="J11" s="18">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
@@ -6558,33 +6626,34 @@
       <c r="BK11" s="5"/>
       <c r="BL11" s="5"/>
       <c r="BM11" s="5"/>
+      <c r="BN11" s="5"/>
     </row>
-    <row r="12" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="89"/>
       <c r="B12" s="89" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12" s="59"/>
-      <c r="D12" s="59">
+      <c r="D12" s="59"/>
+      <c r="E12" s="59">
         <v>4.6527777777777779E-2</v>
       </c>
-      <c r="E12" s="43">
+      <c r="F12" s="43">
         <v>0</v>
       </c>
-      <c r="F12" s="44">
-        <f>G11</f>
+      <c r="G12" s="44">
+        <f>H11</f>
         <v>44392</v>
       </c>
-      <c r="G12" s="44">
-        <f>F12+4</f>
+      <c r="H12" s="44">
+        <f>G12+4</f>
         <v>44396</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18">
+      <c r="I12" s="18"/>
+      <c r="J12" s="18">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
@@ -6640,23 +6709,24 @@
       <c r="BK12" s="5"/>
       <c r="BL12" s="5"/>
       <c r="BM12" s="5"/>
+      <c r="BN12" s="5"/>
     </row>
-    <row r="13" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="90"/>
       <c r="B13" s="90" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="45"/>
       <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18" t="str">
+      <c r="E13" s="45"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -6712,31 +6782,32 @@
       <c r="BK13" s="5"/>
       <c r="BL13" s="5"/>
       <c r="BM13" s="5"/>
+      <c r="BN13" s="5"/>
     </row>
-    <row r="14" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="91"/>
       <c r="B14" s="91" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="49"/>
-      <c r="E14" s="50">
+      <c r="E14" s="49"/>
+      <c r="F14" s="50">
         <v>1</v>
       </c>
-      <c r="F14" s="51">
-        <f>F11+1</f>
+      <c r="G14" s="51">
+        <f>G11+1</f>
         <v>44389</v>
       </c>
-      <c r="G14" s="51">
-        <f>F14+4</f>
+      <c r="H14" s="51">
+        <f>G14+4</f>
         <v>44393</v>
       </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18">
+      <c r="I14" s="18"/>
+      <c r="J14" s="18">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
@@ -6792,23 +6863,24 @@
       <c r="BK14" s="5"/>
       <c r="BL14" s="5"/>
       <c r="BM14" s="5"/>
+      <c r="BN14" s="5"/>
     </row>
-    <row r="15" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="92"/>
       <c r="B15" s="92" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="52"/>
       <c r="D15" s="52"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18" t="str">
+      <c r="E15" s="52"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
@@ -6864,31 +6936,32 @@
       <c r="BK15" s="5"/>
       <c r="BL15" s="5"/>
       <c r="BM15" s="5"/>
+      <c r="BN15" s="5"/>
     </row>
-    <row r="16" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="94"/>
       <c r="B16" s="94" t="s">
         <v>97</v>
       </c>
       <c r="C16" s="101"/>
-      <c r="D16" s="101">
+      <c r="D16" s="101"/>
+      <c r="E16" s="101">
         <v>0.12986111111111112</v>
       </c>
-      <c r="E16" s="57">
+      <c r="F16" s="57">
         <v>1</v>
-      </c>
-      <c r="F16" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="G16" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18" t="e">
+      <c r="H16" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
@@ -6944,31 +7017,32 @@
       <c r="BK16" s="5"/>
       <c r="BL16" s="5"/>
       <c r="BM16" s="5"/>
+      <c r="BN16" s="5"/>
     </row>
-    <row r="17" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="94"/>
       <c r="B17" s="94" t="s">
         <v>106</v>
       </c>
       <c r="C17" s="101"/>
-      <c r="D17" s="101">
+      <c r="D17" s="101"/>
+      <c r="E17" s="101">
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="E17" s="57">
+      <c r="F17" s="57">
         <v>1</v>
-      </c>
-      <c r="F17" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="G17" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18" t="e">
+      <c r="H17" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -7024,31 +7098,32 @@
       <c r="BK17" s="5"/>
       <c r="BL17" s="5"/>
       <c r="BM17" s="5"/>
+      <c r="BN17" s="5"/>
     </row>
-    <row r="18" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="94"/>
       <c r="B18" s="94" t="s">
         <v>98</v>
       </c>
       <c r="C18" s="101"/>
-      <c r="D18" s="101">
+      <c r="D18" s="101"/>
+      <c r="E18" s="101">
         <v>0.375</v>
       </c>
-      <c r="E18" s="57">
+      <c r="F18" s="57">
         <v>0</v>
-      </c>
-      <c r="F18" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="G18" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18" t="e">
+      <c r="H18" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
@@ -7104,29 +7179,30 @@
       <c r="BK18" s="5"/>
       <c r="BL18" s="5"/>
       <c r="BM18" s="5"/>
+      <c r="BN18" s="5"/>
     </row>
-    <row r="19" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="94"/>
       <c r="B19" s="94" t="s">
         <v>99</v>
       </c>
       <c r="C19" s="101"/>
       <c r="D19" s="101"/>
-      <c r="E19" s="57">
+      <c r="E19" s="101"/>
+      <c r="F19" s="57">
         <v>1</v>
-      </c>
-      <c r="F19" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="G19" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18" t="e">
+      <c r="H19" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
@@ -7182,23 +7258,24 @@
       <c r="BK19" s="5"/>
       <c r="BL19" s="5"/>
       <c r="BM19" s="5"/>
+      <c r="BN19" s="5"/>
     </row>
-    <row r="20" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="93"/>
       <c r="B20" s="93" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="73"/>
       <c r="D20" s="73"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18" t="str">
+      <c r="E20" s="73"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
@@ -7254,20 +7331,21 @@
       <c r="BK20" s="5"/>
       <c r="BL20" s="5"/>
       <c r="BM20" s="5"/>
+      <c r="BN20" s="5"/>
     </row>
-    <row r="21" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="81"/>
       <c r="B21" s="81" t="s">
         <v>71</v>
       </c>
       <c r="C21" s="73"/>
       <c r="D21" s="73"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="18"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="76"/>
       <c r="I21" s="18"/>
-      <c r="J21" s="5"/>
+      <c r="J21" s="18"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
@@ -7323,8 +7401,9 @@
       <c r="BK21" s="5"/>
       <c r="BL21" s="5"/>
       <c r="BM21" s="5"/>
+      <c r="BN21" s="5"/>
     </row>
-    <row r="22" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="94">
         <v>1</v>
       </c>
@@ -7333,21 +7412,21 @@
       </c>
       <c r="C22" s="56"/>
       <c r="D22" s="56"/>
-      <c r="E22" s="57">
+      <c r="E22" s="56"/>
+      <c r="F22" s="57">
         <v>0</v>
-      </c>
-      <c r="F22" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="G22" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18" t="e">
+      <c r="H22" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
@@ -7403,23 +7482,24 @@
       <c r="BK22" s="5"/>
       <c r="BL22" s="5"/>
       <c r="BM22" s="5"/>
+      <c r="BN22" s="5"/>
     </row>
-    <row r="23" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="81"/>
       <c r="B23" s="81" t="s">
         <v>39</v>
       </c>
       <c r="C23" s="73"/>
       <c r="D23" s="73"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18" t="str">
+      <c r="E23" s="73"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
@@ -7475,8 +7555,9 @@
       <c r="BK23" s="5"/>
       <c r="BL23" s="5"/>
       <c r="BM23" s="5"/>
+      <c r="BN23" s="5"/>
     </row>
-    <row r="24" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="105">
         <v>2</v>
       </c>
@@ -7485,21 +7566,21 @@
       </c>
       <c r="C24" s="56"/>
       <c r="D24" s="56"/>
-      <c r="E24" s="57">
+      <c r="E24" s="56"/>
+      <c r="F24" s="57">
         <v>0.4</v>
-      </c>
-      <c r="F24" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="G24" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18" t="e">
+      <c r="H24" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
@@ -7555,8 +7636,9 @@
       <c r="BK24" s="5"/>
       <c r="BL24" s="5"/>
       <c r="BM24" s="5"/>
+      <c r="BN24" s="5"/>
     </row>
-    <row r="25" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="105">
         <v>3</v>
       </c>
@@ -7564,24 +7646,24 @@
         <v>111</v>
       </c>
       <c r="C25" s="101"/>
-      <c r="D25" s="101">
+      <c r="D25" s="101"/>
+      <c r="E25" s="101">
         <v>2.4999999999999998E-2</v>
       </c>
-      <c r="E25" s="57">
+      <c r="F25" s="57">
         <v>0</v>
-      </c>
-      <c r="F25" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="G25" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18" t="e">
+      <c r="H25" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
@@ -7637,23 +7719,24 @@
       <c r="BK25" s="5"/>
       <c r="BL25" s="5"/>
       <c r="BM25" s="5"/>
+      <c r="BN25" s="5"/>
     </row>
-    <row r="26" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="81"/>
       <c r="B26" s="81" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="73"/>
       <c r="D26" s="73"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18" t="str">
+      <c r="E26" s="73"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -7709,8 +7792,9 @@
       <c r="BK26" s="5"/>
       <c r="BL26" s="5"/>
       <c r="BM26" s="5"/>
+      <c r="BN26" s="5"/>
     </row>
-    <row r="27" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="95">
         <v>4</v>
       </c>
@@ -7719,21 +7803,21 @@
       </c>
       <c r="C27" s="56"/>
       <c r="D27" s="56"/>
-      <c r="E27" s="57">
+      <c r="E27" s="56"/>
+      <c r="F27" s="57">
         <v>1</v>
-      </c>
-      <c r="F27" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="G27" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18" t="e">
+      <c r="H27" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
@@ -7789,8 +7873,9 @@
       <c r="BK27" s="5"/>
       <c r="BL27" s="5"/>
       <c r="BM27" s="5"/>
+      <c r="BN27" s="5"/>
     </row>
-    <row r="28" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="95">
         <v>5</v>
       </c>
@@ -7799,21 +7884,21 @@
       </c>
       <c r="C28" s="56"/>
       <c r="D28" s="56"/>
-      <c r="E28" s="57">
+      <c r="E28" s="56"/>
+      <c r="F28" s="57">
         <v>1</v>
-      </c>
-      <c r="F28" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="G28" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18" t="e">
+      <c r="H28" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
@@ -7869,8 +7954,9 @@
       <c r="BK28" s="5"/>
       <c r="BL28" s="5"/>
       <c r="BM28" s="5"/>
+      <c r="BN28" s="5"/>
     </row>
-    <row r="29" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="106">
         <v>7</v>
       </c>
@@ -7881,21 +7967,21 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D29" s="56"/>
-      <c r="E29" s="57">
+      <c r="E29" s="56"/>
+      <c r="F29" s="57">
         <v>0</v>
-      </c>
-      <c r="F29" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="G29" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18" t="e">
+      <c r="H29" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
@@ -7951,8 +8037,9 @@
       <c r="BK29" s="5"/>
       <c r="BL29" s="5"/>
       <c r="BM29" s="5"/>
+      <c r="BN29" s="5"/>
     </row>
-    <row r="30" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="106">
         <v>8</v>
       </c>
@@ -7963,21 +8050,21 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D30" s="56"/>
-      <c r="E30" s="57">
+      <c r="E30" s="56"/>
+      <c r="F30" s="57">
         <v>0</v>
-      </c>
-      <c r="F30" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="G30" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18" t="e">
+      <c r="H30" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
@@ -8033,23 +8120,24 @@
       <c r="BK30" s="5"/>
       <c r="BL30" s="5"/>
       <c r="BM30" s="5"/>
+      <c r="BN30" s="5"/>
     </row>
-    <row r="31" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="81"/>
       <c r="B31" s="81" t="s">
         <v>108</v>
       </c>
       <c r="C31" s="73"/>
       <c r="D31" s="73"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18" t="str">
+      <c r="E31" s="73"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
@@ -8105,8 +8193,9 @@
       <c r="BK31" s="5"/>
       <c r="BL31" s="5"/>
       <c r="BM31" s="5"/>
+      <c r="BN31" s="5"/>
     </row>
-    <row r="32" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="106">
         <v>9</v>
       </c>
@@ -8115,21 +8204,21 @@
       </c>
       <c r="C32" s="56"/>
       <c r="D32" s="56"/>
-      <c r="E32" s="57">
+      <c r="E32" s="56"/>
+      <c r="F32" s="57">
         <v>0.8</v>
-      </c>
-      <c r="F32" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="G32" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18" t="e">
+      <c r="H32" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -8185,23 +8274,24 @@
       <c r="BK32" s="5"/>
       <c r="BL32" s="5"/>
       <c r="BM32" s="5"/>
+      <c r="BN32" s="5"/>
     </row>
-    <row r="33" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="81"/>
       <c r="B33" s="81" t="s">
         <v>110</v>
       </c>
       <c r="C33" s="73"/>
       <c r="D33" s="73"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18" t="str">
+      <c r="E33" s="73"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
@@ -8257,35 +8347,38 @@
       <c r="BK33" s="5"/>
       <c r="BL33" s="5"/>
       <c r="BM33" s="5"/>
+      <c r="BN33" s="5"/>
     </row>
-    <row r="34" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="106">
+    <row r="34" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="95">
         <v>10</v>
       </c>
-      <c r="B34" s="106" t="s">
+      <c r="B34" s="95" t="s">
         <v>112</v>
       </c>
       <c r="C34" s="101">
         <v>0.25</v>
       </c>
       <c r="D34" s="101">
-        <v>0.24305555555555555</v>
-      </c>
-      <c r="E34" s="57">
-        <v>0.6</v>
-      </c>
-      <c r="F34" s="58" t="s">
-        <v>12</v>
+        <v>1.5972222222222224E-2</v>
+      </c>
+      <c r="E34" s="101">
+        <v>0.2590277777777778</v>
+      </c>
+      <c r="F34" s="57">
+        <v>0.8</v>
       </c>
       <c r="G34" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18" t="e">
+      <c r="H34" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
@@ -8341,8 +8434,9 @@
       <c r="BK34" s="5"/>
       <c r="BL34" s="5"/>
       <c r="BM34" s="5"/>
+      <c r="BN34" s="5"/>
     </row>
-    <row r="35" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="95">
         <v>11</v>
       </c>
@@ -8351,21 +8445,21 @@
       </c>
       <c r="C35" s="56"/>
       <c r="D35" s="56"/>
-      <c r="E35" s="57">
+      <c r="E35" s="56"/>
+      <c r="F35" s="57">
         <v>1</v>
-      </c>
-      <c r="F35" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="G35" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18" t="e">
+      <c r="H35" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
@@ -8421,33 +8515,34 @@
       <c r="BK35" s="5"/>
       <c r="BL35" s="5"/>
       <c r="BM35" s="5"/>
+      <c r="BN35" s="5"/>
     </row>
-    <row r="36" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="106">
         <v>12</v>
       </c>
       <c r="B36" s="95" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C36" s="101">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D36" s="101"/>
-      <c r="E36" s="57">
+      <c r="E36" s="101"/>
+      <c r="F36" s="57">
         <v>0</v>
-      </c>
-      <c r="F36" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="G36" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18" t="e">
+      <c r="H36" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
@@ -8503,23 +8598,24 @@
       <c r="BK36" s="5"/>
       <c r="BL36" s="5"/>
       <c r="BM36" s="5"/>
+      <c r="BN36" s="5"/>
     </row>
-    <row r="37" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="81"/>
       <c r="B37" s="81" t="s">
         <v>43</v>
       </c>
       <c r="C37" s="73"/>
       <c r="D37" s="73"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18" t="str">
+      <c r="E37" s="73"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
@@ -8575,8 +8671,9 @@
       <c r="BK37" s="5"/>
       <c r="BL37" s="5"/>
       <c r="BM37" s="5"/>
+      <c r="BN37" s="5"/>
     </row>
-    <row r="38" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="106">
         <v>13</v>
       </c>
@@ -8587,21 +8684,21 @@
         <v>0.125</v>
       </c>
       <c r="D38" s="56"/>
-      <c r="E38" s="57">
+      <c r="E38" s="56"/>
+      <c r="F38" s="57">
         <v>0</v>
-      </c>
-      <c r="F38" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="G38" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18" t="e">
+      <c r="H38" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
@@ -8657,23 +8754,24 @@
       <c r="BK38" s="5"/>
       <c r="BL38" s="5"/>
       <c r="BM38" s="5"/>
+      <c r="BN38" s="5"/>
     </row>
-    <row r="39" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="81"/>
       <c r="B39" s="81" t="s">
         <v>41</v>
       </c>
       <c r="C39" s="73"/>
       <c r="D39" s="73"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18" t="str">
+      <c r="E39" s="73"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
@@ -8729,8 +8827,9 @@
       <c r="BK39" s="5"/>
       <c r="BL39" s="5"/>
       <c r="BM39" s="5"/>
+      <c r="BN39" s="5"/>
     </row>
-    <row r="40" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="107">
         <v>14</v>
       </c>
@@ -8741,21 +8840,21 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="D40" s="56"/>
-      <c r="E40" s="57">
+      <c r="E40" s="56"/>
+      <c r="F40" s="57">
         <v>0</v>
-      </c>
-      <c r="F40" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="G40" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18" t="e">
+      <c r="H40" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
@@ -8811,8 +8910,9 @@
       <c r="BK40" s="5"/>
       <c r="BL40" s="5"/>
       <c r="BM40" s="5"/>
+      <c r="BN40" s="5"/>
     </row>
-    <row r="41" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="83">
         <v>15</v>
       </c>
@@ -8821,21 +8921,21 @@
       </c>
       <c r="C41" s="56"/>
       <c r="D41" s="56"/>
-      <c r="E41" s="57">
+      <c r="E41" s="56"/>
+      <c r="F41" s="57">
         <v>0</v>
-      </c>
-      <c r="F41" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="G41" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18" t="e">
+      <c r="H41" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
@@ -8891,8 +8991,9 @@
       <c r="BK41" s="5"/>
       <c r="BL41" s="5"/>
       <c r="BM41" s="5"/>
+      <c r="BN41" s="5"/>
     </row>
-    <row r="42" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="83">
         <v>16</v>
       </c>
@@ -8901,21 +9002,21 @@
       </c>
       <c r="C42" s="56"/>
       <c r="D42" s="56"/>
-      <c r="E42" s="57">
+      <c r="E42" s="56"/>
+      <c r="F42" s="57">
         <v>0</v>
-      </c>
-      <c r="F42" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="G42" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18" t="e">
+      <c r="H42" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J42" s="5"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
@@ -8971,23 +9072,24 @@
       <c r="BK42" s="5"/>
       <c r="BL42" s="5"/>
       <c r="BM42" s="5"/>
+      <c r="BN42" s="5"/>
     </row>
-    <row r="43" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="81"/>
       <c r="B43" s="81" t="s">
         <v>44</v>
       </c>
       <c r="C43" s="73"/>
       <c r="D43" s="73"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="76"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18" t="str">
+      <c r="E43" s="73"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
@@ -9043,8 +9145,9 @@
       <c r="BK43" s="5"/>
       <c r="BL43" s="5"/>
       <c r="BM43" s="5"/>
+      <c r="BN43" s="5"/>
     </row>
-    <row r="44" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="95">
         <v>17</v>
       </c>
@@ -9053,21 +9156,21 @@
       </c>
       <c r="C44" s="56"/>
       <c r="D44" s="56"/>
-      <c r="E44" s="57">
+      <c r="E44" s="56"/>
+      <c r="F44" s="57">
         <v>0</v>
-      </c>
-      <c r="F44" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="G44" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18" t="e">
+      <c r="H44" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
@@ -9123,23 +9226,24 @@
       <c r="BK44" s="5"/>
       <c r="BL44" s="5"/>
       <c r="BM44" s="5"/>
+      <c r="BN44" s="5"/>
     </row>
-    <row r="45" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="93"/>
       <c r="B45" s="82" t="s">
         <v>96</v>
       </c>
       <c r="C45" s="73"/>
       <c r="D45" s="73"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="75"/>
-      <c r="G45" s="76"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18" t="str">
+      <c r="E45" s="73"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="75"/>
+      <c r="H45" s="76"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J45" s="5"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
@@ -9195,20 +9299,21 @@
       <c r="BK45" s="5"/>
       <c r="BL45" s="5"/>
       <c r="BM45" s="5"/>
+      <c r="BN45" s="5"/>
     </row>
-    <row r="46" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="81"/>
       <c r="B46" s="72" t="s">
         <v>46</v>
       </c>
       <c r="C46" s="73"/>
       <c r="D46" s="73"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="76"/>
-      <c r="H46" s="18"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="75"/>
+      <c r="H46" s="76"/>
       <c r="I46" s="18"/>
-      <c r="J46" s="5"/>
+      <c r="J46" s="18"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
@@ -9264,8 +9369,9 @@
       <c r="BK46" s="5"/>
       <c r="BL46" s="5"/>
       <c r="BM46" s="5"/>
+      <c r="BN46" s="5"/>
     </row>
-    <row r="47" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="95">
         <v>18</v>
       </c>
@@ -9274,21 +9380,21 @@
       </c>
       <c r="C47" s="56"/>
       <c r="D47" s="56"/>
-      <c r="E47" s="57">
+      <c r="E47" s="56"/>
+      <c r="F47" s="57">
         <v>0</v>
-      </c>
-      <c r="F47" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="G47" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18" t="e">
+      <c r="H47" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
@@ -9344,23 +9450,24 @@
       <c r="BK47" s="5"/>
       <c r="BL47" s="5"/>
       <c r="BM47" s="5"/>
+      <c r="BN47" s="5"/>
     </row>
-    <row r="48" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="93"/>
       <c r="B48" s="99" t="s">
         <v>65</v>
       </c>
       <c r="C48" s="73"/>
       <c r="D48" s="73"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="75"/>
-      <c r="G48" s="76"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18" t="str">
+      <c r="E48" s="73"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="75"/>
+      <c r="H48" s="76"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
@@ -9416,8 +9523,9 @@
       <c r="BK48" s="5"/>
       <c r="BL48" s="5"/>
       <c r="BM48" s="5"/>
+      <c r="BN48" s="5"/>
     </row>
-    <row r="49" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="95">
         <v>19</v>
       </c>
@@ -9426,21 +9534,21 @@
       </c>
       <c r="C49" s="56"/>
       <c r="D49" s="56"/>
-      <c r="E49" s="57">
+      <c r="E49" s="56"/>
+      <c r="F49" s="57">
         <v>0</v>
-      </c>
-      <c r="F49" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="G49" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18" t="e">
+      <c r="H49" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
@@ -9496,20 +9604,21 @@
       <c r="BK49" s="5"/>
       <c r="BL49" s="5"/>
       <c r="BM49" s="5"/>
+      <c r="BN49" s="5"/>
     </row>
-    <row r="50" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="81"/>
       <c r="B50" s="72" t="s">
         <v>47</v>
       </c>
       <c r="C50" s="73"/>
       <c r="D50" s="73"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="75"/>
-      <c r="G50" s="76"/>
-      <c r="H50" s="18"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="75"/>
+      <c r="H50" s="76"/>
       <c r="I50" s="18"/>
-      <c r="J50" s="5"/>
+      <c r="J50" s="18"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
@@ -9565,8 +9674,9 @@
       <c r="BK50" s="5"/>
       <c r="BL50" s="5"/>
       <c r="BM50" s="5"/>
+      <c r="BN50" s="5"/>
     </row>
-    <row r="51" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="95">
         <v>20</v>
       </c>
@@ -9575,21 +9685,21 @@
       </c>
       <c r="C51" s="56"/>
       <c r="D51" s="56"/>
-      <c r="E51" s="57">
+      <c r="E51" s="56"/>
+      <c r="F51" s="57">
         <v>0</v>
-      </c>
-      <c r="F51" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="G51" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18" t="e">
+      <c r="H51" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
@@ -9645,20 +9755,21 @@
       <c r="BK51" s="5"/>
       <c r="BL51" s="5"/>
       <c r="BM51" s="5"/>
+      <c r="BN51" s="5"/>
     </row>
-    <row r="52" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="93"/>
       <c r="B52" s="82" t="s">
         <v>53</v>
       </c>
       <c r="C52" s="77"/>
       <c r="D52" s="77"/>
-      <c r="E52" s="78"/>
-      <c r="F52" s="79"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="78"/>
       <c r="G52" s="79"/>
-      <c r="H52" s="18"/>
+      <c r="H52" s="79"/>
       <c r="I52" s="18"/>
-      <c r="J52" s="5"/>
+      <c r="J52" s="18"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
@@ -9714,8 +9825,9 @@
       <c r="BK52" s="5"/>
       <c r="BL52" s="5"/>
       <c r="BM52" s="5"/>
+      <c r="BN52" s="5"/>
     </row>
-    <row r="53" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="95">
         <v>21</v>
       </c>
@@ -9724,18 +9836,18 @@
       </c>
       <c r="C53" s="56"/>
       <c r="D53" s="56"/>
-      <c r="E53" s="57">
+      <c r="E53" s="56"/>
+      <c r="F53" s="57">
         <v>0</v>
-      </c>
-      <c r="F53" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="G53" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H53" s="18"/>
+      <c r="H53" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="I53" s="18"/>
-      <c r="J53" s="5"/>
+      <c r="J53" s="18"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
@@ -9791,8 +9903,9 @@
       <c r="BK53" s="5"/>
       <c r="BL53" s="5"/>
       <c r="BM53" s="5"/>
+      <c r="BN53" s="5"/>
     </row>
-    <row r="54" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="95">
         <v>22</v>
       </c>
@@ -9801,18 +9914,18 @@
       </c>
       <c r="C54" s="56"/>
       <c r="D54" s="56"/>
-      <c r="E54" s="57">
+      <c r="E54" s="56"/>
+      <c r="F54" s="57">
         <v>0</v>
-      </c>
-      <c r="F54" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="G54" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H54" s="18"/>
+      <c r="H54" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="I54" s="18"/>
-      <c r="J54" s="5"/>
+      <c r="J54" s="18"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
@@ -9868,8 +9981,9 @@
       <c r="BK54" s="5"/>
       <c r="BL54" s="5"/>
       <c r="BM54" s="5"/>
+      <c r="BN54" s="5"/>
     </row>
-    <row r="55" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="95">
         <v>23</v>
       </c>
@@ -9878,12 +9992,12 @@
       </c>
       <c r="C55" s="77"/>
       <c r="D55" s="77"/>
-      <c r="E55" s="78"/>
-      <c r="F55" s="79"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="78"/>
       <c r="G55" s="79"/>
-      <c r="H55" s="18"/>
+      <c r="H55" s="79"/>
       <c r="I55" s="18"/>
-      <c r="J55" s="5"/>
+      <c r="J55" s="18"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
@@ -9939,8 +10053,9 @@
       <c r="BK55" s="5"/>
       <c r="BL55" s="5"/>
       <c r="BM55" s="5"/>
+      <c r="BN55" s="5"/>
     </row>
-    <row r="56" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="95">
         <v>24</v>
       </c>
@@ -9949,18 +10064,18 @@
       </c>
       <c r="C56" s="56"/>
       <c r="D56" s="56"/>
-      <c r="E56" s="57">
+      <c r="E56" s="56"/>
+      <c r="F56" s="57">
         <v>0</v>
-      </c>
-      <c r="F56" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="G56" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H56" s="18"/>
+      <c r="H56" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="I56" s="18"/>
-      <c r="J56" s="5"/>
+      <c r="J56" s="18"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
@@ -10016,8 +10131,9 @@
       <c r="BK56" s="5"/>
       <c r="BL56" s="5"/>
       <c r="BM56" s="5"/>
+      <c r="BN56" s="5"/>
     </row>
-    <row r="57" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="95">
         <v>25</v>
       </c>
@@ -10026,18 +10142,18 @@
       </c>
       <c r="C57" s="56"/>
       <c r="D57" s="56"/>
-      <c r="E57" s="57">
+      <c r="E57" s="56"/>
+      <c r="F57" s="57">
         <v>0</v>
-      </c>
-      <c r="F57" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="G57" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H57" s="18"/>
+      <c r="H57" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="I57" s="18"/>
-      <c r="J57" s="5"/>
+      <c r="J57" s="18"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
@@ -10093,8 +10209,9 @@
       <c r="BK57" s="5"/>
       <c r="BL57" s="5"/>
       <c r="BM57" s="5"/>
+      <c r="BN57" s="5"/>
     </row>
-    <row r="58" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="95">
         <v>26</v>
       </c>
@@ -10103,18 +10220,18 @@
       </c>
       <c r="C58" s="56"/>
       <c r="D58" s="56"/>
-      <c r="E58" s="57">
+      <c r="E58" s="56"/>
+      <c r="F58" s="57">
         <v>0</v>
-      </c>
-      <c r="F58" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="G58" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H58" s="18"/>
+      <c r="H58" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="I58" s="18"/>
-      <c r="J58" s="5"/>
+      <c r="J58" s="18"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
@@ -10170,8 +10287,9 @@
       <c r="BK58" s="5"/>
       <c r="BL58" s="5"/>
       <c r="BM58" s="5"/>
+      <c r="BN58" s="5"/>
     </row>
-    <row r="59" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="95">
         <v>27</v>
       </c>
@@ -10180,18 +10298,18 @@
       </c>
       <c r="C59" s="56"/>
       <c r="D59" s="56"/>
-      <c r="E59" s="57">
+      <c r="E59" s="56"/>
+      <c r="F59" s="57">
         <v>0</v>
-      </c>
-      <c r="F59" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="G59" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H59" s="18"/>
+      <c r="H59" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="I59" s="18"/>
-      <c r="J59" s="5"/>
+      <c r="J59" s="18"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
@@ -10247,8 +10365,9 @@
       <c r="BK59" s="5"/>
       <c r="BL59" s="5"/>
       <c r="BM59" s="5"/>
+      <c r="BN59" s="5"/>
     </row>
-    <row r="60" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="95">
         <v>28</v>
       </c>
@@ -10257,18 +10376,18 @@
       </c>
       <c r="C60" s="56"/>
       <c r="D60" s="56"/>
-      <c r="E60" s="57">
+      <c r="E60" s="56"/>
+      <c r="F60" s="57">
         <v>0</v>
-      </c>
-      <c r="F60" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="G60" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H60" s="18"/>
+      <c r="H60" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="I60" s="18"/>
-      <c r="J60" s="5"/>
+      <c r="J60" s="18"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
@@ -10324,8 +10443,9 @@
       <c r="BK60" s="5"/>
       <c r="BL60" s="5"/>
       <c r="BM60" s="5"/>
+      <c r="BN60" s="5"/>
     </row>
-    <row r="61" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="95">
         <v>29</v>
       </c>
@@ -10334,18 +10454,18 @@
       </c>
       <c r="C61" s="56"/>
       <c r="D61" s="56"/>
-      <c r="E61" s="57">
+      <c r="E61" s="56"/>
+      <c r="F61" s="57">
         <v>0</v>
-      </c>
-      <c r="F61" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="G61" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H61" s="18"/>
+      <c r="H61" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="I61" s="18"/>
-      <c r="J61" s="5"/>
+      <c r="J61" s="18"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
@@ -10401,8 +10521,9 @@
       <c r="BK61" s="5"/>
       <c r="BL61" s="5"/>
       <c r="BM61" s="5"/>
+      <c r="BN61" s="5"/>
     </row>
-    <row r="62" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="95">
         <v>30</v>
       </c>
@@ -10411,18 +10532,18 @@
       </c>
       <c r="C62" s="56"/>
       <c r="D62" s="56"/>
-      <c r="E62" s="57">
+      <c r="E62" s="56"/>
+      <c r="F62" s="57">
         <v>0</v>
-      </c>
-      <c r="F62" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="G62" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H62" s="18"/>
+      <c r="H62" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="I62" s="18"/>
-      <c r="J62" s="5"/>
+      <c r="J62" s="18"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
@@ -10478,8 +10599,9 @@
       <c r="BK62" s="5"/>
       <c r="BL62" s="5"/>
       <c r="BM62" s="5"/>
+      <c r="BN62" s="5"/>
     </row>
-    <row r="63" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="95">
         <v>31</v>
       </c>
@@ -10488,18 +10610,18 @@
       </c>
       <c r="C63" s="56"/>
       <c r="D63" s="56"/>
-      <c r="E63" s="57">
+      <c r="E63" s="56"/>
+      <c r="F63" s="57">
         <v>0</v>
-      </c>
-      <c r="F63" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="G63" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H63" s="18"/>
+      <c r="H63" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="I63" s="18"/>
-      <c r="J63" s="5"/>
+      <c r="J63" s="18"/>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
@@ -10555,8 +10677,9 @@
       <c r="BK63" s="5"/>
       <c r="BL63" s="5"/>
       <c r="BM63" s="5"/>
+      <c r="BN63" s="5"/>
     </row>
-    <row r="64" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="95">
         <v>32</v>
       </c>
@@ -10565,18 +10688,18 @@
       </c>
       <c r="C64" s="56"/>
       <c r="D64" s="56"/>
-      <c r="E64" s="57">
+      <c r="E64" s="56"/>
+      <c r="F64" s="57">
         <v>0</v>
-      </c>
-      <c r="F64" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="G64" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H64" s="18"/>
+      <c r="H64" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="I64" s="18"/>
-      <c r="J64" s="5"/>
+      <c r="J64" s="18"/>
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
@@ -10632,8 +10755,9 @@
       <c r="BK64" s="5"/>
       <c r="BL64" s="5"/>
       <c r="BM64" s="5"/>
+      <c r="BN64" s="5"/>
     </row>
-    <row r="65" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="95">
         <v>33</v>
       </c>
@@ -10642,18 +10766,18 @@
       </c>
       <c r="C65" s="56"/>
       <c r="D65" s="56"/>
-      <c r="E65" s="57">
+      <c r="E65" s="56"/>
+      <c r="F65" s="57">
         <v>0</v>
-      </c>
-      <c r="F65" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="G65" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H65" s="18"/>
+      <c r="H65" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="I65" s="18"/>
-      <c r="J65" s="5"/>
+      <c r="J65" s="18"/>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
@@ -10709,8 +10833,9 @@
       <c r="BK65" s="5"/>
       <c r="BL65" s="5"/>
       <c r="BM65" s="5"/>
+      <c r="BN65" s="5"/>
     </row>
-    <row r="66" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="95">
         <v>34</v>
       </c>
@@ -10719,18 +10844,18 @@
       </c>
       <c r="C66" s="56"/>
       <c r="D66" s="56"/>
-      <c r="E66" s="57">
+      <c r="E66" s="56"/>
+      <c r="F66" s="57">
         <v>0</v>
-      </c>
-      <c r="F66" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="G66" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H66" s="18"/>
+      <c r="H66" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="I66" s="18"/>
-      <c r="J66" s="5"/>
+      <c r="J66" s="18"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
@@ -10786,8 +10911,9 @@
       <c r="BK66" s="5"/>
       <c r="BL66" s="5"/>
       <c r="BM66" s="5"/>
+      <c r="BN66" s="5"/>
     </row>
-    <row r="67" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="95">
         <v>35</v>
       </c>
@@ -10796,18 +10922,18 @@
       </c>
       <c r="C67" s="56"/>
       <c r="D67" s="56"/>
-      <c r="E67" s="57">
+      <c r="E67" s="56"/>
+      <c r="F67" s="57">
         <v>0</v>
-      </c>
-      <c r="F67" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="G67" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H67" s="18"/>
+      <c r="H67" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="I67" s="18"/>
-      <c r="J67" s="5"/>
+      <c r="J67" s="18"/>
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
@@ -10863,8 +10989,9 @@
       <c r="BK67" s="5"/>
       <c r="BL67" s="5"/>
       <c r="BM67" s="5"/>
+      <c r="BN67" s="5"/>
     </row>
-    <row r="68" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="95">
         <v>36</v>
       </c>
@@ -10873,18 +11000,18 @@
       </c>
       <c r="C68" s="56"/>
       <c r="D68" s="56"/>
-      <c r="E68" s="57">
+      <c r="E68" s="56"/>
+      <c r="F68" s="57">
         <v>0</v>
-      </c>
-      <c r="F68" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="G68" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H68" s="18"/>
+      <c r="H68" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="I68" s="18"/>
-      <c r="J68" s="5"/>
+      <c r="J68" s="18"/>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
@@ -10940,8 +11067,9 @@
       <c r="BK68" s="5"/>
       <c r="BL68" s="5"/>
       <c r="BM68" s="5"/>
+      <c r="BN68" s="5"/>
     </row>
-    <row r="69" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="95">
         <v>37</v>
       </c>
@@ -10950,18 +11078,18 @@
       </c>
       <c r="C69" s="56"/>
       <c r="D69" s="56"/>
-      <c r="E69" s="57">
+      <c r="E69" s="56"/>
+      <c r="F69" s="57">
         <v>0</v>
-      </c>
-      <c r="F69" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="G69" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H69" s="18"/>
+      <c r="H69" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="I69" s="18"/>
-      <c r="J69" s="5"/>
+      <c r="J69" s="18"/>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
@@ -11017,8 +11145,9 @@
       <c r="BK69" s="5"/>
       <c r="BL69" s="5"/>
       <c r="BM69" s="5"/>
+      <c r="BN69" s="5"/>
     </row>
-    <row r="70" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="95">
         <v>38</v>
       </c>
@@ -11027,18 +11156,18 @@
       </c>
       <c r="C70" s="56"/>
       <c r="D70" s="56"/>
-      <c r="E70" s="57">
+      <c r="E70" s="56"/>
+      <c r="F70" s="57">
         <v>0</v>
-      </c>
-      <c r="F70" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="G70" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H70" s="18"/>
+      <c r="H70" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="I70" s="18"/>
-      <c r="J70" s="5"/>
+      <c r="J70" s="18"/>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
@@ -11094,8 +11223,9 @@
       <c r="BK70" s="5"/>
       <c r="BL70" s="5"/>
       <c r="BM70" s="5"/>
+      <c r="BN70" s="5"/>
     </row>
-    <row r="71" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="95">
         <v>39</v>
       </c>
@@ -11104,18 +11234,18 @@
       </c>
       <c r="C71" s="56"/>
       <c r="D71" s="56"/>
-      <c r="E71" s="57">
+      <c r="E71" s="56"/>
+      <c r="F71" s="57">
         <v>0</v>
-      </c>
-      <c r="F71" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="G71" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H71" s="18"/>
+      <c r="H71" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="I71" s="18"/>
-      <c r="J71" s="5"/>
+      <c r="J71" s="18"/>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
@@ -11171,8 +11301,9 @@
       <c r="BK71" s="5"/>
       <c r="BL71" s="5"/>
       <c r="BM71" s="5"/>
+      <c r="BN71" s="5"/>
     </row>
-    <row r="72" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="95">
         <v>40</v>
       </c>
@@ -11181,12 +11312,12 @@
       </c>
       <c r="C72" s="77"/>
       <c r="D72" s="77"/>
-      <c r="E72" s="78"/>
-      <c r="F72" s="79"/>
+      <c r="E72" s="77"/>
+      <c r="F72" s="78"/>
       <c r="G72" s="79"/>
-      <c r="H72" s="18"/>
+      <c r="H72" s="79"/>
       <c r="I72" s="18"/>
-      <c r="J72" s="5"/>
+      <c r="J72" s="18"/>
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
       <c r="M72" s="5"/>
@@ -11242,8 +11373,9 @@
       <c r="BK72" s="5"/>
       <c r="BL72" s="5"/>
       <c r="BM72" s="5"/>
+      <c r="BN72" s="5"/>
     </row>
-    <row r="73" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="95">
         <v>41</v>
       </c>
@@ -11252,18 +11384,18 @@
       </c>
       <c r="C73" s="56"/>
       <c r="D73" s="56"/>
-      <c r="E73" s="57">
+      <c r="E73" s="56"/>
+      <c r="F73" s="57">
         <v>0</v>
-      </c>
-      <c r="F73" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="G73" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H73" s="18"/>
+      <c r="H73" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="I73" s="18"/>
-      <c r="J73" s="5"/>
+      <c r="J73" s="18"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
       <c r="M73" s="5"/>
@@ -11319,8 +11451,9 @@
       <c r="BK73" s="5"/>
       <c r="BL73" s="5"/>
       <c r="BM73" s="5"/>
+      <c r="BN73" s="5"/>
     </row>
-    <row r="74" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="95">
         <v>42</v>
       </c>
@@ -11329,18 +11462,18 @@
       </c>
       <c r="C74" s="56"/>
       <c r="D74" s="56"/>
-      <c r="E74" s="57">
+      <c r="E74" s="56"/>
+      <c r="F74" s="57">
         <v>0</v>
-      </c>
-      <c r="F74" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="G74" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H74" s="18"/>
+      <c r="H74" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="I74" s="18"/>
-      <c r="J74" s="5"/>
+      <c r="J74" s="18"/>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
       <c r="M74" s="5"/>
@@ -11396,8 +11529,9 @@
       <c r="BK74" s="5"/>
       <c r="BL74" s="5"/>
       <c r="BM74" s="5"/>
+      <c r="BN74" s="5"/>
     </row>
-    <row r="75" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="95">
         <v>43</v>
       </c>
@@ -11406,12 +11540,12 @@
       </c>
       <c r="C75" s="77"/>
       <c r="D75" s="77"/>
-      <c r="E75" s="78"/>
-      <c r="F75" s="79"/>
+      <c r="E75" s="77"/>
+      <c r="F75" s="78"/>
       <c r="G75" s="79"/>
-      <c r="H75" s="18"/>
+      <c r="H75" s="79"/>
       <c r="I75" s="18"/>
-      <c r="J75" s="5"/>
+      <c r="J75" s="18"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
@@ -11467,8 +11601,9 @@
       <c r="BK75" s="5"/>
       <c r="BL75" s="5"/>
       <c r="BM75" s="5"/>
+      <c r="BN75" s="5"/>
     </row>
-    <row r="76" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="95">
         <v>44</v>
       </c>
@@ -11477,18 +11612,18 @@
       </c>
       <c r="C76" s="56"/>
       <c r="D76" s="56"/>
-      <c r="E76" s="57">
+      <c r="E76" s="56"/>
+      <c r="F76" s="57">
         <v>0</v>
-      </c>
-      <c r="F76" s="58" t="s">
-        <v>12</v>
       </c>
       <c r="G76" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H76" s="18"/>
+      <c r="H76" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="I76" s="18"/>
-      <c r="J76" s="5"/>
+      <c r="J76" s="18"/>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
@@ -11544,23 +11679,24 @@
       <c r="BK76" s="5"/>
       <c r="BL76" s="5"/>
       <c r="BM76" s="5"/>
+      <c r="BN76" s="5"/>
     </row>
-    <row r="77" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="96"/>
       <c r="B77" s="96" t="s">
         <v>38</v>
       </c>
       <c r="C77" s="62"/>
       <c r="D77" s="62"/>
-      <c r="E77" s="63"/>
-      <c r="F77" s="64"/>
-      <c r="G77" s="65"/>
-      <c r="H77" s="18"/>
-      <c r="I77" s="18" t="str">
+      <c r="E77" s="62"/>
+      <c r="F77" s="63"/>
+      <c r="G77" s="64"/>
+      <c r="H77" s="65"/>
+      <c r="I77" s="18"/>
+      <c r="J77" s="18" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J77" s="5"/>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
@@ -11616,8 +11752,9 @@
       <c r="BK77" s="5"/>
       <c r="BL77" s="5"/>
       <c r="BM77" s="5"/>
+      <c r="BN77" s="5"/>
     </row>
-    <row r="78" spans="1:65" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:66" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="97">
         <v>45</v>
       </c>
@@ -11626,21 +11763,21 @@
       </c>
       <c r="C78" s="66"/>
       <c r="D78" s="66"/>
-      <c r="E78" s="67">
+      <c r="E78" s="66"/>
+      <c r="F78" s="67">
         <v>0</v>
-      </c>
-      <c r="F78" s="68" t="s">
-        <v>12</v>
       </c>
       <c r="G78" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="H78" s="69"/>
-      <c r="I78" s="69" t="e">
+      <c r="H78" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" s="69"/>
+      <c r="J78" s="69" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J78" s="70"/>
       <c r="K78" s="70"/>
       <c r="L78" s="70"/>
       <c r="M78" s="70"/>
@@ -11696,8 +11833,9 @@
       <c r="BK78" s="70"/>
       <c r="BL78" s="70"/>
       <c r="BM78" s="70"/>
+      <c r="BN78" s="70"/>
     </row>
-    <row r="79" spans="1:65" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:66" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="97">
         <v>45</v>
       </c>
@@ -11706,21 +11844,21 @@
       </c>
       <c r="C79" s="66"/>
       <c r="D79" s="66"/>
-      <c r="E79" s="67">
+      <c r="E79" s="66"/>
+      <c r="F79" s="67">
         <v>0</v>
-      </c>
-      <c r="F79" s="68" t="s">
-        <v>12</v>
       </c>
       <c r="G79" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="H79" s="69"/>
-      <c r="I79" s="69" t="e">
+      <c r="H79" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" s="69"/>
+      <c r="J79" s="69" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J79" s="70"/>
       <c r="K79" s="70"/>
       <c r="L79" s="70"/>
       <c r="M79" s="70"/>
@@ -11776,8 +11914,9 @@
       <c r="BK79" s="70"/>
       <c r="BL79" s="70"/>
       <c r="BM79" s="70"/>
+      <c r="BN79" s="70"/>
     </row>
-    <row r="80" spans="1:65" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:66" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="97">
         <v>45</v>
       </c>
@@ -11786,21 +11925,21 @@
       </c>
       <c r="C80" s="66"/>
       <c r="D80" s="66"/>
-      <c r="E80" s="67">
+      <c r="E80" s="66"/>
+      <c r="F80" s="67">
         <v>0</v>
-      </c>
-      <c r="F80" s="68" t="s">
-        <v>12</v>
       </c>
       <c r="G80" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="H80" s="69"/>
-      <c r="I80" s="69" t="e">
+      <c r="H80" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" s="69"/>
+      <c r="J80" s="69" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J80" s="70"/>
       <c r="K80" s="70"/>
       <c r="L80" s="70"/>
       <c r="M80" s="70"/>
@@ -11856,8 +11995,9 @@
       <c r="BK80" s="70"/>
       <c r="BL80" s="70"/>
       <c r="BM80" s="70"/>
+      <c r="BN80" s="70"/>
     </row>
-    <row r="81" spans="1:65" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:66" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="97">
         <v>45</v>
       </c>
@@ -11866,21 +12006,21 @@
       </c>
       <c r="C81" s="66"/>
       <c r="D81" s="66"/>
-      <c r="E81" s="67">
+      <c r="E81" s="66"/>
+      <c r="F81" s="67">
         <v>0</v>
-      </c>
-      <c r="F81" s="68" t="s">
-        <v>12</v>
       </c>
       <c r="G81" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="H81" s="69"/>
-      <c r="I81" s="69" t="e">
+      <c r="H81" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" s="69"/>
+      <c r="J81" s="69" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J81" s="70"/>
       <c r="K81" s="70"/>
       <c r="L81" s="70"/>
       <c r="M81" s="70"/>
@@ -11936,8 +12076,9 @@
       <c r="BK81" s="70"/>
       <c r="BL81" s="70"/>
       <c r="BM81" s="70"/>
+      <c r="BN81" s="70"/>
     </row>
-    <row r="82" spans="1:65" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:66" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="97">
         <v>45</v>
       </c>
@@ -11946,21 +12087,21 @@
       </c>
       <c r="C82" s="66"/>
       <c r="D82" s="66"/>
-      <c r="E82" s="67">
+      <c r="E82" s="66"/>
+      <c r="F82" s="67">
         <v>0</v>
-      </c>
-      <c r="F82" s="68" t="s">
-        <v>12</v>
       </c>
       <c r="G82" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="H82" s="69"/>
-      <c r="I82" s="69" t="e">
+      <c r="H82" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" s="69"/>
+      <c r="J82" s="69" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J82" s="70"/>
       <c r="K82" s="70"/>
       <c r="L82" s="70"/>
       <c r="M82" s="70"/>
@@ -12016,8 +12157,9 @@
       <c r="BK82" s="70"/>
       <c r="BL82" s="70"/>
       <c r="BM82" s="70"/>
+      <c r="BN82" s="70"/>
     </row>
-    <row r="83" spans="1:65" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:66" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="97">
         <v>45</v>
       </c>
@@ -12026,21 +12168,21 @@
       </c>
       <c r="C83" s="66"/>
       <c r="D83" s="66"/>
-      <c r="E83" s="67">
+      <c r="E83" s="66"/>
+      <c r="F83" s="67">
         <v>0</v>
-      </c>
-      <c r="F83" s="68" t="s">
-        <v>12</v>
       </c>
       <c r="G83" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="H83" s="69"/>
-      <c r="I83" s="69" t="e">
+      <c r="H83" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I83" s="69"/>
+      <c r="J83" s="69" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J83" s="70"/>
       <c r="K83" s="70"/>
       <c r="L83" s="70"/>
       <c r="M83" s="70"/>
@@ -12096,8 +12238,9 @@
       <c r="BK83" s="70"/>
       <c r="BL83" s="70"/>
       <c r="BM83" s="70"/>
+      <c r="BN83" s="70"/>
     </row>
-    <row r="84" spans="1:65" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:66" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="97">
         <v>45</v>
       </c>
@@ -12106,21 +12249,21 @@
       </c>
       <c r="C84" s="66"/>
       <c r="D84" s="66"/>
-      <c r="E84" s="67">
+      <c r="E84" s="66"/>
+      <c r="F84" s="67">
         <v>0</v>
-      </c>
-      <c r="F84" s="68" t="s">
-        <v>12</v>
       </c>
       <c r="G84" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="H84" s="69"/>
-      <c r="I84" s="69" t="e">
+      <c r="H84" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I84" s="69"/>
+      <c r="J84" s="69" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J84" s="70"/>
       <c r="K84" s="70"/>
       <c r="L84" s="70"/>
       <c r="M84" s="70"/>
@@ -12176,8 +12319,9 @@
       <c r="BK84" s="70"/>
       <c r="BL84" s="70"/>
       <c r="BM84" s="70"/>
+      <c r="BN84" s="70"/>
     </row>
-    <row r="85" spans="1:65" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:66" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="97">
         <v>45</v>
       </c>
@@ -12186,21 +12330,21 @@
       </c>
       <c r="C85" s="66"/>
       <c r="D85" s="66"/>
-      <c r="E85" s="67">
+      <c r="E85" s="66"/>
+      <c r="F85" s="67">
         <v>0</v>
-      </c>
-      <c r="F85" s="68" t="s">
-        <v>12</v>
       </c>
       <c r="G85" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="H85" s="69"/>
-      <c r="I85" s="69" t="e">
+      <c r="H85" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I85" s="69"/>
+      <c r="J85" s="69" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J85" s="70"/>
       <c r="K85" s="70"/>
       <c r="L85" s="70"/>
       <c r="M85" s="70"/>
@@ -12256,22 +12400,23 @@
       <c r="BK85" s="70"/>
       <c r="BL85" s="70"/>
       <c r="BM85" s="70"/>
+      <c r="BN85" s="70"/>
     </row>
-    <row r="86" spans="1:65" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:66" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="97">
         <v>55</v>
       </c>
       <c r="B86" s="97" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C86" s="66"/>
       <c r="D86" s="66"/>
-      <c r="E86" s="67"/>
-      <c r="F86" s="68"/>
+      <c r="E86" s="66"/>
+      <c r="F86" s="67"/>
       <c r="G86" s="68"/>
-      <c r="H86" s="69"/>
+      <c r="H86" s="68"/>
       <c r="I86" s="69"/>
-      <c r="J86" s="70"/>
+      <c r="J86" s="69"/>
       <c r="K86" s="70"/>
       <c r="L86" s="70"/>
       <c r="M86" s="70"/>
@@ -12327,8 +12472,9 @@
       <c r="BK86" s="70"/>
       <c r="BL86" s="70"/>
       <c r="BM86" s="70"/>
+      <c r="BN86" s="70"/>
     </row>
-    <row r="87" spans="1:65" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:66" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="97">
         <v>56</v>
       </c>
@@ -12337,21 +12483,21 @@
       </c>
       <c r="C87" s="66"/>
       <c r="D87" s="66"/>
-      <c r="E87" s="67">
+      <c r="E87" s="66"/>
+      <c r="F87" s="67">
         <v>0</v>
-      </c>
-      <c r="F87" s="68" t="s">
-        <v>12</v>
       </c>
       <c r="G87" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="H87" s="69"/>
-      <c r="I87" s="69" t="e">
+      <c r="H87" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I87" s="69"/>
+      <c r="J87" s="69" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J87" s="70"/>
       <c r="K87" s="70"/>
       <c r="L87" s="70"/>
       <c r="M87" s="70"/>
@@ -12407,8 +12553,9 @@
       <c r="BK87" s="70"/>
       <c r="BL87" s="70"/>
       <c r="BM87" s="70"/>
+      <c r="BN87" s="70"/>
     </row>
-    <row r="88" spans="1:65" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:66" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="97">
         <v>57</v>
       </c>
@@ -12417,21 +12564,21 @@
       </c>
       <c r="C88" s="66"/>
       <c r="D88" s="66"/>
-      <c r="E88" s="67">
+      <c r="E88" s="66"/>
+      <c r="F88" s="67">
         <v>0</v>
-      </c>
-      <c r="F88" s="68" t="s">
-        <v>12</v>
       </c>
       <c r="G88" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="H88" s="69"/>
-      <c r="I88" s="69" t="e">
+      <c r="H88" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I88" s="69"/>
+      <c r="J88" s="69" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J88" s="70"/>
       <c r="K88" s="70"/>
       <c r="L88" s="70"/>
       <c r="M88" s="70"/>
@@ -12487,8 +12634,9 @@
       <c r="BK88" s="70"/>
       <c r="BL88" s="70"/>
       <c r="BM88" s="70"/>
+      <c r="BN88" s="70"/>
     </row>
-    <row r="89" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="108" t="s">
         <v>6</v>
       </c>
@@ -12499,27 +12647,30 @@
       </c>
       <c r="D89" s="110">
         <f>SUM(D9:D85)</f>
-        <v>1.2006944444444445</v>
-      </c>
-      <c r="E89" s="61">
-        <f>AVERAGE(E9:E85)</f>
-        <v>0.18947368421052632</v>
+        <v>1.5972222222222224E-2</v>
+      </c>
+      <c r="E89" s="110">
+        <f>SUM(E9:E85)</f>
+        <v>1.2166666666666668</v>
       </c>
       <c r="F89" s="61">
+        <f>AVERAGE(F9:F85)</f>
+        <v>0.19298245614035092</v>
+      </c>
+      <c r="G89" s="61">
         <v>0.03</v>
       </c>
-      <c r="G89" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="H89" s="18"/>
-      <c r="I89" s="18" t="e">
+      <c r="H89" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="I89" s="18"/>
+      <c r="J89" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J89" s="5"/>
       <c r="K89" s="5"/>
-      <c r="L89" s="70"/>
-      <c r="M89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="70"/>
       <c r="N89" s="5"/>
       <c r="O89" s="5"/>
       <c r="P89" s="5"/>
@@ -12572,30 +12723,31 @@
       <c r="BK89" s="5"/>
       <c r="BL89" s="5"/>
       <c r="BM89" s="5"/>
+      <c r="BN89" s="5"/>
     </row>
-    <row r="90" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="104"/>
-      <c r="B90" s="109" t="s">
-        <v>123</v>
-      </c>
+      <c r="B90" s="130"/>
       <c r="C90" s="111" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D90" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="E90" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="E90" s="61" t="s">
+      <c r="F90" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="F90" s="61" t="s">
+      <c r="G90" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="G90" s="112" t="s">
+      <c r="H90" s="112" t="s">
         <v>104</v>
       </c>
-      <c r="H90" s="18"/>
       <c r="I90" s="18"/>
-      <c r="J90" s="5"/>
+      <c r="J90" s="18"/>
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
@@ -12651,19 +12803,23 @@
       <c r="BK90" s="5"/>
       <c r="BL90" s="5"/>
       <c r="BM90" s="5"/>
+      <c r="BN90" s="5"/>
     </row>
-    <row r="91" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="104"/>
+      <c r="B91" s="129"/>
       <c r="C91" s="112"/>
-      <c r="D91" s="112"/>
-      <c r="E91" s="61">
-        <v>0.16</v>
-      </c>
-      <c r="F91" s="114"/>
-      <c r="G91" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="H91" s="5"/>
+      <c r="D91" s="132">
+        <v>7</v>
+      </c>
+      <c r="E91" s="112"/>
+      <c r="F91" s="61">
+        <v>0.18</v>
+      </c>
+      <c r="G91" s="114"/>
+      <c r="H91" s="61" t="s">
+        <v>121</v>
+      </c>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
@@ -12721,22 +12877,23 @@
       <c r="BK91" s="5"/>
       <c r="BL91" s="5"/>
       <c r="BM91" s="5"/>
+      <c r="BN91" s="5"/>
     </row>
-    <row r="92" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="104"/>
-      <c r="B92" s="112" t="s">
-        <v>116</v>
-      </c>
+      <c r="B92" s="131"/>
       <c r="C92" s="113"/>
-      <c r="D92" s="113"/>
-      <c r="E92" s="61" t="s">
+      <c r="D92" s="113" t="s">
+        <v>128</v>
+      </c>
+      <c r="E92" s="113"/>
+      <c r="F92" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="F92" s="114"/>
-      <c r="G92" s="112" t="s">
+      <c r="G92" s="114"/>
+      <c r="H92" s="112" t="s">
         <v>105</v>
       </c>
-      <c r="H92" s="5"/>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
@@ -12794,8 +12951,9 @@
       <c r="BK92" s="5"/>
       <c r="BL92" s="5"/>
       <c r="BM92" s="5"/>
+      <c r="BN92" s="5"/>
     </row>
-    <row r="93" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="103" t="s">
         <v>7</v>
       </c>
@@ -12804,15 +12962,15 @@
       </c>
       <c r="C93" s="38"/>
       <c r="D93" s="38"/>
-      <c r="E93" s="60"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="19"/>
-      <c r="H93" s="20"/>
-      <c r="I93" s="20" t="str">
+      <c r="E93" s="38"/>
+      <c r="F93" s="60"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="19"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J93" s="7"/>
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
@@ -12868,44 +13026,47 @@
       <c r="BK93" s="7"/>
       <c r="BL93" s="7"/>
       <c r="BM93" s="7"/>
+      <c r="BN93" s="7"/>
     </row>
-    <row r="94" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="86"/>
       <c r="B94"/>
-      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
     </row>
-    <row r="95" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="86"/>
       <c r="B95"/>
       <c r="C95" s="14"/>
       <c r="D95" s="14"/>
-      <c r="G95" s="21"/>
+      <c r="E95" s="14"/>
+      <c r="H95" s="21"/>
     </row>
-    <row r="96" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="86"/>
       <c r="B96"/>
       <c r="C96" s="22"/>
       <c r="D96" s="22"/>
+      <c r="E96" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="J3:P3"/>
-    <mergeCell ref="Q3:W3"/>
-    <mergeCell ref="AZ4:BF4"/>
-    <mergeCell ref="BG4:BM4"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="Q4:W4"/>
-    <mergeCell ref="X4:AD4"/>
-    <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="R3:X3"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BH4:BN4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="AF4:AL4"/>
   </mergeCells>
   <phoneticPr fontId="37"/>
-  <conditionalFormatting sqref="E7:E11 E24 E77:E79 E89 E82:E84 E32:E33 E13:E15 E29:E30 E36:E42">
+  <conditionalFormatting sqref="F7:F11 F24 F77:F79 F89 F82:F84 F32:F33 F13:F15 F29:F30 F36:F42">
     <cfRule type="dataBar" priority="491">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12919,20 +13080,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:BM11 J24:BM24 J77:BM79 J89:K89 J82:BM84 M89:BM89 J32:BM33 J13:BM15 J29:BM30 J36:BM42">
+  <conditionalFormatting sqref="K5:BN11 K24:BN24 K77:BN79 K89:L89 K82:BN84 N89:BN89 K32:BN33 K13:BN15 K29:BN30 K36:BN42">
     <cfRule type="expression" dxfId="226" priority="510">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7:BM11 J24:BM24 J77:BM79 J89:K89 J82:BM84 M89:BM89 J32:BM33 J13:BM15 J29:BM30 J36:BM42">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7:BN11 K24:BN24 K77:BN79 K89:L89 K82:BN84 N89:BN89 K32:BN33 K13:BN15 K29:BN30 K36:BN42">
     <cfRule type="expression" dxfId="225" priority="504">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="224" priority="505" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
     <cfRule type="dataBar" priority="462">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12946,20 +13107,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J39:BM39">
+  <conditionalFormatting sqref="K39:BN39">
     <cfRule type="expression" dxfId="223" priority="465">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J39:BM39">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K39:BN39">
     <cfRule type="expression" dxfId="222" priority="463">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="221" priority="464" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
     <cfRule type="dataBar" priority="466">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12973,20 +13134,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23:BM23">
+  <conditionalFormatting sqref="K23:BN23">
     <cfRule type="expression" dxfId="220" priority="469">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23:BM23">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23:BN23">
     <cfRule type="expression" dxfId="219" priority="467">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="218" priority="468" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
     <cfRule type="dataBar" priority="458">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13000,20 +13161,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J37:BM37">
+  <conditionalFormatting sqref="K37:BN37">
     <cfRule type="expression" dxfId="217" priority="461">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J37:BM37">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K37:BN37">
     <cfRule type="expression" dxfId="216" priority="459">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="215" priority="460" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
     <cfRule type="dataBar" priority="441">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13027,20 +13188,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J44:BM44">
+  <conditionalFormatting sqref="K44:BN44">
     <cfRule type="expression" dxfId="214" priority="444">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44:BM44">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K44:BN44">
     <cfRule type="expression" dxfId="213" priority="442">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="212" priority="443" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52">
     <cfRule type="dataBar" priority="354">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13054,15 +13215,15 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J53:BM53">
+  <conditionalFormatting sqref="K53:BN53">
     <cfRule type="expression" dxfId="211" priority="355">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="210" priority="356" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
     <cfRule type="dataBar" priority="445">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13076,20 +13237,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J43:BM43">
+  <conditionalFormatting sqref="K43:BN43">
     <cfRule type="expression" dxfId="209" priority="448">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J43:BM43">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43:BN43">
     <cfRule type="expression" dxfId="208" priority="446">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="207" priority="447" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45:E47 E50">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45:F47 F50">
     <cfRule type="dataBar" priority="433">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13103,7 +13264,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
+  <conditionalFormatting sqref="F47">
     <cfRule type="dataBar" priority="440">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13117,20 +13278,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J47:BM47">
+  <conditionalFormatting sqref="K47:BN47">
     <cfRule type="expression" dxfId="206" priority="511">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47:BM47">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47:BN47">
     <cfRule type="expression" dxfId="205" priority="438">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="204" priority="439" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20:E21">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20:F21">
     <cfRule type="dataBar" priority="429">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13144,20 +13305,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J45:BM47 J50:BM50">
+  <conditionalFormatting sqref="K45:BN47 K50:BN50">
     <cfRule type="expression" dxfId="203" priority="436">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J45:BM47 J50:BM50">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45:BN47 K50:BN50">
     <cfRule type="expression" dxfId="202" priority="434">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="201" priority="435" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48">
     <cfRule type="dataBar" priority="421">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13171,20 +13332,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20:BM21">
+  <conditionalFormatting sqref="K20:BN21">
     <cfRule type="expression" dxfId="200" priority="432">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20:BM21">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20:BN21">
     <cfRule type="expression" dxfId="199" priority="430">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="198" priority="431" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51">
     <cfRule type="dataBar" priority="427">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13198,15 +13359,15 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J51:BM51">
+  <conditionalFormatting sqref="K51:BN51">
     <cfRule type="expression" dxfId="197" priority="425">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="196" priority="426" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
     <cfRule type="dataBar" priority="409">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13220,20 +13381,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J48:BM48">
+  <conditionalFormatting sqref="K48:BN48">
     <cfRule type="expression" dxfId="195" priority="424">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J48:BM48">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:BN48">
     <cfRule type="expression" dxfId="194" priority="422">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="193" priority="423" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49">
     <cfRule type="dataBar" priority="419">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13247,20 +13408,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J49:BM49">
+  <conditionalFormatting sqref="K49:BN49">
     <cfRule type="expression" dxfId="192" priority="512">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J49:BM49">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49:BN49">
     <cfRule type="expression" dxfId="191" priority="417">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="190" priority="418" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
     <cfRule type="dataBar" priority="413">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13274,20 +13435,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26:BM26">
+  <conditionalFormatting sqref="K26:BN26">
     <cfRule type="expression" dxfId="189" priority="416">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J26:BM26">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26:BN26">
     <cfRule type="expression" dxfId="188" priority="414">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="187" priority="415" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
     <cfRule type="dataBar" priority="405">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13301,38 +13462,38 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J27:BM27">
+  <conditionalFormatting sqref="K27:BN27">
     <cfRule type="expression" dxfId="186" priority="412">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27:BM27">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27:BN27">
     <cfRule type="expression" dxfId="185" priority="410">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="184" priority="411" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28:BM28">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28:BN28">
     <cfRule type="expression" dxfId="183" priority="408">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28:BM28">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28:BN28">
     <cfRule type="expression" dxfId="182" priority="406">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="181" priority="407" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J53:BM53">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K53:BN53">
     <cfRule type="expression" dxfId="180" priority="360">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
     <cfRule type="dataBar" priority="395">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13346,20 +13507,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J36:BM36">
+  <conditionalFormatting sqref="K36:BN36">
     <cfRule type="expression" dxfId="179" priority="513">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J36:BM36">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36:BN36">
     <cfRule type="expression" dxfId="178" priority="393">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="177" priority="394" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F73">
     <cfRule type="dataBar" priority="307">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13373,7 +13534,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
+  <conditionalFormatting sqref="F53">
     <cfRule type="dataBar" priority="353">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13387,7 +13548,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
+  <conditionalFormatting sqref="F54">
     <cfRule type="dataBar" priority="349">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13401,33 +13562,33 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J54:BM54">
+  <conditionalFormatting sqref="K54:BN54">
     <cfRule type="expression" dxfId="176" priority="350">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="175" priority="351" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J54:BM54">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54:BN54">
     <cfRule type="expression" dxfId="174" priority="352">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52:BM52">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52:BN52">
     <cfRule type="expression" dxfId="173" priority="359">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52:BM52">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52:BN52">
     <cfRule type="expression" dxfId="172" priority="357">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="171" priority="358" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F56">
     <cfRule type="dataBar" priority="345">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13441,7 +13602,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
+  <conditionalFormatting sqref="F55">
     <cfRule type="dataBar" priority="341">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13455,20 +13616,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J56:BM56">
+  <conditionalFormatting sqref="K56:BN56">
     <cfRule type="expression" dxfId="170" priority="348">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J56:BM56">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56:BN56">
     <cfRule type="expression" dxfId="169" priority="346">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="168" priority="347" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E58">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57:F58">
     <cfRule type="dataBar" priority="337">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13482,20 +13643,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J55:BM55">
+  <conditionalFormatting sqref="K55:BN55">
     <cfRule type="expression" dxfId="167" priority="344">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J55:BM55">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55:BN55">
     <cfRule type="expression" dxfId="166" priority="342">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="165" priority="343" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F60">
     <cfRule type="dataBar" priority="333">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13509,20 +13670,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J57:BM58">
+  <conditionalFormatting sqref="K57:BN58">
     <cfRule type="expression" dxfId="164" priority="340">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J57:BM58">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K57:BN58">
     <cfRule type="expression" dxfId="163" priority="338">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="162" priority="339" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
     <cfRule type="dataBar" priority="329">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13536,28 +13697,28 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J60:BM60">
+  <conditionalFormatting sqref="K60:BN60">
     <cfRule type="expression" dxfId="161" priority="336">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J60:BM60">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K60:BN60">
     <cfRule type="expression" dxfId="160" priority="334">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="159" priority="335" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J58:BM58">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58:BN58">
     <cfRule type="expression" dxfId="158" priority="330">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="157" priority="331" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59:E60">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F59:F60">
     <cfRule type="dataBar" priority="325">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13571,12 +13732,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J58:BM58">
+  <conditionalFormatting sqref="K58:BN58">
     <cfRule type="expression" dxfId="156" priority="332">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61:E62">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61:F62">
     <cfRule type="dataBar" priority="317">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13590,20 +13751,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J59:BM60">
+  <conditionalFormatting sqref="K59:BN60">
     <cfRule type="expression" dxfId="155" priority="328">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J59:BM60">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K59:BN60">
     <cfRule type="expression" dxfId="154" priority="326">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="153" priority="327" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62">
     <cfRule type="dataBar" priority="321">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13617,20 +13778,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J62:BM62">
+  <conditionalFormatting sqref="K62:BN62">
     <cfRule type="expression" dxfId="152" priority="324">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J62:BM62">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K62:BN62">
     <cfRule type="expression" dxfId="151" priority="322">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="150" priority="323" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63:E64">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F63:F64">
     <cfRule type="dataBar" priority="309">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13644,20 +13805,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J61:BM62">
+  <conditionalFormatting sqref="K61:BN62">
     <cfRule type="expression" dxfId="149" priority="320">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J61:BM62">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K61:BN62">
     <cfRule type="expression" dxfId="148" priority="318">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="147" priority="319" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F64">
     <cfRule type="dataBar" priority="313">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13671,20 +13832,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J64:BM64">
+  <conditionalFormatting sqref="K64:BN64">
     <cfRule type="expression" dxfId="146" priority="316">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J64:BM64">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K64:BN64">
     <cfRule type="expression" dxfId="145" priority="314">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="144" priority="315" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F72">
     <cfRule type="dataBar" priority="297">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13698,20 +13859,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J63:BM64">
+  <conditionalFormatting sqref="K63:BN64">
     <cfRule type="expression" dxfId="143" priority="312">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J63:BM64">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K63:BN64">
     <cfRule type="expression" dxfId="142" priority="310">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="141" priority="311" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71 E73">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F71 F73">
     <cfRule type="dataBar" priority="308">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13725,46 +13886,46 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J73:BM73">
+  <conditionalFormatting sqref="K73:BN73">
     <cfRule type="expression" dxfId="140" priority="515">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J73:BM73">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K73:BN73">
     <cfRule type="expression" dxfId="139" priority="306">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="138" priority="516" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J71:BM71 J73:BM73">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K71:BN71 K73:BN73">
     <cfRule type="expression" dxfId="137" priority="304">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J71:BM71 J73:BM73">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K71:BN71 K73:BN73">
     <cfRule type="expression" dxfId="136" priority="302">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="135" priority="303" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J72:BM72">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K72:BN72">
     <cfRule type="expression" dxfId="134" priority="300">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J72:BM72">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K72:BN72">
     <cfRule type="expression" dxfId="133" priority="298">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="132" priority="299" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F74">
     <cfRule type="dataBar" priority="260">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13778,7 +13939,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
+  <conditionalFormatting sqref="F74">
     <cfRule type="dataBar" priority="259">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13792,25 +13953,25 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J74:BM74">
+  <conditionalFormatting sqref="K74:BN74">
     <cfRule type="expression" dxfId="131" priority="258">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J74:BM74">
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K74:BN74">
     <cfRule type="expression" dxfId="130" priority="257">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J74:BM74">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K74:BN74">
     <cfRule type="expression" dxfId="129" priority="255">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="128" priority="256" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F76">
     <cfRule type="dataBar" priority="247">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13824,7 +13985,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
+  <conditionalFormatting sqref="F75">
     <cfRule type="dataBar" priority="239">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13838,7 +13999,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
+  <conditionalFormatting sqref="F76">
     <cfRule type="dataBar" priority="248">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13852,46 +14013,46 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J76:BM76">
+  <conditionalFormatting sqref="K76:BN76">
     <cfRule type="expression" dxfId="127" priority="249">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J76:BM76">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K76:BN76">
     <cfRule type="expression" dxfId="126" priority="246">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="125" priority="250" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J76:BM76">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K76:BN76">
     <cfRule type="expression" dxfId="124" priority="245">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J76:BM76">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K76:BN76">
     <cfRule type="expression" dxfId="123" priority="243">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="122" priority="244" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J75:BM75">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K75:BN75">
     <cfRule type="expression" dxfId="121" priority="242">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J75:BM75">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K75:BN75">
     <cfRule type="expression" dxfId="120" priority="240">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="119" priority="241" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
     <cfRule type="dataBar" priority="229">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13905,20 +14066,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J41:BM41">
+  <conditionalFormatting sqref="K41:BN41">
     <cfRule type="expression" dxfId="118" priority="232">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41:BM41">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K41:BN41">
     <cfRule type="expression" dxfId="117" priority="230">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="116" priority="231" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
     <cfRule type="dataBar" priority="225">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13932,20 +14093,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J41:BM41">
+  <conditionalFormatting sqref="K41:BN41">
     <cfRule type="expression" dxfId="115" priority="228">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41:BM41">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K41:BN41">
     <cfRule type="expression" dxfId="114" priority="226">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="113" priority="227" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
     <cfRule type="dataBar" priority="221">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13959,20 +14120,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J41:BM41">
+  <conditionalFormatting sqref="K41:BN41">
     <cfRule type="expression" dxfId="112" priority="224">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41:BM41">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K41:BN41">
     <cfRule type="expression" dxfId="111" priority="222">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="110" priority="223" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32:E33">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:F33">
     <cfRule type="dataBar" priority="207">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13986,20 +14147,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32:BM33">
+  <conditionalFormatting sqref="K32:BN33">
     <cfRule type="expression" dxfId="109" priority="208">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32:BM33">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:BN33">
     <cfRule type="expression" dxfId="108" priority="205">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="107" priority="206" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
     <cfRule type="dataBar" priority="173">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14013,25 +14174,25 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22:BM22">
+  <conditionalFormatting sqref="K22:BN22">
     <cfRule type="expression" dxfId="106" priority="176">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22:BM22">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22:BN22">
     <cfRule type="expression" dxfId="105" priority="174">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="104" priority="175" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J42:BM42">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K42:BN42">
     <cfRule type="expression" dxfId="103" priority="137">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40">
     <cfRule type="dataBar" priority="142">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14045,20 +14206,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J65:BM65">
+  <conditionalFormatting sqref="K65:BN65">
     <cfRule type="expression" dxfId="102" priority="129">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40:BM40">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K40:BN40">
     <cfRule type="expression" dxfId="101" priority="143">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="100" priority="144" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
     <cfRule type="dataBar" priority="163">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14072,20 +14233,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J29:BM29">
+  <conditionalFormatting sqref="K29:BN29">
     <cfRule type="expression" dxfId="99" priority="164">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29:BM29">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29:BN29">
     <cfRule type="expression" dxfId="98" priority="161">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="97" priority="162" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40">
     <cfRule type="dataBar" priority="149">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14099,20 +14260,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J40:BM40">
+  <conditionalFormatting sqref="K40:BN40">
     <cfRule type="expression" dxfId="96" priority="152">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40:BM40">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K40:BN40">
     <cfRule type="expression" dxfId="95" priority="150">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="94" priority="151" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40">
     <cfRule type="dataBar" priority="145">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14126,20 +14287,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J40:BM40">
+  <conditionalFormatting sqref="K40:BN40">
     <cfRule type="expression" dxfId="93" priority="148">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40:BM40">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K40:BN40">
     <cfRule type="expression" dxfId="92" priority="146">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="91" priority="147" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
     <cfRule type="dataBar" priority="134">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14153,15 +14314,15 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J42:BM42">
+  <conditionalFormatting sqref="K42:BN42">
     <cfRule type="expression" dxfId="90" priority="135">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="89" priority="136" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
     <cfRule type="dataBar" priority="138">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14175,20 +14336,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J42:BM42">
+  <conditionalFormatting sqref="K42:BN42">
     <cfRule type="expression" dxfId="88" priority="141">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J42:BM42">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K42:BN42">
     <cfRule type="expression" dxfId="87" priority="139">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="86" priority="140" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F65">
     <cfRule type="dataBar" priority="126">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14202,20 +14363,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J68:BM68">
+  <conditionalFormatting sqref="K68:BN68">
     <cfRule type="expression" dxfId="85" priority="121">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J65:BM65">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K65:BN65">
     <cfRule type="expression" dxfId="84" priority="127">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="83" priority="128" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
     <cfRule type="dataBar" priority="130">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14229,20 +14390,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J42:BM42">
+  <conditionalFormatting sqref="K42:BN42">
     <cfRule type="expression" dxfId="82" priority="133">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J42:BM42">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K42:BN42">
     <cfRule type="expression" dxfId="81" priority="131">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="80" priority="132" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F65">
     <cfRule type="dataBar" priority="122">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14256,7 +14417,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
+  <conditionalFormatting sqref="F68">
     <cfRule type="dataBar" priority="118">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14270,33 +14431,33 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J69:BM69">
+  <conditionalFormatting sqref="K69:BN69">
     <cfRule type="expression" dxfId="79" priority="113">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J68:BM68">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K68:BN68">
     <cfRule type="expression" dxfId="78" priority="119">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="77" priority="120" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J65:BM65">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K65:BN65">
     <cfRule type="expression" dxfId="76" priority="125">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J65:BM65">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K65:BN65">
     <cfRule type="expression" dxfId="75" priority="123">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="74" priority="124" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F68">
     <cfRule type="dataBar" priority="114">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14310,7 +14471,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
+  <conditionalFormatting sqref="F69">
     <cfRule type="dataBar" priority="110">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14324,33 +14485,33 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J66:BM66">
+  <conditionalFormatting sqref="K66:BN66">
     <cfRule type="expression" dxfId="73" priority="105">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J69:BM69">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K69:BN69">
     <cfRule type="expression" dxfId="72" priority="111">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="71" priority="112" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J68:BM68">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K68:BN68">
     <cfRule type="expression" dxfId="70" priority="117">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J68:BM68">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K68:BN68">
     <cfRule type="expression" dxfId="69" priority="115">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="68" priority="116" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F69">
     <cfRule type="dataBar" priority="106">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14364,7 +14525,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
+  <conditionalFormatting sqref="F66">
     <cfRule type="dataBar" priority="102">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14378,38 +14539,38 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J67:BM67">
+  <conditionalFormatting sqref="K67:BN67">
     <cfRule type="expression" dxfId="67" priority="97">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J66:BM66">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K66:BN66">
     <cfRule type="expression" dxfId="66" priority="103">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="65" priority="104" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J69:BM69">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K69:BN69">
     <cfRule type="expression" dxfId="64" priority="109">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J69:BM69">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K69:BN69">
     <cfRule type="expression" dxfId="63" priority="107">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="62" priority="108" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J67:BM67">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K67:BN67">
     <cfRule type="expression" dxfId="61" priority="93">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F67">
     <cfRule type="dataBar" priority="94">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14423,15 +14584,15 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J67:BM67">
+  <conditionalFormatting sqref="K67:BN67">
     <cfRule type="expression" dxfId="60" priority="95">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="59" priority="96" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F66">
     <cfRule type="dataBar" priority="98">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14445,25 +14606,25 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J66:BM66">
+  <conditionalFormatting sqref="K66:BN66">
     <cfRule type="expression" dxfId="58" priority="101">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J66:BM66">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K66:BN66">
     <cfRule type="expression" dxfId="57" priority="99">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="56" priority="100" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J70:BM70">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K70:BN70">
     <cfRule type="expression" dxfId="55" priority="89">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F67">
     <cfRule type="dataBar" priority="90">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14477,15 +14638,15 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J67:BM67">
+  <conditionalFormatting sqref="K67:BN67">
     <cfRule type="expression" dxfId="54" priority="91">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="53" priority="92" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F70">
     <cfRule type="dataBar" priority="86">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14499,15 +14660,15 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J70:BM70">
+  <conditionalFormatting sqref="K70:BN70">
     <cfRule type="expression" dxfId="52" priority="87">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="51" priority="88" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F70">
     <cfRule type="dataBar" priority="82">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14521,20 +14682,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J70:BM70">
+  <conditionalFormatting sqref="K70:BN70">
     <cfRule type="expression" dxfId="50" priority="85">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J70:BM70">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K70:BN70">
     <cfRule type="expression" dxfId="49" priority="83">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="48" priority="84" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80:E81">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F80:F81">
     <cfRule type="dataBar" priority="78">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14548,20 +14709,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J80:BM81">
+  <conditionalFormatting sqref="K80:BN81">
     <cfRule type="expression" dxfId="47" priority="81">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J80:BM81">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K80:BN81">
     <cfRule type="expression" dxfId="46" priority="79">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="45" priority="80" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85:E86">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F85:F86">
     <cfRule type="dataBar" priority="74">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14575,20 +14736,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J85:BM86">
+  <conditionalFormatting sqref="K85:BN86">
     <cfRule type="expression" dxfId="44" priority="77">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J85:BM86">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K85:BN86">
     <cfRule type="expression" dxfId="43" priority="75">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="42" priority="76" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F87">
     <cfRule type="dataBar" priority="70">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14602,20 +14763,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J87:BM87">
+  <conditionalFormatting sqref="K87:BN87">
     <cfRule type="expression" dxfId="41" priority="73">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J87:BM87">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K87:BN87">
     <cfRule type="expression" dxfId="40" priority="71">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="39" priority="72" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F88">
     <cfRule type="dataBar" priority="66">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14629,20 +14790,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J88:BM88 L89">
+  <conditionalFormatting sqref="K88:BN88 M89">
     <cfRule type="expression" dxfId="38" priority="69">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J88:BM88 L89">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K88:BN88 M89">
     <cfRule type="expression" dxfId="37" priority="67">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="36" priority="68" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
     <cfRule type="dataBar" priority="62">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14656,20 +14817,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16:BM16">
+  <conditionalFormatting sqref="K16:BN16">
     <cfRule type="expression" dxfId="35" priority="65">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16:BM16">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16:BN16">
     <cfRule type="expression" dxfId="34" priority="63">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="33" priority="64" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
     <cfRule type="dataBar" priority="58">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14683,20 +14844,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J18:BM18">
+  <conditionalFormatting sqref="K18:BN18">
     <cfRule type="expression" dxfId="32" priority="61">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18:BM18">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18:BN18">
     <cfRule type="expression" dxfId="31" priority="59">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="30" priority="60" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
     <cfRule type="dataBar" priority="54">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14710,20 +14871,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J19:BM19">
+  <conditionalFormatting sqref="K19:BN19">
     <cfRule type="expression" dxfId="29" priority="57">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19:BM19">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19:BN19">
     <cfRule type="expression" dxfId="28" priority="55">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="27" priority="56" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F91">
     <cfRule type="dataBar" priority="53">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14737,7 +14898,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F89">
+  <conditionalFormatting sqref="G89">
     <cfRule type="dataBar" priority="52">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14751,7 +14912,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G89">
+  <conditionalFormatting sqref="H89">
     <cfRule type="dataBar" priority="51">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14765,7 +14926,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G91">
+  <conditionalFormatting sqref="H91">
     <cfRule type="dataBar" priority="50">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14779,7 +14940,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
+  <conditionalFormatting sqref="F17">
     <cfRule type="dataBar" priority="46">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14793,20 +14954,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17:BM17">
+  <conditionalFormatting sqref="K17:BN17">
     <cfRule type="expression" dxfId="26" priority="49">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J17:BM17">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17:BN17">
     <cfRule type="expression" dxfId="25" priority="47">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="24" priority="48" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
     <cfRule type="dataBar" priority="42">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14820,20 +14981,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J31:BM31">
+  <conditionalFormatting sqref="K31:BN31">
     <cfRule type="expression" dxfId="23" priority="45">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J31:BM31">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31:BN31">
     <cfRule type="expression" dxfId="22" priority="43">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="21" priority="44" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
     <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14847,20 +15008,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J25:BM25">
+  <conditionalFormatting sqref="K25:BN25">
     <cfRule type="expression" dxfId="20" priority="37">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25:BM25">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25:BN25">
     <cfRule type="expression" dxfId="19" priority="35">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="18" priority="36" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
     <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14874,7 +15035,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
+  <conditionalFormatting sqref="F34">
     <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14888,20 +15049,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J34:BM34">
+  <conditionalFormatting sqref="K34:BN34">
     <cfRule type="expression" dxfId="17" priority="32">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34:BM34">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34:BN34">
     <cfRule type="expression" dxfId="16" priority="30">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="15" priority="31" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
     <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14915,33 +15076,33 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J34:BM34">
+  <conditionalFormatting sqref="K34:BN34">
     <cfRule type="expression" dxfId="14" priority="28">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34:BM34">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34:BN34">
     <cfRule type="expression" dxfId="13" priority="25">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="12" priority="26" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J33:BM33">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33:BN33">
     <cfRule type="expression" dxfId="11" priority="24">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J33:BM33">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33:BN33">
     <cfRule type="expression" dxfId="10" priority="22">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="9" priority="23" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35">
     <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14955,20 +15116,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J35:BM35">
+  <conditionalFormatting sqref="K35:BN35">
     <cfRule type="expression" dxfId="8" priority="20">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J35:BM35">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35:BN35">
     <cfRule type="expression" dxfId="7" priority="18">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="19" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35">
     <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14982,25 +15143,25 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J35:BM35">
+  <conditionalFormatting sqref="K35:BN35">
     <cfRule type="expression" dxfId="5" priority="16">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J35:BM35">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35:BN35">
     <cfRule type="expression" dxfId="4" priority="13">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="14" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12:BM12">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12:BN12">
     <cfRule type="expression" dxfId="2" priority="4">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15014,16 +15175,16 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12:BM12">
+  <conditionalFormatting sqref="K12:BN12">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="週表示" prompt="この数字を変更すると、ガント チャート ビューがスクロールされます。" sqref="F4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="週表示" prompt="この数字を変更すると、ガント チャート ビューがスクロールされます。" sqref="G4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
@@ -15050,7 +15211,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E7:E11 E24 E77:E79 E89 E82:E84 E32:E33 E13:E15 E29:E30 E36:E42</xm:sqref>
+          <xm:sqref>F7:F11 F24 F77:F79 F89 F82:F84 F32:F33 F13:F15 F29:F30 F36:F42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{24F17111-9256-FF47-A90B-BD2748D98F5A}">
@@ -15065,7 +15226,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E39</xm:sqref>
+          <xm:sqref>F39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E4DFD210-F8DE-DC4A-9741-B5B243F824A6}">
@@ -15080,7 +15241,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E23</xm:sqref>
+          <xm:sqref>F23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C62FE956-AC41-4E46-82CC-268F01DE7ACD}">
@@ -15095,7 +15256,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E37</xm:sqref>
+          <xm:sqref>F37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1D6361C8-CB7D-8841-8CD8-18871297265B}">
@@ -15110,7 +15271,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E44</xm:sqref>
+          <xm:sqref>F44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{95B7E06F-6B9E-6C4B-BC04-3F99AB1A74D4}">
@@ -15125,7 +15286,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E52</xm:sqref>
+          <xm:sqref>F52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FD86224B-914B-5F46-822F-B75854136693}">
@@ -15140,7 +15301,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E43</xm:sqref>
+          <xm:sqref>F43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A230EAA4-3BDE-3745-88B4-B68818DC88A3}">
@@ -15155,7 +15316,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E45:E47 E50</xm:sqref>
+          <xm:sqref>F45:F47 F50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{85F05FF5-8C78-5B43-93CB-9F56687B7ED6}">
@@ -15170,7 +15331,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E47</xm:sqref>
+          <xm:sqref>F47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{ACD4AF40-4A7F-3D4C-8382-D5C86CD21452}">
@@ -15185,7 +15346,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E20:E21</xm:sqref>
+          <xm:sqref>F20:F21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{00D6AEA0-203E-7847-8352-8788688CF8AB}">
@@ -15200,7 +15361,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E48</xm:sqref>
+          <xm:sqref>F48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B4DE69B5-631A-D545-95CA-052B3980E2BD}">
@@ -15215,7 +15376,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E51</xm:sqref>
+          <xm:sqref>F51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CCE23DF5-CA4C-E24E-A4A2-743C521EC5B4}">
@@ -15230,7 +15391,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E27</xm:sqref>
+          <xm:sqref>F27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AFE04D94-34DE-7049-A203-DF6FCBA27D1D}">
@@ -15245,7 +15406,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E49</xm:sqref>
+          <xm:sqref>F49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A901BF46-B827-D445-ACF5-96CFE6FB89EC}">
@@ -15260,7 +15421,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E26</xm:sqref>
+          <xm:sqref>F26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6561463E-7433-724A-A679-B2D4ED2402CA}">
@@ -15275,7 +15436,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E28</xm:sqref>
+          <xm:sqref>F28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{031E537F-76AB-264A-AE56-DE4BF11ECC6C}">
@@ -15290,7 +15451,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E36</xm:sqref>
+          <xm:sqref>F36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E0CBEC52-D3A6-C74C-97BE-B834893CF553}">
@@ -15305,7 +15466,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E73</xm:sqref>
+          <xm:sqref>F73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AD9C13A4-B612-3245-AE76-A8E409F7918F}">
@@ -15320,7 +15481,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E53</xm:sqref>
+          <xm:sqref>F53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A6772426-68EF-A240-800A-5AF7F0F113A9}">
@@ -15335,7 +15496,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E54</xm:sqref>
+          <xm:sqref>F54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BC765EC6-6523-504A-AED4-7AEFB62A9DF7}">
@@ -15350,7 +15511,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E56</xm:sqref>
+          <xm:sqref>F56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B401F7C8-BE59-8744-857F-12D198A08AE4}">
@@ -15365,7 +15526,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E55</xm:sqref>
+          <xm:sqref>F55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C2BA0CD1-C384-464E-824F-33069CB207EF}">
@@ -15380,7 +15541,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E57:E58</xm:sqref>
+          <xm:sqref>F57:F58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6CCE1452-5FBC-3F4A-A068-5D75B4B7BCDA}">
@@ -15395,7 +15556,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E60</xm:sqref>
+          <xm:sqref>F60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F1706303-4483-6A4F-B5FB-E2CF343EF71C}">
@@ -15410,7 +15571,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E58</xm:sqref>
+          <xm:sqref>F58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BDACFAD9-3E5D-9B4A-9A81-FF3B6F8CBF64}">
@@ -15425,7 +15586,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E59:E60</xm:sqref>
+          <xm:sqref>F59:F60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AA6B7756-C0C2-F243-92BE-6D626EBB0BC5}">
@@ -15440,7 +15601,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E61:E62</xm:sqref>
+          <xm:sqref>F61:F62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F2806D69-C8F2-D244-81EA-5357BF3FA7B1}">
@@ -15455,7 +15616,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E62</xm:sqref>
+          <xm:sqref>F62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C7B8B9BB-DF62-964E-B36D-3E40DEDE4AAB}">
@@ -15470,7 +15631,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E63:E64</xm:sqref>
+          <xm:sqref>F63:F64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{98CD4208-BEBA-F74E-82C6-DC32125D14AC}">
@@ -15485,7 +15646,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E64</xm:sqref>
+          <xm:sqref>F64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D0E736E8-06C8-4D41-A71F-BDC7B0EA0160}">
@@ -15500,7 +15661,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E72</xm:sqref>
+          <xm:sqref>F72</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{299B1521-6753-6E49-B368-B60D1EE39BBB}">
@@ -15515,7 +15676,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E71 E73</xm:sqref>
+          <xm:sqref>F71 F73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{37029FEF-DCD1-5F44-BF01-E7E8FBBEC303}">
@@ -15530,7 +15691,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E74</xm:sqref>
+          <xm:sqref>F74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F01A527D-9F3F-2246-BA2F-16BF59D0B1B0}">
@@ -15545,7 +15706,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E74</xm:sqref>
+          <xm:sqref>F74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{680AA153-3270-9046-A64C-8D19EEADC023}">
@@ -15560,7 +15721,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E76</xm:sqref>
+          <xm:sqref>F76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FDF7C793-D057-9049-B6E1-E834A2499378}">
@@ -15575,7 +15736,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E75</xm:sqref>
+          <xm:sqref>F75</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F51640C3-D607-B64B-AE9A-67FB162B1792}">
@@ -15590,7 +15751,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E76</xm:sqref>
+          <xm:sqref>F76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1AF9EEB1-188E-D04F-BFC1-EFAEB6262AF9}">
@@ -15605,7 +15766,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E41</xm:sqref>
+          <xm:sqref>F41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9CD05753-5724-2C45-B91F-77E4C9EC560D}">
@@ -15620,7 +15781,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E41</xm:sqref>
+          <xm:sqref>F41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8B854A83-959A-C440-898C-501D64548932}">
@@ -15635,7 +15796,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E41</xm:sqref>
+          <xm:sqref>F41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{422C01BA-0699-C446-AEE6-30E04170B4B2}">
@@ -15650,7 +15811,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E32:E33</xm:sqref>
+          <xm:sqref>F32:F33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{84FC15CB-BF74-6542-A35C-02838372AD20}">
@@ -15665,7 +15826,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E22</xm:sqref>
+          <xm:sqref>F22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{47879F2E-D706-9A45-9D62-3E9DEF2279C7}">
@@ -15680,7 +15841,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E40</xm:sqref>
+          <xm:sqref>F40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E70DC10E-2576-2947-8D54-799D4D500F13}">
@@ -15695,7 +15856,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E29</xm:sqref>
+          <xm:sqref>F29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A0153DB6-19FB-7246-8AA7-92BBA43F6397}">
@@ -15710,7 +15871,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E40</xm:sqref>
+          <xm:sqref>F40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{089BA24B-7C6B-9545-8D21-BBE5C5EC2E7A}">
@@ -15725,7 +15886,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E40</xm:sqref>
+          <xm:sqref>F40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E4736ECF-786A-5A42-B4FF-EF8A0221C81D}">
@@ -15740,7 +15901,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E42</xm:sqref>
+          <xm:sqref>F42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6BA7FAAC-F6E3-8941-B8E1-5DAEC1E3653E}">
@@ -15755,7 +15916,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E42</xm:sqref>
+          <xm:sqref>F42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2EACD2EC-CDC7-2845-B140-417AFDA13CE4}">
@@ -15770,7 +15931,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E65</xm:sqref>
+          <xm:sqref>F65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D109718A-7C8F-7B4C-A048-DCBA7091216B}">
@@ -15785,7 +15946,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E42</xm:sqref>
+          <xm:sqref>F42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D91CA485-8795-4541-ACDB-213678689900}">
@@ -15800,7 +15961,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E65</xm:sqref>
+          <xm:sqref>F65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{54931082-0A87-0B46-A3AF-53B1C7E0349D}">
@@ -15815,7 +15976,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E68</xm:sqref>
+          <xm:sqref>F68</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8F7A8332-D03B-1240-9256-E6C635F6B7AE}">
@@ -15830,7 +15991,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E68</xm:sqref>
+          <xm:sqref>F68</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E48B6478-B85A-8C41-A036-8BC8C03FB567}">
@@ -15845,7 +16006,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E69</xm:sqref>
+          <xm:sqref>F69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3B68B980-280F-9945-8E0B-02FC372E22F9}">
@@ -15860,7 +16021,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E69</xm:sqref>
+          <xm:sqref>F69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1D482DD2-8610-4640-B157-28FF9AA8CCDD}">
@@ -15875,7 +16036,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E66</xm:sqref>
+          <xm:sqref>F66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0D505B2A-0E13-8049-BCF4-4C9D87A6E0BC}">
@@ -15890,7 +16051,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E67</xm:sqref>
+          <xm:sqref>F67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FCC18048-6B89-6146-824E-80010923D5A7}">
@@ -15905,7 +16066,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E66</xm:sqref>
+          <xm:sqref>F66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5DC30E2A-B088-054C-9638-C6035E3DA13E}">
@@ -15920,7 +16081,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E67</xm:sqref>
+          <xm:sqref>F67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6EA2D0C8-E64E-6C4E-871C-217798EE5D8E}">
@@ -15935,7 +16096,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E70</xm:sqref>
+          <xm:sqref>F70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7B793B46-8F8E-FA49-A58B-2611FA347C3D}">
@@ -15950,7 +16111,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E70</xm:sqref>
+          <xm:sqref>F70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A0FD18F1-2DDC-5F4A-9E5C-EEAD464B1296}">
@@ -15965,7 +16126,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E80:E81</xm:sqref>
+          <xm:sqref>F80:F81</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4C330308-C068-8B4D-8D83-6FEA4C284F6B}">
@@ -15980,7 +16141,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E85:E86</xm:sqref>
+          <xm:sqref>F85:F86</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2F75F22C-352D-4449-AB1D-3183DABFA100}">
@@ -15995,7 +16156,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E87</xm:sqref>
+          <xm:sqref>F87</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9BEEE57C-1DA9-C747-8E7C-346EB91B4E36}">
@@ -16010,7 +16171,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E88</xm:sqref>
+          <xm:sqref>F88</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4C31BB5A-AEE3-0846-8F27-557A287ED7BF}">
@@ -16025,7 +16186,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E16</xm:sqref>
+          <xm:sqref>F16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{50E20D4B-BFD2-6649-9AE5-2EAA4163FF70}">
@@ -16040,7 +16201,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E18</xm:sqref>
+          <xm:sqref>F18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{996A73FA-7C03-1B43-AA7D-1A2833EC5A9D}">
@@ -16055,7 +16216,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E19</xm:sqref>
+          <xm:sqref>F19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{89A624C5-E497-7C49-9981-BA2F80D3975A}">
@@ -16070,7 +16231,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E91</xm:sqref>
+          <xm:sqref>F91</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7C55099D-FFDE-2145-8945-4CC62A21B3F5}">
@@ -16085,7 +16246,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F89</xm:sqref>
+          <xm:sqref>G89</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4476D606-ECB9-004B-B8E4-EFF5130FB18D}">
@@ -16100,7 +16261,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G89</xm:sqref>
+          <xm:sqref>H89</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9D0DC1B9-49F9-F443-815E-66C468AE9B91}">
@@ -16115,7 +16276,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G91</xm:sqref>
+          <xm:sqref>H91</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D56E6119-62DB-3F4F-8553-8F84F7A95988}">
@@ -16130,7 +16291,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E17</xm:sqref>
+          <xm:sqref>F17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4A0F5441-0438-8E49-B599-5FADA3D99D56}">
@@ -16145,7 +16306,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E31</xm:sqref>
+          <xm:sqref>F31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D6FF4DE1-4BDD-CC4E-BDA9-91C355F7EA80}">
@@ -16160,7 +16321,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E25</xm:sqref>
+          <xm:sqref>F25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{23ED099E-01F9-9E46-A77D-0A37F8941A77}">
@@ -16175,7 +16336,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E33</xm:sqref>
+          <xm:sqref>F33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{93A2B80B-CC05-9248-A22B-7730873193A8}">
@@ -16190,7 +16351,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E34</xm:sqref>
+          <xm:sqref>F34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DEF56DD6-2BD8-A649-9E18-9DAF0DAC72BE}">
@@ -16205,7 +16366,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E34</xm:sqref>
+          <xm:sqref>F34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DF693226-6835-CC43-90DC-98611BE80D6A}">
@@ -16220,7 +16381,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E35</xm:sqref>
+          <xm:sqref>F35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C4133C4D-7309-CC4D-AA3F-BB23134E26E0}">
@@ -16235,7 +16396,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E35</xm:sqref>
+          <xm:sqref>F35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EFB62440-25FC-E146-9D87-29BF6B43EE8D}">
@@ -16250,7 +16411,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E12</xm:sqref>
+          <xm:sqref>F12</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Documents/ThrowSujiShurikenGanttChart.xlsx
+++ b/Documents/ThrowSujiShurikenGanttChart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733F315B-EB6A-CE4D-A0A4-C30B118B24A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97176E29-59A5-EF4A-982F-C2737ED877CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5583,9 +5583,9 @@
   <dimension ref="A1:BN96"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8360,7 +8360,7 @@
         <v>0.25</v>
       </c>
       <c r="D34" s="101">
-        <v>1.5972222222222224E-2</v>
+        <v>7.2222222222222229E-2</v>
       </c>
       <c r="E34" s="101">
         <v>0.2590277777777778</v>
@@ -12647,7 +12647,7 @@
       </c>
       <c r="D89" s="110">
         <f>SUM(D9:D85)</f>
-        <v>1.5972222222222224E-2</v>
+        <v>7.2222222222222229E-2</v>
       </c>
       <c r="E89" s="110">
         <f>SUM(E9:E85)</f>

--- a/Documents/ThrowSujiShurikenGanttChart.xlsx
+++ b/Documents/ThrowSujiShurikenGanttChart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97176E29-59A5-EF4A-982F-C2737ED877CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F065BA1-6BA9-2D4C-92F8-38BCF46964AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1300" windowWidth="35840" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクトのスケジュール" sheetId="11" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="134">
   <si>
     <t>このワークシートでプロジェクトのスケジュール​​を作成します。
 セル B1 には、このプロジェクトのタイトルを入力します。
@@ -900,43 +900,11 @@
     <phoneticPr fontId="37"/>
   </si>
   <si>
-    <t>自分手裏剣が敵手裏剣に当たった場合に敵手裏剣の数字を1減らす</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">テキ </t>
-    </rPh>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
     <t>No.</t>
     <phoneticPr fontId="37"/>
   </si>
   <si>
     <t>13%(8タスク)</t>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Meiryo UI"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>週</t>
-    </r>
-    <rPh sb="1" eb="2">
-      <t xml:space="preserve">シュウ </t>
-    </rPh>
     <phoneticPr fontId="37"/>
   </si>
   <si>
@@ -1006,6 +974,88 @@
     <t>1週間残りタスク数</t>
     <rPh sb="3" eb="4">
       <t xml:space="preserve">ノコリ </t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>ß</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>週</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">シュウ </t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>追加</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>敵手裏剣の数字を1減らす</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>自分手裏剣が敵手裏剣に当たった場合</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">テキ </t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 自分手裏剣の数字と相手手裏剣の数字を引き算して自分手裏剣の数字が0になった場合</t>
+    <rPh sb="1" eb="6">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">スウジ </t>
+    </rPh>
+    <rPh sb="10" eb="15">
+      <t>アイテシュリケンノ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">スウジ </t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t xml:space="preserve">ヒキザンシテ </t>
+    </rPh>
+    <rPh sb="24" eb="29">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">スウジ </t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 自分手裏剣を破棄する</t>
+    <rPh sb="1" eb="2">
+      <t>ジブンシュ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ハキスル </t>
     </rPh>
     <phoneticPr fontId="37"/>
   </si>
@@ -1925,7 +1975,7 @@
     <xf numFmtId="0" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2227,9 +2277,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="45" borderId="17" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="45" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2257,43 +2304,6 @@
     <xf numFmtId="178" fontId="1" fillId="0" borderId="19" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="45" borderId="17" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2308,6 +2318,55 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="9" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2366,7 +2425,67 @@
     <cellStyle name="名前" xfId="11" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
     <cellStyle name="良い" xfId="18" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="236">
+  <dxfs count="242">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4726,15 +4845,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDo_リスト" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="235"/>
-      <tableStyleElement type="headerRow" dxfId="234"/>
-      <tableStyleElement type="totalRow" dxfId="233"/>
-      <tableStyleElement type="firstColumn" dxfId="232"/>
-      <tableStyleElement type="lastColumn" dxfId="231"/>
-      <tableStyleElement type="firstRowStripe" dxfId="230"/>
-      <tableStyleElement type="secondRowStripe" dxfId="229"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="228"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="227"/>
+      <tableStyleElement type="wholeTable" dxfId="241"/>
+      <tableStyleElement type="headerRow" dxfId="240"/>
+      <tableStyleElement type="totalRow" dxfId="239"/>
+      <tableStyleElement type="firstColumn" dxfId="238"/>
+      <tableStyleElement type="lastColumn" dxfId="237"/>
+      <tableStyleElement type="firstRowStripe" dxfId="236"/>
+      <tableStyleElement type="secondRowStripe" dxfId="235"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="234"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="233"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -4834,13 +4953,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4976,13 +5095,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5163,6 +5282,65 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>2%</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>8/22</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>週間進捗率：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>6%</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -5580,12 +5758,12 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN96"/>
+  <dimension ref="A1:BN99"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5634,30 +5812,30 @@
       <c r="B3" s="85"/>
       <c r="C3" s="85"/>
       <c r="D3" s="85"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="118">
+      <c r="E3" s="123"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="132">
         <v>44356</v>
       </c>
-      <c r="H3" s="118"/>
-      <c r="K3" s="125" t="s">
+      <c r="H3" s="132"/>
+      <c r="K3" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="126" t="s">
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="129"/>
+      <c r="R3" s="130" t="s">
         <v>36</v>
       </c>
-      <c r="S3" s="127"/>
-      <c r="T3" s="127"/>
-      <c r="U3" s="127"/>
-      <c r="V3" s="127"/>
-      <c r="W3" s="127"/>
-      <c r="X3" s="127"/>
+      <c r="S3" s="131"/>
+      <c r="T3" s="131"/>
+      <c r="U3" s="131"/>
+      <c r="V3" s="131"/>
+      <c r="W3" s="131"/>
+      <c r="X3" s="131"/>
     </row>
     <row r="4" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="103" t="s">
@@ -5665,104 +5843,104 @@
       </c>
       <c r="C4" s="86"/>
       <c r="D4" s="86"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124"/>
       <c r="G4" s="4">
         <v>1</v>
       </c>
-      <c r="K4" s="115">
+      <c r="K4" s="126">
         <f>K5</f>
         <v>44354</v>
       </c>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="117"/>
-      <c r="R4" s="119">
+      <c r="L4" s="127"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="127"/>
+      <c r="P4" s="127"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="133">
         <f>R5</f>
         <v>44361</v>
       </c>
-      <c r="S4" s="120"/>
-      <c r="T4" s="120"/>
-      <c r="U4" s="120"/>
-      <c r="V4" s="120"/>
-      <c r="W4" s="120"/>
-      <c r="X4" s="121"/>
-      <c r="Y4" s="115">
+      <c r="S4" s="134"/>
+      <c r="T4" s="134"/>
+      <c r="U4" s="134"/>
+      <c r="V4" s="134"/>
+      <c r="W4" s="134"/>
+      <c r="X4" s="135"/>
+      <c r="Y4" s="126">
         <f>Y5</f>
         <v>44368</v>
       </c>
-      <c r="Z4" s="116"/>
-      <c r="AA4" s="116"/>
-      <c r="AB4" s="116"/>
-      <c r="AC4" s="116"/>
-      <c r="AD4" s="116"/>
-      <c r="AE4" s="117"/>
-      <c r="AF4" s="115">
+      <c r="Z4" s="127"/>
+      <c r="AA4" s="127"/>
+      <c r="AB4" s="127"/>
+      <c r="AC4" s="127"/>
+      <c r="AD4" s="127"/>
+      <c r="AE4" s="128"/>
+      <c r="AF4" s="126">
         <f>AF5</f>
         <v>44375</v>
       </c>
-      <c r="AG4" s="116"/>
-      <c r="AH4" s="116"/>
-      <c r="AI4" s="116"/>
-      <c r="AJ4" s="116"/>
-      <c r="AK4" s="116"/>
-      <c r="AL4" s="117"/>
-      <c r="AM4" s="115">
+      <c r="AG4" s="127"/>
+      <c r="AH4" s="127"/>
+      <c r="AI4" s="127"/>
+      <c r="AJ4" s="127"/>
+      <c r="AK4" s="127"/>
+      <c r="AL4" s="128"/>
+      <c r="AM4" s="126">
         <f>AM5</f>
         <v>44382</v>
       </c>
-      <c r="AN4" s="116"/>
-      <c r="AO4" s="116"/>
-      <c r="AP4" s="116"/>
-      <c r="AQ4" s="116"/>
-      <c r="AR4" s="116"/>
-      <c r="AS4" s="117"/>
-      <c r="AT4" s="115">
+      <c r="AN4" s="127"/>
+      <c r="AO4" s="127"/>
+      <c r="AP4" s="127"/>
+      <c r="AQ4" s="127"/>
+      <c r="AR4" s="127"/>
+      <c r="AS4" s="128"/>
+      <c r="AT4" s="126">
         <f>AT5</f>
         <v>44389</v>
       </c>
-      <c r="AU4" s="116"/>
-      <c r="AV4" s="116"/>
-      <c r="AW4" s="116"/>
-      <c r="AX4" s="116"/>
-      <c r="AY4" s="116"/>
-      <c r="AZ4" s="117"/>
-      <c r="BA4" s="115">
+      <c r="AU4" s="127"/>
+      <c r="AV4" s="127"/>
+      <c r="AW4" s="127"/>
+      <c r="AX4" s="127"/>
+      <c r="AY4" s="127"/>
+      <c r="AZ4" s="128"/>
+      <c r="BA4" s="126">
         <f>BA5</f>
         <v>44396</v>
       </c>
-      <c r="BB4" s="116"/>
-      <c r="BC4" s="116"/>
-      <c r="BD4" s="116"/>
-      <c r="BE4" s="116"/>
-      <c r="BF4" s="116"/>
-      <c r="BG4" s="117"/>
-      <c r="BH4" s="115">
+      <c r="BB4" s="127"/>
+      <c r="BC4" s="127"/>
+      <c r="BD4" s="127"/>
+      <c r="BE4" s="127"/>
+      <c r="BF4" s="127"/>
+      <c r="BG4" s="128"/>
+      <c r="BH4" s="126">
         <f>BH5</f>
         <v>44403</v>
       </c>
-      <c r="BI4" s="116"/>
-      <c r="BJ4" s="116"/>
-      <c r="BK4" s="116"/>
-      <c r="BL4" s="116"/>
-      <c r="BM4" s="116"/>
-      <c r="BN4" s="117"/>
+      <c r="BI4" s="127"/>
+      <c r="BJ4" s="127"/>
+      <c r="BK4" s="127"/>
+      <c r="BL4" s="127"/>
+      <c r="BM4" s="127"/>
+      <c r="BN4" s="128"/>
     </row>
     <row r="5" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="124"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
       <c r="K5" s="34">
         <f>プロジェクト_開始-WEEKDAY(プロジェクト_開始,1)+2+7*(週_表示-1)</f>
         <v>44354</v>
@@ -5990,16 +6168,16 @@
     </row>
     <row r="6" spans="1:66" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="87" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B6" s="87" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>32</v>
@@ -6324,7 +6502,7 @@
       <c r="H8" s="42"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18" t="str">
-        <f t="shared" ref="J8:J93" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
+        <f t="shared" ref="J8:J96" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
         <v/>
       </c>
       <c r="K8" s="5"/>
@@ -6387,7 +6565,7 @@
     <row r="9" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="89"/>
       <c r="B9" s="89" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C9" s="59"/>
       <c r="D9" s="59"/>
@@ -7558,10 +7736,10 @@
       <c r="BN23" s="5"/>
     </row>
     <row r="24" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="105">
+      <c r="A24" s="114">
         <v>2</v>
       </c>
-      <c r="B24" s="128" t="s">
+      <c r="B24" s="114" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="56"/>
@@ -7639,10 +7817,10 @@
       <c r="BN24" s="5"/>
     </row>
     <row r="25" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="105">
+      <c r="A25" s="114">
         <v>3</v>
       </c>
-      <c r="B25" s="128" t="s">
+      <c r="B25" s="114" t="s">
         <v>111</v>
       </c>
       <c r="C25" s="101"/>
@@ -7651,7 +7829,7 @@
         <v>2.4999999999999998E-2</v>
       </c>
       <c r="F25" s="57">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G25" s="58" t="s">
         <v>12</v>
@@ -7957,19 +8135,19 @@
       <c r="BN28" s="5"/>
     </row>
     <row r="29" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="106">
+      <c r="A29" s="95">
         <v>7</v>
       </c>
       <c r="B29" s="95" t="s">
         <v>73</v>
       </c>
       <c r="C29" s="101">
-        <v>8.3333333333333329E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D29" s="56"/>
       <c r="E29" s="56"/>
       <c r="F29" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="58" t="s">
         <v>12</v>
@@ -8040,7 +8218,7 @@
       <c r="BN29" s="5"/>
     </row>
     <row r="30" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="106">
+      <c r="A30" s="105">
         <v>8</v>
       </c>
       <c r="B30" s="95" t="s">
@@ -8196,7 +8374,7 @@
       <c r="BN31" s="5"/>
     </row>
     <row r="32" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="106">
+      <c r="A32" s="95">
         <v>9</v>
       </c>
       <c r="B32" s="95" t="s">
@@ -8518,30 +8696,20 @@
       <c r="BN35" s="5"/>
     </row>
     <row r="36" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="106">
-        <v>12</v>
-      </c>
-      <c r="B36" s="95" t="s">
-        <v>118</v>
-      </c>
-      <c r="C36" s="101">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D36" s="101"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="57">
-        <v>0</v>
-      </c>
-      <c r="G36" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="58" t="s">
-        <v>12</v>
-      </c>
+      <c r="A36" s="81"/>
+      <c r="B36" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="121"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
       <c r="I36" s="18"/>
-      <c r="J36" s="18" t="e">
+      <c r="J36" s="18" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
@@ -8601,21 +8769,28 @@
       <c r="BN36" s="5"/>
     </row>
     <row r="37" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="81"/>
-      <c r="B37" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="76"/>
+      <c r="A37" s="95">
+        <v>12</v>
+      </c>
+      <c r="B37" s="95" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="101">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D37" s="101"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="57">
+        <v>1</v>
+      </c>
+      <c r="G37" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="I37" s="18"/>
-      <c r="J37" s="18" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="J37" s="18"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
@@ -8674,31 +8849,18 @@
       <c r="BN37" s="5"/>
     </row>
     <row r="38" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="106">
-        <v>13</v>
-      </c>
-      <c r="B38" s="95" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="101">
-        <v>0.125</v>
-      </c>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="57">
-        <v>0</v>
-      </c>
-      <c r="G38" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="58" t="s">
-        <v>12</v>
-      </c>
+      <c r="A38" s="81"/>
+      <c r="B38" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="121"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="121"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="79"/>
       <c r="I38" s="18"/>
-      <c r="J38" s="18" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J38" s="18"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
@@ -8757,21 +8919,30 @@
       <c r="BN38" s="5"/>
     </row>
     <row r="39" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="81"/>
-      <c r="B39" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="73"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="76"/>
+      <c r="A39" s="105" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" s="95" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="101">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D39" s="101">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E39" s="101"/>
+      <c r="F39" s="57">
+        <v>0</v>
+      </c>
+      <c r="G39" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="I39" s="18"/>
-      <c r="J39" s="18" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="J39" s="18"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
@@ -8830,30 +9001,20 @@
       <c r="BN39" s="5"/>
     </row>
     <row r="40" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="107">
-        <v>14</v>
-      </c>
-      <c r="B40" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="101">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="57">
-        <v>0</v>
-      </c>
-      <c r="G40" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" s="58" t="s">
-        <v>12</v>
-      </c>
+      <c r="A40" s="81"/>
+      <c r="B40" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="73"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="76"/>
       <c r="I40" s="18"/>
-      <c r="J40" s="18" t="e">
+      <c r="J40" s="18" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
@@ -8913,17 +9074,21 @@
       <c r="BN40" s="5"/>
     </row>
     <row r="41" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="83">
-        <v>15</v>
-      </c>
-      <c r="B41" s="83" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
+      <c r="A41" s="95">
+        <v>13</v>
+      </c>
+      <c r="B41" s="95" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="101">
+        <v>0.125</v>
+      </c>
+      <c r="D41" s="101">
+        <v>0.125</v>
+      </c>
       <c r="E41" s="56"/>
       <c r="F41" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" s="58" t="s">
         <v>12</v>
@@ -8994,28 +9159,20 @@
       <c r="BN41" s="5"/>
     </row>
     <row r="42" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="83">
-        <v>16</v>
-      </c>
-      <c r="B42" s="83" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="57">
-        <v>0</v>
-      </c>
-      <c r="G42" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" s="58" t="s">
-        <v>12</v>
-      </c>
+      <c r="A42" s="81"/>
+      <c r="B42" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="73"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="76"/>
       <c r="I42" s="18"/>
-      <c r="J42" s="18" t="e">
+      <c r="J42" s="18" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
@@ -9075,20 +9232,32 @@
       <c r="BN42" s="5"/>
     </row>
     <row r="43" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="81"/>
-      <c r="B43" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="76"/>
+      <c r="A43" s="120">
+        <v>14</v>
+      </c>
+      <c r="B43" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="101">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D43" s="101">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E43" s="56"/>
+      <c r="F43" s="57">
+        <v>1</v>
+      </c>
+      <c r="G43" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="I43" s="18"/>
-      <c r="J43" s="18" t="str">
+      <c r="J43" s="18" t="e">
         <f t="shared" si="5"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
@@ -9148,17 +9317,19 @@
       <c r="BN43" s="5"/>
     </row>
     <row r="44" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="95">
-        <v>17</v>
-      </c>
-      <c r="B44" s="95" t="s">
-        <v>48</v>
+      <c r="A44" s="106">
+        <v>15</v>
+      </c>
+      <c r="B44" s="83" t="s">
+        <v>70</v>
       </c>
       <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
+      <c r="D44" s="101">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="E44" s="56"/>
       <c r="F44" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="58" t="s">
         <v>12</v>
@@ -9229,20 +9400,28 @@
       <c r="BN44" s="5"/>
     </row>
     <row r="45" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="93"/>
-      <c r="B45" s="82" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="75"/>
-      <c r="H45" s="76"/>
+      <c r="A45" s="106">
+        <v>16</v>
+      </c>
+      <c r="B45" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="57">
+        <v>0</v>
+      </c>
+      <c r="G45" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="I45" s="18"/>
-      <c r="J45" s="18" t="str">
+      <c r="J45" s="18" t="e">
         <f t="shared" si="5"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
@@ -9303,8 +9482,8 @@
     </row>
     <row r="46" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="81"/>
-      <c r="B46" s="72" t="s">
-        <v>46</v>
+      <c r="B46" s="81" t="s">
+        <v>44</v>
       </c>
       <c r="C46" s="73"/>
       <c r="D46" s="73"/>
@@ -9313,7 +9492,10 @@
       <c r="G46" s="75"/>
       <c r="H46" s="76"/>
       <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
+      <c r="J46" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
@@ -9372,11 +9554,11 @@
       <c r="BN46" s="5"/>
     </row>
     <row r="47" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="95">
-        <v>18</v>
-      </c>
-      <c r="B47" s="80" t="s">
-        <v>61</v>
+      <c r="A47" s="105">
+        <v>17</v>
+      </c>
+      <c r="B47" s="95" t="s">
+        <v>48</v>
       </c>
       <c r="C47" s="56"/>
       <c r="D47" s="56"/>
@@ -9454,8 +9636,8 @@
     </row>
     <row r="48" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="93"/>
-      <c r="B48" s="99" t="s">
-        <v>65</v>
+      <c r="B48" s="82" t="s">
+        <v>96</v>
       </c>
       <c r="C48" s="73"/>
       <c r="D48" s="73"/>
@@ -9526,29 +9708,18 @@
       <c r="BN48" s="5"/>
     </row>
     <row r="49" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="95">
-        <v>19</v>
-      </c>
-      <c r="B49" s="100" t="s">
-        <v>62</v>
-      </c>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="57">
-        <v>0</v>
-      </c>
-      <c r="G49" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" s="58" t="s">
-        <v>12</v>
-      </c>
+      <c r="A49" s="81"/>
+      <c r="B49" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="73"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="73"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="75"/>
+      <c r="H49" s="76"/>
       <c r="I49" s="18"/>
-      <c r="J49" s="18" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J49" s="18"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
@@ -9607,18 +9778,29 @@
       <c r="BN49" s="5"/>
     </row>
     <row r="50" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="81"/>
-      <c r="B50" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" s="73"/>
-      <c r="D50" s="73"/>
-      <c r="E50" s="73"/>
-      <c r="F50" s="74"/>
-      <c r="G50" s="75"/>
-      <c r="H50" s="76"/>
+      <c r="A50" s="105">
+        <v>18</v>
+      </c>
+      <c r="B50" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="57">
+        <v>0</v>
+      </c>
+      <c r="G50" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
+      <c r="J50" s="18" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
@@ -9677,28 +9859,20 @@
       <c r="BN50" s="5"/>
     </row>
     <row r="51" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="95">
-        <v>20</v>
-      </c>
-      <c r="B51" s="80" t="s">
-        <v>63</v>
-      </c>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="57">
-        <v>0</v>
-      </c>
-      <c r="G51" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" s="58" t="s">
-        <v>12</v>
-      </c>
+      <c r="A51" s="93"/>
+      <c r="B51" s="99" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="73"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="75"/>
+      <c r="H51" s="76"/>
       <c r="I51" s="18"/>
-      <c r="J51" s="18" t="e">
+      <c r="J51" s="18" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
@@ -9758,18 +9932,29 @@
       <c r="BN51" s="5"/>
     </row>
     <row r="52" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="93"/>
-      <c r="B52" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52" s="77"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="78"/>
-      <c r="G52" s="79"/>
-      <c r="H52" s="79"/>
+      <c r="A52" s="105">
+        <v>19</v>
+      </c>
+      <c r="B52" s="100" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="56"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="57">
+        <v>0</v>
+      </c>
+      <c r="G52" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
+      <c r="J52" s="18" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
@@ -9828,24 +10013,16 @@
       <c r="BN52" s="5"/>
     </row>
     <row r="53" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="95">
-        <v>21</v>
-      </c>
-      <c r="B53" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53" s="56"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="57">
-        <v>0</v>
-      </c>
-      <c r="G53" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" s="58" t="s">
-        <v>12</v>
-      </c>
+      <c r="A53" s="81"/>
+      <c r="B53" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="73"/>
+      <c r="D53" s="73"/>
+      <c r="E53" s="73"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="75"/>
+      <c r="H53" s="76"/>
       <c r="I53" s="18"/>
       <c r="J53" s="18"/>
       <c r="K53" s="5"/>
@@ -9906,11 +10083,11 @@
       <c r="BN53" s="5"/>
     </row>
     <row r="54" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="95">
-        <v>22</v>
+      <c r="A54" s="105">
+        <v>20</v>
       </c>
       <c r="B54" s="80" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C54" s="56"/>
       <c r="D54" s="56"/>
@@ -9925,7 +10102,10 @@
         <v>12</v>
       </c>
       <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
+      <c r="J54" s="18" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
@@ -9984,11 +10164,9 @@
       <c r="BN54" s="5"/>
     </row>
     <row r="55" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="95">
-        <v>23</v>
-      </c>
-      <c r="B55" s="80" t="s">
-        <v>64</v>
+      <c r="A55" s="93"/>
+      <c r="B55" s="82" t="s">
+        <v>53</v>
       </c>
       <c r="C55" s="77"/>
       <c r="D55" s="77"/>
@@ -10056,11 +10234,11 @@
       <c r="BN55" s="5"/>
     </row>
     <row r="56" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="95">
-        <v>24</v>
+      <c r="A56" s="105">
+        <v>21</v>
       </c>
       <c r="B56" s="80" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C56" s="56"/>
       <c r="D56" s="56"/>
@@ -10134,11 +10312,11 @@
       <c r="BN56" s="5"/>
     </row>
     <row r="57" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="95">
-        <v>25</v>
+      <c r="A57" s="105">
+        <v>22</v>
       </c>
       <c r="B57" s="80" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C57" s="56"/>
       <c r="D57" s="56"/>
@@ -10213,23 +10391,17 @@
     </row>
     <row r="58" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="95">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B58" s="80" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" s="56"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="57">
-        <v>0</v>
-      </c>
-      <c r="G58" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="H58" s="58" t="s">
-        <v>12</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C58" s="77"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="77"/>
+      <c r="F58" s="78"/>
+      <c r="G58" s="79"/>
+      <c r="H58" s="79"/>
       <c r="I58" s="18"/>
       <c r="J58" s="18"/>
       <c r="K58" s="5"/>
@@ -10291,10 +10463,10 @@
     </row>
     <row r="59" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="95">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B59" s="80" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59" s="56"/>
       <c r="D59" s="56"/>
@@ -10369,10 +10541,10 @@
     </row>
     <row r="60" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="95">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B60" s="80" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C60" s="56"/>
       <c r="D60" s="56"/>
@@ -10447,10 +10619,10 @@
     </row>
     <row r="61" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="95">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B61" s="80" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C61" s="56"/>
       <c r="D61" s="56"/>
@@ -10525,10 +10697,10 @@
     </row>
     <row r="62" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="95">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B62" s="80" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C62" s="56"/>
       <c r="D62" s="56"/>
@@ -10603,10 +10775,10 @@
     </row>
     <row r="63" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="95">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B63" s="80" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C63" s="56"/>
       <c r="D63" s="56"/>
@@ -10681,10 +10853,10 @@
     </row>
     <row r="64" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="95">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B64" s="80" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="C64" s="56"/>
       <c r="D64" s="56"/>
@@ -10759,10 +10931,10 @@
     </row>
     <row r="65" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="95">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B65" s="80" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C65" s="56"/>
       <c r="D65" s="56"/>
@@ -10837,10 +11009,10 @@
     </row>
     <row r="66" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="95">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B66" s="80" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C66" s="56"/>
       <c r="D66" s="56"/>
@@ -10915,10 +11087,10 @@
     </row>
     <row r="67" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="95">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B67" s="80" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C67" s="56"/>
       <c r="D67" s="56"/>
@@ -10993,10 +11165,10 @@
     </row>
     <row r="68" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="95">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B68" s="80" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C68" s="56"/>
       <c r="D68" s="56"/>
@@ -11071,10 +11243,10 @@
     </row>
     <row r="69" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="95">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B69" s="80" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C69" s="56"/>
       <c r="D69" s="56"/>
@@ -11149,7 +11321,7 @@
     </row>
     <row r="70" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="95">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B70" s="80" t="s">
         <v>85</v>
@@ -11227,10 +11399,10 @@
     </row>
     <row r="71" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="95">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B71" s="80" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C71" s="56"/>
       <c r="D71" s="56"/>
@@ -11305,17 +11477,23 @@
     </row>
     <row r="72" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="95">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B72" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="C72" s="77"/>
-      <c r="D72" s="77"/>
-      <c r="E72" s="77"/>
-      <c r="F72" s="78"/>
-      <c r="G72" s="79"/>
-      <c r="H72" s="79"/>
+        <v>82</v>
+      </c>
+      <c r="C72" s="56"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="57">
+        <v>0</v>
+      </c>
+      <c r="G72" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="I72" s="18"/>
       <c r="J72" s="18"/>
       <c r="K72" s="5"/>
@@ -11377,10 +11555,10 @@
     </row>
     <row r="73" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="95">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B73" s="80" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C73" s="56"/>
       <c r="D73" s="56"/>
@@ -11455,10 +11633,10 @@
     </row>
     <row r="74" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="95">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B74" s="80" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C74" s="56"/>
       <c r="D74" s="56"/>
@@ -11533,10 +11711,10 @@
     </row>
     <row r="75" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="95">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B75" s="80" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C75" s="77"/>
       <c r="D75" s="77"/>
@@ -11605,10 +11783,10 @@
     </row>
     <row r="76" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="95">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B76" s="80" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C76" s="56"/>
       <c r="D76" s="56"/>
@@ -11682,21 +11860,26 @@
       <c r="BN76" s="5"/>
     </row>
     <row r="77" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="96"/>
-      <c r="B77" s="96" t="s">
-        <v>38</v>
-      </c>
-      <c r="C77" s="62"/>
-      <c r="D77" s="62"/>
-      <c r="E77" s="62"/>
-      <c r="F77" s="63"/>
-      <c r="G77" s="64"/>
-      <c r="H77" s="65"/>
+      <c r="A77" s="95">
+        <v>42</v>
+      </c>
+      <c r="B77" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="C77" s="56"/>
+      <c r="D77" s="56"/>
+      <c r="E77" s="56"/>
+      <c r="F77" s="57">
+        <v>0</v>
+      </c>
+      <c r="G77" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="I77" s="18"/>
-      <c r="J77" s="18" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="J77" s="18"/>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
@@ -11754,255 +11937,235 @@
       <c r="BM77" s="5"/>
       <c r="BN77" s="5"/>
     </row>
-    <row r="78" spans="1:66" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="97">
-        <v>45</v>
-      </c>
-      <c r="B78" s="97" t="s">
-        <v>90</v>
-      </c>
-      <c r="C78" s="66"/>
-      <c r="D78" s="66"/>
-      <c r="E78" s="66"/>
-      <c r="F78" s="67">
+    <row r="78" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="95">
+        <v>43</v>
+      </c>
+      <c r="B78" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="C78" s="77"/>
+      <c r="D78" s="77"/>
+      <c r="E78" s="77"/>
+      <c r="F78" s="78"/>
+      <c r="G78" s="79"/>
+      <c r="H78" s="79"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="5"/>
+      <c r="S78" s="5"/>
+      <c r="T78" s="5"/>
+      <c r="U78" s="5"/>
+      <c r="V78" s="5"/>
+      <c r="W78" s="5"/>
+      <c r="X78" s="5"/>
+      <c r="Y78" s="5"/>
+      <c r="Z78" s="5"/>
+      <c r="AA78" s="5"/>
+      <c r="AB78" s="5"/>
+      <c r="AC78" s="5"/>
+      <c r="AD78" s="5"/>
+      <c r="AE78" s="5"/>
+      <c r="AF78" s="5"/>
+      <c r="AG78" s="5"/>
+      <c r="AH78" s="5"/>
+      <c r="AI78" s="5"/>
+      <c r="AJ78" s="5"/>
+      <c r="AK78" s="5"/>
+      <c r="AL78" s="5"/>
+      <c r="AM78" s="5"/>
+      <c r="AN78" s="5"/>
+      <c r="AO78" s="5"/>
+      <c r="AP78" s="5"/>
+      <c r="AQ78" s="5"/>
+      <c r="AR78" s="5"/>
+      <c r="AS78" s="5"/>
+      <c r="AT78" s="5"/>
+      <c r="AU78" s="5"/>
+      <c r="AV78" s="5"/>
+      <c r="AW78" s="5"/>
+      <c r="AX78" s="5"/>
+      <c r="AY78" s="5"/>
+      <c r="AZ78" s="5"/>
+      <c r="BA78" s="5"/>
+      <c r="BB78" s="5"/>
+      <c r="BC78" s="5"/>
+      <c r="BD78" s="5"/>
+      <c r="BE78" s="5"/>
+      <c r="BF78" s="5"/>
+      <c r="BG78" s="5"/>
+      <c r="BH78" s="5"/>
+      <c r="BI78" s="5"/>
+      <c r="BJ78" s="5"/>
+      <c r="BK78" s="5"/>
+      <c r="BL78" s="5"/>
+      <c r="BM78" s="5"/>
+      <c r="BN78" s="5"/>
+    </row>
+    <row r="79" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="95">
+        <v>44</v>
+      </c>
+      <c r="B79" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="C79" s="56"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="56"/>
+      <c r="F79" s="57">
         <v>0</v>
       </c>
-      <c r="G78" s="68" t="s">
+      <c r="G79" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H78" s="68" t="s">
+      <c r="H79" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="I78" s="69"/>
-      <c r="J78" s="69" t="e">
+      <c r="I79" s="18"/>
+      <c r="J79" s="18"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5"/>
+      <c r="Q79" s="5"/>
+      <c r="R79" s="5"/>
+      <c r="S79" s="5"/>
+      <c r="T79" s="5"/>
+      <c r="U79" s="5"/>
+      <c r="V79" s="5"/>
+      <c r="W79" s="5"/>
+      <c r="X79" s="5"/>
+      <c r="Y79" s="5"/>
+      <c r="Z79" s="5"/>
+      <c r="AA79" s="5"/>
+      <c r="AB79" s="5"/>
+      <c r="AC79" s="5"/>
+      <c r="AD79" s="5"/>
+      <c r="AE79" s="5"/>
+      <c r="AF79" s="5"/>
+      <c r="AG79" s="5"/>
+      <c r="AH79" s="5"/>
+      <c r="AI79" s="5"/>
+      <c r="AJ79" s="5"/>
+      <c r="AK79" s="5"/>
+      <c r="AL79" s="5"/>
+      <c r="AM79" s="5"/>
+      <c r="AN79" s="5"/>
+      <c r="AO79" s="5"/>
+      <c r="AP79" s="5"/>
+      <c r="AQ79" s="5"/>
+      <c r="AR79" s="5"/>
+      <c r="AS79" s="5"/>
+      <c r="AT79" s="5"/>
+      <c r="AU79" s="5"/>
+      <c r="AV79" s="5"/>
+      <c r="AW79" s="5"/>
+      <c r="AX79" s="5"/>
+      <c r="AY79" s="5"/>
+      <c r="AZ79" s="5"/>
+      <c r="BA79" s="5"/>
+      <c r="BB79" s="5"/>
+      <c r="BC79" s="5"/>
+      <c r="BD79" s="5"/>
+      <c r="BE79" s="5"/>
+      <c r="BF79" s="5"/>
+      <c r="BG79" s="5"/>
+      <c r="BH79" s="5"/>
+      <c r="BI79" s="5"/>
+      <c r="BJ79" s="5"/>
+      <c r="BK79" s="5"/>
+      <c r="BL79" s="5"/>
+      <c r="BM79" s="5"/>
+      <c r="BN79" s="5"/>
+    </row>
+    <row r="80" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="96"/>
+      <c r="B80" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="C80" s="62"/>
+      <c r="D80" s="62"/>
+      <c r="E80" s="62"/>
+      <c r="F80" s="63"/>
+      <c r="G80" s="64"/>
+      <c r="H80" s="65"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="18" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K78" s="70"/>
-      <c r="L78" s="70"/>
-      <c r="M78" s="70"/>
-      <c r="N78" s="70"/>
-      <c r="O78" s="70"/>
-      <c r="P78" s="70"/>
-      <c r="Q78" s="70"/>
-      <c r="R78" s="70"/>
-      <c r="S78" s="70"/>
-      <c r="T78" s="70"/>
-      <c r="U78" s="70"/>
-      <c r="V78" s="70"/>
-      <c r="W78" s="70"/>
-      <c r="X78" s="70"/>
-      <c r="Y78" s="70"/>
-      <c r="Z78" s="70"/>
-      <c r="AA78" s="70"/>
-      <c r="AB78" s="70"/>
-      <c r="AC78" s="70"/>
-      <c r="AD78" s="70"/>
-      <c r="AE78" s="70"/>
-      <c r="AF78" s="70"/>
-      <c r="AG78" s="70"/>
-      <c r="AH78" s="70"/>
-      <c r="AI78" s="70"/>
-      <c r="AJ78" s="70"/>
-      <c r="AK78" s="70"/>
-      <c r="AL78" s="70"/>
-      <c r="AM78" s="70"/>
-      <c r="AN78" s="70"/>
-      <c r="AO78" s="70"/>
-      <c r="AP78" s="70"/>
-      <c r="AQ78" s="70"/>
-      <c r="AR78" s="70"/>
-      <c r="AS78" s="70"/>
-      <c r="AT78" s="70"/>
-      <c r="AU78" s="70"/>
-      <c r="AV78" s="70"/>
-      <c r="AW78" s="70"/>
-      <c r="AX78" s="70"/>
-      <c r="AY78" s="70"/>
-      <c r="AZ78" s="70"/>
-      <c r="BA78" s="70"/>
-      <c r="BB78" s="70"/>
-      <c r="BC78" s="70"/>
-      <c r="BD78" s="70"/>
-      <c r="BE78" s="70"/>
-      <c r="BF78" s="70"/>
-      <c r="BG78" s="70"/>
-      <c r="BH78" s="70"/>
-      <c r="BI78" s="70"/>
-      <c r="BJ78" s="70"/>
-      <c r="BK78" s="70"/>
-      <c r="BL78" s="70"/>
-      <c r="BM78" s="70"/>
-      <c r="BN78" s="70"/>
-    </row>
-    <row r="79" spans="1:66" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="97">
-        <v>45</v>
-      </c>
-      <c r="B79" s="97" t="s">
-        <v>88</v>
-      </c>
-      <c r="C79" s="66"/>
-      <c r="D79" s="66"/>
-      <c r="E79" s="66"/>
-      <c r="F79" s="67">
-        <v>0</v>
-      </c>
-      <c r="G79" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="H79" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="I79" s="69"/>
-      <c r="J79" s="69" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K79" s="70"/>
-      <c r="L79" s="70"/>
-      <c r="M79" s="70"/>
-      <c r="N79" s="70"/>
-      <c r="O79" s="70"/>
-      <c r="P79" s="70"/>
-      <c r="Q79" s="70"/>
-      <c r="R79" s="70"/>
-      <c r="S79" s="70"/>
-      <c r="T79" s="70"/>
-      <c r="U79" s="70"/>
-      <c r="V79" s="70"/>
-      <c r="W79" s="70"/>
-      <c r="X79" s="70"/>
-      <c r="Y79" s="70"/>
-      <c r="Z79" s="70"/>
-      <c r="AA79" s="70"/>
-      <c r="AB79" s="70"/>
-      <c r="AC79" s="70"/>
-      <c r="AD79" s="70"/>
-      <c r="AE79" s="70"/>
-      <c r="AF79" s="70"/>
-      <c r="AG79" s="70"/>
-      <c r="AH79" s="70"/>
-      <c r="AI79" s="70"/>
-      <c r="AJ79" s="70"/>
-      <c r="AK79" s="70"/>
-      <c r="AL79" s="70"/>
-      <c r="AM79" s="70"/>
-      <c r="AN79" s="70"/>
-      <c r="AO79" s="70"/>
-      <c r="AP79" s="70"/>
-      <c r="AQ79" s="70"/>
-      <c r="AR79" s="70"/>
-      <c r="AS79" s="70"/>
-      <c r="AT79" s="70"/>
-      <c r="AU79" s="70"/>
-      <c r="AV79" s="70"/>
-      <c r="AW79" s="70"/>
-      <c r="AX79" s="70"/>
-      <c r="AY79" s="70"/>
-      <c r="AZ79" s="70"/>
-      <c r="BA79" s="70"/>
-      <c r="BB79" s="70"/>
-      <c r="BC79" s="70"/>
-      <c r="BD79" s="70"/>
-      <c r="BE79" s="70"/>
-      <c r="BF79" s="70"/>
-      <c r="BG79" s="70"/>
-      <c r="BH79" s="70"/>
-      <c r="BI79" s="70"/>
-      <c r="BJ79" s="70"/>
-      <c r="BK79" s="70"/>
-      <c r="BL79" s="70"/>
-      <c r="BM79" s="70"/>
-      <c r="BN79" s="70"/>
-    </row>
-    <row r="80" spans="1:66" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="97">
-        <v>45</v>
-      </c>
-      <c r="B80" s="97" t="s">
-        <v>91</v>
-      </c>
-      <c r="C80" s="66"/>
-      <c r="D80" s="66"/>
-      <c r="E80" s="66"/>
-      <c r="F80" s="67">
-        <v>0</v>
-      </c>
-      <c r="G80" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="H80" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="I80" s="69"/>
-      <c r="J80" s="69" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K80" s="70"/>
-      <c r="L80" s="70"/>
-      <c r="M80" s="70"/>
-      <c r="N80" s="70"/>
-      <c r="O80" s="70"/>
-      <c r="P80" s="70"/>
-      <c r="Q80" s="70"/>
-      <c r="R80" s="70"/>
-      <c r="S80" s="70"/>
-      <c r="T80" s="70"/>
-      <c r="U80" s="70"/>
-      <c r="V80" s="70"/>
-      <c r="W80" s="70"/>
-      <c r="X80" s="70"/>
-      <c r="Y80" s="70"/>
-      <c r="Z80" s="70"/>
-      <c r="AA80" s="70"/>
-      <c r="AB80" s="70"/>
-      <c r="AC80" s="70"/>
-      <c r="AD80" s="70"/>
-      <c r="AE80" s="70"/>
-      <c r="AF80" s="70"/>
-      <c r="AG80" s="70"/>
-      <c r="AH80" s="70"/>
-      <c r="AI80" s="70"/>
-      <c r="AJ80" s="70"/>
-      <c r="AK80" s="70"/>
-      <c r="AL80" s="70"/>
-      <c r="AM80" s="70"/>
-      <c r="AN80" s="70"/>
-      <c r="AO80" s="70"/>
-      <c r="AP80" s="70"/>
-      <c r="AQ80" s="70"/>
-      <c r="AR80" s="70"/>
-      <c r="AS80" s="70"/>
-      <c r="AT80" s="70"/>
-      <c r="AU80" s="70"/>
-      <c r="AV80" s="70"/>
-      <c r="AW80" s="70"/>
-      <c r="AX80" s="70"/>
-      <c r="AY80" s="70"/>
-      <c r="AZ80" s="70"/>
-      <c r="BA80" s="70"/>
-      <c r="BB80" s="70"/>
-      <c r="BC80" s="70"/>
-      <c r="BD80" s="70"/>
-      <c r="BE80" s="70"/>
-      <c r="BF80" s="70"/>
-      <c r="BG80" s="70"/>
-      <c r="BH80" s="70"/>
-      <c r="BI80" s="70"/>
-      <c r="BJ80" s="70"/>
-      <c r="BK80" s="70"/>
-      <c r="BL80" s="70"/>
-      <c r="BM80" s="70"/>
-      <c r="BN80" s="70"/>
+        <v/>
+      </c>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="5"/>
+      <c r="S80" s="5"/>
+      <c r="T80" s="5"/>
+      <c r="U80" s="5"/>
+      <c r="V80" s="5"/>
+      <c r="W80" s="5"/>
+      <c r="X80" s="5"/>
+      <c r="Y80" s="5"/>
+      <c r="Z80" s="5"/>
+      <c r="AA80" s="5"/>
+      <c r="AB80" s="5"/>
+      <c r="AC80" s="5"/>
+      <c r="AD80" s="5"/>
+      <c r="AE80" s="5"/>
+      <c r="AF80" s="5"/>
+      <c r="AG80" s="5"/>
+      <c r="AH80" s="5"/>
+      <c r="AI80" s="5"/>
+      <c r="AJ80" s="5"/>
+      <c r="AK80" s="5"/>
+      <c r="AL80" s="5"/>
+      <c r="AM80" s="5"/>
+      <c r="AN80" s="5"/>
+      <c r="AO80" s="5"/>
+      <c r="AP80" s="5"/>
+      <c r="AQ80" s="5"/>
+      <c r="AR80" s="5"/>
+      <c r="AS80" s="5"/>
+      <c r="AT80" s="5"/>
+      <c r="AU80" s="5"/>
+      <c r="AV80" s="5"/>
+      <c r="AW80" s="5"/>
+      <c r="AX80" s="5"/>
+      <c r="AY80" s="5"/>
+      <c r="AZ80" s="5"/>
+      <c r="BA80" s="5"/>
+      <c r="BB80" s="5"/>
+      <c r="BC80" s="5"/>
+      <c r="BD80" s="5"/>
+      <c r="BE80" s="5"/>
+      <c r="BF80" s="5"/>
+      <c r="BG80" s="5"/>
+      <c r="BH80" s="5"/>
+      <c r="BI80" s="5"/>
+      <c r="BJ80" s="5"/>
+      <c r="BK80" s="5"/>
+      <c r="BL80" s="5"/>
+      <c r="BM80" s="5"/>
+      <c r="BN80" s="5"/>
     </row>
     <row r="81" spans="1:66" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="97">
         <v>45</v>
       </c>
       <c r="B81" s="97" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C81" s="66"/>
       <c r="D81" s="66"/>
@@ -12083,7 +12246,7 @@
         <v>45</v>
       </c>
       <c r="B82" s="97" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C82" s="66"/>
       <c r="D82" s="66"/>
@@ -12164,7 +12327,7 @@
         <v>45</v>
       </c>
       <c r="B83" s="97" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C83" s="66"/>
       <c r="D83" s="66"/>
@@ -12245,7 +12408,7 @@
         <v>45</v>
       </c>
       <c r="B84" s="97" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C84" s="66"/>
       <c r="D84" s="66"/>
@@ -12326,7 +12489,7 @@
         <v>45</v>
       </c>
       <c r="B85" s="97" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C85" s="66"/>
       <c r="D85" s="66"/>
@@ -12404,19 +12567,28 @@
     </row>
     <row r="86" spans="1:66" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="97">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B86" s="97" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="C86" s="66"/>
       <c r="D86" s="66"/>
       <c r="E86" s="66"/>
-      <c r="F86" s="67"/>
-      <c r="G86" s="68"/>
-      <c r="H86" s="68"/>
+      <c r="F86" s="67">
+        <v>0</v>
+      </c>
+      <c r="G86" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" s="68" t="s">
+        <v>12</v>
+      </c>
       <c r="I86" s="69"/>
-      <c r="J86" s="69"/>
+      <c r="J86" s="69" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="K86" s="70"/>
       <c r="L86" s="70"/>
       <c r="M86" s="70"/>
@@ -12476,10 +12648,10 @@
     </row>
     <row r="87" spans="1:66" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="97">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B87" s="97" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C87" s="66"/>
       <c r="D87" s="66"/>
@@ -12557,10 +12729,10 @@
     </row>
     <row r="88" spans="1:66" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="97">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B88" s="97" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C88" s="66"/>
       <c r="D88" s="66"/>
@@ -12636,269 +12808,275 @@
       <c r="BM88" s="70"/>
       <c r="BN88" s="70"/>
     </row>
-    <row r="89" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="B89" s="109"/>
-      <c r="C89" s="110">
-        <f>SUM(C9:C85)</f>
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D89" s="110">
-        <f>SUM(D9:D85)</f>
-        <v>7.2222222222222229E-2</v>
-      </c>
-      <c r="E89" s="110">
-        <f>SUM(E9:E85)</f>
-        <v>1.2166666666666668</v>
-      </c>
-      <c r="F89" s="61">
-        <f>AVERAGE(F9:F85)</f>
-        <v>0.19298245614035092</v>
-      </c>
-      <c r="G89" s="61">
-        <v>0.03</v>
-      </c>
-      <c r="H89" s="61" t="s">
-        <v>120</v>
-      </c>
-      <c r="I89" s="18"/>
-      <c r="J89" s="18" t="e">
+    <row r="89" spans="1:66" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="97">
+        <v>55</v>
+      </c>
+      <c r="B89" s="97" t="s">
+        <v>123</v>
+      </c>
+      <c r="C89" s="66"/>
+      <c r="D89" s="66"/>
+      <c r="E89" s="66"/>
+      <c r="F89" s="67"/>
+      <c r="G89" s="68"/>
+      <c r="H89" s="68"/>
+      <c r="I89" s="69"/>
+      <c r="J89" s="69"/>
+      <c r="K89" s="70"/>
+      <c r="L89" s="70"/>
+      <c r="M89" s="70"/>
+      <c r="N89" s="70"/>
+      <c r="O89" s="70"/>
+      <c r="P89" s="70"/>
+      <c r="Q89" s="70"/>
+      <c r="R89" s="70"/>
+      <c r="S89" s="70"/>
+      <c r="T89" s="70"/>
+      <c r="U89" s="70"/>
+      <c r="V89" s="70"/>
+      <c r="W89" s="70"/>
+      <c r="X89" s="70"/>
+      <c r="Y89" s="70"/>
+      <c r="Z89" s="70"/>
+      <c r="AA89" s="70"/>
+      <c r="AB89" s="70"/>
+      <c r="AC89" s="70"/>
+      <c r="AD89" s="70"/>
+      <c r="AE89" s="70"/>
+      <c r="AF89" s="70"/>
+      <c r="AG89" s="70"/>
+      <c r="AH89" s="70"/>
+      <c r="AI89" s="70"/>
+      <c r="AJ89" s="70"/>
+      <c r="AK89" s="70"/>
+      <c r="AL89" s="70"/>
+      <c r="AM89" s="70"/>
+      <c r="AN89" s="70"/>
+      <c r="AO89" s="70"/>
+      <c r="AP89" s="70"/>
+      <c r="AQ89" s="70"/>
+      <c r="AR89" s="70"/>
+      <c r="AS89" s="70"/>
+      <c r="AT89" s="70"/>
+      <c r="AU89" s="70"/>
+      <c r="AV89" s="70"/>
+      <c r="AW89" s="70"/>
+      <c r="AX89" s="70"/>
+      <c r="AY89" s="70"/>
+      <c r="AZ89" s="70"/>
+      <c r="BA89" s="70"/>
+      <c r="BB89" s="70"/>
+      <c r="BC89" s="70"/>
+      <c r="BD89" s="70"/>
+      <c r="BE89" s="70"/>
+      <c r="BF89" s="70"/>
+      <c r="BG89" s="70"/>
+      <c r="BH89" s="70"/>
+      <c r="BI89" s="70"/>
+      <c r="BJ89" s="70"/>
+      <c r="BK89" s="70"/>
+      <c r="BL89" s="70"/>
+      <c r="BM89" s="70"/>
+      <c r="BN89" s="70"/>
+    </row>
+    <row r="90" spans="1:66" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="97">
+        <v>56</v>
+      </c>
+      <c r="B90" s="97" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90" s="66"/>
+      <c r="D90" s="66"/>
+      <c r="E90" s="66"/>
+      <c r="F90" s="67">
+        <v>0</v>
+      </c>
+      <c r="G90" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90" s="69"/>
+      <c r="J90" s="69" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K89" s="5"/>
-      <c r="L89" s="5"/>
-      <c r="M89" s="70"/>
-      <c r="N89" s="5"/>
-      <c r="O89" s="5"/>
-      <c r="P89" s="5"/>
-      <c r="Q89" s="5"/>
-      <c r="R89" s="5"/>
-      <c r="S89" s="5"/>
-      <c r="T89" s="5"/>
-      <c r="U89" s="5"/>
-      <c r="V89" s="5"/>
-      <c r="W89" s="5"/>
-      <c r="X89" s="5"/>
-      <c r="Y89" s="5"/>
-      <c r="Z89" s="5"/>
-      <c r="AA89" s="5"/>
-      <c r="AB89" s="5"/>
-      <c r="AC89" s="5"/>
-      <c r="AD89" s="5"/>
-      <c r="AE89" s="5"/>
-      <c r="AF89" s="5"/>
-      <c r="AG89" s="5"/>
-      <c r="AH89" s="5"/>
-      <c r="AI89" s="5"/>
-      <c r="AJ89" s="5"/>
-      <c r="AK89" s="5"/>
-      <c r="AL89" s="5"/>
-      <c r="AM89" s="5"/>
-      <c r="AN89" s="5"/>
-      <c r="AO89" s="5"/>
-      <c r="AP89" s="5"/>
-      <c r="AQ89" s="5"/>
-      <c r="AR89" s="5"/>
-      <c r="AS89" s="5"/>
-      <c r="AT89" s="5"/>
-      <c r="AU89" s="5"/>
-      <c r="AV89" s="5"/>
-      <c r="AW89" s="5"/>
-      <c r="AX89" s="5"/>
-      <c r="AY89" s="5"/>
-      <c r="AZ89" s="5"/>
-      <c r="BA89" s="5"/>
-      <c r="BB89" s="5"/>
-      <c r="BC89" s="5"/>
-      <c r="BD89" s="5"/>
-      <c r="BE89" s="5"/>
-      <c r="BF89" s="5"/>
-      <c r="BG89" s="5"/>
-      <c r="BH89" s="5"/>
-      <c r="BI89" s="5"/>
-      <c r="BJ89" s="5"/>
-      <c r="BK89" s="5"/>
-      <c r="BL89" s="5"/>
-      <c r="BM89" s="5"/>
-      <c r="BN89" s="5"/>
+      <c r="K90" s="70"/>
+      <c r="L90" s="70"/>
+      <c r="M90" s="70"/>
+      <c r="N90" s="70"/>
+      <c r="O90" s="70"/>
+      <c r="P90" s="70"/>
+      <c r="Q90" s="70"/>
+      <c r="R90" s="70"/>
+      <c r="S90" s="70"/>
+      <c r="T90" s="70"/>
+      <c r="U90" s="70"/>
+      <c r="V90" s="70"/>
+      <c r="W90" s="70"/>
+      <c r="X90" s="70"/>
+      <c r="Y90" s="70"/>
+      <c r="Z90" s="70"/>
+      <c r="AA90" s="70"/>
+      <c r="AB90" s="70"/>
+      <c r="AC90" s="70"/>
+      <c r="AD90" s="70"/>
+      <c r="AE90" s="70"/>
+      <c r="AF90" s="70"/>
+      <c r="AG90" s="70"/>
+      <c r="AH90" s="70"/>
+      <c r="AI90" s="70"/>
+      <c r="AJ90" s="70"/>
+      <c r="AK90" s="70"/>
+      <c r="AL90" s="70"/>
+      <c r="AM90" s="70"/>
+      <c r="AN90" s="70"/>
+      <c r="AO90" s="70"/>
+      <c r="AP90" s="70"/>
+      <c r="AQ90" s="70"/>
+      <c r="AR90" s="70"/>
+      <c r="AS90" s="70"/>
+      <c r="AT90" s="70"/>
+      <c r="AU90" s="70"/>
+      <c r="AV90" s="70"/>
+      <c r="AW90" s="70"/>
+      <c r="AX90" s="70"/>
+      <c r="AY90" s="70"/>
+      <c r="AZ90" s="70"/>
+      <c r="BA90" s="70"/>
+      <c r="BB90" s="70"/>
+      <c r="BC90" s="70"/>
+      <c r="BD90" s="70"/>
+      <c r="BE90" s="70"/>
+      <c r="BF90" s="70"/>
+      <c r="BG90" s="70"/>
+      <c r="BH90" s="70"/>
+      <c r="BI90" s="70"/>
+      <c r="BJ90" s="70"/>
+      <c r="BK90" s="70"/>
+      <c r="BL90" s="70"/>
+      <c r="BM90" s="70"/>
+      <c r="BN90" s="70"/>
     </row>
-    <row r="90" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="104"/>
-      <c r="B90" s="130"/>
-      <c r="C90" s="111" t="s">
-        <v>124</v>
-      </c>
-      <c r="D90" s="111" t="s">
-        <v>127</v>
-      </c>
-      <c r="E90" s="111" t="s">
-        <v>101</v>
-      </c>
-      <c r="F90" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="G90" s="61" t="s">
-        <v>103</v>
-      </c>
-      <c r="H90" s="112" t="s">
-        <v>104</v>
-      </c>
-      <c r="I90" s="18"/>
-      <c r="J90" s="18"/>
-      <c r="K90" s="5"/>
-      <c r="L90" s="5"/>
-      <c r="M90" s="5"/>
-      <c r="N90" s="5"/>
-      <c r="O90" s="5"/>
-      <c r="P90" s="5"/>
-      <c r="Q90" s="5"/>
-      <c r="R90" s="5"/>
-      <c r="S90" s="5"/>
-      <c r="T90" s="5"/>
-      <c r="U90" s="5"/>
-      <c r="V90" s="5"/>
-      <c r="W90" s="5"/>
-      <c r="X90" s="5"/>
-      <c r="Y90" s="5"/>
-      <c r="Z90" s="5"/>
-      <c r="AA90" s="5"/>
-      <c r="AB90" s="5"/>
-      <c r="AC90" s="5"/>
-      <c r="AD90" s="5"/>
-      <c r="AE90" s="5"/>
-      <c r="AF90" s="5"/>
-      <c r="AG90" s="5"/>
-      <c r="AH90" s="5"/>
-      <c r="AI90" s="5"/>
-      <c r="AJ90" s="5"/>
-      <c r="AK90" s="5"/>
-      <c r="AL90" s="5"/>
-      <c r="AM90" s="5"/>
-      <c r="AN90" s="5"/>
-      <c r="AO90" s="5"/>
-      <c r="AP90" s="5"/>
-      <c r="AQ90" s="5"/>
-      <c r="AR90" s="5"/>
-      <c r="AS90" s="5"/>
-      <c r="AT90" s="5"/>
-      <c r="AU90" s="5"/>
-      <c r="AV90" s="5"/>
-      <c r="AW90" s="5"/>
-      <c r="AX90" s="5"/>
-      <c r="AY90" s="5"/>
-      <c r="AZ90" s="5"/>
-      <c r="BA90" s="5"/>
-      <c r="BB90" s="5"/>
-      <c r="BC90" s="5"/>
-      <c r="BD90" s="5"/>
-      <c r="BE90" s="5"/>
-      <c r="BF90" s="5"/>
-      <c r="BG90" s="5"/>
-      <c r="BH90" s="5"/>
-      <c r="BI90" s="5"/>
-      <c r="BJ90" s="5"/>
-      <c r="BK90" s="5"/>
-      <c r="BL90" s="5"/>
-      <c r="BM90" s="5"/>
-      <c r="BN90" s="5"/>
-    </row>
-    <row r="91" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="104"/>
-      <c r="B91" s="129"/>
-      <c r="C91" s="112"/>
-      <c r="D91" s="132">
-        <v>7</v>
-      </c>
-      <c r="E91" s="112"/>
-      <c r="F91" s="61">
-        <v>0.18</v>
-      </c>
-      <c r="G91" s="114"/>
-      <c r="H91" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5"/>
-      <c r="K91" s="5"/>
-      <c r="L91" s="5"/>
-      <c r="M91" s="5"/>
-      <c r="N91" s="5"/>
-      <c r="O91" s="5"/>
-      <c r="P91" s="5"/>
-      <c r="Q91" s="5"/>
-      <c r="R91" s="5"/>
-      <c r="S91" s="5"/>
-      <c r="T91" s="5"/>
-      <c r="U91" s="5"/>
-      <c r="V91" s="5"/>
-      <c r="W91" s="5"/>
-      <c r="X91" s="5"/>
-      <c r="Y91" s="5"/>
-      <c r="Z91" s="5"/>
-      <c r="AA91" s="5"/>
-      <c r="AB91" s="5"/>
-      <c r="AC91" s="5"/>
-      <c r="AD91" s="5"/>
-      <c r="AE91" s="5"/>
-      <c r="AF91" s="5"/>
-      <c r="AG91" s="5"/>
-      <c r="AH91" s="5"/>
-      <c r="AI91" s="5"/>
-      <c r="AJ91" s="5"/>
-      <c r="AK91" s="5"/>
-      <c r="AL91" s="5"/>
-      <c r="AM91" s="5"/>
-      <c r="AN91" s="5"/>
-      <c r="AO91" s="5"/>
-      <c r="AP91" s="5"/>
-      <c r="AQ91" s="5"/>
-      <c r="AR91" s="5"/>
-      <c r="AS91" s="5"/>
-      <c r="AT91" s="5"/>
-      <c r="AU91" s="5"/>
-      <c r="AV91" s="5"/>
-      <c r="AW91" s="5"/>
-      <c r="AX91" s="5"/>
-      <c r="AY91" s="5"/>
-      <c r="AZ91" s="5"/>
-      <c r="BA91" s="5"/>
-      <c r="BB91" s="5"/>
-      <c r="BC91" s="5"/>
-      <c r="BD91" s="5"/>
-      <c r="BE91" s="5"/>
-      <c r="BF91" s="5"/>
-      <c r="BG91" s="5"/>
-      <c r="BH91" s="5"/>
-      <c r="BI91" s="5"/>
-      <c r="BJ91" s="5"/>
-      <c r="BK91" s="5"/>
-      <c r="BL91" s="5"/>
-      <c r="BM91" s="5"/>
-      <c r="BN91" s="5"/>
+    <row r="91" spans="1:66" s="71" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="97">
+        <v>57</v>
+      </c>
+      <c r="B91" s="97" t="s">
+        <v>95</v>
+      </c>
+      <c r="C91" s="66"/>
+      <c r="D91" s="66"/>
+      <c r="E91" s="66"/>
+      <c r="F91" s="67">
+        <v>0</v>
+      </c>
+      <c r="G91" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I91" s="69"/>
+      <c r="J91" s="69" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K91" s="70"/>
+      <c r="L91" s="70"/>
+      <c r="M91" s="70"/>
+      <c r="N91" s="70"/>
+      <c r="O91" s="70"/>
+      <c r="P91" s="70"/>
+      <c r="Q91" s="70"/>
+      <c r="R91" s="70"/>
+      <c r="S91" s="70"/>
+      <c r="T91" s="70"/>
+      <c r="U91" s="70"/>
+      <c r="V91" s="70"/>
+      <c r="W91" s="70"/>
+      <c r="X91" s="70"/>
+      <c r="Y91" s="70"/>
+      <c r="Z91" s="70"/>
+      <c r="AA91" s="70"/>
+      <c r="AB91" s="70"/>
+      <c r="AC91" s="70"/>
+      <c r="AD91" s="70"/>
+      <c r="AE91" s="70"/>
+      <c r="AF91" s="70"/>
+      <c r="AG91" s="70"/>
+      <c r="AH91" s="70"/>
+      <c r="AI91" s="70"/>
+      <c r="AJ91" s="70"/>
+      <c r="AK91" s="70"/>
+      <c r="AL91" s="70"/>
+      <c r="AM91" s="70"/>
+      <c r="AN91" s="70"/>
+      <c r="AO91" s="70"/>
+      <c r="AP91" s="70"/>
+      <c r="AQ91" s="70"/>
+      <c r="AR91" s="70"/>
+      <c r="AS91" s="70"/>
+      <c r="AT91" s="70"/>
+      <c r="AU91" s="70"/>
+      <c r="AV91" s="70"/>
+      <c r="AW91" s="70"/>
+      <c r="AX91" s="70"/>
+      <c r="AY91" s="70"/>
+      <c r="AZ91" s="70"/>
+      <c r="BA91" s="70"/>
+      <c r="BB91" s="70"/>
+      <c r="BC91" s="70"/>
+      <c r="BD91" s="70"/>
+      <c r="BE91" s="70"/>
+      <c r="BF91" s="70"/>
+      <c r="BG91" s="70"/>
+      <c r="BH91" s="70"/>
+      <c r="BI91" s="70"/>
+      <c r="BJ91" s="70"/>
+      <c r="BK91" s="70"/>
+      <c r="BL91" s="70"/>
+      <c r="BM91" s="70"/>
+      <c r="BN91" s="70"/>
     </row>
     <row r="92" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="104"/>
-      <c r="B92" s="131"/>
-      <c r="C92" s="113"/>
-      <c r="D92" s="113" t="s">
-        <v>128</v>
-      </c>
-      <c r="E92" s="113"/>
-      <c r="F92" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="G92" s="114"/>
-      <c r="H92" s="112" t="s">
-        <v>105</v>
-      </c>
-      <c r="I92" s="5"/>
-      <c r="J92" s="5"/>
+      <c r="A92" s="107" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" s="108"/>
+      <c r="C92" s="109">
+        <f>SUM(C9:C88)</f>
+        <v>1.125</v>
+      </c>
+      <c r="D92" s="109">
+        <f>SUM(D9:D88)</f>
+        <v>0.4680555555555555</v>
+      </c>
+      <c r="E92" s="109">
+        <f>SUM(E9:E88)</f>
+        <v>1.2166666666666668</v>
+      </c>
+      <c r="F92" s="61">
+        <f>AVERAGE(F9:F88)</f>
+        <v>0.28965517241379313</v>
+      </c>
+      <c r="G92" s="119">
+        <v>0.06</v>
+      </c>
+      <c r="H92" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="I92" s="18"/>
+      <c r="J92" s="18" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
-      <c r="M92" s="5"/>
+      <c r="M92" s="70"/>
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
       <c r="P92" s="5"/>
@@ -12954,102 +13132,339 @@
       <c r="BN92" s="5"/>
     </row>
     <row r="93" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="103" t="s">
+      <c r="A93" s="104"/>
+      <c r="B93" s="116"/>
+      <c r="C93" s="110" t="s">
+        <v>122</v>
+      </c>
+      <c r="D93" s="110" t="s">
+        <v>125</v>
+      </c>
+      <c r="E93" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="F93" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="G93" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="H93" s="111" t="s">
+        <v>104</v>
+      </c>
+      <c r="I93" s="18"/>
+      <c r="J93" s="18"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+      <c r="M93" s="5"/>
+      <c r="N93" s="5"/>
+      <c r="O93" s="5"/>
+      <c r="P93" s="5"/>
+      <c r="Q93" s="5"/>
+      <c r="R93" s="5"/>
+      <c r="S93" s="5"/>
+      <c r="T93" s="5"/>
+      <c r="U93" s="5"/>
+      <c r="V93" s="5"/>
+      <c r="W93" s="5"/>
+      <c r="X93" s="5"/>
+      <c r="Y93" s="5"/>
+      <c r="Z93" s="5"/>
+      <c r="AA93" s="5"/>
+      <c r="AB93" s="5"/>
+      <c r="AC93" s="5"/>
+      <c r="AD93" s="5"/>
+      <c r="AE93" s="5"/>
+      <c r="AF93" s="5"/>
+      <c r="AG93" s="5"/>
+      <c r="AH93" s="5"/>
+      <c r="AI93" s="5"/>
+      <c r="AJ93" s="5"/>
+      <c r="AK93" s="5"/>
+      <c r="AL93" s="5"/>
+      <c r="AM93" s="5"/>
+      <c r="AN93" s="5"/>
+      <c r="AO93" s="5"/>
+      <c r="AP93" s="5"/>
+      <c r="AQ93" s="5"/>
+      <c r="AR93" s="5"/>
+      <c r="AS93" s="5"/>
+      <c r="AT93" s="5"/>
+      <c r="AU93" s="5"/>
+      <c r="AV93" s="5"/>
+      <c r="AW93" s="5"/>
+      <c r="AX93" s="5"/>
+      <c r="AY93" s="5"/>
+      <c r="AZ93" s="5"/>
+      <c r="BA93" s="5"/>
+      <c r="BB93" s="5"/>
+      <c r="BC93" s="5"/>
+      <c r="BD93" s="5"/>
+      <c r="BE93" s="5"/>
+      <c r="BF93" s="5"/>
+      <c r="BG93" s="5"/>
+      <c r="BH93" s="5"/>
+      <c r="BI93" s="5"/>
+      <c r="BJ93" s="5"/>
+      <c r="BK93" s="5"/>
+      <c r="BL93" s="5"/>
+      <c r="BM93" s="5"/>
+      <c r="BN93" s="5"/>
+    </row>
+    <row r="94" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="104"/>
+      <c r="B94" s="115"/>
+      <c r="C94" s="111"/>
+      <c r="D94" s="118">
+        <v>8</v>
+      </c>
+      <c r="E94" s="111"/>
+      <c r="F94" s="119">
+        <v>0.24</v>
+      </c>
+      <c r="G94" s="113"/>
+      <c r="H94" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5"/>
+      <c r="O94" s="5"/>
+      <c r="P94" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q94" s="5"/>
+      <c r="R94" s="5"/>
+      <c r="S94" s="5"/>
+      <c r="T94" s="5"/>
+      <c r="U94" s="5"/>
+      <c r="V94" s="5"/>
+      <c r="W94" s="5"/>
+      <c r="X94" s="5"/>
+      <c r="Y94" s="5"/>
+      <c r="Z94" s="5"/>
+      <c r="AA94" s="5"/>
+      <c r="AB94" s="5"/>
+      <c r="AC94" s="5"/>
+      <c r="AD94" s="5"/>
+      <c r="AE94" s="5"/>
+      <c r="AF94" s="5"/>
+      <c r="AG94" s="5"/>
+      <c r="AH94" s="5"/>
+      <c r="AI94" s="5"/>
+      <c r="AJ94" s="5"/>
+      <c r="AK94" s="5"/>
+      <c r="AL94" s="5"/>
+      <c r="AM94" s="5"/>
+      <c r="AN94" s="5"/>
+      <c r="AO94" s="5"/>
+      <c r="AP94" s="5"/>
+      <c r="AQ94" s="5"/>
+      <c r="AR94" s="5"/>
+      <c r="AS94" s="5"/>
+      <c r="AT94" s="5"/>
+      <c r="AU94" s="5"/>
+      <c r="AV94" s="5"/>
+      <c r="AW94" s="5"/>
+      <c r="AX94" s="5"/>
+      <c r="AY94" s="5"/>
+      <c r="AZ94" s="5"/>
+      <c r="BA94" s="5"/>
+      <c r="BB94" s="5"/>
+      <c r="BC94" s="5"/>
+      <c r="BD94" s="5"/>
+      <c r="BE94" s="5"/>
+      <c r="BF94" s="5"/>
+      <c r="BG94" s="5"/>
+      <c r="BH94" s="5"/>
+      <c r="BI94" s="5"/>
+      <c r="BJ94" s="5"/>
+      <c r="BK94" s="5"/>
+      <c r="BL94" s="5"/>
+      <c r="BM94" s="5"/>
+      <c r="BN94" s="5"/>
+    </row>
+    <row r="95" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="104"/>
+      <c r="B95" s="117"/>
+      <c r="C95" s="112"/>
+      <c r="D95" s="112" t="s">
+        <v>126</v>
+      </c>
+      <c r="E95" s="112"/>
+      <c r="F95" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="G95" s="113"/>
+      <c r="H95" s="111" t="s">
+        <v>105</v>
+      </c>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="5"/>
+      <c r="Q95" s="5"/>
+      <c r="R95" s="5"/>
+      <c r="S95" s="5"/>
+      <c r="T95" s="5"/>
+      <c r="U95" s="5"/>
+      <c r="V95" s="5"/>
+      <c r="W95" s="5"/>
+      <c r="X95" s="5"/>
+      <c r="Y95" s="5"/>
+      <c r="Z95" s="5"/>
+      <c r="AA95" s="5"/>
+      <c r="AB95" s="5"/>
+      <c r="AC95" s="5"/>
+      <c r="AD95" s="5"/>
+      <c r="AE95" s="5"/>
+      <c r="AF95" s="5"/>
+      <c r="AG95" s="5"/>
+      <c r="AH95" s="5"/>
+      <c r="AI95" s="5"/>
+      <c r="AJ95" s="5"/>
+      <c r="AK95" s="5"/>
+      <c r="AL95" s="5"/>
+      <c r="AM95" s="5"/>
+      <c r="AN95" s="5"/>
+      <c r="AO95" s="5"/>
+      <c r="AP95" s="5"/>
+      <c r="AQ95" s="5"/>
+      <c r="AR95" s="5"/>
+      <c r="AS95" s="5"/>
+      <c r="AT95" s="5"/>
+      <c r="AU95" s="5"/>
+      <c r="AV95" s="5"/>
+      <c r="AW95" s="5"/>
+      <c r="AX95" s="5"/>
+      <c r="AY95" s="5"/>
+      <c r="AZ95" s="5"/>
+      <c r="BA95" s="5"/>
+      <c r="BB95" s="5"/>
+      <c r="BC95" s="5"/>
+      <c r="BD95" s="5"/>
+      <c r="BE95" s="5"/>
+      <c r="BF95" s="5"/>
+      <c r="BG95" s="5"/>
+      <c r="BH95" s="5"/>
+      <c r="BI95" s="5"/>
+      <c r="BJ95" s="5"/>
+      <c r="BK95" s="5"/>
+      <c r="BL95" s="5"/>
+      <c r="BM95" s="5"/>
+      <c r="BN95" s="5"/>
+    </row>
+    <row r="96" spans="1:66" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="B93" s="98" t="s">
+      <c r="B96" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="C93" s="38"/>
-      <c r="D93" s="38"/>
-      <c r="E93" s="38"/>
-      <c r="F93" s="60"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="19"/>
-      <c r="I93" s="20"/>
-      <c r="J93" s="20" t="str">
+      <c r="C96" s="38"/>
+      <c r="D96" s="38"/>
+      <c r="E96" s="38"/>
+      <c r="F96" s="60"/>
+      <c r="G96" s="37"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K93" s="7"/>
-      <c r="L93" s="7"/>
-      <c r="M93" s="7"/>
-      <c r="N93" s="7"/>
-      <c r="O93" s="7"/>
-      <c r="P93" s="7"/>
-      <c r="Q93" s="7"/>
-      <c r="R93" s="7"/>
-      <c r="S93" s="7"/>
-      <c r="T93" s="7"/>
-      <c r="U93" s="7"/>
-      <c r="V93" s="7"/>
-      <c r="W93" s="7"/>
-      <c r="X93" s="7"/>
-      <c r="Y93" s="7"/>
-      <c r="Z93" s="7"/>
-      <c r="AA93" s="7"/>
-      <c r="AB93" s="7"/>
-      <c r="AC93" s="7"/>
-      <c r="AD93" s="7"/>
-      <c r="AE93" s="7"/>
-      <c r="AF93" s="7"/>
-      <c r="AG93" s="7"/>
-      <c r="AH93" s="7"/>
-      <c r="AI93" s="7"/>
-      <c r="AJ93" s="7"/>
-      <c r="AK93" s="7"/>
-      <c r="AL93" s="7"/>
-      <c r="AM93" s="7"/>
-      <c r="AN93" s="7"/>
-      <c r="AO93" s="7"/>
-      <c r="AP93" s="7"/>
-      <c r="AQ93" s="7"/>
-      <c r="AR93" s="7"/>
-      <c r="AS93" s="7"/>
-      <c r="AT93" s="7"/>
-      <c r="AU93" s="7"/>
-      <c r="AV93" s="7"/>
-      <c r="AW93" s="7"/>
-      <c r="AX93" s="7"/>
-      <c r="AY93" s="7"/>
-      <c r="AZ93" s="7"/>
-      <c r="BA93" s="7"/>
-      <c r="BB93" s="7"/>
-      <c r="BC93" s="7"/>
-      <c r="BD93" s="7"/>
-      <c r="BE93" s="7"/>
-      <c r="BF93" s="7"/>
-      <c r="BG93" s="7"/>
-      <c r="BH93" s="7"/>
-      <c r="BI93" s="7"/>
-      <c r="BJ93" s="7"/>
-      <c r="BK93" s="7"/>
-      <c r="BL93" s="7"/>
-      <c r="BM93" s="7"/>
-      <c r="BN93" s="7"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7"/>
+      <c r="O96" s="7"/>
+      <c r="P96" s="7"/>
+      <c r="Q96" s="7"/>
+      <c r="R96" s="7"/>
+      <c r="S96" s="7"/>
+      <c r="T96" s="7"/>
+      <c r="U96" s="7"/>
+      <c r="V96" s="7"/>
+      <c r="W96" s="7"/>
+      <c r="X96" s="7"/>
+      <c r="Y96" s="7"/>
+      <c r="Z96" s="7"/>
+      <c r="AA96" s="7"/>
+      <c r="AB96" s="7"/>
+      <c r="AC96" s="7"/>
+      <c r="AD96" s="7"/>
+      <c r="AE96" s="7"/>
+      <c r="AF96" s="7"/>
+      <c r="AG96" s="7"/>
+      <c r="AH96" s="7"/>
+      <c r="AI96" s="7"/>
+      <c r="AJ96" s="7"/>
+      <c r="AK96" s="7"/>
+      <c r="AL96" s="7"/>
+      <c r="AM96" s="7"/>
+      <c r="AN96" s="7"/>
+      <c r="AO96" s="7"/>
+      <c r="AP96" s="7"/>
+      <c r="AQ96" s="7"/>
+      <c r="AR96" s="7"/>
+      <c r="AS96" s="7"/>
+      <c r="AT96" s="7"/>
+      <c r="AU96" s="7"/>
+      <c r="AV96" s="7"/>
+      <c r="AW96" s="7"/>
+      <c r="AX96" s="7"/>
+      <c r="AY96" s="7"/>
+      <c r="AZ96" s="7"/>
+      <c r="BA96" s="7"/>
+      <c r="BB96" s="7"/>
+      <c r="BC96" s="7"/>
+      <c r="BD96" s="7"/>
+      <c r="BE96" s="7"/>
+      <c r="BF96" s="7"/>
+      <c r="BG96" s="7"/>
+      <c r="BH96" s="7"/>
+      <c r="BI96" s="7"/>
+      <c r="BJ96" s="7"/>
+      <c r="BK96" s="7"/>
+      <c r="BL96" s="7"/>
+      <c r="BM96" s="7"/>
+      <c r="BN96" s="7"/>
     </row>
-    <row r="94" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="86"/>
-      <c r="B94"/>
-      <c r="I94" s="3"/>
+    <row r="97" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="86"/>
+      <c r="B97"/>
+      <c r="I97" s="3"/>
     </row>
-    <row r="95" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="86"/>
-      <c r="B95"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="H95" s="21"/>
+    <row r="98" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="86"/>
+      <c r="B98"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="H98" s="21"/>
     </row>
-    <row r="96" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="86"/>
-      <c r="B96"/>
-      <c r="C96" s="22"/>
-      <c r="D96" s="22"/>
-      <c r="E96" s="22"/>
+    <row r="99" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="86"/>
+      <c r="B99"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
+      <c r="E99" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BH4:BN4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="B5:I5"/>
@@ -13057,17 +13472,10 @@
     <mergeCell ref="AT4:AZ4"/>
     <mergeCell ref="K3:Q3"/>
     <mergeCell ref="R3:X3"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="AF4:AL4"/>
   </mergeCells>
   <phoneticPr fontId="37"/>
-  <conditionalFormatting sqref="F7:F11 F24 F77:F79 F89 F82:F84 F32:F33 F13:F15 F29:F30 F36:F42">
-    <cfRule type="dataBar" priority="491">
+  <conditionalFormatting sqref="F7:F11 F24 F80:F82 F92 F85:F87 F32:F33 F13:F15 F29:F30 F37:F38 F40:F45">
+    <cfRule type="dataBar" priority="503">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13080,21 +13488,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:BN11 K24:BN24 K77:BN79 K89:L89 K82:BN84 N89:BN89 K32:BN33 K13:BN15 K29:BN30 K36:BN42">
-    <cfRule type="expression" dxfId="226" priority="510">
+  <conditionalFormatting sqref="K5:BN11 K24:BN24 K80:BN82 K92:L92 K85:BN87 N92:BN92 K32:BN33 K13:BN15 K29:BN30 K36:BN36 K39:BN45">
+    <cfRule type="expression" dxfId="232" priority="522">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:BN11 K24:BN24 K77:BN79 K89:L89 K82:BN84 N89:BN89 K32:BN33 K13:BN15 K29:BN30 K36:BN42">
-    <cfRule type="expression" dxfId="225" priority="504">
+  <conditionalFormatting sqref="K7:BN11 K24:BN24 K80:BN82 K92:L92 K85:BN87 N92:BN92 K32:BN33 K13:BN15 K29:BN30 K36:BN36 K39:BN45">
+    <cfRule type="expression" dxfId="231" priority="516">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="505" stopIfTrue="1">
+    <cfRule type="expression" dxfId="230" priority="517" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="dataBar" priority="462">
+  <conditionalFormatting sqref="F42">
+    <cfRule type="dataBar" priority="474">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13107,21 +13515,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:BN39">
-    <cfRule type="expression" dxfId="223" priority="465">
+  <conditionalFormatting sqref="K42:BN42">
+    <cfRule type="expression" dxfId="229" priority="477">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:BN39">
-    <cfRule type="expression" dxfId="222" priority="463">
+  <conditionalFormatting sqref="K42:BN42">
+    <cfRule type="expression" dxfId="228" priority="475">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="464" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="476" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="dataBar" priority="466">
+    <cfRule type="dataBar" priority="478">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13135,20 +13543,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23:BN23">
-    <cfRule type="expression" dxfId="220" priority="469">
+    <cfRule type="expression" dxfId="226" priority="481">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23:BN23">
-    <cfRule type="expression" dxfId="219" priority="467">
+    <cfRule type="expression" dxfId="225" priority="479">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="468" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="480" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="dataBar" priority="458">
+  <conditionalFormatting sqref="F40">
+    <cfRule type="dataBar" priority="470">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13161,21 +13569,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K37:BN37">
-    <cfRule type="expression" dxfId="217" priority="461">
+  <conditionalFormatting sqref="K40:BN40">
+    <cfRule type="expression" dxfId="223" priority="473">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K37:BN37">
-    <cfRule type="expression" dxfId="216" priority="459">
+  <conditionalFormatting sqref="K40:BN40">
+    <cfRule type="expression" dxfId="222" priority="471">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="215" priority="460" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="472" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="dataBar" priority="441">
+  <conditionalFormatting sqref="F47">
+    <cfRule type="dataBar" priority="453">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13188,21 +13596,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K44:BN44">
-    <cfRule type="expression" dxfId="214" priority="444">
+  <conditionalFormatting sqref="K47:BN47">
+    <cfRule type="expression" dxfId="220" priority="456">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K44:BN44">
-    <cfRule type="expression" dxfId="213" priority="442">
+  <conditionalFormatting sqref="K47:BN47">
+    <cfRule type="expression" dxfId="219" priority="454">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="443" stopIfTrue="1">
+    <cfRule type="expression" dxfId="218" priority="455" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F52">
-    <cfRule type="dataBar" priority="354">
+  <conditionalFormatting sqref="F55">
+    <cfRule type="dataBar" priority="366">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13215,16 +13623,16 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53:BN53">
-    <cfRule type="expression" dxfId="211" priority="355">
+  <conditionalFormatting sqref="K56:BN56">
+    <cfRule type="expression" dxfId="217" priority="367">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="356" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="368" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
-    <cfRule type="dataBar" priority="445">
+  <conditionalFormatting sqref="F46">
+    <cfRule type="dataBar" priority="457">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13237,21 +13645,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K43:BN43">
-    <cfRule type="expression" dxfId="209" priority="448">
+  <conditionalFormatting sqref="K46:BN46">
+    <cfRule type="expression" dxfId="215" priority="460">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K43:BN43">
-    <cfRule type="expression" dxfId="208" priority="446">
+  <conditionalFormatting sqref="K46:BN46">
+    <cfRule type="expression" dxfId="214" priority="458">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="447" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="459" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45:F47 F50">
-    <cfRule type="dataBar" priority="433">
+  <conditionalFormatting sqref="F48:F50 F53">
+    <cfRule type="dataBar" priority="445">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13264,8 +13672,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
-    <cfRule type="dataBar" priority="440">
+  <conditionalFormatting sqref="F50">
+    <cfRule type="dataBar" priority="452">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13278,21 +13686,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47:BN47">
-    <cfRule type="expression" dxfId="206" priority="511">
+  <conditionalFormatting sqref="K50:BN50">
+    <cfRule type="expression" dxfId="212" priority="523">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47:BN47">
-    <cfRule type="expression" dxfId="205" priority="438">
+  <conditionalFormatting sqref="K50:BN50">
+    <cfRule type="expression" dxfId="211" priority="450">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="439" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="451" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F21">
-    <cfRule type="dataBar" priority="429">
+    <cfRule type="dataBar" priority="441">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13305,21 +13713,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45:BN47 K50:BN50">
-    <cfRule type="expression" dxfId="203" priority="436">
+  <conditionalFormatting sqref="K48:BN50 K53:BN53">
+    <cfRule type="expression" dxfId="209" priority="448">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45:BN47 K50:BN50">
-    <cfRule type="expression" dxfId="202" priority="434">
+  <conditionalFormatting sqref="K48:BN50 K53:BN53">
+    <cfRule type="expression" dxfId="208" priority="446">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="435" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="447" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
-    <cfRule type="dataBar" priority="421">
+  <conditionalFormatting sqref="F51">
+    <cfRule type="dataBar" priority="433">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13333,20 +13741,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20:BN21">
-    <cfRule type="expression" dxfId="200" priority="432">
+    <cfRule type="expression" dxfId="206" priority="444">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20:BN21">
-    <cfRule type="expression" dxfId="199" priority="430">
+    <cfRule type="expression" dxfId="205" priority="442">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="431" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="443" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
-    <cfRule type="dataBar" priority="427">
+  <conditionalFormatting sqref="F54">
+    <cfRule type="dataBar" priority="439">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13359,16 +13767,16 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:BN51">
-    <cfRule type="expression" dxfId="197" priority="425">
+  <conditionalFormatting sqref="K54:BN54">
+    <cfRule type="expression" dxfId="203" priority="437">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="426" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="438" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="dataBar" priority="409">
+    <cfRule type="dataBar" priority="421">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13381,21 +13789,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:BN48">
-    <cfRule type="expression" dxfId="195" priority="424">
+  <conditionalFormatting sqref="K51:BN51">
+    <cfRule type="expression" dxfId="201" priority="436">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:BN48">
-    <cfRule type="expression" dxfId="194" priority="422">
+  <conditionalFormatting sqref="K51:BN51">
+    <cfRule type="expression" dxfId="200" priority="434">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="423" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="435" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
-    <cfRule type="dataBar" priority="419">
+  <conditionalFormatting sqref="F52">
+    <cfRule type="dataBar" priority="431">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13408,21 +13816,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49:BN49">
-    <cfRule type="expression" dxfId="192" priority="512">
+  <conditionalFormatting sqref="K52:BN52">
+    <cfRule type="expression" dxfId="198" priority="524">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49:BN49">
-    <cfRule type="expression" dxfId="191" priority="417">
+  <conditionalFormatting sqref="K52:BN52">
+    <cfRule type="expression" dxfId="197" priority="429">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="418" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="430" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="dataBar" priority="413">
+    <cfRule type="dataBar" priority="425">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13436,20 +13844,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:BN26">
-    <cfRule type="expression" dxfId="189" priority="416">
+    <cfRule type="expression" dxfId="195" priority="428">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:BN26">
-    <cfRule type="expression" dxfId="188" priority="414">
+    <cfRule type="expression" dxfId="194" priority="426">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="415" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="427" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="dataBar" priority="405">
+    <cfRule type="dataBar" priority="417">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13463,38 +13871,38 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27:BN27">
-    <cfRule type="expression" dxfId="186" priority="412">
+    <cfRule type="expression" dxfId="192" priority="424">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27:BN27">
-    <cfRule type="expression" dxfId="185" priority="410">
+    <cfRule type="expression" dxfId="191" priority="422">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="411" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="423" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:BN28">
-    <cfRule type="expression" dxfId="183" priority="408">
+    <cfRule type="expression" dxfId="189" priority="420">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:BN28">
-    <cfRule type="expression" dxfId="182" priority="406">
+    <cfRule type="expression" dxfId="188" priority="418">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="407" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="419" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53:BN53">
-    <cfRule type="expression" dxfId="180" priority="360">
+  <conditionalFormatting sqref="K56:BN56">
+    <cfRule type="expression" dxfId="186" priority="372">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="dataBar" priority="395">
+  <conditionalFormatting sqref="F37:F38">
+    <cfRule type="dataBar" priority="407">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13507,21 +13915,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36:BN36">
-    <cfRule type="expression" dxfId="179" priority="513">
+  <conditionalFormatting sqref="K36:BN36 K39:BN39">
+    <cfRule type="expression" dxfId="185" priority="525">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36:BN36">
-    <cfRule type="expression" dxfId="178" priority="393">
+  <conditionalFormatting sqref="K36:BN36 K39:BN39">
+    <cfRule type="expression" dxfId="184" priority="405">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="394" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="406" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F73">
-    <cfRule type="dataBar" priority="307">
+  <conditionalFormatting sqref="F76">
+    <cfRule type="dataBar" priority="319">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13534,8 +13942,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F53">
-    <cfRule type="dataBar" priority="353">
+  <conditionalFormatting sqref="F56">
+    <cfRule type="dataBar" priority="365">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13548,8 +13956,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="dataBar" priority="349">
+  <conditionalFormatting sqref="F57">
+    <cfRule type="dataBar" priority="361">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13562,34 +13970,34 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K54:BN54">
-    <cfRule type="expression" dxfId="176" priority="350">
+  <conditionalFormatting sqref="K57:BN57">
+    <cfRule type="expression" dxfId="182" priority="362">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="351" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="363" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K54:BN54">
-    <cfRule type="expression" dxfId="174" priority="352">
+  <conditionalFormatting sqref="K57:BN57">
+    <cfRule type="expression" dxfId="180" priority="364">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:BN52">
-    <cfRule type="expression" dxfId="173" priority="359">
+  <conditionalFormatting sqref="K55:BN55">
+    <cfRule type="expression" dxfId="179" priority="371">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:BN52">
-    <cfRule type="expression" dxfId="172" priority="357">
+  <conditionalFormatting sqref="K55:BN55">
+    <cfRule type="expression" dxfId="178" priority="369">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="358" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="370" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F56">
-    <cfRule type="dataBar" priority="345">
+  <conditionalFormatting sqref="F59">
+    <cfRule type="dataBar" priority="357">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13602,8 +14010,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
-    <cfRule type="dataBar" priority="341">
+  <conditionalFormatting sqref="F58">
+    <cfRule type="dataBar" priority="353">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13616,21 +14024,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K56:BN56">
-    <cfRule type="expression" dxfId="170" priority="348">
+  <conditionalFormatting sqref="K59:BN59">
+    <cfRule type="expression" dxfId="176" priority="360">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K56:BN56">
-    <cfRule type="expression" dxfId="169" priority="346">
+  <conditionalFormatting sqref="K59:BN59">
+    <cfRule type="expression" dxfId="175" priority="358">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="347" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="359" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F57:F58">
-    <cfRule type="dataBar" priority="337">
+  <conditionalFormatting sqref="F60:F61">
+    <cfRule type="dataBar" priority="349">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13643,21 +14051,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K55:BN55">
-    <cfRule type="expression" dxfId="167" priority="344">
+  <conditionalFormatting sqref="K58:BN58">
+    <cfRule type="expression" dxfId="173" priority="356">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K55:BN55">
-    <cfRule type="expression" dxfId="166" priority="342">
+  <conditionalFormatting sqref="K58:BN58">
+    <cfRule type="expression" dxfId="172" priority="354">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="343" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="355" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F60">
-    <cfRule type="dataBar" priority="333">
+  <conditionalFormatting sqref="F63">
+    <cfRule type="dataBar" priority="345">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13670,21 +14078,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K57:BN58">
-    <cfRule type="expression" dxfId="164" priority="340">
+  <conditionalFormatting sqref="K60:BN61">
+    <cfRule type="expression" dxfId="170" priority="352">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K57:BN58">
-    <cfRule type="expression" dxfId="163" priority="338">
+  <conditionalFormatting sqref="K60:BN61">
+    <cfRule type="expression" dxfId="169" priority="350">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="339" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="351" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="dataBar" priority="329">
+  <conditionalFormatting sqref="F61">
+    <cfRule type="dataBar" priority="341">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13697,29 +14105,29 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K60:BN60">
-    <cfRule type="expression" dxfId="161" priority="336">
+  <conditionalFormatting sqref="K63:BN63">
+    <cfRule type="expression" dxfId="167" priority="348">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K60:BN60">
-    <cfRule type="expression" dxfId="160" priority="334">
+  <conditionalFormatting sqref="K63:BN63">
+    <cfRule type="expression" dxfId="166" priority="346">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="335" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="347" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K58:BN58">
-    <cfRule type="expression" dxfId="158" priority="330">
+  <conditionalFormatting sqref="K61:BN61">
+    <cfRule type="expression" dxfId="164" priority="342">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="331" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="343" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F59:F60">
-    <cfRule type="dataBar" priority="325">
+  <conditionalFormatting sqref="F62:F63">
+    <cfRule type="dataBar" priority="337">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13732,13 +14140,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K58:BN58">
-    <cfRule type="expression" dxfId="156" priority="332">
+  <conditionalFormatting sqref="K61:BN61">
+    <cfRule type="expression" dxfId="162" priority="344">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F61:F62">
-    <cfRule type="dataBar" priority="317">
+  <conditionalFormatting sqref="F64:F65">
+    <cfRule type="dataBar" priority="329">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13751,21 +14159,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K59:BN60">
-    <cfRule type="expression" dxfId="155" priority="328">
+  <conditionalFormatting sqref="K62:BN63">
+    <cfRule type="expression" dxfId="161" priority="340">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K59:BN60">
-    <cfRule type="expression" dxfId="154" priority="326">
+  <conditionalFormatting sqref="K62:BN63">
+    <cfRule type="expression" dxfId="160" priority="338">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="327" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="339" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
-    <cfRule type="dataBar" priority="321">
+  <conditionalFormatting sqref="F65">
+    <cfRule type="dataBar" priority="333">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13778,21 +14186,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K62:BN62">
-    <cfRule type="expression" dxfId="152" priority="324">
+  <conditionalFormatting sqref="K65:BN65">
+    <cfRule type="expression" dxfId="158" priority="336">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K62:BN62">
-    <cfRule type="expression" dxfId="151" priority="322">
+  <conditionalFormatting sqref="K65:BN65">
+    <cfRule type="expression" dxfId="157" priority="334">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="323" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="335" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F63:F64">
-    <cfRule type="dataBar" priority="309">
+  <conditionalFormatting sqref="F66:F67">
+    <cfRule type="dataBar" priority="321">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13805,21 +14213,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K61:BN62">
-    <cfRule type="expression" dxfId="149" priority="320">
+  <conditionalFormatting sqref="K64:BN65">
+    <cfRule type="expression" dxfId="155" priority="332">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K61:BN62">
-    <cfRule type="expression" dxfId="148" priority="318">
+  <conditionalFormatting sqref="K64:BN65">
+    <cfRule type="expression" dxfId="154" priority="330">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="319" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="331" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F64">
-    <cfRule type="dataBar" priority="313">
+  <conditionalFormatting sqref="F67">
+    <cfRule type="dataBar" priority="325">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13832,21 +14240,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K64:BN64">
-    <cfRule type="expression" dxfId="146" priority="316">
+  <conditionalFormatting sqref="K67:BN67">
+    <cfRule type="expression" dxfId="152" priority="328">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K64:BN64">
-    <cfRule type="expression" dxfId="145" priority="314">
+  <conditionalFormatting sqref="K67:BN67">
+    <cfRule type="expression" dxfId="151" priority="326">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="315" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="327" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F72">
-    <cfRule type="dataBar" priority="297">
+  <conditionalFormatting sqref="F75">
+    <cfRule type="dataBar" priority="309">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13859,21 +14267,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K63:BN64">
-    <cfRule type="expression" dxfId="143" priority="312">
+  <conditionalFormatting sqref="K66:BN67">
+    <cfRule type="expression" dxfId="149" priority="324">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K63:BN64">
-    <cfRule type="expression" dxfId="142" priority="310">
+  <conditionalFormatting sqref="K66:BN67">
+    <cfRule type="expression" dxfId="148" priority="322">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="311" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="323" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F71 F73">
-    <cfRule type="dataBar" priority="308">
+  <conditionalFormatting sqref="F74 F76">
+    <cfRule type="dataBar" priority="320">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13886,47 +14294,47 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K73:BN73">
-    <cfRule type="expression" dxfId="140" priority="515">
+  <conditionalFormatting sqref="K76:BN76">
+    <cfRule type="expression" dxfId="146" priority="527">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K73:BN73">
-    <cfRule type="expression" dxfId="139" priority="306">
+  <conditionalFormatting sqref="K76:BN76">
+    <cfRule type="expression" dxfId="145" priority="318">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="516" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="528" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K71:BN71 K73:BN73">
-    <cfRule type="expression" dxfId="137" priority="304">
+  <conditionalFormatting sqref="K74:BN74 K76:BN76">
+    <cfRule type="expression" dxfId="143" priority="316">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K71:BN71 K73:BN73">
-    <cfRule type="expression" dxfId="136" priority="302">
+  <conditionalFormatting sqref="K74:BN74 K76:BN76">
+    <cfRule type="expression" dxfId="142" priority="314">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="303" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="315" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K72:BN72">
-    <cfRule type="expression" dxfId="134" priority="300">
+  <conditionalFormatting sqref="K75:BN75">
+    <cfRule type="expression" dxfId="140" priority="312">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K72:BN72">
-    <cfRule type="expression" dxfId="133" priority="298">
+  <conditionalFormatting sqref="K75:BN75">
+    <cfRule type="expression" dxfId="139" priority="310">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="299" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="311" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F74">
-    <cfRule type="dataBar" priority="260">
+  <conditionalFormatting sqref="F77">
+    <cfRule type="dataBar" priority="272">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13939,8 +14347,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F74">
-    <cfRule type="dataBar" priority="259">
+  <conditionalFormatting sqref="F77">
+    <cfRule type="dataBar" priority="271">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13953,26 +14361,26 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K74:BN74">
-    <cfRule type="expression" dxfId="131" priority="258">
+  <conditionalFormatting sqref="K77:BN77">
+    <cfRule type="expression" dxfId="137" priority="270">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K74:BN74">
-    <cfRule type="expression" dxfId="130" priority="257">
+  <conditionalFormatting sqref="K77:BN77">
+    <cfRule type="expression" dxfId="136" priority="269">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K74:BN74">
-    <cfRule type="expression" dxfId="129" priority="255">
+  <conditionalFormatting sqref="K77:BN77">
+    <cfRule type="expression" dxfId="135" priority="267">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="256" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="268" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F76">
-    <cfRule type="dataBar" priority="247">
+  <conditionalFormatting sqref="F79">
+    <cfRule type="dataBar" priority="259">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13985,8 +14393,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F75">
-    <cfRule type="dataBar" priority="239">
+  <conditionalFormatting sqref="F78">
+    <cfRule type="dataBar" priority="251">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13999,8 +14407,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F76">
-    <cfRule type="dataBar" priority="248">
+  <conditionalFormatting sqref="F79">
+    <cfRule type="dataBar" priority="260">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14013,47 +14421,47 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K76:BN76">
-    <cfRule type="expression" dxfId="127" priority="249">
+  <conditionalFormatting sqref="K79:BN79">
+    <cfRule type="expression" dxfId="133" priority="261">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K76:BN76">
-    <cfRule type="expression" dxfId="126" priority="246">
+  <conditionalFormatting sqref="K79:BN79">
+    <cfRule type="expression" dxfId="132" priority="258">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="250" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="262" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K76:BN76">
-    <cfRule type="expression" dxfId="124" priority="245">
+  <conditionalFormatting sqref="K79:BN79">
+    <cfRule type="expression" dxfId="130" priority="257">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K76:BN76">
-    <cfRule type="expression" dxfId="123" priority="243">
+  <conditionalFormatting sqref="K79:BN79">
+    <cfRule type="expression" dxfId="129" priority="255">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="244" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="256" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K75:BN75">
-    <cfRule type="expression" dxfId="121" priority="242">
+  <conditionalFormatting sqref="K78:BN78">
+    <cfRule type="expression" dxfId="127" priority="254">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K75:BN75">
-    <cfRule type="expression" dxfId="120" priority="240">
+  <conditionalFormatting sqref="K78:BN78">
+    <cfRule type="expression" dxfId="126" priority="252">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="253" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="dataBar" priority="229">
+  <conditionalFormatting sqref="F44">
+    <cfRule type="dataBar" priority="241">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14066,21 +14474,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:BN41">
-    <cfRule type="expression" dxfId="118" priority="232">
+  <conditionalFormatting sqref="K44:BN44">
+    <cfRule type="expression" dxfId="124" priority="244">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:BN41">
-    <cfRule type="expression" dxfId="117" priority="230">
+  <conditionalFormatting sqref="K44:BN44">
+    <cfRule type="expression" dxfId="123" priority="242">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="231" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="243" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="dataBar" priority="225">
+  <conditionalFormatting sqref="F44">
+    <cfRule type="dataBar" priority="237">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14093,21 +14501,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:BN41">
-    <cfRule type="expression" dxfId="115" priority="228">
+  <conditionalFormatting sqref="K44:BN44">
+    <cfRule type="expression" dxfId="121" priority="240">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:BN41">
-    <cfRule type="expression" dxfId="114" priority="226">
+  <conditionalFormatting sqref="K44:BN44">
+    <cfRule type="expression" dxfId="120" priority="238">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="227" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="239" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="dataBar" priority="221">
+  <conditionalFormatting sqref="F44">
+    <cfRule type="dataBar" priority="233">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14120,21 +14528,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:BN41">
-    <cfRule type="expression" dxfId="112" priority="224">
+  <conditionalFormatting sqref="K44:BN44">
+    <cfRule type="expression" dxfId="118" priority="236">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:BN41">
-    <cfRule type="expression" dxfId="111" priority="222">
+  <conditionalFormatting sqref="K44:BN44">
+    <cfRule type="expression" dxfId="117" priority="234">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="223" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="235" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32:F33">
-    <cfRule type="dataBar" priority="207">
+    <cfRule type="dataBar" priority="219">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14148,20 +14556,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:BN33">
-    <cfRule type="expression" dxfId="109" priority="208">
+    <cfRule type="expression" dxfId="115" priority="220">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:BN33">
-    <cfRule type="expression" dxfId="108" priority="205">
+    <cfRule type="expression" dxfId="114" priority="217">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="218" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="dataBar" priority="173">
+    <cfRule type="dataBar" priority="185">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14175,25 +14583,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:BN22">
-    <cfRule type="expression" dxfId="106" priority="176">
+    <cfRule type="expression" dxfId="112" priority="188">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:BN22">
-    <cfRule type="expression" dxfId="105" priority="174">
+    <cfRule type="expression" dxfId="111" priority="186">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="175" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="187" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:BN42">
-    <cfRule type="expression" dxfId="103" priority="137">
+  <conditionalFormatting sqref="K45:BN45">
+    <cfRule type="expression" dxfId="109" priority="149">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
-    <cfRule type="dataBar" priority="142">
+  <conditionalFormatting sqref="F43">
+    <cfRule type="dataBar" priority="154">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14206,21 +14614,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K65:BN65">
-    <cfRule type="expression" dxfId="102" priority="129">
+  <conditionalFormatting sqref="K68:BN68">
+    <cfRule type="expression" dxfId="108" priority="141">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:BN40">
-    <cfRule type="expression" dxfId="101" priority="143">
+  <conditionalFormatting sqref="K43:BN43">
+    <cfRule type="expression" dxfId="107" priority="155">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="156" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="dataBar" priority="163">
+    <cfRule type="dataBar" priority="175">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14234,20 +14642,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:BN29">
-    <cfRule type="expression" dxfId="99" priority="164">
+    <cfRule type="expression" dxfId="105" priority="176">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:BN29">
-    <cfRule type="expression" dxfId="98" priority="161">
+    <cfRule type="expression" dxfId="104" priority="173">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="174" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
-    <cfRule type="dataBar" priority="149">
+  <conditionalFormatting sqref="F43">
+    <cfRule type="dataBar" priority="161">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14260,21 +14668,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:BN40">
-    <cfRule type="expression" dxfId="96" priority="152">
+  <conditionalFormatting sqref="K43:BN43">
+    <cfRule type="expression" dxfId="102" priority="164">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:BN40">
-    <cfRule type="expression" dxfId="95" priority="150">
+  <conditionalFormatting sqref="K43:BN43">
+    <cfRule type="expression" dxfId="101" priority="162">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="163" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
-    <cfRule type="dataBar" priority="145">
+  <conditionalFormatting sqref="F43">
+    <cfRule type="dataBar" priority="157">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14287,21 +14695,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:BN40">
-    <cfRule type="expression" dxfId="93" priority="148">
+  <conditionalFormatting sqref="K43:BN43">
+    <cfRule type="expression" dxfId="99" priority="160">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:BN40">
-    <cfRule type="expression" dxfId="92" priority="146">
+  <conditionalFormatting sqref="K43:BN43">
+    <cfRule type="expression" dxfId="98" priority="158">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="159" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="dataBar" priority="134">
+  <conditionalFormatting sqref="F45">
+    <cfRule type="dataBar" priority="146">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14314,16 +14722,16 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:BN42">
-    <cfRule type="expression" dxfId="90" priority="135">
+  <conditionalFormatting sqref="K45:BN45">
+    <cfRule type="expression" dxfId="96" priority="147">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="148" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="dataBar" priority="138">
+  <conditionalFormatting sqref="F45">
+    <cfRule type="dataBar" priority="150">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14336,21 +14744,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:BN42">
-    <cfRule type="expression" dxfId="88" priority="141">
+  <conditionalFormatting sqref="K45:BN45">
+    <cfRule type="expression" dxfId="94" priority="153">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:BN42">
-    <cfRule type="expression" dxfId="87" priority="139">
+  <conditionalFormatting sqref="K45:BN45">
+    <cfRule type="expression" dxfId="93" priority="151">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="152" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F65">
-    <cfRule type="dataBar" priority="126">
+  <conditionalFormatting sqref="F68">
+    <cfRule type="dataBar" priority="138">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14363,21 +14771,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K71:BN71">
+    <cfRule type="expression" dxfId="91" priority="133">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K68:BN68">
-    <cfRule type="expression" dxfId="85" priority="121">
-      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K65:BN65">
-    <cfRule type="expression" dxfId="84" priority="127">
+    <cfRule type="expression" dxfId="90" priority="139">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="140" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="dataBar" priority="130">
+  <conditionalFormatting sqref="F45">
+    <cfRule type="dataBar" priority="142">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14390,21 +14798,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:BN42">
-    <cfRule type="expression" dxfId="82" priority="133">
+  <conditionalFormatting sqref="K45:BN45">
+    <cfRule type="expression" dxfId="88" priority="145">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:BN42">
-    <cfRule type="expression" dxfId="81" priority="131">
+  <conditionalFormatting sqref="K45:BN45">
+    <cfRule type="expression" dxfId="87" priority="143">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="144" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F65">
-    <cfRule type="dataBar" priority="122">
+  <conditionalFormatting sqref="F68">
+    <cfRule type="dataBar" priority="134">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14417,8 +14825,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F68">
-    <cfRule type="dataBar" priority="118">
+  <conditionalFormatting sqref="F71">
+    <cfRule type="dataBar" priority="130">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14431,34 +14839,34 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K69:BN69">
-    <cfRule type="expression" dxfId="79" priority="113">
+  <conditionalFormatting sqref="K72:BN72">
+    <cfRule type="expression" dxfId="85" priority="125">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K71:BN71">
+    <cfRule type="expression" dxfId="84" priority="131">
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="83" priority="132" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K68:BN68">
-    <cfRule type="expression" dxfId="78" priority="119">
+    <cfRule type="expression" dxfId="82" priority="137">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K68:BN68">
+    <cfRule type="expression" dxfId="81" priority="135">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="136" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K65:BN65">
-    <cfRule type="expression" dxfId="76" priority="125">
-      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K65:BN65">
-    <cfRule type="expression" dxfId="75" priority="123">
-      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="124" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F68">
-    <cfRule type="dataBar" priority="114">
+  <conditionalFormatting sqref="F71">
+    <cfRule type="dataBar" priority="126">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14471,8 +14879,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F69">
-    <cfRule type="dataBar" priority="110">
+  <conditionalFormatting sqref="F72">
+    <cfRule type="dataBar" priority="122">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14485,34 +14893,34 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K66:BN66">
-    <cfRule type="expression" dxfId="73" priority="105">
+  <conditionalFormatting sqref="K69:BN69">
+    <cfRule type="expression" dxfId="79" priority="117">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K69:BN69">
-    <cfRule type="expression" dxfId="72" priority="111">
+  <conditionalFormatting sqref="K72:BN72">
+    <cfRule type="expression" dxfId="78" priority="123">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="124" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K68:BN68">
-    <cfRule type="expression" dxfId="70" priority="117">
+  <conditionalFormatting sqref="K71:BN71">
+    <cfRule type="expression" dxfId="76" priority="129">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K68:BN68">
-    <cfRule type="expression" dxfId="69" priority="115">
+  <conditionalFormatting sqref="K71:BN71">
+    <cfRule type="expression" dxfId="75" priority="127">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="128" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F69">
-    <cfRule type="dataBar" priority="106">
+  <conditionalFormatting sqref="F72">
+    <cfRule type="dataBar" priority="118">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14525,8 +14933,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F66">
-    <cfRule type="dataBar" priority="102">
+  <conditionalFormatting sqref="F69">
+    <cfRule type="dataBar" priority="114">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14539,39 +14947,39 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K67:BN67">
-    <cfRule type="expression" dxfId="67" priority="97">
+  <conditionalFormatting sqref="K70:BN70">
+    <cfRule type="expression" dxfId="73" priority="109">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K66:BN66">
-    <cfRule type="expression" dxfId="66" priority="103">
+  <conditionalFormatting sqref="K69:BN69">
+    <cfRule type="expression" dxfId="72" priority="115">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="116" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K69:BN69">
-    <cfRule type="expression" dxfId="64" priority="109">
+  <conditionalFormatting sqref="K72:BN72">
+    <cfRule type="expression" dxfId="70" priority="121">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K69:BN69">
-    <cfRule type="expression" dxfId="63" priority="107">
+  <conditionalFormatting sqref="K72:BN72">
+    <cfRule type="expression" dxfId="69" priority="119">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="120" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K67:BN67">
-    <cfRule type="expression" dxfId="61" priority="93">
+  <conditionalFormatting sqref="K70:BN70">
+    <cfRule type="expression" dxfId="67" priority="105">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
-    <cfRule type="dataBar" priority="94">
+  <conditionalFormatting sqref="F70">
+    <cfRule type="dataBar" priority="106">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14584,16 +14992,16 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K67:BN67">
-    <cfRule type="expression" dxfId="60" priority="95">
+  <conditionalFormatting sqref="K70:BN70">
+    <cfRule type="expression" dxfId="66" priority="107">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="108" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F66">
-    <cfRule type="dataBar" priority="98">
+  <conditionalFormatting sqref="F69">
+    <cfRule type="dataBar" priority="110">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14606,26 +15014,26 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K66:BN66">
-    <cfRule type="expression" dxfId="58" priority="101">
+  <conditionalFormatting sqref="K69:BN69">
+    <cfRule type="expression" dxfId="64" priority="113">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K66:BN66">
-    <cfRule type="expression" dxfId="57" priority="99">
+  <conditionalFormatting sqref="K69:BN69">
+    <cfRule type="expression" dxfId="63" priority="111">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="112" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K70:BN70">
-    <cfRule type="expression" dxfId="55" priority="89">
+  <conditionalFormatting sqref="K73:BN73">
+    <cfRule type="expression" dxfId="61" priority="101">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
-    <cfRule type="dataBar" priority="90">
+  <conditionalFormatting sqref="F70">
+    <cfRule type="dataBar" priority="102">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14638,16 +15046,16 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K67:BN67">
-    <cfRule type="expression" dxfId="54" priority="91">
+  <conditionalFormatting sqref="K70:BN70">
+    <cfRule type="expression" dxfId="60" priority="103">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="104" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F70">
-    <cfRule type="dataBar" priority="86">
+  <conditionalFormatting sqref="F73">
+    <cfRule type="dataBar" priority="98">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14660,16 +15068,16 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K70:BN70">
-    <cfRule type="expression" dxfId="52" priority="87">
+  <conditionalFormatting sqref="K73:BN73">
+    <cfRule type="expression" dxfId="58" priority="99">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="100" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F70">
-    <cfRule type="dataBar" priority="82">
+  <conditionalFormatting sqref="F73">
+    <cfRule type="dataBar" priority="94">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14682,21 +15090,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K70:BN70">
-    <cfRule type="expression" dxfId="50" priority="85">
+  <conditionalFormatting sqref="K73:BN73">
+    <cfRule type="expression" dxfId="56" priority="97">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K70:BN70">
-    <cfRule type="expression" dxfId="49" priority="83">
+  <conditionalFormatting sqref="K73:BN73">
+    <cfRule type="expression" dxfId="55" priority="95">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="96" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F80:F81">
-    <cfRule type="dataBar" priority="78">
+  <conditionalFormatting sqref="F83:F84">
+    <cfRule type="dataBar" priority="90">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14709,21 +15117,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K80:BN81">
-    <cfRule type="expression" dxfId="47" priority="81">
+  <conditionalFormatting sqref="K83:BN84">
+    <cfRule type="expression" dxfId="53" priority="93">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K80:BN81">
-    <cfRule type="expression" dxfId="46" priority="79">
+  <conditionalFormatting sqref="K83:BN84">
+    <cfRule type="expression" dxfId="52" priority="91">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="92" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F85:F86">
-    <cfRule type="dataBar" priority="74">
+  <conditionalFormatting sqref="F88:F89">
+    <cfRule type="dataBar" priority="86">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14736,21 +15144,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K85:BN86">
-    <cfRule type="expression" dxfId="44" priority="77">
+  <conditionalFormatting sqref="K88:BN89">
+    <cfRule type="expression" dxfId="50" priority="89">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K85:BN86">
-    <cfRule type="expression" dxfId="43" priority="75">
+  <conditionalFormatting sqref="K88:BN89">
+    <cfRule type="expression" dxfId="49" priority="87">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="88" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87">
-    <cfRule type="dataBar" priority="70">
+  <conditionalFormatting sqref="F90">
+    <cfRule type="dataBar" priority="82">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14763,21 +15171,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K87:BN87">
-    <cfRule type="expression" dxfId="41" priority="73">
+  <conditionalFormatting sqref="K90:BN90">
+    <cfRule type="expression" dxfId="47" priority="85">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K87:BN87">
-    <cfRule type="expression" dxfId="40" priority="71">
+  <conditionalFormatting sqref="K90:BN90">
+    <cfRule type="expression" dxfId="46" priority="83">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="84" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F88">
-    <cfRule type="dataBar" priority="66">
+  <conditionalFormatting sqref="F91">
+    <cfRule type="dataBar" priority="78">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14790,21 +15198,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K88:BN88 M89">
-    <cfRule type="expression" dxfId="38" priority="69">
+  <conditionalFormatting sqref="K91:BN91 M92">
+    <cfRule type="expression" dxfId="44" priority="81">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K88:BN88 M89">
-    <cfRule type="expression" dxfId="37" priority="67">
+  <conditionalFormatting sqref="K91:BN91 M92">
+    <cfRule type="expression" dxfId="43" priority="79">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="80" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="dataBar" priority="62">
+    <cfRule type="dataBar" priority="74">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14818,20 +15226,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:BN16">
-    <cfRule type="expression" dxfId="35" priority="65">
+    <cfRule type="expression" dxfId="41" priority="77">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:BN16">
-    <cfRule type="expression" dxfId="34" priority="63">
+    <cfRule type="expression" dxfId="40" priority="75">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="76" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="dataBar" priority="58">
+    <cfRule type="dataBar" priority="70">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14845,20 +15253,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:BN18">
-    <cfRule type="expression" dxfId="32" priority="61">
+    <cfRule type="expression" dxfId="38" priority="73">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:BN18">
-    <cfRule type="expression" dxfId="31" priority="59">
+    <cfRule type="expression" dxfId="37" priority="71">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="72" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="dataBar" priority="54">
+    <cfRule type="dataBar" priority="66">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14872,20 +15280,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:BN19">
-    <cfRule type="expression" dxfId="29" priority="57">
+    <cfRule type="expression" dxfId="35" priority="69">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:BN19">
-    <cfRule type="expression" dxfId="28" priority="55">
+    <cfRule type="expression" dxfId="34" priority="67">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="68" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F91">
-    <cfRule type="dataBar" priority="53">
+  <conditionalFormatting sqref="F94">
+    <cfRule type="dataBar" priority="65">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14898,8 +15306,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G89">
-    <cfRule type="dataBar" priority="52">
+  <conditionalFormatting sqref="G92">
+    <cfRule type="dataBar" priority="64">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14912,8 +15320,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H89">
-    <cfRule type="dataBar" priority="51">
+  <conditionalFormatting sqref="H92">
+    <cfRule type="dataBar" priority="63">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14926,8 +15334,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H91">
-    <cfRule type="dataBar" priority="50">
+  <conditionalFormatting sqref="H94">
+    <cfRule type="dataBar" priority="62">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14941,7 +15349,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="dataBar" priority="46">
+    <cfRule type="dataBar" priority="58">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14955,20 +15363,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:BN17">
-    <cfRule type="expression" dxfId="26" priority="49">
+    <cfRule type="expression" dxfId="32" priority="61">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:BN17">
-    <cfRule type="expression" dxfId="25" priority="47">
+    <cfRule type="expression" dxfId="31" priority="59">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="60" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="dataBar" priority="42">
+    <cfRule type="dataBar" priority="54">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14982,20 +15390,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:BN31">
-    <cfRule type="expression" dxfId="23" priority="45">
+    <cfRule type="expression" dxfId="29" priority="57">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:BN31">
-    <cfRule type="expression" dxfId="22" priority="43">
+    <cfRule type="expression" dxfId="28" priority="55">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="56" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="dataBar" priority="33">
+    <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15009,20 +15417,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:BN25">
-    <cfRule type="expression" dxfId="20" priority="37">
+    <cfRule type="expression" dxfId="26" priority="49">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:BN25">
-    <cfRule type="expression" dxfId="19" priority="35">
+    <cfRule type="expression" dxfId="25" priority="47">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="48" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="dataBar" priority="21">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15036,7 +15444,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="dataBar" priority="29">
+    <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15050,20 +15458,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34:BN34">
-    <cfRule type="expression" dxfId="17" priority="32">
+    <cfRule type="expression" dxfId="23" priority="44">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34:BN34">
-    <cfRule type="expression" dxfId="16" priority="30">
+    <cfRule type="expression" dxfId="22" priority="42">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="43" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="dataBar" priority="27">
+    <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15077,33 +15485,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34:BN34">
-    <cfRule type="expression" dxfId="14" priority="28">
+    <cfRule type="expression" dxfId="20" priority="40">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34:BN34">
-    <cfRule type="expression" dxfId="13" priority="25">
+    <cfRule type="expression" dxfId="19" priority="37">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="38" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:BN33">
-    <cfRule type="expression" dxfId="11" priority="24">
+    <cfRule type="expression" dxfId="17" priority="36">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:BN33">
-    <cfRule type="expression" dxfId="10" priority="22">
+    <cfRule type="expression" dxfId="16" priority="34">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="35" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="dataBar" priority="17">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15117,20 +15525,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35:BN35">
-    <cfRule type="expression" dxfId="8" priority="20">
+    <cfRule type="expression" dxfId="14" priority="32">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35:BN35">
-    <cfRule type="expression" dxfId="7" priority="18">
+    <cfRule type="expression" dxfId="13" priority="30">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="31" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15144,25 +15552,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35:BN35">
-    <cfRule type="expression" dxfId="5" priority="16">
+    <cfRule type="expression" dxfId="11" priority="28">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35:BN35">
-    <cfRule type="expression" dxfId="4" priority="13">
+    <cfRule type="expression" dxfId="10" priority="25">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="26" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:BN12">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="8" priority="16">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15176,11 +15584,93 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:BN12">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="7" priority="14">
       <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="15" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K37:BN38">
+    <cfRule type="expression" dxfId="5" priority="11">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K37:BN38">
+    <cfRule type="expression" dxfId="4" priority="9">
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="10" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K37:BN38">
+    <cfRule type="expression" dxfId="2" priority="12">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K37:BN38">
+    <cfRule type="expression" dxfId="1" priority="5">
+      <formula>AND(タスク_開始&lt;=K$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=K$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=K$5,タスク_開始&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A3F6DEA1-73EA-2546-A98F-5529D7C30F45}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B5796D3E-3052-1D4B-BAAD-D77D016806FE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A96F7E46-998C-2247-8029-244F0E6DCF1F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F2C7E8A5-282A-2A49-A775-D9BCD028C123}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -15211,7 +15701,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F7:F11 F24 F77:F79 F89 F82:F84 F32:F33 F13:F15 F29:F30 F36:F42</xm:sqref>
+          <xm:sqref>F7:F11 F24 F80:F82 F92 F85:F87 F32:F33 F13:F15 F29:F30 F37:F38 F40:F45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{24F17111-9256-FF47-A90B-BD2748D98F5A}">
@@ -15226,7 +15716,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F39</xm:sqref>
+          <xm:sqref>F42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E4DFD210-F8DE-DC4A-9741-B5B243F824A6}">
@@ -15256,7 +15746,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F37</xm:sqref>
+          <xm:sqref>F40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1D6361C8-CB7D-8841-8CD8-18871297265B}">
@@ -15271,7 +15761,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F44</xm:sqref>
+          <xm:sqref>F47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{95B7E06F-6B9E-6C4B-BC04-3F99AB1A74D4}">
@@ -15286,7 +15776,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F52</xm:sqref>
+          <xm:sqref>F55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FD86224B-914B-5F46-822F-B75854136693}">
@@ -15301,7 +15791,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F43</xm:sqref>
+          <xm:sqref>F46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A230EAA4-3BDE-3745-88B4-B68818DC88A3}">
@@ -15316,7 +15806,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F45:F47 F50</xm:sqref>
+          <xm:sqref>F48:F50 F53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{85F05FF5-8C78-5B43-93CB-9F56687B7ED6}">
@@ -15331,7 +15821,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F47</xm:sqref>
+          <xm:sqref>F50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{ACD4AF40-4A7F-3D4C-8382-D5C86CD21452}">
@@ -15361,7 +15851,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F48</xm:sqref>
+          <xm:sqref>F51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B4DE69B5-631A-D545-95CA-052B3980E2BD}">
@@ -15376,7 +15866,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F51</xm:sqref>
+          <xm:sqref>F54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CCE23DF5-CA4C-E24E-A4A2-743C521EC5B4}">
@@ -15406,7 +15896,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F49</xm:sqref>
+          <xm:sqref>F52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A901BF46-B827-D445-ACF5-96CFE6FB89EC}">
@@ -15451,7 +15941,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F36</xm:sqref>
+          <xm:sqref>F37:F38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E0CBEC52-D3A6-C74C-97BE-B834893CF553}">
@@ -15466,7 +15956,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F73</xm:sqref>
+          <xm:sqref>F76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AD9C13A4-B612-3245-AE76-A8E409F7918F}">
@@ -15481,7 +15971,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F53</xm:sqref>
+          <xm:sqref>F56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A6772426-68EF-A240-800A-5AF7F0F113A9}">
@@ -15496,7 +15986,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F54</xm:sqref>
+          <xm:sqref>F57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BC765EC6-6523-504A-AED4-7AEFB62A9DF7}">
@@ -15511,7 +16001,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F56</xm:sqref>
+          <xm:sqref>F59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B401F7C8-BE59-8744-857F-12D198A08AE4}">
@@ -15526,7 +16016,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F55</xm:sqref>
+          <xm:sqref>F58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C2BA0CD1-C384-464E-824F-33069CB207EF}">
@@ -15541,7 +16031,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F57:F58</xm:sqref>
+          <xm:sqref>F60:F61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6CCE1452-5FBC-3F4A-A068-5D75B4B7BCDA}">
@@ -15556,7 +16046,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F60</xm:sqref>
+          <xm:sqref>F63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F1706303-4483-6A4F-B5FB-E2CF343EF71C}">
@@ -15571,7 +16061,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F58</xm:sqref>
+          <xm:sqref>F61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BDACFAD9-3E5D-9B4A-9A81-FF3B6F8CBF64}">
@@ -15586,7 +16076,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F59:F60</xm:sqref>
+          <xm:sqref>F62:F63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AA6B7756-C0C2-F243-92BE-6D626EBB0BC5}">
@@ -15601,7 +16091,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F61:F62</xm:sqref>
+          <xm:sqref>F64:F65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F2806D69-C8F2-D244-81EA-5357BF3FA7B1}">
@@ -15616,7 +16106,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F62</xm:sqref>
+          <xm:sqref>F65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C7B8B9BB-DF62-964E-B36D-3E40DEDE4AAB}">
@@ -15631,7 +16121,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F63:F64</xm:sqref>
+          <xm:sqref>F66:F67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{98CD4208-BEBA-F74E-82C6-DC32125D14AC}">
@@ -15646,7 +16136,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F64</xm:sqref>
+          <xm:sqref>F67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D0E736E8-06C8-4D41-A71F-BDC7B0EA0160}">
@@ -15661,7 +16151,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F72</xm:sqref>
+          <xm:sqref>F75</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{299B1521-6753-6E49-B368-B60D1EE39BBB}">
@@ -15676,7 +16166,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F71 F73</xm:sqref>
+          <xm:sqref>F74 F76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{37029FEF-DCD1-5F44-BF01-E7E8FBBEC303}">
@@ -15691,7 +16181,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F74</xm:sqref>
+          <xm:sqref>F77</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F01A527D-9F3F-2246-BA2F-16BF59D0B1B0}">
@@ -15706,7 +16196,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F74</xm:sqref>
+          <xm:sqref>F77</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{680AA153-3270-9046-A64C-8D19EEADC023}">
@@ -15721,7 +16211,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F76</xm:sqref>
+          <xm:sqref>F79</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FDF7C793-D057-9049-B6E1-E834A2499378}">
@@ -15736,7 +16226,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F75</xm:sqref>
+          <xm:sqref>F78</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F51640C3-D607-B64B-AE9A-67FB162B1792}">
@@ -15751,7 +16241,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F76</xm:sqref>
+          <xm:sqref>F79</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1AF9EEB1-188E-D04F-BFC1-EFAEB6262AF9}">
@@ -15766,7 +16256,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F41</xm:sqref>
+          <xm:sqref>F44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9CD05753-5724-2C45-B91F-77E4C9EC560D}">
@@ -15781,7 +16271,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F41</xm:sqref>
+          <xm:sqref>F44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8B854A83-959A-C440-898C-501D64548932}">
@@ -15796,7 +16286,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F41</xm:sqref>
+          <xm:sqref>F44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{422C01BA-0699-C446-AEE6-30E04170B4B2}">
@@ -15841,7 +16331,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F40</xm:sqref>
+          <xm:sqref>F43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E70DC10E-2576-2947-8D54-799D4D500F13}">
@@ -15871,7 +16361,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F40</xm:sqref>
+          <xm:sqref>F43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{089BA24B-7C6B-9545-8D21-BBE5C5EC2E7A}">
@@ -15886,7 +16376,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F40</xm:sqref>
+          <xm:sqref>F43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E4736ECF-786A-5A42-B4FF-EF8A0221C81D}">
@@ -15901,7 +16391,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F42</xm:sqref>
+          <xm:sqref>F45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6BA7FAAC-F6E3-8941-B8E1-5DAEC1E3653E}">
@@ -15916,7 +16406,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F42</xm:sqref>
+          <xm:sqref>F45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2EACD2EC-CDC7-2845-B140-417AFDA13CE4}">
@@ -15931,7 +16421,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F65</xm:sqref>
+          <xm:sqref>F68</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D109718A-7C8F-7B4C-A048-DCBA7091216B}">
@@ -15946,7 +16436,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F42</xm:sqref>
+          <xm:sqref>F45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D91CA485-8795-4541-ACDB-213678689900}">
@@ -15961,7 +16451,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F65</xm:sqref>
+          <xm:sqref>F68</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{54931082-0A87-0B46-A3AF-53B1C7E0349D}">
@@ -15976,7 +16466,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F68</xm:sqref>
+          <xm:sqref>F71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8F7A8332-D03B-1240-9256-E6C635F6B7AE}">
@@ -15991,7 +16481,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F68</xm:sqref>
+          <xm:sqref>F71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E48B6478-B85A-8C41-A036-8BC8C03FB567}">
@@ -16006,7 +16496,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F69</xm:sqref>
+          <xm:sqref>F72</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3B68B980-280F-9945-8E0B-02FC372E22F9}">
@@ -16021,7 +16511,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F69</xm:sqref>
+          <xm:sqref>F72</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1D482DD2-8610-4640-B157-28FF9AA8CCDD}">
@@ -16036,7 +16526,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F66</xm:sqref>
+          <xm:sqref>F69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0D505B2A-0E13-8049-BCF4-4C9D87A6E0BC}">
@@ -16051,7 +16541,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F67</xm:sqref>
+          <xm:sqref>F70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FCC18048-6B89-6146-824E-80010923D5A7}">
@@ -16066,7 +16556,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F66</xm:sqref>
+          <xm:sqref>F69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5DC30E2A-B088-054C-9638-C6035E3DA13E}">
@@ -16081,7 +16571,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F67</xm:sqref>
+          <xm:sqref>F70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6EA2D0C8-E64E-6C4E-871C-217798EE5D8E}">
@@ -16096,7 +16586,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F70</xm:sqref>
+          <xm:sqref>F73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7B793B46-8F8E-FA49-A58B-2611FA347C3D}">
@@ -16111,7 +16601,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F70</xm:sqref>
+          <xm:sqref>F73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A0FD18F1-2DDC-5F4A-9E5C-EEAD464B1296}">
@@ -16126,7 +16616,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F80:F81</xm:sqref>
+          <xm:sqref>F83:F84</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4C330308-C068-8B4D-8D83-6FEA4C284F6B}">
@@ -16141,7 +16631,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F85:F86</xm:sqref>
+          <xm:sqref>F88:F89</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2F75F22C-352D-4449-AB1D-3183DABFA100}">
@@ -16156,7 +16646,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F87</xm:sqref>
+          <xm:sqref>F90</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9BEEE57C-1DA9-C747-8E7C-346EB91B4E36}">
@@ -16171,7 +16661,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F88</xm:sqref>
+          <xm:sqref>F91</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4C31BB5A-AEE3-0846-8F27-557A287ED7BF}">
@@ -16231,7 +16721,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F91</xm:sqref>
+          <xm:sqref>F94</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7C55099D-FFDE-2145-8945-4CC62A21B3F5}">
@@ -16246,7 +16736,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G89</xm:sqref>
+          <xm:sqref>G92</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4476D606-ECB9-004B-B8E4-EFF5130FB18D}">
@@ -16261,7 +16751,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H89</xm:sqref>
+          <xm:sqref>H92</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9D0DC1B9-49F9-F443-815E-66C468AE9B91}">
@@ -16276,7 +16766,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H91</xm:sqref>
+          <xm:sqref>H94</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D56E6119-62DB-3F4F-8553-8F84F7A95988}">
@@ -16413,6 +16903,66 @@
           </x14:cfRule>
           <xm:sqref>F12</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A3F6DEA1-73EA-2546-A98F-5529D7C30F45}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B5796D3E-3052-1D4B-BAAD-D77D016806FE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A96F7E46-998C-2247-8029-244F0E6DCF1F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F2C7E8A5-282A-2A49-A775-D9BCD028C123}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F39</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
